--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -1738,7 +1738,7 @@
 </t>
   </si>
   <si>
-    <t>JP MedicationRequest DosageInstruction UsageDuration Extension</t>
+    <t>JP Core MedicationRequest DosageInstruction UsageDuration Extension</t>
   </si>
   <si>
     <t>隔日投与など、服⽤開始日から終了日までの日数と実投与日数が異なる場合に、実投与日数を明⽰したい場合に使⽤する拡張</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -12222,7 +12222,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>89</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -4293,43 +4293,43 @@
     <col min="1" max="1" width="78.8359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="27.47265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="82.3671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="124.42578125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="71.296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="59.37890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="128.4140625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="128.41796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -802,7 +802,7 @@
     <t>active | on-hold | cancelled | completed | entered-in-error | stopped | draft | unknown</t>
   </si>
   <si>
-    <t>JP coreでは"active"に固定される。
+    <t>JP Coreでは"active"に固定される。
 オーダーの現在の状態を示すコード。一般的には active か completed の状態であるだろう。</t>
   </si>
   <si>
@@ -860,7 +860,7 @@
     <t>proposal | plan | order | original-order | reflex-order | filler-order | instance-order | option</t>
   </si>
   <si>
-    <t>JP coreでは "order" に固定される。
+    <t>JP Coreでは "order" に固定される。
 投薬リクエストの意図 が提案(proposal)、計画(plan)、あるいは他の要求によるものかを示す。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -452,7 +452,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Preparation</t>
+    <t>preparation</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDispense_Preparation}
@@ -532,7 +532,7 @@
     <t>ORC-2-Placer Order Number / ORC-3-Filler Order Number</t>
   </si>
   <si>
-    <t>RpNumber</t>
+    <t>rpNumber</t>
   </si>
   <si>
     <t>処方箋内部の剤グループとしてのRp番号</t>
@@ -739,7 +739,7 @@
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
-    <t>OrderInRp</t>
+    <t>orderInRp</t>
   </si>
   <si>
     <t>【JP-CORE】同一RP番号（剤グループ）での薬剤の表記順</t>
@@ -766,7 +766,7 @@
     <t>剤グループ内連番。</t>
   </si>
   <si>
-    <t>RequestIdentifier</t>
+    <t>requestIdentifier</t>
   </si>
   <si>
     <t>処方オーダーに対するID</t>
@@ -1731,7 +1731,20 @@
     <t>MedicationRequest.dosageInstruction.extension</t>
   </si>
   <si>
-    <t>UsageDuration</t>
+    <t>periodOfUse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DosageInstruction_PeriodOfUse}
+</t>
+  </si>
+  <si>
+    <t>投与期間の開始日を明示するための拡張</t>
+  </si>
+  <si>
+    <t>MedcationRequestの投与期間の開始日を明示するための拡張</t>
+  </si>
+  <si>
+    <t>usageDuration</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DosageInstruction_UsageDuration}
@@ -1744,20 +1757,7 @@
     <t>隔日投与など、服⽤開始日から終了日までの日数と実投与日数が異なる場合に、実投与日数を明⽰したい場合に使⽤する拡張</t>
   </si>
   <si>
-    <t>PeriodOfUse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DosageInstruction_PeriodOfUse}
-</t>
-  </si>
-  <si>
-    <t>投与期間の開始日を明示するための拡張</t>
-  </si>
-  <si>
-    <t>MedcationRequestの投与期間の開始日を明示するための拡張</t>
-  </si>
-  <si>
-    <t>Line</t>
+    <t>line</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DosageInstruction_Line}
@@ -1770,7 +1770,7 @@
     <t>投与ラインの情報を記述する拡張。</t>
   </si>
   <si>
-    <t>Device</t>
+    <t>device</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DosageInstruction_Device}
@@ -3370,7 +3370,7 @@
     <t>MedicationRequest.dispenseRequest.extension</t>
   </si>
   <si>
-    <t>InstructionForDispense</t>
+    <t>instructionForDispense</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DispenseRequest_InstructionForDispense}
@@ -3416,7 +3416,7 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t>ExpectedRepeatCount</t>
+    <t>expectedRepeatCount</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DispenseRequest_ExpectedRepeatCount}

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -641,10 +641,10 @@
     <t>MedicationRequest.identifier.system</t>
   </si>
   <si>
-    <t>【JP-CORE】Rp番号(剤グループ番号)についてのsystem値</t>
-  </si>
-  <si>
-    <t>【JP-CORE】ここで付番されたIDがRp番号であることを明示するためにOIDとして定義された。urn:oid:1.2.392.100495.20.3.81で固定される。</t>
+    <t>Rp番号(剤グループ番号)についてのsystem値</t>
+  </si>
+  <si>
+    <t>ここで付番されたIDがRp番号であることを明示するためにOIDとして定義された。urn:oid:1.2.392.100495.20.3.81で固定される。</t>
   </si>
   <si>
     <t>Identifier.system is always case sensitive.</t>
@@ -671,13 +671,13 @@
     <t>MedicationRequest.identifier.value</t>
   </si>
   <si>
-    <t>【JP-CORE】Rp番号(剤グループ番号)</t>
-  </si>
-  <si>
-    <t>【JP-CORE】Rp番号(剤グループ番号)。"1"など。</t>
-  </si>
-  <si>
-    <t>【JP-CORE】value は string型であり、数値はゼロサプレス、つまり、'01'でなく'1'と指定すること。</t>
+    <t>Rp番号(剤グループ番号)</t>
+  </si>
+  <si>
+    <t>Rp番号(剤グループ番号)。"1"など。</t>
+  </si>
+  <si>
+    <t>value は string型であり、数値はゼロサプレス、つまり、'01'でなく'1'と指定すること。</t>
   </si>
   <si>
     <t>123456</t>
@@ -742,16 +742,16 @@
     <t>orderInRp</t>
   </si>
   <si>
-    <t>【JP-CORE】同一RP番号（剤グループ）での薬剤の表記順</t>
-  </si>
-  <si>
-    <t>【JP-CORE】同一剤グループでの薬剤を表記する際の順番。XML形式と異なりJSON形式の場合、表記順は項目の順序を意味しない。したがって、薬剤の記載順を別に規定する必要があるためIDを用いて表現する。</t>
-  </si>
-  <si>
-    <t>【JP-CORE】同一剤グループ内での薬剤の順番を1から順の番号で示す。</t>
-  </si>
-  <si>
-    <t>【JP-CORE】RP番号内（剤グループ内）の連番を示すsystem値</t>
+    <t>同一RP番号（剤グループ）での薬剤の表記順</t>
+  </si>
+  <si>
+    <t>同一剤グループでの薬剤を表記する際の順番。XML形式と異なりJSON形式の場合、表記順は項目の順序を意味しない。したがって、薬剤の記載順を別に規定する必要があるためIDを用いて表現する。</t>
+  </si>
+  <si>
+    <t>同一剤グループ内での薬剤の順番を1から順の番号で示す。</t>
+  </si>
+  <si>
+    <t>RP番号内（剤グループ内）の連番を示すsystem値</t>
   </si>
   <si>
     <t>剤グループ内番号の名前空間を識別するURI。固定値urn:oid:1.2.392.100495.20.3.82</t>
@@ -760,7 +760,7 @@
     <t>urn:oid:1.2.392.100495.20.3.82</t>
   </si>
   <si>
-    <t>【JP-CORE】RP番号内（剤グループ内）の連番</t>
+    <t>RP番号内（剤グループ内）の連番</t>
   </si>
   <si>
     <t>剤グループ内連番。</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -1852,10 +1852,10 @@
     <t>MedicationRequest.dosageInstruction.additionalInstruction</t>
   </si>
   <si>
-    <t>患者に対する補足指示や注意。たとえば、「食事と一緒に」「眠くなることがあります」</t>
-  </si>
-  <si>
-    <t>どのように薬剤を内服するかについての患者への補足指示（たとえば、「食事と一緒に」や「30分から1時間前に内服」）や薬剤についての注意書き（たとえば、「眠くなることがあります」や「日光や紫外線が皮膚にあたららないようにすること」）</t>
+    <t>患者に対する補足指示や注意。たとえば、「食事と一緒に」「眠くなることがある」</t>
+  </si>
+  <si>
+    <t>どのように薬剤を内服するかについての患者への補足指示（たとえば、「食事と一緒に」や「30分から1時間前に内服」）や薬剤についての注意書き（たとえば、「眠くなることがある」や「日光や紫外線が皮膚にあたららないようにすること」）</t>
   </si>
   <si>
     <t>薬剤投与や調剤についての情報（たとえば、「腹膜内ポートに可能な限り迅速に注入」や「薬剤Xの直後に」）であり、dosage.textにも複製されるべきである。</t>
@@ -2492,7 +2492,7 @@
     <t>BID | TID | QID | AM | PM | QD | QOD | +</t>
   </si>
   <si>
-    <t>スケジュール上のタイミングを表すコード（あるいはcode.text内のテキスト）。BID(1日2回)のようなコードはどこにでもあるが、多くの医療機関は付加的なコードを定義している。もし、コードが示されていれば、構造化されたタイミングで完全に示されたデータであると解釈され、コードまたはTimingを解釈するためのデータであると解釈される。しかし、例外的に.repeat.bounds（コードは含まれません)はコードを上書きして適用される。</t>
+    <t>スケジュール上のタイミングを表すコード（あるいはcode.text内のテキスト）。BID(1日2回)のようなコードはどこにでもあるが、多くの医療機関は付加的なコードを定義している。もし、コードが示されていれば、構造化されたタイミングで完全に示されたデータであると解釈され、コードまたはTimingを解釈するためのデータであると解釈される。しかし、例外的に.repeat.bounds（コードは含まれない)はコードを上書きして適用される。</t>
   </si>
   <si>
     <t>BIDなどは「施設特有の時間」として定義される。たとえば、施設がBIDを「つねに朝7時と夕方6時」であると指定することがある。この指定が不適切であれば、BIDというコードは使うべきではない。その代わり、HL7が定義したBIDのコードではなく、その施設特有のコードで明示的に示すべきであり、構造化された表現を使うべきである（この場合、2回のイベントの時刻を指定する必要がある）。</t>
@@ -2941,7 +2941,7 @@
     <t>1回投与量</t>
   </si>
   <si>
-    <t>この量は指定された薬剤の量を指定するものであって、各有効成分の量を指定するものではない。各成分の量はMedication resourceで伝えることができる。たとえば、有効成分が375mgである錠剤を1錠投与することを伝えたい場合、Medication resourceを利用して、XYZ成分が375mg含有しているという錠剤であることを文書化することができる。あるいは1回投与量が375mgであることを伝えるのであれば、Medication resourceをつかって単にそれが錠剤であることを示せばよい。もし、ドーパミンの静注を例に挙げて、400mgのドーパミンを500mlの注射溶液に混ぜて使うことを伝えたいのであれば、それをすべてMedication resourceで伝えることができる。もし、投与について即時に伝達することを意図していない（たとえば投与速度が示されていたり、投与時期に範囲があるような場合）のであれば、たとえば1回500mlを4時間以上かけて投与する予定を伝える場合にもMecication resourceで伝えることができます。</t>
+    <t>この量は指定された薬剤の量を指定するものであって、各有効成分の量を指定するものではない。各成分の量はMedication resourceで伝えることができる。たとえば、有効成分が375mgである錠剤を1錠投与することを伝えたい場合、Medication resourceを利用して、XYZ成分が375mg含有しているという錠剤であることを文書化することができる。あるいは1回投与量が375mgであることを伝えるのであれば、Medication resourceをつかって単にそれが錠剤であることを示せばよい。もし、ドーパミンの静注を例に挙げて、400mgのドーパミンを500mlの注射溶液に混ぜて使うことを伝えたいのであれば、それをすべてMedication resourceで伝えることができる。もし、投与について即時に伝達することを意図していない（たとえば投与速度が示されていたり、投与時期に範囲があるような場合）のであれば、たとえば1回500mlを4時間以上かけて投与する予定を伝える場合にもMecication resourceで伝えることができる。</t>
   </si>
   <si>
     <t>The amount of therapeutic or other substance given at one administration event.</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -3628,13 +3628,13 @@
     <t>MedicationRequest.dispenseRequest.numberOfRepeatsAllowed</t>
   </si>
   <si>
-    <t>許可された払い出し回数</t>
-  </si>
-  <si>
-    <t>最初の払い出しに追加で許可された払い出し回数（リフィル、日本では分割処方であるが制度的に一致しない)を示す整数であり、患者が処方された薬を受け取ることができる回数である。使用上の注意：この整数には最初の払い出しが含まれない。オーダーが「30錠に加えて3回繰り返し調剤可」であれば、このオーダーで合計4回、120錠が患者に受け渡される。処方者は0回のリフィルが許可されていると示すことで、初回の払い出し以外を認めないことを明示することができる。</t>
-  </si>
-  <si>
-    <t>もし、許可された払い出し回数を表示するのであれば、この数字に1を足すこと。</t>
+    <t>許可されたリフィル回数</t>
+  </si>
+  <si>
+    <t>リフィル回数を示す整数である。患者が処方された薬を最初の払い出しから追加で受け取ることができる回数である。使用上の注意：この整数には最初の払い出しが含まれない。オーダーが「30錠に加えて3回リフィル可」であれば、このオーダーで合計で最大4回、120錠が患者に受け渡される。この数字を0とすることで，処方者がリフィルを許可しないということを明示することができる。</t>
+  </si>
+  <si>
+    <t>許可された払い出し回数は，最大でこの数字に1を足したものである。</t>
   </si>
   <si>
     <t>Message/Body/NewRx/MedicationPrescribed/Quantity</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>
@@ -265,8 +265,8 @@
     <t>患者への薬の供給と注射や点滴の指示を共に提供するオーダ。ケアプランやワークフローパターンとハーモナイズし、入院や外来でも使えるようにするため、このリソースは"MedicationPrescription"や"MedicationOrder"ではなく、"MedicationRequest"と呼ばれる。JP_MedicationRequestBaseプロファイルからの派生プロファイルである。</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Request</t>
@@ -291,13 +291,13 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>このアーティファクトの論理ID / Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>リソースのURLで使用されるリソースの論理ID。割り当てられたら、この値は変更されません。 / The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>リソースにIDがないのは、IDが作成操作を使用してサーバーに送信されている場合です。 / The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -310,16 +310,16 @@
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>リソースに関するメタデータ / Metadata about the resource</t>
+  </si>
+  <si>
+    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -330,13 +330,13 @@
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -349,19 +349,19 @@
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>リソースコンテンツの言語 / Language of the resource content</t>
+  </si>
+  <si>
+    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>A human language.</t>
+    <t>人間の言語。 / A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -381,13 +381,13 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>人間の解釈のためのリソースのテキスト概要 / Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>含まれるリソースには叙述(Narative)がありません。含まれていないリソースには叙述(Narative)が必要です。場合によっては、リソースには、追加の個別のデータがほとんどまたはまったくないテキストのみがあります（すべてのMinoccur = 1要素が満たされている限り）。これは、情報がtext blob (バイナリー ラージ オブジェクト)としてキャプチャされるレガシーシステムからのデータ、またはテキストが生またはナレーションされ、エンコードされた情報が後で追加される場合に必要になる場合があります。 / Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -407,13 +407,13 @@
 </t>
   </si>
   <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>インラインリソースが含まれています / Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -445,8 +445,8 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>preparation</t>
@@ -473,17 +473,18 @@
 user content</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -544,10 +545,10 @@
     <t>MedicationRequest.identifier.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -559,10 +560,10 @@
     <t>MedicationRequest.identifier.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -574,22 +575,22 @@
     <t>MedicationRequest.identifier.use</t>
   </si>
   <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+    <t>通常|公式|温度|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>この識別子の目的。 / The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>アプリケーションは、識別子が一時的なものであると明示的に言っていない限り、永続的であると想定できます。 / Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>特定の使用のコンテキストが一連の識別子の中から選択される適切な識別子を許可します。 / Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
+    <t>既知の場合、この識別子の目的を識別します。 / Identifies the purpose for this identifier, if known .</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
@@ -608,22 +609,22 @@
 </t>
   </si>
   <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+    <t>識別子の説明 / Description of identifier</t>
+  </si>
+  <si>
+    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>この要素は、識別子の一般的なカテゴリのみを扱います。識別子。システムに対応するコードに使用しないでください。一部の識別子は、一般的な使用法により複数のカテゴリに分類される場合があります。システムがわかっている場合、タイプは常にシステム定義の一部であるため、タイプは不要です。ただし、システムが不明な識別子を処理する必要があることがよくあります。多くの異なるシステムが同じタイプを持っているため、タイプとシステムの間に1：1の関係はありません。 / This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>識別子システムが不明な場合、ユーザーは識別子を使用できます。 / Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
@@ -644,10 +645,10 @@
     <t>ここで付番されたIDがRp番号であることを明示するためにOIDとして定義された。urn:oid:1.2.392.100495.20.3.81で固定される。</t>
   </si>
   <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+    <t>識別子。システムは常にケースに敏感です。 / Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>識別子のセットがたくさんあります。2つの識別子を一致させるには、どのセットを扱っているかを知る必要があります。システムは、特定の一意の識別子セットを識別します。 / There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.100495.20.3.81</t>
@@ -696,10 +697,10 @@
 </t>
   </si>
   <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
+    <t>IDが使用に有効だった時間期間 / Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>識別子が使用される/有効な期間。 / Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
     <t>Identifier.period</t>
@@ -718,13 +719,13 @@
 </t>
   </si>
   <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+    <t>IDを発行した組織（単なるテキストである可能性があります） / Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>識別子を発行/管理する組織。 / Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>識別子は、.reference要素を省略し、割り当て組織に関する名前またはその他のテキスト情報を反映した.display要素のみを含む場合があります。 / The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
   </si>
   <si>
     <t>Identifier.assigner</t>
@@ -772,31 +773,31 @@
     <t>薬剤をオーダーする単位としての処方箋に対するID。MedicationRequestは単一の薬剤でインスタンスが作成されるが、それの集合としての処方箋のID。</t>
   </si>
   <si>
-    <t>This is a business identifier, not a resource identifier.</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+    <t>これはビジネス識別子であり、リソース識別子ではありません。 / This is a business identifier, not a resource identifier.</t>
+  </si>
+  <si>
+    <t>識別子値の名前空間 / The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>値の名前空間、つまり一意のセット値を記述するURLを確立します。 / Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Common/IdSystem/resourceInstance-identifier</t>
   </si>
   <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>一意の値 / The value that is unique</t>
+  </si>
+  <si>
+    <t>通常、識別子の部分はユーザーに関連し、システムのコンテキスト内で一意のユーザーに関連しています。 / The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>値が完全なURIの場合、システムはurn：ietf：rfc：3986でなければなりません。値の主な目的は、計算マッピングです。その結果、比較目的で正規化される可能性があります（例えば、有意でない白文字、ダッシュなどの削除）ヒューマンディスプレイ用の値は、[レンダリングされた値拡張]（拡張レンダリングValue.html）を使用して伝達できます。識別子。価値は、識別子の知識を使用しない限り、ケースに敏感なものとして扱われます。システムにより、プロセッサーは、非セイズに固有の処理が安全であると確信できます。 / If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>MedicationRequest.status</t>
   </si>
   <si>
-    <t>active | on-hold | cancelled | completed | entered-in-error | stopped | draft | unknown</t>
+    <t>アクティブ|オンホールド|キャンセル|完了|エラーに入った|停止|ドラフト|わからない / active | on-hold | cancelled | completed | entered-in-error | stopped | draft | unknown</t>
   </si>
   <si>
     <t>JP Coreでは"active"に固定される。
@@ -806,7 +807,7 @@
     <t>このエレメントはmodifierとされている。StatusとはこのResourceが現在妥当な状態ではないことも示すからである。</t>
   </si>
   <si>
-    <t>A coded concept specifying the state of the prescribing event. Describes the lifecycle of the prescription.</t>
+    <t>処方イベントの状態を指定するコード化された概念。処方箋のライフサイクルについて説明します。 / A coded concept specifying the state of the prescribing event. Describes the lifecycle of the prescription.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationrequest-status|4.0.1</t>
@@ -839,7 +840,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>Identifies the reasons for a given status.</t>
+    <t>特定のステータスの理由を特定します。 / Identifies the reasons for a given status.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationrequest-status-reason</t>
@@ -854,7 +855,7 @@
     <t>MedicationRequest.intent</t>
   </si>
   <si>
-    <t>proposal | plan | order | original-order | reflex-order | filler-order | instance-order | option</t>
+    <t>提案|計画|注文|オリジナルオーダー|反射順|フィラーオーダー|インスタンスオーダー|オプション / proposal | plan | order | original-order | reflex-order | filler-order | instance-order | option</t>
   </si>
   <si>
     <t>JP Coreでは "order" に固定される。
@@ -870,7 +871,7 @@
     <t>order</t>
   </si>
   <si>
-    <t>The kind of medication order.</t>
+    <t>種類の薬順。 / The kind of medication order.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationrequest-intent|4.0.1</t>
@@ -919,7 +920,7 @@
     <t>MedicationRequest.priority</t>
   </si>
   <si>
-    <t>routine | urgent | asap | stat</t>
+    <t>ルーチン|緊急|できるだけ早く|統計 / routine | urgent | asap | stat</t>
   </si>
   <si>
     <t>このMedicatinRequestオーダーの優先度。他のオーダーと比較して表現される。</t>
@@ -928,7 +929,7 @@
     <t>FHIRでは文字列の大きさが1MBを超えてはならない(SHALL NOT)。</t>
   </si>
   <si>
-    <t>Identifies the level of importance to be assigned to actioning the request.</t>
+    <t>リクエストの実行に割り当てられる重要性のレベルを特定します。 / Identifies the level of importance to be assigned to actioning the request.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
@@ -985,16 +986,16 @@
 Reference</t>
   </si>
   <si>
-    <t>Medication to be taken</t>
-  </si>
-  <si>
-    <t>Identifies the medication being requested. This is a link to a resource that represents the medication which may be the details of the medication or simply an attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the Medication resource is recommended.  For example, if you require form or lot number or if the medication is compounded or extemporaneously prepared, then you must reference the Medication resource.</t>
-  </si>
-  <si>
-    <t>A coded concept identifying substance or product that can be ordered.</t>
+    <t>服用する薬 / Medication to be taken</t>
+  </si>
+  <si>
+    <t>要求されている薬を特定します。これは、薬物の詳細である可能性のある薬物療法を表すリソースへのリンク、または単に既知の薬物のリストから薬物を識別するコードを運ぶ属性です。 / Identifies the medication being requested. This is a link to a resource that represents the medication which may be the details of the medication or simply an attribute carrying a code that identifies the medication from a known list of medications.</t>
+  </si>
+  <si>
+    <t>コードのみが指定されている場合、特定の製品のコードである必要があります。より多くの情報が必要な場合は、投薬リソースの使用をお勧めします。たとえば、フォームまたはロット番号が必要な場合、または薬物療法が複合または延長された場合は、薬リソースを参照する必要があります。 / If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the Medication resource is recommended.  For example, if you require form or lot number or if the medication is compounded or extemporaneously prepared, then you must reference the Medication resource.</t>
+  </si>
+  <si>
+    <t>注文できる物質または製品を識別するコード化された概念。 / A coded concept identifying substance or product that can be ordered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
@@ -1063,7 +1064,7 @@
 【JP-CORE】Medication要素の説明を参照のこと。</t>
   </si>
   <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+    <t>コードシステム内の代替エンコーディング、および他のコードシステムへの翻訳が可能になります。 / Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -1084,16 +1085,16 @@
     <t>MedicationRequest.medication[x].coding.system</t>
   </si>
   <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+    <t>用語システムのアイデンティティ / Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>コード内のシンボルの意味を定義するコードシステムの識別。 / The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>uriは、oid（urn：oid：...）またはuuid（urn：uuid：...）である場合があります。OIDとUUIDは、HL7 OIDレジストリへの参照となります。それ以外の場合、URIは、FHIRの特別なURIを定義したHL7のリストから来るか、システムを明確かつ明確に確立する定義を参照する必要があります。 / The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -1108,13 +1109,13 @@
     <t>MedicationRequest.medication[x].coding.version</t>
   </si>
   <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+    <t>システムのバージョン - 関連する場合 / Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>このコードを選択するときに使用されたコードシステムのバージョン。コードの意味がバージョン全体で一貫しているため、適切にメンテナンスしたコードシステムでは報告されたバージョンを必要としないことに注意してください。ただし、これは一貫して保証することはできず、意味が一貫していることが保証されていない場合、バージョンを交換する必要があります。 / The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>用語がコードシステムバージョンを識別するために使用する文字列を明確に定義していない場合、推奨は、そのバージョンがバージョンの日付として公式に公開された日付（FHIR日付形式で表現）を使用することです。 / Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
   </si>
   <si>
     <t>Coding.version</t>
@@ -1129,13 +1130,13 @@
     <t>MedicationRequest.medication[x].coding.code</t>
   </si>
   <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
+    <t>システムによって定義された構文のシンボル / Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>システムによって定義された構文のシンボル。シンボルは、定義されたコードまたはコーディングシステムによって定義された構文の式（例：調整後）である場合があります。 / A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>システム内の特定のコードを参照する必要があります。 / Need to refer to a particular code in the system.</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -1150,13 +1151,13 @@
     <t>MedicationRequest.medication[x].coding.display</t>
   </si>
   <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+    <t>システムによって定義された表現 / Representation defined by the system</t>
+  </si>
+  <si>
+    <t>システムのルールに従って、システム内のコードの意味の表現。 / A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>システムを知らない読者のために、コードの人間の読み取り可能な意味を持ち込むことができる必要があります。 / Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
   </si>
   <si>
     <t>Coding.display</t>
@@ -1177,7 +1178,7 @@
     <t>ユーザーが直接コーディングしたかどうかを示す。たとえば、有効な項目のリスト（コードか表現）から選択したかどうか。</t>
   </si>
   <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+    <t>これは、臨床安全基準として特定されています - この正確なシステム/コードペアは、いくつかのルールまたは言語処理に基づいてシステムによって推測されるのではなく、明示的に選択されたことです。 / This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
   </si>
   <si>
     <t>Coding.userSelected</t>
@@ -1201,7 +1202,7 @@
     <t>textエレメントはcodingのdisplayNameエレメントと一致することがよくある。</t>
   </si>
   <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+    <t>用語からのコードは、それらを使用する人間のすべてのニュアンスを使用して、常に正しい意味をキャプチャするとは限りません。または、適切なコードがまったくない場合があります。これらの場合、テキストはソースの完全な意味をキャプチャするために使用されます。 / The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
     <t>CodeableConcept.text</t>
@@ -1301,7 +1302,7 @@
     <t>このelementは参照の対象の型を指定するためのものである。他のElementで指定されていた型であってもなくても指定することができる。場合によっては、対象の型は参照（たとえば、RESTful URL)についての調査により決定されることもあるし、参照の対象から決定されることもある。もし、参照と型のどちらもが指定されていたら、参照は指定された型を決定されるべきである(SHALL)。</t>
   </si>
   <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+    <t>AAリソース（または、論理モデルの場合、論理モデルのURI）。 / Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/resource-types</t>
@@ -1334,13 +1335,13 @@
     <t>MedicationRequest.subject.display</t>
   </si>
   <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+    <t>リソースのテキスト代替 / Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>リソースリファレンスに加えてリソースを識別するプレーンテキストの叙述(Narative)。 / Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>これは通常、参照されるリソースのリソース.textと同じではありません。目的は、参照されているものを完全に説明するのではなく、特定することです。 / This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
   </si>
   <si>
     <t>Reference.display</t>
@@ -1479,7 +1480,7 @@
     <t>Performerを示さずにこのエレメントが指定された場合は、このエレメントは薬剤の投与／管理が指定の職種でなければならないと言うことを示している。Performerと共に指定された場合は、もし指定されたPerformerが実施できない場合に薬剤投与・管理を行うものについての要件が示されたことを意味する。</t>
   </si>
   <si>
-    <t>Identifies the type of individual that is desired to administer the medication.</t>
+    <t>薬を投与することが望まれる個人のタイプを識別します。 / Identifies the type of individual that is desired to administer the medication.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/performer-role</t>
@@ -1524,7 +1525,7 @@
     <t>このエレメントは病名コードであってもよい。もし、すべての条件を示す記録があって他の詳細な記録が必要であれば、reasonReferenceを使用すること。</t>
   </si>
   <si>
-    <t>A coded concept indicating why the medication was ordered.</t>
+    <t>薬が注文された理由を示すコード化された概念。 / A coded concept indicating why the medication was ordered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-code</t>
@@ -1647,7 +1648,7 @@
     <t>この属性は薬剤プロトコールと混同してはならない。</t>
   </si>
   <si>
-    <t>Identifies the overall pattern of medication administratio.</t>
+    <t>投薬投与の全体的なパターンを特定します。 / Identifies the overall pattern of medication administratio.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationrequest-course-of-therapy</t>
@@ -1787,10 +1788,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -1861,7 +1863,7 @@
     <t>補足指示はコード化されるように意図されているが、コードがない場合はエレメントはテキストだけで表現することができる。たとえば、「大量の水で服用する」という指示はコード化されていることもあれば、されていないことおある。</t>
   </si>
   <si>
-    <t>A coded concept identifying additional instructions such as "take with water" or "avoid operating heavy machinery".</t>
+    <t>「水で取る」や「重機の操作を避ける」などの追加の指示を識別するコード化された概念。 / A coded concept identifying additional instructions such as "take with water" or "avoid operating heavy machinery".</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/additional-instruction-codes</t>
@@ -2030,7 +2032,7 @@
     <t>服⽤タイミングを具体的な日時で指定する場合に使⽤する</t>
   </si>
   <si>
-    <t>In a Medication Administration Record, for instance, you need to take a general specification, and turn it into a precise specification.</t>
+    <t>たとえば、投薬投与の記録では、一般的な仕様を取得し、それを正確な仕様に変える必要があります。 / In a Medication Administration Record, for instance, you need to take a general specification, and turn it into a precise specification.</t>
   </si>
   <si>
     <t>Timing.event</t>
@@ -2058,8 +2060,8 @@
     <t>Timing.repeat</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-tim-1:if there's a duration, there needs to be duration units {duration.empty() or durationUnit.exists()}tim-2:if there's a period, there needs to be period units {period.empty() or periodUnit.exists()}tim-4:duration SHALL be a non-negative value {duration.exists() implies duration &gt;= 0}tim-5:period SHALL be a non-negative value {period.exists() implies period &gt;= 0}tim-6:If there's a periodMax, there must be a period {periodMax.empty() or period.exists()}tim-7:If there's a durationMax, there must be a duration {durationMax.empty() or duration.exists()}tim-8:If there's a countMax, there must be a count {countMax.empty() or count.exists()}tim-9:If there's an offset, there must be a when (and not C, CM, CD, CV) {offset.empty() or (when.exists() and ((when in ('C' | 'CM' | 'CD' | 'CV')).not()))}tim-10:If there's a timeOfDay, there cannot be a when, or vice versa {timeOfDay.empty() or when.empty()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+tim-1:期間がある場合は、期間単位が必要です / if there's a duration, there needs to be duration units {duration.empty() or durationUnit.exists()}tim-2:期間がある場合、期間単位が必要です / if there's a period, there needs to be period units {period.empty() or periodUnit.exists()}tim-4:期間は非陰性価値です / duration SHALL be a non-negative value {duration.exists() implies duration &gt;= 0}tim-5:期間は非陰性の価値です / period SHALL be a non-negative value {period.exists() implies period &gt;= 0}tim-6:期間がある場合、期間がなければなりません / If there's a periodMax, there must be a period {periodMax.empty() or period.exists()}tim-7:Hurtermaxがある場合、期間がなければなりません / If there's a durationMax, there must be a duration {durationMax.empty() or duration.exists()}tim-8:countmaxがある場合、カウントが必要です / If there's a countMax, there must be a count {countMax.empty() or count.exists()}tim-9:オフセットがある場合、c、cm、cd、cvではなく（c、cvではない）存在する必要があります。 / If there's an offset, there must be a when (and not C, CM, CD, CV) {offset.empty() or (when.exists() and ((when in ('C' | 'CM' | 'CD' | 'CV')).not()))}tim-10:時間がある場合、いつ、またはその逆もありません / If there's a timeOfDay, there cannot be a when, or vice versa {timeOfDay.empty() or when.empty()}</t>
   </si>
   <si>
     <t>Implies PIVL or EIVL</t>
@@ -2097,10 +2099,10 @@
 </t>
   </si>
   <si>
-    <t>Length/Range of lengths, or (Start and/or end) limits</t>
-  </si>
-  <si>
-    <t>Either a duration for the length of the timing schedule, a range of possible length, or outer bounds for start and/or end limits of the timing schedule.</t>
+    <t>長さ/長さの範囲、または（開始および/または終了）制限 / Length/Range of lengths, or (Start and/or end) limits</t>
+  </si>
+  <si>
+    <t>タイミングスケジュールの長さの期間、可能な長さの範囲、またはタイミングスケジュールの開始および/または終了制限の外側の境界のいずれか。 / Either a duration for the length of the timing schedule, a range of possible length, or outer bounds for start and/or end limits of the timing schedule.</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.timing.repeat.bounds[x].id</t>
@@ -2119,10 +2121,10 @@
     <t>投薬日数</t>
   </si>
   <si>
-    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
-  </si>
-  <si>
-    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+    <t>値の暗黙の精度は常に尊重されるべきです。金銭的価値には、精度を処理するための独自のルールがあります（標準的な会計の教科書を参照）。 / The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>精度は、測定のほとんどすべての場合に暗黙的に処理されます。 / Precision is handled implicitly in almost all cases of measurement.</t>
   </si>
   <si>
     <t>Quantity.value</t>
@@ -2137,19 +2139,19 @@
     <t>MedicationRequest.dosageInstruction.timing.repeat.bounds[x].comparator</t>
   </si>
   <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
-  </si>
-  <si>
-    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
-  </si>
-  <si>
-    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
-  </si>
-  <si>
-    <t>If there is no comparator, then there is no modification of the value</t>
-  </si>
-  <si>
-    <t>How the Quantity should be understood and represented.</t>
+    <t>&lt;|&lt;= |&gt; = |&gt;  - 価値を理解する方法 / &lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>値をどのように理解し、表現する必要があるか - 測定の問題により実際の値が記載されている値よりも大きいか小さいかどうか。例えばコンパレータが「&lt;」の場合、実際の値は&lt;stated値です。 / How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
+  </si>
+  <si>
+    <t>測定方法の制限があるため、値が&lt;5ug/Lまたは&gt; 400mg/Lの測定値を処理するためのフレームワークが必要です。 / Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>コンパレータがない場合、値の変更はありません / If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>量を理解し、表現する方法。 / How the Quantity should be understood and represented.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
@@ -2173,7 +2175,7 @@
     <t>投薬日数の単位文字列。日で固定される</t>
   </si>
   <si>
-    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+    <t>測定単位には多くの表現があり、多くのコンテキストでは、特定の表現が固定され、必要です。すなわちマイクログラム用MCG。 / There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
   </si>
   <si>
     <t>日</t>
@@ -2197,7 +2199,7 @@
     <t>単位コード UCUMを識別するURI。固定値。</t>
   </si>
   <si>
-    <t>Need to know the system that defines the coded form of the unit.</t>
+    <t>ユニットのコード化された形式を定義するシステムを知る必要があります。 / Need to know the system that defines the coded form of the unit.</t>
   </si>
   <si>
     <t>http://unitsofmeasure.org</t>
@@ -2222,10 +2224,10 @@
     <t>単位コードUCUMにおける投与日数の単位。dで固定される。</t>
   </si>
   <si>
-    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
-  </si>
-  <si>
-    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+    <t>優先システムはUCUMですが、スノムCTは（慣習ユニットに）または通貨にISO 4217を使用することもできます。使用のコンテキストには、特定のシステムからのコードがさらに必要になる場合があります。 / The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>すべてのフォームに固定されたユニットの計算可能な形式が必要です。UCUMはこれを数量で提供しますが、Snomed CTは多くの関心のある単位を提供します。 / Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
   </si>
   <si>
     <t>d</t>
@@ -2253,7 +2255,7 @@
     <t>回数に上限、下限の範囲がある場合は、このcountで示される回数が起きるまでは、エレメントは範囲の中にあると解釈されるべきである。</t>
   </si>
   <si>
-    <t>Repetitions may be limited by end time or total occurrences.</t>
+    <t>繰り返しは、終了時間または合計発生によって制限される場合があります。 / Repetitions may be limited by end time or total occurrences.</t>
   </si>
   <si>
     <t>Timing.repeat.count</t>
@@ -2313,13 +2315,13 @@
     <t>MedicationRequest.dosageInstruction.timing.repeat.durationUnit</t>
   </si>
   <si>
-    <t>s | min | h | d | wk | mo | a - unit of time (UCUM)</t>
+    <t>s |min |h |d |wk |mo |A-時間単位（ucum） / s | min | h | d | wk | mo | a - unit of time (UCUM)</t>
   </si>
   <si>
     <t>UCUM単位で表される継続時間についての単位。</t>
   </si>
   <si>
-    <t>A unit of time (units from UCUM).</t>
+    <t>時間単位（UCUMからの単位）。 / A unit of time (units from UCUM).</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/units-of-time|4.0.1</t>
@@ -2343,7 +2345,7 @@
     <t>32ビットの数値。もし、値がそれを上回るようであればdecimalを使用する。</t>
   </si>
   <si>
-    <t>If no frequency is stated, the assumption is that the event occurs once per period, but systems SHOULD always be specific about this</t>
+    <t>頻度が記載されていない場合、イベントは期間ごとに1回発生するという仮定ですが、システムは常にこれについて具体的でなければなりません / If no frequency is stated, the assumption is that the event occurs once per period, but systems SHOULD always be specific about this</t>
   </si>
   <si>
     <t>Timing.repeat.frequency</t>
@@ -2403,7 +2405,7 @@
     <t>MedicationRequest.dosageInstruction.timing.repeat.dayOfWeek</t>
   </si>
   <si>
-    <t>mon | tue | wed | thu | fri | sat | sun</t>
+    <t>月|火|水|木|金|土|太陽 / mon | tue | wed | thu | fri | sat | sun</t>
   </si>
   <si>
     <t>期間として1週間以上が指定されていれば、指定された曜日のみで投与が行われる。</t>
@@ -2452,7 +2454,7 @@
     <t>タイミングはしばしば起床や食事、睡眠などのできごとによってしばしば決定されている。</t>
   </si>
   <si>
-    <t>Real world event relating to the schedule.</t>
+    <t>スケジュールに関連する現実世界のイベント。 / Real world event relating to the schedule.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/event-timing|4.0.1</t>
@@ -2486,7 +2488,7 @@
     <t>MedicationRequest.dosageInstruction.timing.code</t>
   </si>
   <si>
-    <t>BID | TID | QID | AM | PM | QD | QOD | +</t>
+    <t>入札|TID |QID |AM |PM |QD |qod |+ / BID | TID | QID | AM | PM | QD | QOD | +</t>
   </si>
   <si>
     <t>スケジュール上のタイミングを表すコード（あるいはcode.text内のテキスト）。BID(1日2回)のようなコードはどこにでもあるが、多くの医療機関は付加的なコードを定義している。もし、コードが示されていれば、構造化されたタイミングで完全に示されたデータであると解釈され、コードまたはTimingを解釈するためのデータであると解釈される。しかし、例外的に.repeat.bounds（コードは含まれない)はコードを上書きして適用される。</t>
@@ -2495,7 +2497,7 @@
     <t>BIDなどは「施設特有の時間」として定義される。たとえば、施設がBIDを「つねに朝7時と夕方6時」であると指定することがある。この指定が不適切であれば、BIDというコードは使うべきではない。その代わり、HL7が定義したBIDのコードではなく、その施設特有のコードで明示的に示すべきであり、構造化された表現を使うべきである（この場合、2回のイベントの時刻を指定する必要がある）。</t>
   </si>
   <si>
-    <t>Code for a known / defined timing pattern.</t>
+    <t>既知 /定義されたタイミングパターンのコード。 / Code for a known / defined timing pattern.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/timing-abbreviation</t>
@@ -2517,7 +2519,7 @@
 Medication(薬剤)が必要なときに指定された量とスケジュールのみで内服するか（Booleanで選択される）、内服する前提条件(CodeableConcept)を示している。</t>
   </si>
   <si>
-    <t>Can express "as needed" without a reason by setting the Boolean = True.  In this case the CodeableConcept is not populated.  Or you can express "as needed" with a reason by including the CodeableConcept.  In this case the Boolean is assumed to be True.  If you set the Boolean to False, then the dose is given according to the schedule and is not "prn" or "as needed".</t>
+    <t>boolean = trueを設定することにより、理由なしに「必要に応じて」表現できます。この場合、codeableconceptは存在しません。または、Codeableconceptを含めることにより、「必要に応じて」理由で「必要に応じて」表現することができます。この場合、ブール値は真であると想定されています。ブール値をfalseに設定すると、用量はスケジュールに従って与えられ、「PRN」または「必要に応じて」ではありません。 / Can express "as needed" without a reason by setting the Boolean = True.  In this case the CodeableConcept is not populated.  Or you can express "as needed" with a reason by including the CodeableConcept.  In this case the Boolean is assumed to be True.  If you set the Boolean to False, then the dose is given according to the schedule and is not "prn" or "as needed".</t>
   </si>
   <si>
     <t>Dosage.asNeeded[x]</t>
@@ -2541,10 +2543,10 @@
     <t>もし、BodySite resourceの属性が必要な場合(たとえば、部位の指定や別々に投与経路を設定する場合)は、[bodySite](extension-bodysite.html)の標準拡張を使うこと。要約コードや非常に正確な位置の定義へのreferenceを使用することもできる。</t>
   </si>
   <si>
-    <t>A coded specification of the anatomic site where the medication first enters the body.</t>
-  </si>
-  <si>
-    <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
+    <t>薬が最初に体に入る解剖学的部位のコード化された仕様。 / A coded specification of the anatomic site where the medication first enters the body.</t>
+  </si>
+  <si>
+    <t>薬が身体に入る、または体に入るサイトの場所を説明するコード化された概念。 / A coded concept describing the site location the medicine enters into or onto the body.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
@@ -2628,7 +2630,7 @@
     <t>治療薬剤が患者の体内に投与される生理学的な経路を特定するためのコード。</t>
   </si>
   <si>
-    <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
+    <t>被験者の体への、またはそれへの治療剤の投与の経路または生理学的経路を説明するコード化された概念。 / A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/route-codes</t>
@@ -2715,7 +2717,7 @@
     <t>コード化された値は体内に薬剤が投与される方法を示している。注射ではよく使われる。たとえば、緩徐に注入、深部に静注など。</t>
   </si>
   <si>
-    <t>A coded concept describing the technique by which the medicine is administered.</t>
+    <t>薬が投与される手法を説明するコード化された概念。 / A coded concept describing the technique by which the medicine is administered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
@@ -2739,13 +2741,13 @@
     <t>MedicationRequest.dosageInstruction.method.coding</t>
   </si>
   <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+    <t>用語システムによって定義されたコード / Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>用語システムによって定義されたコードへの参照。 / A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>コードは、列挙されたCTなどの非常に正式な定義まで、列挙またはコードリストで非常にさりげなく定義される場合があります。詳細については、HL7 V3コアプリンシップを参照してください。コーディングの順序付けは未定義であり、意味を推測するために使用されません。一般に、せいぜい、コーディング値の1つのみがuserselected = trueとしてラベル付けされます。 / Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
   </si>
   <si>
     <t>unitDigit1</t>
@@ -2868,7 +2870,7 @@
     <t>このtypeに値が指定されていなければ、"ordered"であることが想定される。</t>
   </si>
   <si>
-    <t>The kind of dose or rate specified.</t>
+    <t>指定された用量またはレートの種類。 / The kind of dose or rate specified.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/dose-rate-type</t>
@@ -2941,14 +2943,14 @@
     <t>この量は指定された薬剤の量を指定するものであって、各有効成分の量を指定するものではない。各成分の量はMedication resourceで伝えることができる。たとえば、有効成分が375mgである錠剤を1錠投与することを伝えたい場合、Medication resourceを利用して、XYZ成分が375mg含有しているという錠剤であることを文書化することができる。あるいは1回投与量が375mgであることを伝えるのであれば、Medication resourceをつかって単にそれが錠剤であることを示せばよい。もし、ドーパミンの静注を例に挙げて、400mgのドーパミンを500mlの注射溶液に混ぜて使うことを伝えたいのであれば、それをすべてMedication resourceで伝えることができる。もし、投与について即時に伝達することを意図していない（たとえば投与速度が示されていたり、投与時期に範囲があるような場合）のであれば、たとえば1回500mlを4時間以上かけて投与する予定を伝える場合にもMecication resourceで伝えることができる。</t>
   </si>
   <si>
-    <t>The amount of therapeutic or other substance given at one administration event.</t>
+    <t>1つの投与イベントで与えられた治療またはその他の物質の量。 / The amount of therapeutic or other substance given at one administration event.</t>
   </si>
   <si>
     <t>Dosage.doseAndRate.dose[x]</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:ユニットのコードが存在する場合、システムも存在するものとします / If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:コンパレータは、単純なQuantityで使用されません / The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
   </si>
   <si>
     <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
@@ -2969,16 +2971,16 @@
     <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].comparator</t>
   </si>
   <si>
-    <t>Not allowed to be used in this context</t>
+    <t>この文脈で使用することは許可されていません / Not allowed to be used in this context</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].unit</t>
   </si>
   <si>
-    <t>Unit representation</t>
-  </si>
-  <si>
-    <t>A human-readable form of the unit.</t>
+    <t>ユニット表現 / Unit representation</t>
+  </si>
+  <si>
+    <t>ユニットの人間の読み取り可能な形式。 / A human-readable form of the unit.</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].system</t>
@@ -3389,13 +3391,13 @@
     <t>MedicationRequest.dispenseRequest.extension.url</t>
   </si>
   <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+    <t>拡張機能の意味を識別します / identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>拡張コードの定義のソース - 論理名またはURL。 / Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>定義は、拡張性コードの計算可能または人間が読み取る可能性のある定義を直接指している場合があります。または、他の仕様で宣言されているように、論理的なURIである場合があります。定義は、拡張機能を定義する構造定義のURIでなければなりません。 / The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DispenseRequest_InstructionForDispense</t>
@@ -3555,10 +3557,10 @@
     <t>このエレメントは処方の有効期間（処方が失効する日）を示す。</t>
   </si>
   <si>
-    <t>It reflects the prescribers' perspective for the validity of the prescription. Dispenses must not be made against the prescription outside of this period. The lower-bound of the Dispensing Window signifies the earliest date that the prescription can be filled for the first time. If an upper-bound is not specified then the Prescription is open-ended or will default to a stale-date based on regulations.</t>
-  </si>
-  <si>
-    <t>Indicates when the Prescription becomes valid, and when it ceases to be a dispensable Prescription.</t>
+    <t>それは、処方箋の妥当性に対する処方者の視点を反映しています。この期間以外の処方箋に対して分配してはなりません。分配ウィンドウの下限は、処方箋が初めて満たすことができる最も早い日付を意味します。上限が指定されていない場合、処方箋はオープンエンドであるか、規制に基づいて古い日付にデフォルトになります。 / It reflects the prescribers' perspective for the validity of the prescription. Dispenses must not be made against the prescription outside of this period. The lower-bound of the Dispensing Window signifies the earliest date that the prescription can be filled for the first time. If an upper-bound is not specified then the Prescription is open-ended or will default to a stale-date based on regulations.</t>
+  </si>
+  <si>
+    <t>処方箋がいつ有効になるか、そしてそれが不可欠な処方箋であることを停止することを示します。 / Indicates when the Prescription becomes valid, and when it ceases to be a dispensable Prescription.</t>
   </si>
   <si>
     <t>Message/Body/NewRx/MedicationPrescribed/Refills</t>
@@ -3610,7 +3612,7 @@
     <t>終了時刻は全ての日付・時刻に対応する。たとえば、2012-02-03T10:00:00は2012-02-03を終了時刻(end)の値とする期間を示す。</t>
   </si>
   <si>
-    <t>If the end of the period is missing, it means that the period is ongoing</t>
+    <t>期間の終了が欠落している場合、それは期間が進行中であることを意味します / If the end of the period is missing, it means that the period is ongoing</t>
   </si>
   <si>
     <t>Period.end</t>
@@ -3797,7 +3799,7 @@
     <t>代替品が許可されるかどうかは無視できないので、このエレメントはmodifierとしてラベルされる。</t>
   </si>
   <si>
-    <t>Identifies the type of substitution allowed.</t>
+    <t>許可された置換の種類を識別します。 / Identifies the type of substitution allowed.</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-ActSubstanceAdminSubstitutionCode</t>
@@ -3860,25 +3862,25 @@
     <t>MedicationRequest.substitution.allowed[x].coding.userSelected</t>
   </si>
   <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+    <t>このコーディングがユーザーによって直接選択された場合 / If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>このコーディングがユーザーによって直接選択されたことを示します。利用可能なアイテムのピックリスト（コードまたはディスプレイ）。 / Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>一連の代替案の中で、直接選択されたコードが新しい翻訳の最も適切な出発点です。この要素の使用とその結果をより完全に明確にするためには、「直接選択された」ことについては曖昧さがあり、取引パートナー契約が必要になる場合があります。 / Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
   </si>
   <si>
     <t>MedicationRequest.substitution.allowed[x].text</t>
   </si>
   <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
+    <t>コンセプトの単純なテキスト表現 / Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>データを入力したユーザー、および/またはユーザーの意図された意味を表すユーザーによって見られる/選択/発言された概念の人間の言語表現。 / A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>多くの場合、テキストはコーディングの1つの表示名と同じです。 / Very often the text is the same as a displayName of one of the codings.</t>
   </si>
   <si>
     <t>MedicationRequest.substitution.reason</t>
@@ -3893,7 +3895,7 @@
     <t>代替品の理由を表す一般的パターンに全てのターミノロジーが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。</t>
   </si>
   <si>
-    <t>A coded concept describing the reason that a different medication should (or should not) be substituted from what was prescribed.</t>
+    <t>別の薬物療法が処方されたものから置き換える（またはすべきではない）理由を説明するコード化された概念。 / A coded concept describing the reason that a different medication should (or should not) be substituted from what was prescribed.</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-SubstanceAdminSubstitutionReason</t>
@@ -4295,7 +4297,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="82.3671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="133.58203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4308,7 +4310,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="124.42578125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="179.01953125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="71.296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -265,8 +265,8 @@
     <t>患者への薬の供給と注射や点滴の指示を共に提供するオーダ。ケアプランやワークフローパターンとハーモナイズし、入院や外来でも使えるようにするため、このリソースは"MedicationPrescription"や"MedicationOrder"ではなく、"MedicationRequest"と呼ばれる。JP_MedicationRequestBaseプロファイルからの派生プロファイルである。</t>
   </si>
   <si>
-    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Request</t>
@@ -291,13 +291,13 @@
 </t>
   </si>
   <si>
-    <t>このアーティファクトの論理ID / Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>リソースのURLで使用されるリソースの論理ID。割り当てられたら、この値は変更されません。 / The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>リソースにIDがないのは、IDが作成操作を使用してサーバーに送信されている場合です。 / The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -310,16 +310,16 @@
 </t>
   </si>
   <si>
-    <t>リソースに関するメタデータ / Metadata about the resource</t>
-  </si>
-  <si>
-    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -330,13 +330,13 @@
 </t>
   </si>
   <si>
-    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -349,19 +349,19 @@
 </t>
   </si>
   <si>
-    <t>リソースコンテンツの言語 / Language of the resource content</t>
-  </si>
-  <si>
-    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>人間の言語。 / A human language.</t>
+    <t>A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -381,13 +381,13 @@
 </t>
   </si>
   <si>
-    <t>人間の解釈のためのリソースのテキスト概要 / Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>含まれるリソースには叙述(Narative)がありません。含まれていないリソースには叙述(Narative)が必要です。場合によっては、リソースには、追加の個別のデータがほとんどまたはまったくないテキストのみがあります（すべてのMinoccur = 1要素が満たされている限り）。これは、情報がtext blob (バイナリー ラージ オブジェクト)としてキャプチャされるレガシーシステムからのデータ、またはテキストが生またはナレーションされ、エンコードされた情報が後で追加される場合に必要になる場合があります。 / Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -407,13 +407,13 @@
 </t>
   </si>
   <si>
-    <t>インラインリソースが含まれています / Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -445,8 +445,8 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>preparation</t>
@@ -473,18 +473,17 @@
 user content</t>
   </si>
   <si>
-    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
-モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -545,10 +544,10 @@
     <t>MedicationRequest.identifier.id</t>
   </si>
   <si>
-    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -560,10 +559,10 @@
     <t>MedicationRequest.identifier.extension</t>
   </si>
   <si>
-    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -575,22 +574,22 @@
     <t>MedicationRequest.identifier.use</t>
   </si>
   <si>
-    <t>通常|公式|温度|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>この識別子の目的。 / The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>アプリケーションは、識別子が一時的なものであると明示的に言っていない限り、永続的であると想定できます。 / Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>特定の使用のコンテキストが一連の識別子の中から選択される適切な識別子を許可します。 / Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>既知の場合、この識別子の目的を識別します。 / Identifies the purpose for this identifier, if known .</t>
+    <t>Identifies the purpose for this identifier, if known .</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
@@ -609,22 +608,22 @@
 </t>
   </si>
   <si>
-    <t>識別子の説明 / Description of identifier</t>
-  </si>
-  <si>
-    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>この要素は、識別子の一般的なカテゴリのみを扱います。識別子。システムに対応するコードに使用しないでください。一部の識別子は、一般的な使用法により複数のカテゴリに分類される場合があります。システムがわかっている場合、タイプは常にシステム定義の一部であるため、タイプは不要です。ただし、システムが不明な識別子を処理する必要があることがよくあります。多くの異なるシステムが同じタイプを持っているため、タイプとシステムの間に1：1の関係はありません。 / This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>識別子システムが不明な場合、ユーザーは識別子を使用できます。 / Allows users to make use of identifiers when the identifier system is not known.</t>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
@@ -645,10 +644,10 @@
     <t>ここで付番されたIDがRp番号であることを明示するためにOIDとして定義された。urn:oid:1.2.392.100495.20.3.81で固定される。</t>
   </si>
   <si>
-    <t>識別子。システムは常にケースに敏感です。 / Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>識別子のセットがたくさんあります。2つの識別子を一致させるには、どのセットを扱っているかを知る必要があります。システムは、特定の一意の識別子セットを識別します。 / There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.100495.20.3.81</t>
@@ -697,10 +696,10 @@
 </t>
   </si>
   <si>
-    <t>IDが使用に有効だった時間期間 / Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>識別子が使用される/有効な期間。 / Time period during which identifier is/was valid for use.</t>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
     <t>Identifier.period</t>
@@ -719,13 +718,13 @@
 </t>
   </si>
   <si>
-    <t>IDを発行した組織（単なるテキストである可能性があります） / Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>識別子を発行/管理する組織。 / Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>識別子は、.reference要素を省略し、割り当て組織に関する名前またはその他のテキスト情報を反映した.display要素のみを含む場合があります。 / The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
   </si>
   <si>
     <t>Identifier.assigner</t>
@@ -773,31 +772,31 @@
     <t>薬剤をオーダーする単位としての処方箋に対するID。MedicationRequestは単一の薬剤でインスタンスが作成されるが、それの集合としての処方箋のID。</t>
   </si>
   <si>
-    <t>これはビジネス識別子であり、リソース識別子ではありません。 / This is a business identifier, not a resource identifier.</t>
-  </si>
-  <si>
-    <t>識別子値の名前空間 / The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>値の名前空間、つまり一意のセット値を記述するURLを確立します。 / Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+    <t>This is a business identifier, not a resource identifier.</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Common/IdSystem/resourceInstance-identifier</t>
   </si>
   <si>
-    <t>一意の値 / The value that is unique</t>
-  </si>
-  <si>
-    <t>通常、識別子の部分はユーザーに関連し、システムのコンテキスト内で一意のユーザーに関連しています。 / The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>値が完全なURIの場合、システムはurn：ietf：rfc：3986でなければなりません。値の主な目的は、計算マッピングです。その結果、比較目的で正規化される可能性があります（例えば、有意でない白文字、ダッシュなどの削除）ヒューマンディスプレイ用の値は、[レンダリングされた値拡張]（拡張レンダリングValue.html）を使用して伝達できます。識別子。価値は、識別子の知識を使用しない限り、ケースに敏感なものとして扱われます。システムにより、プロセッサーは、非セイズに固有の処理が安全であると確信できます。 / If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>MedicationRequest.status</t>
   </si>
   <si>
-    <t>アクティブ|オンホールド|キャンセル|完了|エラーに入った|停止|ドラフト|わからない / active | on-hold | cancelled | completed | entered-in-error | stopped | draft | unknown</t>
+    <t>active | on-hold | cancelled | completed | entered-in-error | stopped | draft | unknown</t>
   </si>
   <si>
     <t>JP Coreでは"active"に固定される。
@@ -807,7 +806,7 @@
     <t>このエレメントはmodifierとされている。StatusとはこのResourceが現在妥当な状態ではないことも示すからである。</t>
   </si>
   <si>
-    <t>処方イベントの状態を指定するコード化された概念。処方箋のライフサイクルについて説明します。 / A coded concept specifying the state of the prescribing event. Describes the lifecycle of the prescription.</t>
+    <t>A coded concept specifying the state of the prescribing event. Describes the lifecycle of the prescription.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationrequest-status|4.0.1</t>
@@ -840,7 +839,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>特定のステータスの理由を特定します。 / Identifies the reasons for a given status.</t>
+    <t>Identifies the reasons for a given status.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationrequest-status-reason</t>
@@ -855,7 +854,7 @@
     <t>MedicationRequest.intent</t>
   </si>
   <si>
-    <t>提案|計画|注文|オリジナルオーダー|反射順|フィラーオーダー|インスタンスオーダー|オプション / proposal | plan | order | original-order | reflex-order | filler-order | instance-order | option</t>
+    <t>proposal | plan | order | original-order | reflex-order | filler-order | instance-order | option</t>
   </si>
   <si>
     <t>JP Coreでは "order" に固定される。
@@ -871,7 +870,7 @@
     <t>order</t>
   </si>
   <si>
-    <t>種類の薬順。 / The kind of medication order.</t>
+    <t>The kind of medication order.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationrequest-intent|4.0.1</t>
@@ -920,7 +919,7 @@
     <t>MedicationRequest.priority</t>
   </si>
   <si>
-    <t>ルーチン|緊急|できるだけ早く|統計 / routine | urgent | asap | stat</t>
+    <t>routine | urgent | asap | stat</t>
   </si>
   <si>
     <t>このMedicatinRequestオーダーの優先度。他のオーダーと比較して表現される。</t>
@@ -929,7 +928,7 @@
     <t>FHIRでは文字列の大きさが1MBを超えてはならない(SHALL NOT)。</t>
   </si>
   <si>
-    <t>リクエストの実行に割り当てられる重要性のレベルを特定します。 / Identifies the level of importance to be assigned to actioning the request.</t>
+    <t>Identifies the level of importance to be assigned to actioning the request.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
@@ -986,16 +985,16 @@
 Reference</t>
   </si>
   <si>
-    <t>服用する薬 / Medication to be taken</t>
-  </si>
-  <si>
-    <t>要求されている薬を特定します。これは、薬物の詳細である可能性のある薬物療法を表すリソースへのリンク、または単に既知の薬物のリストから薬物を識別するコードを運ぶ属性です。 / Identifies the medication being requested. This is a link to a resource that represents the medication which may be the details of the medication or simply an attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>コードのみが指定されている場合、特定の製品のコードである必要があります。より多くの情報が必要な場合は、投薬リソースの使用をお勧めします。たとえば、フォームまたはロット番号が必要な場合、または薬物療法が複合または延長された場合は、薬リソースを参照する必要があります。 / If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the Medication resource is recommended.  For example, if you require form or lot number or if the medication is compounded or extemporaneously prepared, then you must reference the Medication resource.</t>
-  </si>
-  <si>
-    <t>注文できる物質または製品を識別するコード化された概念。 / A coded concept identifying substance or product that can be ordered.</t>
+    <t>Medication to be taken</t>
+  </si>
+  <si>
+    <t>Identifies the medication being requested. This is a link to a resource that represents the medication which may be the details of the medication or simply an attribute carrying a code that identifies the medication from a known list of medications.</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the Medication resource is recommended.  For example, if you require form or lot number or if the medication is compounded or extemporaneously prepared, then you must reference the Medication resource.</t>
+  </si>
+  <si>
+    <t>A coded concept identifying substance or product that can be ordered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
@@ -1064,7 +1063,7 @@
 【JP-CORE】Medication要素の説明を参照のこと。</t>
   </si>
   <si>
-    <t>コードシステム内の代替エンコーディング、および他のコードシステムへの翻訳が可能になります。 / Allows for alternative encodings within a code system, and translations to other code systems.</t>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -1085,16 +1084,16 @@
     <t>MedicationRequest.medication[x].coding.system</t>
   </si>
   <si>
-    <t>用語システムのアイデンティティ / Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>コード内のシンボルの意味を定義するコードシステムの識別。 / The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>uriは、oid（urn：oid：...）またはuuid（urn：uuid：...）である場合があります。OIDとUUIDは、HL7 OIDレジストリへの参照となります。それ以外の場合、URIは、FHIRの特別なURIを定義したHL7のリストから来るか、システムを明確かつ明確に確立する定義を参照する必要があります。 / The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -1109,13 +1108,13 @@
     <t>MedicationRequest.medication[x].coding.version</t>
   </si>
   <si>
-    <t>システムのバージョン - 関連する場合 / Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>このコードを選択するときに使用されたコードシステムのバージョン。コードの意味がバージョン全体で一貫しているため、適切にメンテナンスしたコードシステムでは報告されたバージョンを必要としないことに注意してください。ただし、これは一貫して保証することはできず、意味が一貫していることが保証されていない場合、バージョンを交換する必要があります。 / The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>用語がコードシステムバージョンを識別するために使用する文字列を明確に定義していない場合、推奨は、そのバージョンがバージョンの日付として公式に公開された日付（FHIR日付形式で表現）を使用することです。 / Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
   </si>
   <si>
     <t>Coding.version</t>
@@ -1130,13 +1129,13 @@
     <t>MedicationRequest.medication[x].coding.code</t>
   </si>
   <si>
-    <t>システムによって定義された構文のシンボル / Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>システムによって定義された構文のシンボル。シンボルは、定義されたコードまたはコーディングシステムによって定義された構文の式（例：調整後）である場合があります。 / A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>システム内の特定のコードを参照する必要があります。 / Need to refer to a particular code in the system.</t>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -1151,13 +1150,13 @@
     <t>MedicationRequest.medication[x].coding.display</t>
   </si>
   <si>
-    <t>システムによって定義された表現 / Representation defined by the system</t>
-  </si>
-  <si>
-    <t>システムのルールに従って、システム内のコードの意味の表現。 / A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>システムを知らない読者のために、コードの人間の読み取り可能な意味を持ち込むことができる必要があります。 / Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
   </si>
   <si>
     <t>Coding.display</t>
@@ -1178,7 +1177,7 @@
     <t>ユーザーが直接コーディングしたかどうかを示す。たとえば、有効な項目のリスト（コードか表現）から選択したかどうか。</t>
   </si>
   <si>
-    <t>これは、臨床安全基準として特定されています - この正確なシステム/コードペアは、いくつかのルールまたは言語処理に基づいてシステムによって推測されるのではなく、明示的に選択されたことです。 / This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
   </si>
   <si>
     <t>Coding.userSelected</t>
@@ -1202,7 +1201,7 @@
     <t>textエレメントはcodingのdisplayNameエレメントと一致することがよくある。</t>
   </si>
   <si>
-    <t>用語からのコードは、それらを使用する人間のすべてのニュアンスを使用して、常に正しい意味をキャプチャするとは限りません。または、適切なコードがまったくない場合があります。これらの場合、テキストはソースの完全な意味をキャプチャするために使用されます。 / The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
     <t>CodeableConcept.text</t>
@@ -1302,7 +1301,7 @@
     <t>このelementは参照の対象の型を指定するためのものである。他のElementで指定されていた型であってもなくても指定することができる。場合によっては、対象の型は参照（たとえば、RESTful URL)についての調査により決定されることもあるし、参照の対象から決定されることもある。もし、参照と型のどちらもが指定されていたら、参照は指定された型を決定されるべきである(SHALL)。</t>
   </si>
   <si>
-    <t>AAリソース（または、論理モデルの場合、論理モデルのURI）。 / Aa resource (or, for logical models, the URI of the logical model).</t>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/resource-types</t>
@@ -1335,13 +1334,13 @@
     <t>MedicationRequest.subject.display</t>
   </si>
   <si>
-    <t>リソースのテキスト代替 / Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>リソースリファレンスに加えてリソースを識別するプレーンテキストの叙述(Narative)。 / Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>これは通常、参照されるリソースのリソース.textと同じではありません。目的は、参照されているものを完全に説明するのではなく、特定することです。 / This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
   </si>
   <si>
     <t>Reference.display</t>
@@ -1480,7 +1479,7 @@
     <t>Performerを示さずにこのエレメントが指定された場合は、このエレメントは薬剤の投与／管理が指定の職種でなければならないと言うことを示している。Performerと共に指定された場合は、もし指定されたPerformerが実施できない場合に薬剤投与・管理を行うものについての要件が示されたことを意味する。</t>
   </si>
   <si>
-    <t>薬を投与することが望まれる個人のタイプを識別します。 / Identifies the type of individual that is desired to administer the medication.</t>
+    <t>Identifies the type of individual that is desired to administer the medication.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/performer-role</t>
@@ -1525,7 +1524,7 @@
     <t>このエレメントは病名コードであってもよい。もし、すべての条件を示す記録があって他の詳細な記録が必要であれば、reasonReferenceを使用すること。</t>
   </si>
   <si>
-    <t>薬が注文された理由を示すコード化された概念。 / A coded concept indicating why the medication was ordered.</t>
+    <t>A coded concept indicating why the medication was ordered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-code</t>
@@ -1648,7 +1647,7 @@
     <t>この属性は薬剤プロトコールと混同してはならない。</t>
   </si>
   <si>
-    <t>投薬投与の全体的なパターンを特定します。 / Identifies the overall pattern of medication administratio.</t>
+    <t>Identifies the overall pattern of medication administratio.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationrequest-course-of-therapy</t>
@@ -1788,11 +1787,10 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
-モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -1863,7 +1861,7 @@
     <t>補足指示はコード化されるように意図されているが、コードがない場合はエレメントはテキストだけで表現することができる。たとえば、「大量の水で服用する」という指示はコード化されていることもあれば、されていないことおある。</t>
   </si>
   <si>
-    <t>「水で取る」や「重機の操作を避ける」などの追加の指示を識別するコード化された概念。 / A coded concept identifying additional instructions such as "take with water" or "avoid operating heavy machinery".</t>
+    <t>A coded concept identifying additional instructions such as "take with water" or "avoid operating heavy machinery".</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/additional-instruction-codes</t>
@@ -2032,7 +2030,7 @@
     <t>服⽤タイミングを具体的な日時で指定する場合に使⽤する</t>
   </si>
   <si>
-    <t>たとえば、投薬投与の記録では、一般的な仕様を取得し、それを正確な仕様に変える必要があります。 / In a Medication Administration Record, for instance, you need to take a general specification, and turn it into a precise specification.</t>
+    <t>In a Medication Administration Record, for instance, you need to take a general specification, and turn it into a precise specification.</t>
   </si>
   <si>
     <t>Timing.event</t>
@@ -2060,8 +2058,8 @@
     <t>Timing.repeat</t>
   </si>
   <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-tim-1:期間がある場合は、期間単位が必要です / if there's a duration, there needs to be duration units {duration.empty() or durationUnit.exists()}tim-2:期間がある場合、期間単位が必要です / if there's a period, there needs to be period units {period.empty() or periodUnit.exists()}tim-4:期間は非陰性価値です / duration SHALL be a non-negative value {duration.exists() implies duration &gt;= 0}tim-5:期間は非陰性の価値です / period SHALL be a non-negative value {period.exists() implies period &gt;= 0}tim-6:期間がある場合、期間がなければなりません / If there's a periodMax, there must be a period {periodMax.empty() or period.exists()}tim-7:Hurtermaxがある場合、期間がなければなりません / If there's a durationMax, there must be a duration {durationMax.empty() or duration.exists()}tim-8:countmaxがある場合、カウントが必要です / If there's a countMax, there must be a count {countMax.empty() or count.exists()}tim-9:オフセットがある場合、c、cm、cd、cvではなく（c、cvではない）存在する必要があります。 / If there's an offset, there must be a when (and not C, CM, CD, CV) {offset.empty() or (when.exists() and ((when in ('C' | 'CM' | 'CD' | 'CV')).not()))}tim-10:時間がある場合、いつ、またはその逆もありません / If there's a timeOfDay, there cannot be a when, or vice versa {timeOfDay.empty() or when.empty()}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+tim-1:if there's a duration, there needs to be duration units {duration.empty() or durationUnit.exists()}tim-2:if there's a period, there needs to be period units {period.empty() or periodUnit.exists()}tim-4:duration SHALL be a non-negative value {duration.exists() implies duration &gt;= 0}tim-5:period SHALL be a non-negative value {period.exists() implies period &gt;= 0}tim-6:If there's a periodMax, there must be a period {periodMax.empty() or period.exists()}tim-7:If there's a durationMax, there must be a duration {durationMax.empty() or duration.exists()}tim-8:If there's a countMax, there must be a count {countMax.empty() or count.exists()}tim-9:If there's an offset, there must be a when (and not C, CM, CD, CV) {offset.empty() or (when.exists() and ((when in ('C' | 'CM' | 'CD' | 'CV')).not()))}tim-10:If there's a timeOfDay, there cannot be a when, or vice versa {timeOfDay.empty() or when.empty()}</t>
   </si>
   <si>
     <t>Implies PIVL or EIVL</t>
@@ -2099,10 +2097,10 @@
 </t>
   </si>
   <si>
-    <t>長さ/長さの範囲、または（開始および/または終了）制限 / Length/Range of lengths, or (Start and/or end) limits</t>
-  </si>
-  <si>
-    <t>タイミングスケジュールの長さの期間、可能な長さの範囲、またはタイミングスケジュールの開始および/または終了制限の外側の境界のいずれか。 / Either a duration for the length of the timing schedule, a range of possible length, or outer bounds for start and/or end limits of the timing schedule.</t>
+    <t>Length/Range of lengths, or (Start and/or end) limits</t>
+  </si>
+  <si>
+    <t>Either a duration for the length of the timing schedule, a range of possible length, or outer bounds for start and/or end limits of the timing schedule.</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.timing.repeat.bounds[x].id</t>
@@ -2121,10 +2119,10 @@
     <t>投薬日数</t>
   </si>
   <si>
-    <t>値の暗黙の精度は常に尊重されるべきです。金銭的価値には、精度を処理するための独自のルールがあります（標準的な会計の教科書を参照）。 / The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
-  </si>
-  <si>
-    <t>精度は、測定のほとんどすべての場合に暗黙的に処理されます。 / Precision is handled implicitly in almost all cases of measurement.</t>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
   </si>
   <si>
     <t>Quantity.value</t>
@@ -2139,19 +2137,19 @@
     <t>MedicationRequest.dosageInstruction.timing.repeat.bounds[x].comparator</t>
   </si>
   <si>
-    <t>&lt;|&lt;= |&gt; = |&gt;  - 価値を理解する方法 / &lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
-  </si>
-  <si>
-    <t>値をどのように理解し、表現する必要があるか - 測定の問題により実際の値が記載されている値よりも大きいか小さいかどうか。例えばコンパレータが「&lt;」の場合、実際の値は&lt;stated値です。 / How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
-  </si>
-  <si>
-    <t>測定方法の制限があるため、値が&lt;5ug/Lまたは&gt; 400mg/Lの測定値を処理するためのフレームワークが必要です。 / Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
-  </si>
-  <si>
-    <t>コンパレータがない場合、値の変更はありません / If there is no comparator, then there is no modification of the value</t>
-  </si>
-  <si>
-    <t>量を理解し、表現する方法。 / How the Quantity should be understood and represented.</t>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
+  </si>
+  <si>
+    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>How the Quantity should be understood and represented.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
@@ -2175,7 +2173,7 @@
     <t>投薬日数の単位文字列。日で固定される</t>
   </si>
   <si>
-    <t>測定単位には多くの表現があり、多くのコンテキストでは、特定の表現が固定され、必要です。すなわちマイクログラム用MCG。 / There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
   </si>
   <si>
     <t>日</t>
@@ -2199,7 +2197,7 @@
     <t>単位コード UCUMを識別するURI。固定値。</t>
   </si>
   <si>
-    <t>ユニットのコード化された形式を定義するシステムを知る必要があります。 / Need to know the system that defines the coded form of the unit.</t>
+    <t>Need to know the system that defines the coded form of the unit.</t>
   </si>
   <si>
     <t>http://unitsofmeasure.org</t>
@@ -2224,10 +2222,10 @@
     <t>単位コードUCUMにおける投与日数の単位。dで固定される。</t>
   </si>
   <si>
-    <t>優先システムはUCUMですが、スノムCTは（慣習ユニットに）または通貨にISO 4217を使用することもできます。使用のコンテキストには、特定のシステムからのコードがさらに必要になる場合があります。 / The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
-  </si>
-  <si>
-    <t>すべてのフォームに固定されたユニットの計算可能な形式が必要です。UCUMはこれを数量で提供しますが、Snomed CTは多くの関心のある単位を提供します。 / Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
   </si>
   <si>
     <t>d</t>
@@ -2255,7 +2253,7 @@
     <t>回数に上限、下限の範囲がある場合は、このcountで示される回数が起きるまでは、エレメントは範囲の中にあると解釈されるべきである。</t>
   </si>
   <si>
-    <t>繰り返しは、終了時間または合計発生によって制限される場合があります。 / Repetitions may be limited by end time or total occurrences.</t>
+    <t>Repetitions may be limited by end time or total occurrences.</t>
   </si>
   <si>
     <t>Timing.repeat.count</t>
@@ -2315,13 +2313,13 @@
     <t>MedicationRequest.dosageInstruction.timing.repeat.durationUnit</t>
   </si>
   <si>
-    <t>s |min |h |d |wk |mo |A-時間単位（ucum） / s | min | h | d | wk | mo | a - unit of time (UCUM)</t>
+    <t>s | min | h | d | wk | mo | a - unit of time (UCUM)</t>
   </si>
   <si>
     <t>UCUM単位で表される継続時間についての単位。</t>
   </si>
   <si>
-    <t>時間単位（UCUMからの単位）。 / A unit of time (units from UCUM).</t>
+    <t>A unit of time (units from UCUM).</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/units-of-time|4.0.1</t>
@@ -2345,7 +2343,7 @@
     <t>32ビットの数値。もし、値がそれを上回るようであればdecimalを使用する。</t>
   </si>
   <si>
-    <t>頻度が記載されていない場合、イベントは期間ごとに1回発生するという仮定ですが、システムは常にこれについて具体的でなければなりません / If no frequency is stated, the assumption is that the event occurs once per period, but systems SHOULD always be specific about this</t>
+    <t>If no frequency is stated, the assumption is that the event occurs once per period, but systems SHOULD always be specific about this</t>
   </si>
   <si>
     <t>Timing.repeat.frequency</t>
@@ -2405,7 +2403,7 @@
     <t>MedicationRequest.dosageInstruction.timing.repeat.dayOfWeek</t>
   </si>
   <si>
-    <t>月|火|水|木|金|土|太陽 / mon | tue | wed | thu | fri | sat | sun</t>
+    <t>mon | tue | wed | thu | fri | sat | sun</t>
   </si>
   <si>
     <t>期間として1週間以上が指定されていれば、指定された曜日のみで投与が行われる。</t>
@@ -2454,7 +2452,7 @@
     <t>タイミングはしばしば起床や食事、睡眠などのできごとによってしばしば決定されている。</t>
   </si>
   <si>
-    <t>スケジュールに関連する現実世界のイベント。 / Real world event relating to the schedule.</t>
+    <t>Real world event relating to the schedule.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/event-timing|4.0.1</t>
@@ -2488,7 +2486,7 @@
     <t>MedicationRequest.dosageInstruction.timing.code</t>
   </si>
   <si>
-    <t>入札|TID |QID |AM |PM |QD |qod |+ / BID | TID | QID | AM | PM | QD | QOD | +</t>
+    <t>BID | TID | QID | AM | PM | QD | QOD | +</t>
   </si>
   <si>
     <t>スケジュール上のタイミングを表すコード（あるいはcode.text内のテキスト）。BID(1日2回)のようなコードはどこにでもあるが、多くの医療機関は付加的なコードを定義している。もし、コードが示されていれば、構造化されたタイミングで完全に示されたデータであると解釈され、コードまたはTimingを解釈するためのデータであると解釈される。しかし、例外的に.repeat.bounds（コードは含まれない)はコードを上書きして適用される。</t>
@@ -2497,7 +2495,7 @@
     <t>BIDなどは「施設特有の時間」として定義される。たとえば、施設がBIDを「つねに朝7時と夕方6時」であると指定することがある。この指定が不適切であれば、BIDというコードは使うべきではない。その代わり、HL7が定義したBIDのコードではなく、その施設特有のコードで明示的に示すべきであり、構造化された表現を使うべきである（この場合、2回のイベントの時刻を指定する必要がある）。</t>
   </si>
   <si>
-    <t>既知 /定義されたタイミングパターンのコード。 / Code for a known / defined timing pattern.</t>
+    <t>Code for a known / defined timing pattern.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/timing-abbreviation</t>
@@ -2519,7 +2517,7 @@
 Medication(薬剤)が必要なときに指定された量とスケジュールのみで内服するか（Booleanで選択される）、内服する前提条件(CodeableConcept)を示している。</t>
   </si>
   <si>
-    <t>boolean = trueを設定することにより、理由なしに「必要に応じて」表現できます。この場合、codeableconceptは存在しません。または、Codeableconceptを含めることにより、「必要に応じて」理由で「必要に応じて」表現することができます。この場合、ブール値は真であると想定されています。ブール値をfalseに設定すると、用量はスケジュールに従って与えられ、「PRN」または「必要に応じて」ではありません。 / Can express "as needed" without a reason by setting the Boolean = True.  In this case the CodeableConcept is not populated.  Or you can express "as needed" with a reason by including the CodeableConcept.  In this case the Boolean is assumed to be True.  If you set the Boolean to False, then the dose is given according to the schedule and is not "prn" or "as needed".</t>
+    <t>Can express "as needed" without a reason by setting the Boolean = True.  In this case the CodeableConcept is not populated.  Or you can express "as needed" with a reason by including the CodeableConcept.  In this case the Boolean is assumed to be True.  If you set the Boolean to False, then the dose is given according to the schedule and is not "prn" or "as needed".</t>
   </si>
   <si>
     <t>Dosage.asNeeded[x]</t>
@@ -2543,10 +2541,10 @@
     <t>もし、BodySite resourceの属性が必要な場合(たとえば、部位の指定や別々に投与経路を設定する場合)は、[bodySite](extension-bodysite.html)の標準拡張を使うこと。要約コードや非常に正確な位置の定義へのreferenceを使用することもできる。</t>
   </si>
   <si>
-    <t>薬が最初に体に入る解剖学的部位のコード化された仕様。 / A coded specification of the anatomic site where the medication first enters the body.</t>
-  </si>
-  <si>
-    <t>薬が身体に入る、または体に入るサイトの場所を説明するコード化された概念。 / A coded concept describing the site location the medicine enters into or onto the body.</t>
+    <t>A coded specification of the anatomic site where the medication first enters the body.</t>
+  </si>
+  <si>
+    <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
@@ -2630,7 +2628,7 @@
     <t>治療薬剤が患者の体内に投与される生理学的な経路を特定するためのコード。</t>
   </si>
   <si>
-    <t>被験者の体への、またはそれへの治療剤の投与の経路または生理学的経路を説明するコード化された概念。 / A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
+    <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/route-codes</t>
@@ -2717,7 +2715,7 @@
     <t>コード化された値は体内に薬剤が投与される方法を示している。注射ではよく使われる。たとえば、緩徐に注入、深部に静注など。</t>
   </si>
   <si>
-    <t>薬が投与される手法を説明するコード化された概念。 / A coded concept describing the technique by which the medicine is administered.</t>
+    <t>A coded concept describing the technique by which the medicine is administered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
@@ -2741,13 +2739,13 @@
     <t>MedicationRequest.dosageInstruction.method.coding</t>
   </si>
   <si>
-    <t>用語システムによって定義されたコード / Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>用語システムによって定義されたコードへの参照。 / A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>コードは、列挙されたCTなどの非常に正式な定義まで、列挙またはコードリストで非常にさりげなく定義される場合があります。詳細については、HL7 V3コアプリンシップを参照してください。コーディングの順序付けは未定義であり、意味を推測するために使用されません。一般に、せいぜい、コーディング値の1つのみがuserselected = trueとしてラベル付けされます。 / Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
   </si>
   <si>
     <t>unitDigit1</t>
@@ -2870,7 +2868,7 @@
     <t>このtypeに値が指定されていなければ、"ordered"であることが想定される。</t>
   </si>
   <si>
-    <t>指定された用量またはレートの種類。 / The kind of dose or rate specified.</t>
+    <t>The kind of dose or rate specified.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/dose-rate-type</t>
@@ -2943,14 +2941,14 @@
     <t>この量は指定された薬剤の量を指定するものであって、各有効成分の量を指定するものではない。各成分の量はMedication resourceで伝えることができる。たとえば、有効成分が375mgである錠剤を1錠投与することを伝えたい場合、Medication resourceを利用して、XYZ成分が375mg含有しているという錠剤であることを文書化することができる。あるいは1回投与量が375mgであることを伝えるのであれば、Medication resourceをつかって単にそれが錠剤であることを示せばよい。もし、ドーパミンの静注を例に挙げて、400mgのドーパミンを500mlの注射溶液に混ぜて使うことを伝えたいのであれば、それをすべてMedication resourceで伝えることができる。もし、投与について即時に伝達することを意図していない（たとえば投与速度が示されていたり、投与時期に範囲があるような場合）のであれば、たとえば1回500mlを4時間以上かけて投与する予定を伝える場合にもMecication resourceで伝えることができる。</t>
   </si>
   <si>
-    <t>1つの投与イベントで与えられた治療またはその他の物質の量。 / The amount of therapeutic or other substance given at one administration event.</t>
+    <t>The amount of therapeutic or other substance given at one administration event.</t>
   </si>
   <si>
     <t>Dosage.doseAndRate.dose[x]</t>
   </si>
   <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:ユニットのコードが存在する場合、システムも存在するものとします / If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:コンパレータは、単純なQuantityで使用されません / The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
   </si>
   <si>
     <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
@@ -2971,16 +2969,16 @@
     <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].comparator</t>
   </si>
   <si>
-    <t>この文脈で使用することは許可されていません / Not allowed to be used in this context</t>
+    <t>Not allowed to be used in this context</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].unit</t>
   </si>
   <si>
-    <t>ユニット表現 / Unit representation</t>
-  </si>
-  <si>
-    <t>ユニットの人間の読み取り可能な形式。 / A human-readable form of the unit.</t>
+    <t>Unit representation</t>
+  </si>
+  <si>
+    <t>A human-readable form of the unit.</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].system</t>
@@ -3391,13 +3389,13 @@
     <t>MedicationRequest.dispenseRequest.extension.url</t>
   </si>
   <si>
-    <t>拡張機能の意味を識別します / identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>拡張コードの定義のソース - 論理名またはURL。 / Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>定義は、拡張性コードの計算可能または人間が読み取る可能性のある定義を直接指している場合があります。または、他の仕様で宣言されているように、論理的なURIである場合があります。定義は、拡張機能を定義する構造定義のURIでなければなりません。 / The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DispenseRequest_InstructionForDispense</t>
@@ -3557,10 +3555,10 @@
     <t>このエレメントは処方の有効期間（処方が失効する日）を示す。</t>
   </si>
   <si>
-    <t>それは、処方箋の妥当性に対する処方者の視点を反映しています。この期間以外の処方箋に対して分配してはなりません。分配ウィンドウの下限は、処方箋が初めて満たすことができる最も早い日付を意味します。上限が指定されていない場合、処方箋はオープンエンドであるか、規制に基づいて古い日付にデフォルトになります。 / It reflects the prescribers' perspective for the validity of the prescription. Dispenses must not be made against the prescription outside of this period. The lower-bound of the Dispensing Window signifies the earliest date that the prescription can be filled for the first time. If an upper-bound is not specified then the Prescription is open-ended or will default to a stale-date based on regulations.</t>
-  </si>
-  <si>
-    <t>処方箋がいつ有効になるか、そしてそれが不可欠な処方箋であることを停止することを示します。 / Indicates when the Prescription becomes valid, and when it ceases to be a dispensable Prescription.</t>
+    <t>It reflects the prescribers' perspective for the validity of the prescription. Dispenses must not be made against the prescription outside of this period. The lower-bound of the Dispensing Window signifies the earliest date that the prescription can be filled for the first time. If an upper-bound is not specified then the Prescription is open-ended or will default to a stale-date based on regulations.</t>
+  </si>
+  <si>
+    <t>Indicates when the Prescription becomes valid, and when it ceases to be a dispensable Prescription.</t>
   </si>
   <si>
     <t>Message/Body/NewRx/MedicationPrescribed/Refills</t>
@@ -3612,7 +3610,7 @@
     <t>終了時刻は全ての日付・時刻に対応する。たとえば、2012-02-03T10:00:00は2012-02-03を終了時刻(end)の値とする期間を示す。</t>
   </si>
   <si>
-    <t>期間の終了が欠落している場合、それは期間が進行中であることを意味します / If the end of the period is missing, it means that the period is ongoing</t>
+    <t>If the end of the period is missing, it means that the period is ongoing</t>
   </si>
   <si>
     <t>Period.end</t>
@@ -3799,7 +3797,7 @@
     <t>代替品が許可されるかどうかは無視できないので、このエレメントはmodifierとしてラベルされる。</t>
   </si>
   <si>
-    <t>許可された置換の種類を識別します。 / Identifies the type of substitution allowed.</t>
+    <t>Identifies the type of substitution allowed.</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-ActSubstanceAdminSubstitutionCode</t>
@@ -3862,25 +3860,25 @@
     <t>MedicationRequest.substitution.allowed[x].coding.userSelected</t>
   </si>
   <si>
-    <t>このコーディングがユーザーによって直接選択された場合 / If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>このコーディングがユーザーによって直接選択されたことを示します。利用可能なアイテムのピックリスト（コードまたはディスプレイ）。 / Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>一連の代替案の中で、直接選択されたコードが新しい翻訳の最も適切な出発点です。この要素の使用とその結果をより完全に明確にするためには、「直接選択された」ことについては曖昧さがあり、取引パートナー契約が必要になる場合があります。 / Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
   </si>
   <si>
     <t>MedicationRequest.substitution.allowed[x].text</t>
   </si>
   <si>
-    <t>コンセプトの単純なテキスト表現 / Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>データを入力したユーザー、および/またはユーザーの意図された意味を表すユーザーによって見られる/選択/発言された概念の人間の言語表現。 / A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>多くの場合、テキストはコーディングの1つの表示名と同じです。 / Very often the text is the same as a displayName of one of the codings.</t>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
   </si>
   <si>
     <t>MedicationRequest.substitution.reason</t>
@@ -3895,7 +3893,7 @@
     <t>代替品の理由を表す一般的パターンに全てのターミノロジーが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。</t>
   </si>
   <si>
-    <t>別の薬物療法が処方されたものから置き換える（またはすべきではない）理由を説明するコード化された概念。 / A coded concept describing the reason that a different medication should (or should not) be substituted from what was prescribed.</t>
+    <t>A coded concept describing the reason that a different medication should (or should not) be substituted from what was prescribed.</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-SubstanceAdminSubstitutionReason</t>
@@ -4297,7 +4295,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="133.58203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="82.3671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4310,7 +4308,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="179.01953125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="124.42578125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="71.296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -2673,7 +2673,7 @@
     <t>HL7v2-0162表をベースにしたJPFHIRでの投与経路コード表を示すURL</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/ePrescription/CodeSystem/route-codes</t>
+    <t>http://jpfhir.jp/fhir/Common/CodeSystem/route-codes</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.route.coding.version</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -1060,7 +1060,7 @@
   </si>
   <si>
     <t>コードは臨時で列記したものや、コードのリストからSNOMED CTのように公式に定義されたものまである（HL7 v3 core principle を参照)。FHIR自体ではコーディング規約を定めてはいないし、意味を暗示するために利用されない(SHALL NOT)。一般的に UserSelected = trueの場合には一つのコードシステムが使われる。
-【JP-CORE】Medication要素の説明を参照のこと。</t>
+【JP-Core仕様】Medication要素の説明を参照のこと。</t>
   </si>
   <si>
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -26729,10 +26729,10 @@
       </c>
       <c r="P197" s="2"/>
       <c r="Q197" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R197" t="s" s="2">
         <v>947</v>
-      </c>
-      <c r="R197" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="S197" t="s" s="2">
         <v>80</v>
@@ -27985,10 +27985,10 @@
       </c>
       <c r="P208" s="2"/>
       <c r="Q208" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R208" t="s" s="2">
         <v>947</v>
-      </c>
-      <c r="R208" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="S208" t="s" s="2">
         <v>80</v>
@@ -38089,10 +38089,10 @@
       </c>
       <c r="P296" s="2"/>
       <c r="Q296" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R296" t="s" s="2">
         <v>947</v>
-      </c>
-      <c r="R296" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="S296" t="s" s="2">
         <v>80</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -803,7 +803,7 @@
     <t>現在のステータスの理由</t>
   </si>
   <si>
-    <t>一般的には「保留(suspended)」や「中止(cancelled)」といった例外的状態を示すために持ちいられる。MedicationRequestオーダーが発生した理由についてはreaseonCodeに記載され、この項目は用いられない。</t>
+    <t>一般的には「保留(suspended)」や「中止(cancelled)」といった例外的状態を示すために持ちいられる。MedicationRequestオーダーが発生した理由についてはreasonCodeに記載され、この項目は用いられない。</t>
   </si>
   <si>
     <t>example</t>
@@ -892,7 +892,7 @@
     <t>routine | urgent | asap | stat</t>
   </si>
   <si>
-    <t>このMedicatinRequestオーダーの優先度。他のオーダーと比較して表現される。</t>
+    <t>このMedicationRequestオーダーの優先度。他のオーダーと比較して表現される。</t>
   </si>
   <si>
     <t>FHIRでは文字列の大きさが1MBを超えてはならない(SHALL NOT)。</t>
@@ -1265,7 +1265,7 @@
   <si>
     <t>参照されるPatientが型として示される。
 一般的には参照の対象として予定される型。もし、Reference.typeとReference.referenceがともに指定されていて、Reference.referenceがFHIRのURLであればどちらも一致させるべきである(SHALL)。
-型はResouce Definitionに対するCanonical URLであってその型も参照の対象となる。Referenceはhttp://hl7.org/fhir/StructureDefinition/に対する相対URLである。たとえば、"Patient"はhttp://hl7.org/fhir/StructureDefinition/Patientへの参照である。絶対URLは論理モデルにおいて、論理モデル内部での参照として飲み使用可能であり、Resouceに対しては指定できない。</t>
+型はResource Definitionに対するCanonical URLであってその型も参照の対象となる。Referenceはhttp://hl7.org/fhir/StructureDefinition/に対する相対URLである。たとえば、"Patient"はhttp://hl7.org/fhir/StructureDefinition/Patientへの参照である。絶対URLは論理モデルにおいて、論理モデル内部での参照として飲み使用可能であり、Resourceに対しては指定できない。</t>
   </si>
   <si>
     <t>このelementは参照の対象の型を指定するためのものである。他のElementで指定されていた型であってもなくても指定することができる。場合によっては、対象の型は参照（たとえば、RESTful URL)についての調査により決定されることもあるし、参照の対象から決定されることもある。もし、参照と型のどちらもが指定されていたら、参照は指定された型を決定されるべきである(SHALL)。</t>
@@ -1286,7 +1286,7 @@
     <t>文字列による参照が不明な場合の論理参照</t>
   </si>
   <si>
-    <t>対象となるresouceへのID。FHIRサーバを経由してこの参照が指定するEntityが指定できないか、実際の位置を示す既知のIDへとResourceを変換できない場合のように、ほかのresourceを直接参照することができない場合に使われる。Reference.identifireがFHIRインスタンスである何かを実際に示している必要はないが、FHIRインスタンスとして表現されると想定される業務概念を示されなくてはらならず(SHALL)、そのインスタンスは参照先のFHIRのResource型である必要がある。</t>
+    <t>対象となるresourceへのID。FHIRサーバを経由してこの参照が指定するEntityが指定できないか、実際の位置を示す既知のIDへとResourceを変換できない場合のように、ほかのresourceを直接参照することができない場合に使われる。Reference.identifierがFHIRインスタンスである何かを実際に示している必要はないが、FHIRインスタンスとして表現されると想定される業務概念を示されなくてはらならず(SHALL)、そのインスタンスは参照先のFHIRのResource型である必要がある。</t>
   </si>
   <si>
     <t>IDが参照として与えられている場合には、参照を処理するシステムはIDをIDが利用される業務コンテキストがわかっているかどうか参照を解決するためにしか利用することができない。このIDはグローバル(たとえば国民ID）であることもあるが、そうでないこともある。そのため、この参照を利用する有効な機構（たとえば、データを連鎖させたり、包含させるなど）、サーバが参照を解決することができるとも期待できない。サーバは到達できなかったり、解決できないあるいは拒否されるような参照でもIDとして受け取ることができる。CapabilityStatement.rest.resource.referencePolicyを参照のこと。
@@ -1358,7 +1358,7 @@
     <t>薬剤をオーダーするときに補助的となる追加情報（たとえば、患者の身長や体重））を含む。</t>
   </si>
   <si>
-    <t>参照先は実存するFHIR Resourceでなければならず(SHALL)、解決可能(アクセスコントロールや、一時的に利用不可であることなどは許容される)でなければならない(SHALL)。解決の方法はURLから取得可能であるか、Resouce型が適応できるかどうか、正規のURLとして絶対的参照を扱うことができるか、ローカルのレジストリ／リポジトリから参照することができるかである。</t>
+    <t>参照先は実存するFHIR Resourceでなければならず(SHALL)、解決可能(アクセスコントロールや、一時的に利用不可であることなどは許容される)でなければならない(SHALL)。解決の方法はURLから取得可能であるか、Resource型が適応できるかどうか、正規のURLとして絶対的参照を扱うことができるか、ローカルのレジストリ／リポジトリから参照することができるかである。</t>
   </si>
   <si>
     <t>Request.supportingInfo</t>
@@ -1590,7 +1590,7 @@
     <t>MedicationRequest.groupIdentifier</t>
   </si>
   <si>
-    <t>このRerquestを一部とする複数のオーダーを構成するID</t>
+    <t>このRequestを一部とする複数のオーダーを構成するID</t>
   </si>
   <si>
     <t>一人の処方者が同時期に前後して作成した全てのリクエストに共通するIDで、処方や薬品請求のIDを示す。</t>
@@ -1708,7 +1708,7 @@
     <t>投与期間の開始日を明示するための拡張</t>
   </si>
   <si>
-    <t>MedcationRequestの投与期間の開始日を明示するための拡張</t>
+    <t>MedicationRequestの投与期間の開始日を明示するための拡張</t>
   </si>
   <si>
     <t>usageDuration</t>
@@ -2637,10 +2637,10 @@
     <t>MedicationRequest.dosageInstruction.route.coding.system</t>
   </si>
   <si>
-    <t>HL7v2-0162表をベースにしたJPFHIRでの投与経路コード表</t>
-  </si>
-  <si>
-    <t>HL7v2-0162表をベースにしたJPFHIRでの投与経路コード表を示すURL</t>
+    <t>HL7v2-0162表をベースにしたJP Coreでの投与経路コード表</t>
+  </si>
+  <si>
+    <t>HL7v2-0162表をベースにしたJP Coreでの投与経路コード表を示すURL</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Common/CodeSystem/route-codes</t>
@@ -2908,7 +2908,7 @@
     <t>1回投与量</t>
   </si>
   <si>
-    <t>この量は指定された薬剤の量を指定するものであって、各有効成分の量を指定するものではない。各成分の量はMedication resourceで伝えることができる。たとえば、有効成分が375mgである錠剤を1錠投与することを伝えたい場合、Medication resourceを利用して、XYZ成分が375mg含有しているという錠剤であることを文書化することができる。あるいは1回投与量が375mgであることを伝えるのであれば、Medication resourceをつかって単にそれが錠剤であることを示せばよい。もし、ドーパミンの静注を例に挙げて、400mgのドーパミンを500mlの注射溶液に混ぜて使うことを伝えたいのであれば、それをすべてMedication resourceで伝えることができる。もし、投与について即時に伝達することを意図していない（たとえば投与速度が示されていたり、投与時期に範囲があるような場合）のであれば、たとえば1回500mlを4時間以上かけて投与する予定を伝える場合にもMecication resourceで伝えることができる。</t>
+    <t>この量は指定された薬剤の量を指定するものであって、各有効成分の量を指定するものではない。各成分の量はMedication resourceで伝えることができる。たとえば、有効成分が375mgである錠剤を1錠投与することを伝えたい場合、Medication resourceを利用して、XYZ成分が375mg含有しているという錠剤であることを文書化することができる。あるいは1回投与量が375mgであることを伝えるのであれば、Medication resourceをつかって単にそれが錠剤であることを示せばよい。もし、ドーパミンの静注を例に挙げて、400mgのドーパミンを500mlの注射溶液に混ぜて使うことを伝えたいのであれば、それをすべてMedication resourceで伝えることができる。もし、投与について即時に伝達することを意図していない（たとえば投与速度が示されていたり、投与時期に範囲があるような場合）のであれば、たとえば1回500mlを4時間以上かけて投与する予定を伝える場合にもMedication resourceで伝えることができる。</t>
   </si>
   <si>
     <t>The amount of therapeutic or other substance given at one administration event.</t>
@@ -2983,7 +2983,7 @@
   </si>
   <si>
     <t>JP Coreでは日本ではまだ一般的に利用されている一日量での処方のためにrateRatioを用いる。
-薬剤の詳細な投与法、提供方法を伝えるために、投与速度(rate)とdoseQuantityの両方の情報を提供することができる。もし、投与速度が変更されるようであれば、ローカルルールや制限に基づいて、全ての変更は新しいバージョンのMeddicationRequestに更新された投与速度を記録するか、MedicationRequestの新しいインスタンスに新しい投与速度を記録されるようにするべきである。
+薬剤の詳細な投与法、提供方法を伝えるために、投与速度(rate)とdoseQuantityの両方の情報を提供することができる。もし、投与速度が変更されるようであれば、ローカルルールや制限に基づいて、全ての変更は新しいバージョンのMedicationRequestに更新された投与速度を記録するか、MedicationRequestの新しいインスタンスに新しい投与速度を記録されるようにするべきである。
 rateRatioとrateQuantityのいずれかを使って時間内の投与速度（たとえば100ml/hour)を指定することができる。rateQuantityを使うには、ml/hourが投与速度の単位と言うだけではなく、時間が分母として指定されているということを示しているというようなUCUM単位の文法をシステムがパース可能であることが求められる。500mlを2時間でというような投与速度指示では、rateRatioがrateQuantityで250mg/hourとするよりもセマンティクスを正確に伝えることができるかもしれない。</t>
   </si>
   <si>
@@ -3852,7 +3852,7 @@
     <t>前回のオーダー/処方</t>
   </si>
   <si>
-    <t>関連する先行オーダーや処方を表現するMedicationRequest Resouceへのリンク。</t>
+    <t>関連する先行オーダーや処方を表現するMedicationRequest Resourceへのリンク。</t>
   </si>
   <si>
     <t>Request.replaces</t>
@@ -3897,7 +3897,7 @@
     <t>このリソースの現在のバージョンをユーザーから見て関係していそうなキーとなる更新や状態遷移と識別される過去のバージョンのこのリソースあるいは調剤請求あるいはEvent ResourceについてのProvenance resourceへの参照。</t>
   </si>
   <si>
-    <t>このエレメントには全てのバージョンのMedicationRequestについてのProvenanceが取り込まれているわけではない。「関連する」あるいは重要と思われたものだけである。現在のバージョンのResouceに関連したProvenance resouceを含めてはならない(SHALL NOT)。（もし、Provenanceとして「関連した」変化と思われれば、後の更新の一部として取り込まれる必要があるだろう。それまでは、このバージョンを_revincludeを使ってprovenanceとして指定して直接クエリーを発行することができる。全てのProvenanceがこのRequestについての履歴を対象として持つべきである。）</t>
+    <t>このエレメントには全てのバージョンのMedicationRequestについてのProvenanceが取り込まれているわけではない。「関連する」あるいは重要と思われたものだけである。現在のバージョンのResourceに関連したProvenance resourceを含めてはならない(SHALL NOT)。（もし、Provenanceとして「関連した」変化と思われれば、後の更新の一部として取り込まれる必要があるだろう。それまでは、このバージョンを_revincludeを使ってprovenanceとして指定して直接クエリーを発行することができる。全てのProvenanceがこのRequestについての履歴を対象として持つべきである。）</t>
   </si>
   <si>
     <t>Request.relevantHistory</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -870,7 +870,7 @@
     <t>薬剤が投与あるいはその他の用途で利用されると想定される場面についての区分である。</t>
   </si>
   <si>
-    <t>MedicationRequest Resourceの区分を示すコード化された概念。たとえば、どこで服薬あるいは投与されるか、治療の種別はどうかについて。FHIRでは</t>
+    <t>MedicationRequest Resourceの区分を示すコード化された概念。たとえば、どこで服薬あるいは投与されるか、治療の種別はどうかについて。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationrequest-category</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -20841,10 +20841,10 @@
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F146" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G146" t="s" s="2">
         <v>80</v>
@@ -24973,10 +24973,10 @@
       </c>
       <c r="D182" s="2"/>
       <c r="E182" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F182" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G182" t="s" s="2">
         <v>80</v>
@@ -40117,10 +40117,10 @@
       </c>
       <c r="D314" s="2"/>
       <c r="E314" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F314" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G314" t="s" s="2">
         <v>80</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -1030,7 +1030,7 @@
   </si>
   <si>
     <t>コードは臨時で列記したものや、コードのリストからSNOMED CTのように公式に定義されたものまである（HL7 v3 core principle を参照)。FHIR自体ではコーディング規約を定めてはいないし、意味を暗示するために利用されない(SHALL NOT)。一般的に UserSelected = trueの場合には一つのコードシステムが使われる。
-【JP-Core仕様】Medication要素の説明を参照のこと。</t>
+【JP Core仕様】Medication要素の説明を参照のこと。</t>
   </si>
   <si>
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11458" uniqueCount="1242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11634" uniqueCount="1251">
   <si>
     <t>Property</t>
   </si>
@@ -2727,6 +2727,9 @@
     <t>投与⽅法に対応するJAMI 用法コード表基本用法１桁コードを識別するURI。</t>
   </si>
   <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
+  </si>
+  <si>
     <t>MedicationRequest.dosageInstruction.method.coding.id</t>
   </si>
   <si>
@@ -2776,6 +2779,9 @@
   </si>
   <si>
     <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コードを識別するURI。２桁コードurn:oid:1.2.392.200250.2.2.20.40</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
   </si>
   <si>
     <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コード。２桁コードurn:oid:1.2.392.200250.2.2.20.40で固定される。</t>
@@ -3296,6 +3302,39 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.extension.value[x].id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.extension.value[x].extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.extension.value[x].coding</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Examples/ValueSet/JP_MedicationInstructionForDispenseJHSP0002_VS</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.extension.value[x].text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
     <t>expectedRepeatCount</t>
   </si>
   <si>
@@ -3683,10 +3722,7 @@
     <t>代替品が許可されるかどうかは無視できないので、このエレメントはmodifierとしてラベルされる。</t>
   </si>
   <si>
-    <t>Identifies the type of substitution allowed.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActSubstanceAdminSubstitutionCode</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationSubstitutionNotAllowedReason_VS</t>
   </si>
   <si>
     <t>code</t>
@@ -3756,15 +3792,6 @@
   </si>
   <si>
     <t>MedicationRequest.substitution.allowed[x].text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
   </si>
   <si>
     <t>MedicationRequest.substitution.reason</t>
@@ -4162,7 +4189,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN315"/>
+  <dimension ref="A1:AN320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4195,7 +4222,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="124.42578125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="71.296875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="82.23046875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -22339,13 +22366,11 @@
         <v>80</v>
       </c>
       <c r="W159" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X159" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X159" s="2"/>
       <c r="Y159" t="s" s="2">
-        <v>80</v>
+        <v>870</v>
       </c>
       <c r="Z159" t="s" s="2">
         <v>80</v>
@@ -22395,7 +22420,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -22507,7 +22532,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -22621,7 +22646,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -22647,10 +22672,10 @@
         <v>102</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="M162" t="s" s="2">
         <v>593</v>
@@ -22663,7 +22688,7 @@
       </c>
       <c r="P162" s="2"/>
       <c r="Q162" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="R162" t="s" s="2">
         <v>80</v>
@@ -22737,7 +22762,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -22851,7 +22876,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -22877,10 +22902,10 @@
         <v>108</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="M164" t="s" s="2">
         <v>566</v>
@@ -22967,7 +22992,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -22993,10 +23018,10 @@
         <v>90</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="M165" t="s" s="2">
         <v>566</v>
@@ -23083,7 +23108,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -23202,7 +23227,7 @@
         <v>863</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C167" t="s" s="2">
         <v>80</v>
@@ -23227,10 +23252,10 @@
         <v>317</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="M167" t="s" s="2">
         <v>586</v>
@@ -23261,13 +23286,11 @@
         <v>80</v>
       </c>
       <c r="W167" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X167" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X167" s="2"/>
       <c r="Y167" t="s" s="2">
-        <v>80</v>
+        <v>888</v>
       </c>
       <c r="Z167" t="s" s="2">
         <v>80</v>
@@ -23317,7 +23340,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -23429,7 +23452,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -23543,7 +23566,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -23569,10 +23592,10 @@
         <v>102</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="M170" t="s" s="2">
         <v>593</v>
@@ -23585,7 +23608,7 @@
       </c>
       <c r="P170" s="2"/>
       <c r="Q170" t="s" s="2">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="R170" t="s" s="2">
         <v>80</v>
@@ -23659,7 +23682,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -23773,7 +23796,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -23799,10 +23822,10 @@
         <v>108</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="M172" t="s" s="2">
         <v>566</v>
@@ -23889,7 +23912,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -23915,10 +23938,10 @@
         <v>90</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="M173" t="s" s="2">
         <v>566</v>
@@ -24005,7 +24028,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -24121,7 +24144,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -24147,10 +24170,10 @@
         <v>90</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="M175" t="s" s="2">
         <v>366</v>
@@ -24237,7 +24260,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -24263,10 +24286,10 @@
         <v>635</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="M176" s="2"/>
       <c r="N176" s="2"/>
@@ -24317,7 +24340,7 @@
         <v>80</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>78</v>
@@ -24344,12 +24367,12 @@
         <v>80</v>
       </c>
       <c r="AN176" t="s" s="2">
-        <v>900</v>
+        <v>902</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -24461,7 +24484,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -24575,7 +24598,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -24601,14 +24624,14 @@
         <v>188</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" t="s" s="2">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>80</v>
@@ -24636,10 +24659,10 @@
         <v>255</v>
       </c>
       <c r="X179" t="s" s="2">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="Y179" t="s" s="2">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="Z179" t="s" s="2">
         <v>80</v>
@@ -24657,7 +24680,7 @@
         <v>80</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>78</v>
@@ -24684,12 +24707,12 @@
         <v>80</v>
       </c>
       <c r="AN179" t="s" s="2">
-        <v>910</v>
+        <v>912</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -24712,19 +24735,19 @@
         <v>80</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>80</v>
@@ -24773,7 +24796,7 @@
         <v>80</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>78</v>
@@ -24785,7 +24808,7 @@
         <v>144</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="AJ180" t="s" s="2">
         <v>80</v>
@@ -24794,18 +24817,18 @@
         <v>80</v>
       </c>
       <c r="AL180" t="s" s="2">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="AM180" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN180" t="s" s="2">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -24917,7 +24940,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -25031,7 +25054,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -25057,10 +25080,10 @@
         <v>657</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="M183" t="s" s="2">
         <v>659</v>
@@ -25147,7 +25170,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -25176,7 +25199,7 @@
         <v>665</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M184" s="2"/>
       <c r="N184" t="s" s="2">
@@ -25263,7 +25286,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -25289,10 +25312,10 @@
         <v>90</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="M185" s="2"/>
       <c r="N185" t="s" s="2">
@@ -25377,7 +25400,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -25403,10 +25426,10 @@
         <v>102</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="M186" s="2"/>
       <c r="N186" t="s" s="2">
@@ -25420,7 +25443,7 @@
         <v>80</v>
       </c>
       <c r="R186" t="s" s="2">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="S186" t="s" s="2">
         <v>80</v>
@@ -25491,7 +25514,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -25517,10 +25540,10 @@
         <v>108</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="M187" t="s" s="2">
         <v>693</v>
@@ -25607,7 +25630,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -25630,19 +25653,19 @@
         <v>89</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>80</v>
@@ -25691,7 +25714,7 @@
         <v>80</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>78</v>
@@ -25712,18 +25735,18 @@
         <v>80</v>
       </c>
       <c r="AL188" t="s" s="2">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="AM188" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN188" t="s" s="2">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -25835,7 +25858,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -25949,7 +25972,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -25972,13 +25995,13 @@
         <v>89</v>
       </c>
       <c r="J191" t="s" s="2">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="M191" s="2"/>
       <c r="N191" s="2"/>
@@ -26029,7 +26052,7 @@
         <v>80</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>78</v>
@@ -26050,7 +26073,7 @@
         <v>80</v>
       </c>
       <c r="AL191" t="s" s="2">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="AM191" t="s" s="2">
         <v>80</v>
@@ -26061,7 +26084,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -26173,7 +26196,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -26287,7 +26310,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -26313,10 +26336,10 @@
         <v>657</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="M194" t="s" s="2">
         <v>659</v>
@@ -26403,7 +26426,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -26519,7 +26542,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -26545,10 +26568,10 @@
         <v>90</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="M196" s="2"/>
       <c r="N196" t="s" s="2">
@@ -26633,7 +26656,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -26659,10 +26682,10 @@
         <v>102</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="M197" s="2"/>
       <c r="N197" t="s" s="2">
@@ -26676,7 +26699,7 @@
         <v>80</v>
       </c>
       <c r="R197" t="s" s="2">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="S197" t="s" s="2">
         <v>80</v>
@@ -26747,7 +26770,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -26773,10 +26796,10 @@
         <v>108</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="M198" t="s" s="2">
         <v>693</v>
@@ -26863,7 +26886,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -26886,13 +26909,13 @@
         <v>89</v>
       </c>
       <c r="J199" t="s" s="2">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="M199" s="2"/>
       <c r="N199" s="2"/>
@@ -26943,7 +26966,7 @@
         <v>80</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>78</v>
@@ -26964,7 +26987,7 @@
         <v>80</v>
       </c>
       <c r="AL199" t="s" s="2">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="AM199" t="s" s="2">
         <v>80</v>
@@ -26975,7 +26998,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -26998,19 +27021,19 @@
         <v>89</v>
       </c>
       <c r="J200" t="s" s="2">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="O200" t="s" s="2">
         <v>80</v>
@@ -27059,7 +27082,7 @@
         <v>80</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>78</v>
@@ -27080,18 +27103,18 @@
         <v>80</v>
       </c>
       <c r="AL200" t="s" s="2">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="AM200" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN200" t="s" s="2">
-        <v>971</v>
+        <v>973</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -27203,7 +27226,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -27317,7 +27340,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -27340,16 +27363,16 @@
         <v>89</v>
       </c>
       <c r="J203" t="s" s="2">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="N203" s="2"/>
       <c r="O203" t="s" s="2">
@@ -27399,7 +27422,7 @@
         <v>80</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>78</v>
@@ -27420,7 +27443,7 @@
         <v>80</v>
       </c>
       <c r="AL203" t="s" s="2">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="AM203" t="s" s="2">
         <v>80</v>
@@ -27431,7 +27454,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -27543,7 +27566,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -27657,7 +27680,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -27683,13 +27706,13 @@
         <v>657</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="N206" t="s" s="2">
         <v>660</v>
@@ -27773,7 +27796,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -27799,16 +27822,16 @@
         <v>108</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="M207" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="O207" t="s" s="2">
         <v>80</v>
@@ -27891,7 +27914,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -27917,16 +27940,16 @@
         <v>90</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="M208" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="O208" t="s" s="2">
         <v>80</v>
@@ -28007,7 +28030,7 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -28033,16 +28056,16 @@
         <v>102</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="M209" t="s" s="2">
         <v>490</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="O209" t="s" s="2">
         <v>80</v>
@@ -28123,7 +28146,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -28149,16 +28172,16 @@
         <v>108</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>80</v>
@@ -28239,7 +28262,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -28262,16 +28285,16 @@
         <v>89</v>
       </c>
       <c r="J211" t="s" s="2">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="N211" s="2"/>
       <c r="O211" t="s" s="2">
@@ -28321,7 +28344,7 @@
         <v>80</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>78</v>
@@ -28342,7 +28365,7 @@
         <v>80</v>
       </c>
       <c r="AL211" t="s" s="2">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="AM211" t="s" s="2">
         <v>80</v>
@@ -28353,7 +28376,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -28465,7 +28488,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -28579,7 +28602,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -28605,13 +28628,13 @@
         <v>657</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="N214" t="s" s="2">
         <v>660</v>
@@ -28695,7 +28718,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -28721,16 +28744,16 @@
         <v>108</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="M215" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="O215" t="s" s="2">
         <v>80</v>
@@ -28813,7 +28836,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -28839,16 +28862,16 @@
         <v>90</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="M216" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="O216" t="s" s="2">
         <v>80</v>
@@ -28929,7 +28952,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -28955,16 +28978,16 @@
         <v>102</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="M217" t="s" s="2">
         <v>490</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="O217" t="s" s="2">
         <v>80</v>
@@ -29045,7 +29068,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -29071,16 +29094,16 @@
         <v>108</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="O218" t="s" s="2">
         <v>80</v>
@@ -29161,7 +29184,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -29184,19 +29207,19 @@
         <v>89</v>
       </c>
       <c r="J219" t="s" s="2">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="O219" t="s" s="2">
         <v>80</v>
@@ -29245,7 +29268,7 @@
         <v>80</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>78</v>
@@ -29266,7 +29289,7 @@
         <v>80</v>
       </c>
       <c r="AL219" t="s" s="2">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="AM219" t="s" s="2">
         <v>80</v>
@@ -29277,7 +29300,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -29389,7 +29412,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -29503,7 +29526,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -29529,13 +29552,13 @@
         <v>657</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="N222" t="s" s="2">
         <v>660</v>
@@ -29619,7 +29642,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -29645,16 +29668,16 @@
         <v>108</v>
       </c>
       <c r="K223" t="s" s="2">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="M223" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N223" t="s" s="2">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="O223" t="s" s="2">
         <v>80</v>
@@ -29737,7 +29760,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -29763,16 +29786,16 @@
         <v>90</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="M224" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="O224" t="s" s="2">
         <v>80</v>
@@ -29853,7 +29876,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -29879,16 +29902,16 @@
         <v>102</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="M225" t="s" s="2">
         <v>490</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="O225" t="s" s="2">
         <v>80</v>
@@ -29969,7 +29992,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -29995,16 +30018,16 @@
         <v>108</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="N226" t="s" s="2">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="O226" t="s" s="2">
         <v>80</v>
@@ -30085,7 +30108,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -30108,19 +30131,19 @@
         <v>89</v>
       </c>
       <c r="J227" t="s" s="2">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="O227" t="s" s="2">
         <v>80</v>
@@ -30169,7 +30192,7 @@
         <v>80</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>78</v>
@@ -30190,7 +30213,7 @@
         <v>80</v>
       </c>
       <c r="AL227" t="s" s="2">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="AM227" t="s" s="2">
         <v>80</v>
@@ -30201,7 +30224,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -30313,7 +30336,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -30427,7 +30450,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -30453,13 +30476,13 @@
         <v>657</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="N230" t="s" s="2">
         <v>660</v>
@@ -30543,7 +30566,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -30569,16 +30592,16 @@
         <v>108</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="M231" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="O231" t="s" s="2">
         <v>80</v>
@@ -30661,7 +30684,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -30687,16 +30710,16 @@
         <v>90</v>
       </c>
       <c r="K232" t="s" s="2">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="M232" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N232" t="s" s="2">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="O232" t="s" s="2">
         <v>80</v>
@@ -30777,7 +30800,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -30803,16 +30826,16 @@
         <v>102</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="M233" t="s" s="2">
         <v>490</v>
       </c>
       <c r="N233" t="s" s="2">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="O233" t="s" s="2">
         <v>80</v>
@@ -30893,7 +30916,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -30919,16 +30942,16 @@
         <v>108</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="N234" t="s" s="2">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="O234" t="s" s="2">
         <v>80</v>
@@ -31009,7 +31032,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -31032,13 +31055,13 @@
         <v>80</v>
       </c>
       <c r="J235" t="s" s="2">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="M235" s="2"/>
       <c r="N235" s="2"/>
@@ -31089,7 +31112,7 @@
         <v>80</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>78</v>
@@ -31107,10 +31130,10 @@
         <v>80</v>
       </c>
       <c r="AK235" t="s" s="2">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="AL235" t="s" s="2">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="AM235" t="s" s="2">
         <v>80</v>
@@ -31121,7 +31144,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -31233,7 +31256,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -31343,10 +31366,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="C238" t="s" s="2">
         <v>80</v>
@@ -31368,13 +31391,13 @@
         <v>80</v>
       </c>
       <c r="J238" t="s" s="2">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="M238" s="2"/>
       <c r="N238" s="2"/>
@@ -31457,7 +31480,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -31569,7 +31592,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -31681,7 +31704,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -31707,13 +31730,13 @@
         <v>102</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="N241" s="2"/>
       <c r="O241" t="s" s="2">
@@ -31721,7 +31744,7 @@
       </c>
       <c r="P241" s="2"/>
       <c r="Q241" t="s" s="2">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="R241" t="s" s="2">
         <v>80</v>
@@ -31763,7 +31786,7 @@
         <v>80</v>
       </c>
       <c r="AE241" t="s" s="2">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="AF241" t="s" s="2">
         <v>88</v>
@@ -31795,7 +31818,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -31821,10 +31844,10 @@
         <v>188</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="M242" s="2"/>
       <c r="N242" s="2"/>
@@ -31863,19 +31886,17 @@
         <v>80</v>
       </c>
       <c r="AA242" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB242" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="AB242" s="2"/>
       <c r="AC242" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD242" t="s" s="2">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="AE242" t="s" s="2">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="AF242" t="s" s="2">
         <v>78</v>
@@ -31907,10 +31928,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>1041</v>
+        <v>1056</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="C243" t="s" s="2">
         <v>80</v>
@@ -31932,13 +31953,13 @@
         <v>80</v>
       </c>
       <c r="J243" t="s" s="2">
-        <v>1058</v>
+        <v>188</v>
       </c>
       <c r="K243" t="s" s="2">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="M243" s="2"/>
       <c r="N243" s="2"/>
@@ -31989,19 +32010,19 @@
         <v>80</v>
       </c>
       <c r="AE243" t="s" s="2">
-        <v>176</v>
+        <v>1058</v>
       </c>
       <c r="AF243" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG243" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH243" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AI243" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ243" t="s" s="2">
         <v>80</v>
@@ -32010,7 +32031,7 @@
         <v>80</v>
       </c>
       <c r="AL243" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AM243" t="s" s="2">
         <v>80</v>
@@ -32021,43 +32042,39 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
-        <v>550</v>
+        <v>80</v>
       </c>
       <c r="D244" s="2"/>
       <c r="E244" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F244" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G244" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H244" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I244" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J244" t="s" s="2">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>551</v>
+        <v>168</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="M244" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N244" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="M244" s="2"/>
+      <c r="N244" s="2"/>
       <c r="O244" t="s" s="2">
         <v>80</v>
       </c>
@@ -32105,19 +32122,19 @@
         <v>80</v>
       </c>
       <c r="AE244" t="s" s="2">
-        <v>553</v>
+        <v>170</v>
       </c>
       <c r="AF244" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG244" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH244" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI244" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AJ244" t="s" s="2">
         <v>80</v>
@@ -32126,7 +32143,7 @@
         <v>80</v>
       </c>
       <c r="AL244" t="s" s="2">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="AM244" t="s" s="2">
         <v>80</v>
@@ -32137,18 +32154,18 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D245" s="2"/>
       <c r="E245" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F245" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G245" t="s" s="2">
         <v>80</v>
@@ -32160,16 +32177,16 @@
         <v>80</v>
       </c>
       <c r="J245" t="s" s="2">
-        <v>1035</v>
+        <v>133</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>1062</v>
+        <v>173</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>1063</v>
+        <v>174</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>1064</v>
+        <v>149</v>
       </c>
       <c r="N245" s="2"/>
       <c r="O245" t="s" s="2">
@@ -32207,31 +32224,31 @@
         <v>80</v>
       </c>
       <c r="AA245" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB245" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AC245" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD245" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE245" t="s" s="2">
-        <v>1061</v>
+        <v>176</v>
       </c>
       <c r="AF245" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG245" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH245" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI245" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ245" t="s" s="2">
         <v>80</v>
@@ -32240,7 +32257,7 @@
         <v>80</v>
       </c>
       <c r="AL245" t="s" s="2">
-        <v>1065</v>
+        <v>171</v>
       </c>
       <c r="AM245" t="s" s="2">
         <v>80</v>
@@ -32251,7 +32268,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -32262,7 +32279,7 @@
         <v>78</v>
       </c>
       <c r="F246" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G246" t="s" s="2">
         <v>80</v>
@@ -32271,19 +32288,23 @@
         <v>80</v>
       </c>
       <c r="I246" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J246" t="s" s="2">
-        <v>90</v>
+        <v>317</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>384</v>
+        <v>864</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="M246" s="2"/>
-      <c r="N246" s="2"/>
+        <v>865</v>
+      </c>
+      <c r="M246" t="s" s="2">
+        <v>866</v>
+      </c>
+      <c r="N246" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="O246" t="s" s="2">
         <v>80</v>
       </c>
@@ -32307,13 +32328,11 @@
         <v>80</v>
       </c>
       <c r="W246" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X246" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X246" s="2"/>
       <c r="Y246" t="s" s="2">
-        <v>80</v>
+        <v>1065</v>
       </c>
       <c r="Z246" t="s" s="2">
         <v>80</v>
@@ -32331,19 +32350,19 @@
         <v>80</v>
       </c>
       <c r="AE246" t="s" s="2">
-        <v>170</v>
+        <v>322</v>
       </c>
       <c r="AF246" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG246" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH246" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI246" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ246" t="s" s="2">
         <v>80</v>
@@ -32352,29 +32371,29 @@
         <v>80</v>
       </c>
       <c r="AL246" t="s" s="2">
-        <v>171</v>
+        <v>323</v>
       </c>
       <c r="AM246" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN246" t="s" s="2">
-        <v>80</v>
+        <v>324</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F247" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G247" t="s" s="2">
         <v>80</v>
@@ -32383,21 +32402,23 @@
         <v>80</v>
       </c>
       <c r="I247" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J247" t="s" s="2">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>173</v>
+        <v>1067</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>174</v>
+        <v>1068</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N247" s="2"/>
+        <v>1069</v>
+      </c>
+      <c r="N247" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O247" t="s" s="2">
         <v>80</v>
       </c>
@@ -32445,19 +32466,19 @@
         <v>80</v>
       </c>
       <c r="AE247" t="s" s="2">
-        <v>176</v>
+        <v>368</v>
       </c>
       <c r="AF247" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG247" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH247" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI247" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ247" t="s" s="2">
         <v>80</v>
@@ -32466,54 +32487,52 @@
         <v>80</v>
       </c>
       <c r="AL247" t="s" s="2">
-        <v>171</v>
+        <v>369</v>
       </c>
       <c r="AM247" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN247" t="s" s="2">
-        <v>80</v>
+        <v>370</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>1068</v>
-      </c>
-      <c r="B248" s="2"/>
+        <v>1043</v>
+      </c>
+      <c r="B248" t="s" s="2">
+        <v>1070</v>
+      </c>
       <c r="C248" t="s" s="2">
-        <v>550</v>
+        <v>80</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F248" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G248" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H248" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I248" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J248" t="s" s="2">
-        <v>133</v>
+        <v>1071</v>
       </c>
       <c r="K248" t="s" s="2">
-        <v>551</v>
+        <v>1072</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="M248" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N248" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>1072</v>
+      </c>
+      <c r="M248" s="2"/>
+      <c r="N248" s="2"/>
       <c r="O248" t="s" s="2">
         <v>80</v>
       </c>
@@ -32561,7 +32580,7 @@
         <v>80</v>
       </c>
       <c r="AE248" t="s" s="2">
-        <v>553</v>
+        <v>176</v>
       </c>
       <c r="AF248" t="s" s="2">
         <v>78</v>
@@ -32570,7 +32589,7 @@
         <v>79</v>
       </c>
       <c r="AH248" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AI248" t="s" s="2">
         <v>139</v>
@@ -32582,7 +32601,7 @@
         <v>80</v>
       </c>
       <c r="AL248" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AM248" t="s" s="2">
         <v>80</v>
@@ -32593,41 +32612,43 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
-        <v>80</v>
+        <v>550</v>
       </c>
       <c r="D249" s="2"/>
       <c r="E249" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F249" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G249" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H249" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I249" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J249" t="s" s="2">
-        <v>912</v>
+        <v>133</v>
       </c>
       <c r="K249" t="s" s="2">
-        <v>1070</v>
+        <v>551</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>1071</v>
+        <v>552</v>
       </c>
       <c r="M249" t="s" s="2">
-        <v>976</v>
-      </c>
-      <c r="N249" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N249" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O249" t="s" s="2">
         <v>80</v>
       </c>
@@ -32675,19 +32696,19 @@
         <v>80</v>
       </c>
       <c r="AE249" t="s" s="2">
-        <v>1069</v>
+        <v>553</v>
       </c>
       <c r="AF249" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG249" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH249" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI249" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ249" t="s" s="2">
         <v>80</v>
@@ -32696,7 +32717,7 @@
         <v>80</v>
       </c>
       <c r="AL249" t="s" s="2">
-        <v>1072</v>
+        <v>131</v>
       </c>
       <c r="AM249" t="s" s="2">
         <v>80</v>
@@ -32707,7 +32728,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -32730,15 +32751,17 @@
         <v>80</v>
       </c>
       <c r="J250" t="s" s="2">
-        <v>90</v>
+        <v>1037</v>
       </c>
       <c r="K250" t="s" s="2">
-        <v>580</v>
+        <v>1075</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="M250" s="2"/>
+        <v>1076</v>
+      </c>
+      <c r="M250" t="s" s="2">
+        <v>1077</v>
+      </c>
       <c r="N250" s="2"/>
       <c r="O250" t="s" s="2">
         <v>80</v>
@@ -32787,7 +32810,7 @@
         <v>80</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>170</v>
+        <v>1074</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>78</v>
@@ -32799,7 +32822,7 @@
         <v>80</v>
       </c>
       <c r="AI250" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ250" t="s" s="2">
         <v>80</v>
@@ -32808,7 +32831,7 @@
         <v>80</v>
       </c>
       <c r="AL250" t="s" s="2">
-        <v>171</v>
+        <v>1078</v>
       </c>
       <c r="AM250" t="s" s="2">
         <v>80</v>
@@ -32819,18 +32842,18 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>1074</v>
+        <v>1079</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F251" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G251" t="s" s="2">
         <v>80</v>
@@ -32842,17 +32865,15 @@
         <v>80</v>
       </c>
       <c r="J251" t="s" s="2">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="K251" t="s" s="2">
-        <v>173</v>
+        <v>384</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M251" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="M251" s="2"/>
       <c r="N251" s="2"/>
       <c r="O251" t="s" s="2">
         <v>80</v>
@@ -32889,31 +32910,31 @@
         <v>80</v>
       </c>
       <c r="AA251" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB251" t="s" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="AC251" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD251" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE251" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="AF251" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG251" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH251" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI251" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AJ251" t="s" s="2">
         <v>80</v>
@@ -32933,18 +32954,18 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>1075</v>
+        <v>1080</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D252" s="2"/>
       <c r="E252" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F252" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G252" t="s" s="2">
         <v>80</v>
@@ -32953,23 +32974,21 @@
         <v>80</v>
       </c>
       <c r="I252" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J252" t="s" s="2">
-        <v>657</v>
+        <v>133</v>
       </c>
       <c r="K252" t="s" s="2">
-        <v>980</v>
+        <v>173</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>981</v>
+        <v>174</v>
       </c>
       <c r="M252" t="s" s="2">
-        <v>982</v>
-      </c>
-      <c r="N252" t="s" s="2">
-        <v>660</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="N252" s="2"/>
       <c r="O252" t="s" s="2">
         <v>80</v>
       </c>
@@ -33017,19 +33036,19 @@
         <v>80</v>
       </c>
       <c r="AE252" t="s" s="2">
-        <v>661</v>
+        <v>176</v>
       </c>
       <c r="AF252" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG252" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH252" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI252" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ252" t="s" s="2">
         <v>80</v>
@@ -33038,29 +33057,29 @@
         <v>80</v>
       </c>
       <c r="AL252" t="s" s="2">
-        <v>662</v>
+        <v>171</v>
       </c>
       <c r="AM252" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN252" t="s" s="2">
-        <v>663</v>
+        <v>80</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>1076</v>
+        <v>1081</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
-        <v>80</v>
+        <v>550</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F253" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G253" t="s" s="2">
         <v>80</v>
@@ -33072,26 +33091,24 @@
         <v>89</v>
       </c>
       <c r="J253" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>984</v>
+        <v>551</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>985</v>
+        <v>552</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>566</v>
+        <v>149</v>
       </c>
       <c r="N253" t="s" s="2">
-        <v>986</v>
+        <v>150</v>
       </c>
       <c r="O253" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P253" t="s" s="2">
-        <v>668</v>
-      </c>
+      <c r="P253" s="2"/>
       <c r="Q253" t="s" s="2">
         <v>80</v>
       </c>
@@ -33111,13 +33128,13 @@
         <v>80</v>
       </c>
       <c r="W253" t="s" s="2">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="X253" t="s" s="2">
-        <v>669</v>
+        <v>80</v>
       </c>
       <c r="Y253" t="s" s="2">
-        <v>670</v>
+        <v>80</v>
       </c>
       <c r="Z253" t="s" s="2">
         <v>80</v>
@@ -33135,19 +33152,19 @@
         <v>80</v>
       </c>
       <c r="AE253" t="s" s="2">
-        <v>671</v>
+        <v>553</v>
       </c>
       <c r="AF253" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG253" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH253" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI253" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ253" t="s" s="2">
         <v>80</v>
@@ -33156,18 +33173,18 @@
         <v>80</v>
       </c>
       <c r="AL253" t="s" s="2">
-        <v>672</v>
+        <v>131</v>
       </c>
       <c r="AM253" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN253" t="s" s="2">
-        <v>673</v>
+        <v>80</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>1077</v>
+        <v>1082</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -33187,23 +33204,21 @@
         <v>80</v>
       </c>
       <c r="I254" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J254" t="s" s="2">
-        <v>90</v>
+        <v>914</v>
       </c>
       <c r="K254" t="s" s="2">
-        <v>988</v>
+        <v>1083</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>989</v>
+        <v>1084</v>
       </c>
       <c r="M254" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N254" t="s" s="2">
-        <v>990</v>
-      </c>
+        <v>978</v>
+      </c>
+      <c r="N254" s="2"/>
       <c r="O254" t="s" s="2">
         <v>80</v>
       </c>
@@ -33251,7 +33266,7 @@
         <v>80</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>679</v>
+        <v>1082</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>78</v>
@@ -33272,18 +33287,18 @@
         <v>80</v>
       </c>
       <c r="AL254" t="s" s="2">
-        <v>680</v>
+        <v>1085</v>
       </c>
       <c r="AM254" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN254" t="s" s="2">
-        <v>681</v>
+        <v>80</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>1078</v>
+        <v>1086</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -33303,23 +33318,19 @@
         <v>80</v>
       </c>
       <c r="I255" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J255" t="s" s="2">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="K255" t="s" s="2">
-        <v>992</v>
+        <v>580</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>993</v>
-      </c>
-      <c r="M255" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N255" t="s" s="2">
-        <v>994</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="M255" s="2"/>
+      <c r="N255" s="2"/>
       <c r="O255" t="s" s="2">
         <v>80</v>
       </c>
@@ -33367,7 +33378,7 @@
         <v>80</v>
       </c>
       <c r="AE255" t="s" s="2">
-        <v>687</v>
+        <v>170</v>
       </c>
       <c r="AF255" t="s" s="2">
         <v>78</v>
@@ -33376,10 +33387,10 @@
         <v>88</v>
       </c>
       <c r="AH255" t="s" s="2">
-        <v>688</v>
+        <v>80</v>
       </c>
       <c r="AI255" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ255" t="s" s="2">
         <v>80</v>
@@ -33388,29 +33399,29 @@
         <v>80</v>
       </c>
       <c r="AL255" t="s" s="2">
-        <v>689</v>
+        <v>171</v>
       </c>
       <c r="AM255" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN255" t="s" s="2">
-        <v>681</v>
+        <v>80</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>1079</v>
+        <v>1087</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D256" s="2"/>
       <c r="E256" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F256" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G256" t="s" s="2">
         <v>80</v>
@@ -33419,23 +33430,21 @@
         <v>80</v>
       </c>
       <c r="I256" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J256" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K256" t="s" s="2">
-        <v>996</v>
+        <v>173</v>
       </c>
       <c r="L256" t="s" s="2">
-        <v>997</v>
+        <v>174</v>
       </c>
       <c r="M256" t="s" s="2">
-        <v>998</v>
-      </c>
-      <c r="N256" t="s" s="2">
-        <v>999</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="N256" s="2"/>
       <c r="O256" t="s" s="2">
         <v>80</v>
       </c>
@@ -33471,31 +33480,31 @@
         <v>80</v>
       </c>
       <c r="AA256" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB256" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AC256" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD256" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE256" t="s" s="2">
-        <v>696</v>
+        <v>176</v>
       </c>
       <c r="AF256" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG256" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH256" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI256" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ256" t="s" s="2">
         <v>80</v>
@@ -33504,18 +33513,18 @@
         <v>80</v>
       </c>
       <c r="AL256" t="s" s="2">
-        <v>697</v>
+        <v>171</v>
       </c>
       <c r="AM256" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN256" t="s" s="2">
-        <v>681</v>
+        <v>80</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>1080</v>
+        <v>1088</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -33535,21 +33544,23 @@
         <v>80</v>
       </c>
       <c r="I257" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J257" t="s" s="2">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="K257" t="s" s="2">
-        <v>1081</v>
+        <v>982</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>1082</v>
+        <v>983</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>976</v>
-      </c>
-      <c r="N257" s="2"/>
+        <v>984</v>
+      </c>
+      <c r="N257" t="s" s="2">
+        <v>660</v>
+      </c>
       <c r="O257" t="s" s="2">
         <v>80</v>
       </c>
@@ -33597,7 +33608,7 @@
         <v>80</v>
       </c>
       <c r="AE257" t="s" s="2">
-        <v>1080</v>
+        <v>661</v>
       </c>
       <c r="AF257" t="s" s="2">
         <v>78</v>
@@ -33618,18 +33629,18 @@
         <v>80</v>
       </c>
       <c r="AL257" t="s" s="2">
-        <v>1083</v>
+        <v>662</v>
       </c>
       <c r="AM257" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN257" t="s" s="2">
-        <v>80</v>
+        <v>663</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>1084</v>
+        <v>1089</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -33640,32 +33651,38 @@
         <v>78</v>
       </c>
       <c r="F258" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G258" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H258" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I258" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J258" t="s" s="2">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="K258" t="s" s="2">
-        <v>580</v>
+        <v>986</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="M258" s="2"/>
-      <c r="N258" s="2"/>
+        <v>987</v>
+      </c>
+      <c r="M258" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="N258" t="s" s="2">
+        <v>988</v>
+      </c>
       <c r="O258" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P258" s="2"/>
+      <c r="P258" t="s" s="2">
+        <v>668</v>
+      </c>
       <c r="Q258" t="s" s="2">
         <v>80</v>
       </c>
@@ -33685,13 +33702,13 @@
         <v>80</v>
       </c>
       <c r="W258" t="s" s="2">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="X258" t="s" s="2">
-        <v>80</v>
+        <v>669</v>
       </c>
       <c r="Y258" t="s" s="2">
-        <v>80</v>
+        <v>670</v>
       </c>
       <c r="Z258" t="s" s="2">
         <v>80</v>
@@ -33709,7 +33726,7 @@
         <v>80</v>
       </c>
       <c r="AE258" t="s" s="2">
-        <v>170</v>
+        <v>671</v>
       </c>
       <c r="AF258" t="s" s="2">
         <v>78</v>
@@ -33721,7 +33738,7 @@
         <v>80</v>
       </c>
       <c r="AI258" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ258" t="s" s="2">
         <v>80</v>
@@ -33730,29 +33747,29 @@
         <v>80</v>
       </c>
       <c r="AL258" t="s" s="2">
-        <v>171</v>
+        <v>672</v>
       </c>
       <c r="AM258" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN258" t="s" s="2">
-        <v>80</v>
+        <v>673</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>1085</v>
+        <v>1090</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F259" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G259" t="s" s="2">
         <v>80</v>
@@ -33761,21 +33778,23 @@
         <v>80</v>
       </c>
       <c r="I259" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J259" t="s" s="2">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="K259" t="s" s="2">
-        <v>173</v>
+        <v>990</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>174</v>
+        <v>991</v>
       </c>
       <c r="M259" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N259" s="2"/>
+        <v>566</v>
+      </c>
+      <c r="N259" t="s" s="2">
+        <v>992</v>
+      </c>
       <c r="O259" t="s" s="2">
         <v>80</v>
       </c>
@@ -33811,31 +33830,31 @@
         <v>80</v>
       </c>
       <c r="AA259" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB259" t="s" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="AC259" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD259" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE259" t="s" s="2">
-        <v>176</v>
+        <v>679</v>
       </c>
       <c r="AF259" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG259" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH259" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI259" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ259" t="s" s="2">
         <v>80</v>
@@ -33844,18 +33863,18 @@
         <v>80</v>
       </c>
       <c r="AL259" t="s" s="2">
-        <v>171</v>
+        <v>680</v>
       </c>
       <c r="AM259" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN259" t="s" s="2">
-        <v>80</v>
+        <v>681</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>1086</v>
+        <v>1091</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -33878,19 +33897,19 @@
         <v>89</v>
       </c>
       <c r="J260" t="s" s="2">
-        <v>657</v>
+        <v>102</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>980</v>
+        <v>994</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>981</v>
+        <v>995</v>
       </c>
       <c r="M260" t="s" s="2">
-        <v>982</v>
+        <v>490</v>
       </c>
       <c r="N260" t="s" s="2">
-        <v>660</v>
+        <v>996</v>
       </c>
       <c r="O260" t="s" s="2">
         <v>80</v>
@@ -33939,7 +33958,7 @@
         <v>80</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>661</v>
+        <v>687</v>
       </c>
       <c r="AF260" t="s" s="2">
         <v>78</v>
@@ -33948,7 +33967,7 @@
         <v>88</v>
       </c>
       <c r="AH260" t="s" s="2">
-        <v>80</v>
+        <v>688</v>
       </c>
       <c r="AI260" t="s" s="2">
         <v>100</v>
@@ -33960,18 +33979,18 @@
         <v>80</v>
       </c>
       <c r="AL260" t="s" s="2">
-        <v>662</v>
+        <v>689</v>
       </c>
       <c r="AM260" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN260" t="s" s="2">
-        <v>663</v>
+        <v>681</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>1087</v>
+        <v>1092</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -33988,7 +34007,7 @@
         <v>80</v>
       </c>
       <c r="H261" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I261" t="s" s="2">
         <v>89</v>
@@ -33997,23 +34016,21 @@
         <v>108</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>984</v>
+        <v>998</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>985</v>
+        <v>999</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>566</v>
+        <v>1000</v>
       </c>
       <c r="N261" t="s" s="2">
-        <v>986</v>
+        <v>1001</v>
       </c>
       <c r="O261" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P261" t="s" s="2">
-        <v>668</v>
-      </c>
+      <c r="P261" s="2"/>
       <c r="Q261" t="s" s="2">
         <v>80</v>
       </c>
@@ -34033,13 +34050,13 @@
         <v>80</v>
       </c>
       <c r="W261" t="s" s="2">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="X261" t="s" s="2">
-        <v>669</v>
+        <v>80</v>
       </c>
       <c r="Y261" t="s" s="2">
-        <v>670</v>
+        <v>80</v>
       </c>
       <c r="Z261" t="s" s="2">
         <v>80</v>
@@ -34057,7 +34074,7 @@
         <v>80</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>671</v>
+        <v>696</v>
       </c>
       <c r="AF261" t="s" s="2">
         <v>78</v>
@@ -34078,18 +34095,18 @@
         <v>80</v>
       </c>
       <c r="AL261" t="s" s="2">
-        <v>672</v>
+        <v>697</v>
       </c>
       <c r="AM261" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN261" t="s" s="2">
-        <v>673</v>
+        <v>681</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>1088</v>
+        <v>1093</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -34109,23 +34126,21 @@
         <v>80</v>
       </c>
       <c r="I262" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J262" t="s" s="2">
-        <v>90</v>
+        <v>651</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>988</v>
+        <v>1094</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>989</v>
+        <v>1095</v>
       </c>
       <c r="M262" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N262" t="s" s="2">
-        <v>990</v>
-      </c>
+        <v>978</v>
+      </c>
+      <c r="N262" s="2"/>
       <c r="O262" t="s" s="2">
         <v>80</v>
       </c>
@@ -34173,7 +34188,7 @@
         <v>80</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>679</v>
+        <v>1093</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>78</v>
@@ -34194,18 +34209,18 @@
         <v>80</v>
       </c>
       <c r="AL262" t="s" s="2">
-        <v>680</v>
+        <v>1096</v>
       </c>
       <c r="AM262" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN262" t="s" s="2">
-        <v>681</v>
+        <v>80</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>1089</v>
+        <v>1097</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -34225,23 +34240,19 @@
         <v>80</v>
       </c>
       <c r="I263" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J263" t="s" s="2">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="K263" t="s" s="2">
-        <v>992</v>
+        <v>580</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>993</v>
-      </c>
-      <c r="M263" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N263" t="s" s="2">
-        <v>994</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="M263" s="2"/>
+      <c r="N263" s="2"/>
       <c r="O263" t="s" s="2">
         <v>80</v>
       </c>
@@ -34289,7 +34300,7 @@
         <v>80</v>
       </c>
       <c r="AE263" t="s" s="2">
-        <v>687</v>
+        <v>170</v>
       </c>
       <c r="AF263" t="s" s="2">
         <v>78</v>
@@ -34298,10 +34309,10 @@
         <v>88</v>
       </c>
       <c r="AH263" t="s" s="2">
-        <v>688</v>
+        <v>80</v>
       </c>
       <c r="AI263" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ263" t="s" s="2">
         <v>80</v>
@@ -34310,29 +34321,29 @@
         <v>80</v>
       </c>
       <c r="AL263" t="s" s="2">
-        <v>689</v>
+        <v>171</v>
       </c>
       <c r="AM263" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN263" t="s" s="2">
-        <v>681</v>
+        <v>80</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>1090</v>
+        <v>1098</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D264" s="2"/>
       <c r="E264" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F264" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G264" t="s" s="2">
         <v>80</v>
@@ -34341,23 +34352,21 @@
         <v>80</v>
       </c>
       <c r="I264" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J264" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K264" t="s" s="2">
-        <v>996</v>
+        <v>173</v>
       </c>
       <c r="L264" t="s" s="2">
-        <v>997</v>
+        <v>174</v>
       </c>
       <c r="M264" t="s" s="2">
-        <v>998</v>
-      </c>
-      <c r="N264" t="s" s="2">
-        <v>999</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="N264" s="2"/>
       <c r="O264" t="s" s="2">
         <v>80</v>
       </c>
@@ -34393,31 +34402,31 @@
         <v>80</v>
       </c>
       <c r="AA264" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB264" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AC264" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD264" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE264" t="s" s="2">
-        <v>696</v>
+        <v>176</v>
       </c>
       <c r="AF264" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG264" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH264" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI264" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ264" t="s" s="2">
         <v>80</v>
@@ -34426,18 +34435,18 @@
         <v>80</v>
       </c>
       <c r="AL264" t="s" s="2">
-        <v>697</v>
+        <v>171</v>
       </c>
       <c r="AM264" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN264" t="s" s="2">
-        <v>681</v>
+        <v>80</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>1091</v>
+        <v>1099</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -34457,21 +34466,23 @@
         <v>80</v>
       </c>
       <c r="I265" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J265" t="s" s="2">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="K265" t="s" s="2">
-        <v>1092</v>
+        <v>982</v>
       </c>
       <c r="L265" t="s" s="2">
-        <v>1093</v>
+        <v>983</v>
       </c>
       <c r="M265" t="s" s="2">
-        <v>976</v>
-      </c>
-      <c r="N265" s="2"/>
+        <v>984</v>
+      </c>
+      <c r="N265" t="s" s="2">
+        <v>660</v>
+      </c>
       <c r="O265" t="s" s="2">
         <v>80</v>
       </c>
@@ -34519,7 +34530,7 @@
         <v>80</v>
       </c>
       <c r="AE265" t="s" s="2">
-        <v>1091</v>
+        <v>661</v>
       </c>
       <c r="AF265" t="s" s="2">
         <v>78</v>
@@ -34540,18 +34551,18 @@
         <v>80</v>
       </c>
       <c r="AL265" t="s" s="2">
-        <v>1083</v>
+        <v>662</v>
       </c>
       <c r="AM265" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN265" t="s" s="2">
-        <v>80</v>
+        <v>663</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>1094</v>
+        <v>1100</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -34568,26 +34579,32 @@
         <v>80</v>
       </c>
       <c r="H266" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I266" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J266" t="s" s="2">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="K266" t="s" s="2">
-        <v>580</v>
+        <v>986</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="M266" s="2"/>
-      <c r="N266" s="2"/>
+        <v>987</v>
+      </c>
+      <c r="M266" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="N266" t="s" s="2">
+        <v>988</v>
+      </c>
       <c r="O266" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P266" s="2"/>
+      <c r="P266" t="s" s="2">
+        <v>668</v>
+      </c>
       <c r="Q266" t="s" s="2">
         <v>80</v>
       </c>
@@ -34607,13 +34624,13 @@
         <v>80</v>
       </c>
       <c r="W266" t="s" s="2">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="X266" t="s" s="2">
-        <v>80</v>
+        <v>669</v>
       </c>
       <c r="Y266" t="s" s="2">
-        <v>80</v>
+        <v>670</v>
       </c>
       <c r="Z266" t="s" s="2">
         <v>80</v>
@@ -34631,7 +34648,7 @@
         <v>80</v>
       </c>
       <c r="AE266" t="s" s="2">
-        <v>170</v>
+        <v>671</v>
       </c>
       <c r="AF266" t="s" s="2">
         <v>78</v>
@@ -34643,7 +34660,7 @@
         <v>80</v>
       </c>
       <c r="AI266" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ266" t="s" s="2">
         <v>80</v>
@@ -34652,29 +34669,29 @@
         <v>80</v>
       </c>
       <c r="AL266" t="s" s="2">
-        <v>171</v>
+        <v>672</v>
       </c>
       <c r="AM266" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN266" t="s" s="2">
-        <v>80</v>
+        <v>673</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>1095</v>
+        <v>1101</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F267" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G267" t="s" s="2">
         <v>80</v>
@@ -34683,21 +34700,23 @@
         <v>80</v>
       </c>
       <c r="I267" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J267" t="s" s="2">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="K267" t="s" s="2">
-        <v>173</v>
+        <v>990</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>174</v>
+        <v>991</v>
       </c>
       <c r="M267" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N267" s="2"/>
+        <v>566</v>
+      </c>
+      <c r="N267" t="s" s="2">
+        <v>992</v>
+      </c>
       <c r="O267" t="s" s="2">
         <v>80</v>
       </c>
@@ -34733,31 +34752,31 @@
         <v>80</v>
       </c>
       <c r="AA267" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB267" t="s" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="AC267" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD267" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE267" t="s" s="2">
-        <v>176</v>
+        <v>679</v>
       </c>
       <c r="AF267" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG267" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH267" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI267" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ267" t="s" s="2">
         <v>80</v>
@@ -34766,18 +34785,18 @@
         <v>80</v>
       </c>
       <c r="AL267" t="s" s="2">
-        <v>171</v>
+        <v>680</v>
       </c>
       <c r="AM267" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN267" t="s" s="2">
-        <v>80</v>
+        <v>681</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -34800,19 +34819,19 @@
         <v>89</v>
       </c>
       <c r="J268" t="s" s="2">
-        <v>657</v>
+        <v>102</v>
       </c>
       <c r="K268" t="s" s="2">
-        <v>980</v>
+        <v>994</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>981</v>
+        <v>995</v>
       </c>
       <c r="M268" t="s" s="2">
-        <v>982</v>
+        <v>490</v>
       </c>
       <c r="N268" t="s" s="2">
-        <v>660</v>
+        <v>996</v>
       </c>
       <c r="O268" t="s" s="2">
         <v>80</v>
@@ -34861,7 +34880,7 @@
         <v>80</v>
       </c>
       <c r="AE268" t="s" s="2">
-        <v>661</v>
+        <v>687</v>
       </c>
       <c r="AF268" t="s" s="2">
         <v>78</v>
@@ -34870,7 +34889,7 @@
         <v>88</v>
       </c>
       <c r="AH268" t="s" s="2">
-        <v>80</v>
+        <v>688</v>
       </c>
       <c r="AI268" t="s" s="2">
         <v>100</v>
@@ -34882,18 +34901,18 @@
         <v>80</v>
       </c>
       <c r="AL268" t="s" s="2">
-        <v>662</v>
+        <v>689</v>
       </c>
       <c r="AM268" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN268" t="s" s="2">
-        <v>663</v>
+        <v>681</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>1097</v>
+        <v>1103</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -34910,7 +34929,7 @@
         <v>80</v>
       </c>
       <c r="H269" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I269" t="s" s="2">
         <v>89</v>
@@ -34919,23 +34938,21 @@
         <v>108</v>
       </c>
       <c r="K269" t="s" s="2">
-        <v>984</v>
+        <v>998</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>985</v>
+        <v>999</v>
       </c>
       <c r="M269" t="s" s="2">
-        <v>566</v>
+        <v>1000</v>
       </c>
       <c r="N269" t="s" s="2">
-        <v>986</v>
+        <v>1001</v>
       </c>
       <c r="O269" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P269" t="s" s="2">
-        <v>668</v>
-      </c>
+      <c r="P269" s="2"/>
       <c r="Q269" t="s" s="2">
         <v>80</v>
       </c>
@@ -34955,13 +34972,13 @@
         <v>80</v>
       </c>
       <c r="W269" t="s" s="2">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="X269" t="s" s="2">
-        <v>669</v>
+        <v>80</v>
       </c>
       <c r="Y269" t="s" s="2">
-        <v>670</v>
+        <v>80</v>
       </c>
       <c r="Z269" t="s" s="2">
         <v>80</v>
@@ -34979,7 +34996,7 @@
         <v>80</v>
       </c>
       <c r="AE269" t="s" s="2">
-        <v>671</v>
+        <v>696</v>
       </c>
       <c r="AF269" t="s" s="2">
         <v>78</v>
@@ -35000,18 +35017,18 @@
         <v>80</v>
       </c>
       <c r="AL269" t="s" s="2">
-        <v>672</v>
+        <v>697</v>
       </c>
       <c r="AM269" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN269" t="s" s="2">
-        <v>673</v>
+        <v>681</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>1098</v>
+        <v>1104</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -35031,23 +35048,21 @@
         <v>80</v>
       </c>
       <c r="I270" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J270" t="s" s="2">
-        <v>90</v>
+        <v>651</v>
       </c>
       <c r="K270" t="s" s="2">
-        <v>988</v>
+        <v>1105</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>989</v>
+        <v>1106</v>
       </c>
       <c r="M270" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N270" t="s" s="2">
-        <v>990</v>
-      </c>
+        <v>978</v>
+      </c>
+      <c r="N270" s="2"/>
       <c r="O270" t="s" s="2">
         <v>80</v>
       </c>
@@ -35095,7 +35110,7 @@
         <v>80</v>
       </c>
       <c r="AE270" t="s" s="2">
-        <v>679</v>
+        <v>1104</v>
       </c>
       <c r="AF270" t="s" s="2">
         <v>78</v>
@@ -35116,18 +35131,18 @@
         <v>80</v>
       </c>
       <c r="AL270" t="s" s="2">
-        <v>680</v>
+        <v>1096</v>
       </c>
       <c r="AM270" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN270" t="s" s="2">
-        <v>681</v>
+        <v>80</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>1099</v>
+        <v>1107</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -35147,23 +35162,19 @@
         <v>80</v>
       </c>
       <c r="I271" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J271" t="s" s="2">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="K271" t="s" s="2">
-        <v>992</v>
+        <v>580</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>993</v>
-      </c>
-      <c r="M271" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N271" t="s" s="2">
-        <v>994</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="M271" s="2"/>
+      <c r="N271" s="2"/>
       <c r="O271" t="s" s="2">
         <v>80</v>
       </c>
@@ -35211,7 +35222,7 @@
         <v>80</v>
       </c>
       <c r="AE271" t="s" s="2">
-        <v>687</v>
+        <v>170</v>
       </c>
       <c r="AF271" t="s" s="2">
         <v>78</v>
@@ -35220,10 +35231,10 @@
         <v>88</v>
       </c>
       <c r="AH271" t="s" s="2">
-        <v>688</v>
+        <v>80</v>
       </c>
       <c r="AI271" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ271" t="s" s="2">
         <v>80</v>
@@ -35232,29 +35243,29 @@
         <v>80</v>
       </c>
       <c r="AL271" t="s" s="2">
-        <v>689</v>
+        <v>171</v>
       </c>
       <c r="AM271" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN271" t="s" s="2">
-        <v>681</v>
+        <v>80</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>1100</v>
+        <v>1108</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F272" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G272" t="s" s="2">
         <v>80</v>
@@ -35263,23 +35274,21 @@
         <v>80</v>
       </c>
       <c r="I272" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J272" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K272" t="s" s="2">
-        <v>996</v>
+        <v>173</v>
       </c>
       <c r="L272" t="s" s="2">
-        <v>997</v>
+        <v>174</v>
       </c>
       <c r="M272" t="s" s="2">
-        <v>998</v>
-      </c>
-      <c r="N272" t="s" s="2">
-        <v>999</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="N272" s="2"/>
       <c r="O272" t="s" s="2">
         <v>80</v>
       </c>
@@ -35315,31 +35324,31 @@
         <v>80</v>
       </c>
       <c r="AA272" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB272" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AC272" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD272" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE272" t="s" s="2">
-        <v>696</v>
+        <v>176</v>
       </c>
       <c r="AF272" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG272" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH272" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI272" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ272" t="s" s="2">
         <v>80</v>
@@ -35348,18 +35357,18 @@
         <v>80</v>
       </c>
       <c r="AL272" t="s" s="2">
-        <v>697</v>
+        <v>171</v>
       </c>
       <c r="AM272" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN272" t="s" s="2">
-        <v>681</v>
+        <v>80</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>1101</v>
+        <v>1109</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -35379,22 +35388,22 @@
         <v>80</v>
       </c>
       <c r="I273" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J273" t="s" s="2">
-        <v>217</v>
+        <v>657</v>
       </c>
       <c r="K273" t="s" s="2">
-        <v>1102</v>
+        <v>982</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>1103</v>
+        <v>983</v>
       </c>
       <c r="M273" t="s" s="2">
-        <v>1104</v>
+        <v>984</v>
       </c>
       <c r="N273" t="s" s="2">
-        <v>1105</v>
+        <v>660</v>
       </c>
       <c r="O273" t="s" s="2">
         <v>80</v>
@@ -35443,7 +35452,7 @@
         <v>80</v>
       </c>
       <c r="AE273" t="s" s="2">
-        <v>1101</v>
+        <v>661</v>
       </c>
       <c r="AF273" t="s" s="2">
         <v>78</v>
@@ -35461,21 +35470,21 @@
         <v>80</v>
       </c>
       <c r="AK273" t="s" s="2">
-        <v>1106</v>
+        <v>80</v>
       </c>
       <c r="AL273" t="s" s="2">
-        <v>1107</v>
+        <v>662</v>
       </c>
       <c r="AM273" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN273" t="s" s="2">
-        <v>80</v>
+        <v>663</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -35492,26 +35501,32 @@
         <v>80</v>
       </c>
       <c r="H274" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I274" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J274" t="s" s="2">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="K274" t="s" s="2">
-        <v>580</v>
+        <v>986</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="M274" s="2"/>
-      <c r="N274" s="2"/>
+        <v>987</v>
+      </c>
+      <c r="M274" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="N274" t="s" s="2">
+        <v>988</v>
+      </c>
       <c r="O274" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P274" s="2"/>
+      <c r="P274" t="s" s="2">
+        <v>668</v>
+      </c>
       <c r="Q274" t="s" s="2">
         <v>80</v>
       </c>
@@ -35531,13 +35546,13 @@
         <v>80</v>
       </c>
       <c r="W274" t="s" s="2">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="X274" t="s" s="2">
-        <v>80</v>
+        <v>669</v>
       </c>
       <c r="Y274" t="s" s="2">
-        <v>80</v>
+        <v>670</v>
       </c>
       <c r="Z274" t="s" s="2">
         <v>80</v>
@@ -35555,7 +35570,7 @@
         <v>80</v>
       </c>
       <c r="AE274" t="s" s="2">
-        <v>170</v>
+        <v>671</v>
       </c>
       <c r="AF274" t="s" s="2">
         <v>78</v>
@@ -35567,7 +35582,7 @@
         <v>80</v>
       </c>
       <c r="AI274" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ274" t="s" s="2">
         <v>80</v>
@@ -35576,29 +35591,29 @@
         <v>80</v>
       </c>
       <c r="AL274" t="s" s="2">
-        <v>171</v>
+        <v>672</v>
       </c>
       <c r="AM274" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN274" t="s" s="2">
-        <v>80</v>
+        <v>673</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D275" s="2"/>
       <c r="E275" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F275" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G275" t="s" s="2">
         <v>80</v>
@@ -35607,21 +35622,23 @@
         <v>80</v>
       </c>
       <c r="I275" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J275" t="s" s="2">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="K275" t="s" s="2">
-        <v>173</v>
+        <v>990</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>174</v>
+        <v>991</v>
       </c>
       <c r="M275" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N275" s="2"/>
+        <v>566</v>
+      </c>
+      <c r="N275" t="s" s="2">
+        <v>992</v>
+      </c>
       <c r="O275" t="s" s="2">
         <v>80</v>
       </c>
@@ -35657,31 +35674,31 @@
         <v>80</v>
       </c>
       <c r="AA275" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB275" t="s" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="AC275" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD275" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE275" t="s" s="2">
-        <v>176</v>
+        <v>679</v>
       </c>
       <c r="AF275" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG275" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH275" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI275" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ275" t="s" s="2">
         <v>80</v>
@@ -35690,18 +35707,18 @@
         <v>80</v>
       </c>
       <c r="AL275" t="s" s="2">
-        <v>171</v>
+        <v>680</v>
       </c>
       <c r="AM275" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN275" t="s" s="2">
-        <v>80</v>
+        <v>681</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -35724,18 +35741,20 @@
         <v>89</v>
       </c>
       <c r="J276" t="s" s="2">
-        <v>428</v>
+        <v>102</v>
       </c>
       <c r="K276" t="s" s="2">
-        <v>1111</v>
+        <v>994</v>
       </c>
       <c r="L276" t="s" s="2">
-        <v>1112</v>
+        <v>995</v>
       </c>
       <c r="M276" t="s" s="2">
-        <v>1113</v>
-      </c>
-      <c r="N276" s="2"/>
+        <v>490</v>
+      </c>
+      <c r="N276" t="s" s="2">
+        <v>996</v>
+      </c>
       <c r="O276" t="s" s="2">
         <v>80</v>
       </c>
@@ -35783,7 +35802,7 @@
         <v>80</v>
       </c>
       <c r="AE276" t="s" s="2">
-        <v>1114</v>
+        <v>687</v>
       </c>
       <c r="AF276" t="s" s="2">
         <v>78</v>
@@ -35792,7 +35811,7 @@
         <v>88</v>
       </c>
       <c r="AH276" t="s" s="2">
-        <v>1115</v>
+        <v>688</v>
       </c>
       <c r="AI276" t="s" s="2">
         <v>100</v>
@@ -35804,18 +35823,18 @@
         <v>80</v>
       </c>
       <c r="AL276" t="s" s="2">
-        <v>1116</v>
+        <v>689</v>
       </c>
       <c r="AM276" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN276" t="s" s="2">
-        <v>1117</v>
+        <v>681</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -35838,24 +35857,24 @@
         <v>89</v>
       </c>
       <c r="J277" t="s" s="2">
-        <v>428</v>
+        <v>108</v>
       </c>
       <c r="K277" t="s" s="2">
-        <v>1119</v>
+        <v>998</v>
       </c>
       <c r="L277" t="s" s="2">
-        <v>1120</v>
+        <v>999</v>
       </c>
       <c r="M277" t="s" s="2">
-        <v>1121</v>
-      </c>
-      <c r="N277" s="2"/>
+        <v>1000</v>
+      </c>
+      <c r="N277" t="s" s="2">
+        <v>1001</v>
+      </c>
       <c r="O277" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P277" t="s" s="2">
-        <v>1122</v>
-      </c>
+      <c r="P277" s="2"/>
       <c r="Q277" t="s" s="2">
         <v>80</v>
       </c>
@@ -35899,7 +35918,7 @@
         <v>80</v>
       </c>
       <c r="AE277" t="s" s="2">
-        <v>1123</v>
+        <v>696</v>
       </c>
       <c r="AF277" t="s" s="2">
         <v>78</v>
@@ -35908,7 +35927,7 @@
         <v>88</v>
       </c>
       <c r="AH277" t="s" s="2">
-        <v>1115</v>
+        <v>80</v>
       </c>
       <c r="AI277" t="s" s="2">
         <v>100</v>
@@ -35920,18 +35939,18 @@
         <v>80</v>
       </c>
       <c r="AL277" t="s" s="2">
-        <v>1124</v>
+        <v>697</v>
       </c>
       <c r="AM277" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN277" t="s" s="2">
-        <v>1125</v>
+        <v>681</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -35954,18 +35973,20 @@
         <v>80</v>
       </c>
       <c r="J278" t="s" s="2">
-        <v>774</v>
+        <v>217</v>
       </c>
       <c r="K278" t="s" s="2">
-        <v>1127</v>
+        <v>1115</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>1128</v>
+        <v>1116</v>
       </c>
       <c r="M278" t="s" s="2">
-        <v>1129</v>
-      </c>
-      <c r="N278" s="2"/>
+        <v>1117</v>
+      </c>
+      <c r="N278" t="s" s="2">
+        <v>1118</v>
+      </c>
       <c r="O278" t="s" s="2">
         <v>80</v>
       </c>
@@ -36013,7 +36034,7 @@
         <v>80</v>
       </c>
       <c r="AE278" t="s" s="2">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="AF278" t="s" s="2">
         <v>78</v>
@@ -36031,21 +36052,21 @@
         <v>80</v>
       </c>
       <c r="AK278" t="s" s="2">
-        <v>1130</v>
+        <v>1119</v>
       </c>
       <c r="AL278" t="s" s="2">
-        <v>1131</v>
+        <v>1120</v>
       </c>
       <c r="AM278" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN278" t="s" s="2">
-        <v>1132</v>
+        <v>80</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>1133</v>
+        <v>1121</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -36068,17 +36089,15 @@
         <v>80</v>
       </c>
       <c r="J279" t="s" s="2">
-        <v>912</v>
+        <v>90</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>1134</v>
+        <v>580</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>1135</v>
-      </c>
-      <c r="M279" t="s" s="2">
-        <v>976</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="M279" s="2"/>
       <c r="N279" s="2"/>
       <c r="O279" t="s" s="2">
         <v>80</v>
@@ -36127,7 +36146,7 @@
         <v>80</v>
       </c>
       <c r="AE279" t="s" s="2">
-        <v>1133</v>
+        <v>170</v>
       </c>
       <c r="AF279" t="s" s="2">
         <v>78</v>
@@ -36139,38 +36158,38 @@
         <v>80</v>
       </c>
       <c r="AI279" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ279" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK279" t="s" s="2">
-        <v>1136</v>
+        <v>80</v>
       </c>
       <c r="AL279" t="s" s="2">
-        <v>1137</v>
+        <v>171</v>
       </c>
       <c r="AM279" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN279" t="s" s="2">
-        <v>1138</v>
+        <v>80</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>1139</v>
+        <v>1122</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D280" s="2"/>
       <c r="E280" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F280" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G280" t="s" s="2">
         <v>80</v>
@@ -36182,15 +36201,17 @@
         <v>80</v>
       </c>
       <c r="J280" t="s" s="2">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="K280" t="s" s="2">
-        <v>580</v>
+        <v>173</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="M280" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="M280" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="N280" s="2"/>
       <c r="O280" t="s" s="2">
         <v>80</v>
@@ -36227,31 +36248,31 @@
         <v>80</v>
       </c>
       <c r="AA280" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB280" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AC280" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD280" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE280" t="s" s="2">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AF280" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG280" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH280" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI280" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AJ280" t="s" s="2">
         <v>80</v>
@@ -36271,18 +36292,18 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>1140</v>
+        <v>1123</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D281" s="2"/>
       <c r="E281" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F281" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G281" t="s" s="2">
         <v>80</v>
@@ -36291,19 +36312,19 @@
         <v>80</v>
       </c>
       <c r="I281" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J281" t="s" s="2">
-        <v>133</v>
+        <v>428</v>
       </c>
       <c r="K281" t="s" s="2">
-        <v>173</v>
+        <v>1124</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>174</v>
+        <v>1125</v>
       </c>
       <c r="M281" t="s" s="2">
-        <v>149</v>
+        <v>1126</v>
       </c>
       <c r="N281" s="2"/>
       <c r="O281" t="s" s="2">
@@ -36341,31 +36362,31 @@
         <v>80</v>
       </c>
       <c r="AA281" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB281" t="s" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="AC281" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD281" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE281" t="s" s="2">
-        <v>176</v>
+        <v>1127</v>
       </c>
       <c r="AF281" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG281" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH281" t="s" s="2">
-        <v>80</v>
+        <v>1128</v>
       </c>
       <c r="AI281" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ281" t="s" s="2">
         <v>80</v>
@@ -36374,18 +36395,18 @@
         <v>80</v>
       </c>
       <c r="AL281" t="s" s="2">
-        <v>171</v>
+        <v>1129</v>
       </c>
       <c r="AM281" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN281" t="s" s="2">
-        <v>80</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>1141</v>
+        <v>1131</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -36393,7 +36414,7 @@
       </c>
       <c r="D282" s="2"/>
       <c r="E282" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F282" t="s" s="2">
         <v>88</v>
@@ -36408,24 +36429,24 @@
         <v>89</v>
       </c>
       <c r="J282" t="s" s="2">
-        <v>657</v>
+        <v>428</v>
       </c>
       <c r="K282" t="s" s="2">
+        <v>1132</v>
+      </c>
+      <c r="L282" t="s" s="2">
+        <v>1133</v>
+      </c>
+      <c r="M282" t="s" s="2">
         <v>1134</v>
       </c>
-      <c r="L282" t="s" s="2">
-        <v>1142</v>
-      </c>
-      <c r="M282" t="s" s="2">
-        <v>982</v>
-      </c>
-      <c r="N282" t="s" s="2">
-        <v>660</v>
-      </c>
+      <c r="N282" s="2"/>
       <c r="O282" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P282" s="2"/>
+      <c r="P282" t="s" s="2">
+        <v>1135</v>
+      </c>
       <c r="Q282" t="s" s="2">
         <v>80</v>
       </c>
@@ -36469,7 +36490,7 @@
         <v>80</v>
       </c>
       <c r="AE282" t="s" s="2">
-        <v>661</v>
+        <v>1136</v>
       </c>
       <c r="AF282" t="s" s="2">
         <v>78</v>
@@ -36478,7 +36499,7 @@
         <v>88</v>
       </c>
       <c r="AH282" t="s" s="2">
-        <v>80</v>
+        <v>1128</v>
       </c>
       <c r="AI282" t="s" s="2">
         <v>100</v>
@@ -36490,18 +36511,18 @@
         <v>80</v>
       </c>
       <c r="AL282" t="s" s="2">
-        <v>662</v>
+        <v>1137</v>
       </c>
       <c r="AM282" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN282" t="s" s="2">
-        <v>663</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -36512,38 +36533,34 @@
         <v>78</v>
       </c>
       <c r="F283" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G283" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H283" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I283" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J283" t="s" s="2">
-        <v>108</v>
+        <v>774</v>
       </c>
       <c r="K283" t="s" s="2">
-        <v>984</v>
+        <v>1140</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>985</v>
+        <v>1141</v>
       </c>
       <c r="M283" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N283" t="s" s="2">
-        <v>986</v>
-      </c>
+        <v>1142</v>
+      </c>
+      <c r="N283" s="2"/>
       <c r="O283" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P283" t="s" s="2">
-        <v>668</v>
-      </c>
+      <c r="P283" s="2"/>
       <c r="Q283" t="s" s="2">
         <v>80</v>
       </c>
@@ -36563,13 +36580,13 @@
         <v>80</v>
       </c>
       <c r="W283" t="s" s="2">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="X283" t="s" s="2">
-        <v>669</v>
+        <v>80</v>
       </c>
       <c r="Y283" t="s" s="2">
-        <v>670</v>
+        <v>80</v>
       </c>
       <c r="Z283" t="s" s="2">
         <v>80</v>
@@ -36587,7 +36604,7 @@
         <v>80</v>
       </c>
       <c r="AE283" t="s" s="2">
-        <v>671</v>
+        <v>1139</v>
       </c>
       <c r="AF283" t="s" s="2">
         <v>78</v>
@@ -36605,21 +36622,21 @@
         <v>80</v>
       </c>
       <c r="AK283" t="s" s="2">
-        <v>80</v>
+        <v>1143</v>
       </c>
       <c r="AL283" t="s" s="2">
-        <v>672</v>
+        <v>1144</v>
       </c>
       <c r="AM283" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN283" t="s" s="2">
-        <v>673</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -36627,7 +36644,7 @@
       </c>
       <c r="D284" s="2"/>
       <c r="E284" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F284" t="s" s="2">
         <v>88</v>
@@ -36639,23 +36656,21 @@
         <v>80</v>
       </c>
       <c r="I284" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J284" t="s" s="2">
-        <v>90</v>
+        <v>914</v>
       </c>
       <c r="K284" t="s" s="2">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="M284" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N284" t="s" s="2">
-        <v>990</v>
-      </c>
+        <v>978</v>
+      </c>
+      <c r="N284" s="2"/>
       <c r="O284" t="s" s="2">
         <v>80</v>
       </c>
@@ -36703,7 +36718,7 @@
         <v>80</v>
       </c>
       <c r="AE284" t="s" s="2">
-        <v>679</v>
+        <v>1146</v>
       </c>
       <c r="AF284" t="s" s="2">
         <v>78</v>
@@ -36721,21 +36736,21 @@
         <v>80</v>
       </c>
       <c r="AK284" t="s" s="2">
-        <v>80</v>
+        <v>1149</v>
       </c>
       <c r="AL284" t="s" s="2">
-        <v>680</v>
+        <v>1150</v>
       </c>
       <c r="AM284" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN284" t="s" s="2">
-        <v>681</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>1146</v>
+        <v>1152</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" t="s" s="2">
@@ -36743,7 +36758,7 @@
       </c>
       <c r="D285" s="2"/>
       <c r="E285" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F285" t="s" s="2">
         <v>88</v>
@@ -36755,23 +36770,19 @@
         <v>80</v>
       </c>
       <c r="I285" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J285" t="s" s="2">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="K285" t="s" s="2">
-        <v>1147</v>
+        <v>580</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>1148</v>
-      </c>
-      <c r="M285" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N285" t="s" s="2">
-        <v>994</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="M285" s="2"/>
+      <c r="N285" s="2"/>
       <c r="O285" t="s" s="2">
         <v>80</v>
       </c>
@@ -36780,7 +36791,7 @@
         <v>80</v>
       </c>
       <c r="R285" t="s" s="2">
-        <v>931</v>
+        <v>80</v>
       </c>
       <c r="S285" t="s" s="2">
         <v>80</v>
@@ -36819,7 +36830,7 @@
         <v>80</v>
       </c>
       <c r="AE285" t="s" s="2">
-        <v>687</v>
+        <v>170</v>
       </c>
       <c r="AF285" t="s" s="2">
         <v>78</v>
@@ -36828,10 +36839,10 @@
         <v>88</v>
       </c>
       <c r="AH285" t="s" s="2">
-        <v>688</v>
+        <v>80</v>
       </c>
       <c r="AI285" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ285" t="s" s="2">
         <v>80</v>
@@ -36840,29 +36851,29 @@
         <v>80</v>
       </c>
       <c r="AL285" t="s" s="2">
-        <v>689</v>
+        <v>171</v>
       </c>
       <c r="AM285" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN285" t="s" s="2">
-        <v>681</v>
+        <v>80</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>1149</v>
+        <v>1153</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F286" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G286" t="s" s="2">
         <v>80</v>
@@ -36871,23 +36882,21 @@
         <v>80</v>
       </c>
       <c r="I286" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J286" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K286" t="s" s="2">
-        <v>1150</v>
+        <v>173</v>
       </c>
       <c r="L286" t="s" s="2">
-        <v>1150</v>
+        <v>174</v>
       </c>
       <c r="M286" t="s" s="2">
-        <v>998</v>
-      </c>
-      <c r="N286" t="s" s="2">
-        <v>999</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="N286" s="2"/>
       <c r="O286" t="s" s="2">
         <v>80</v>
       </c>
@@ -36923,31 +36932,31 @@
         <v>80</v>
       </c>
       <c r="AA286" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB286" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AC286" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD286" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE286" t="s" s="2">
-        <v>696</v>
+        <v>176</v>
       </c>
       <c r="AF286" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG286" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH286" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI286" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ286" t="s" s="2">
         <v>80</v>
@@ -36956,18 +36965,18 @@
         <v>80</v>
       </c>
       <c r="AL286" t="s" s="2">
-        <v>697</v>
+        <v>171</v>
       </c>
       <c r="AM286" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN286" t="s" s="2">
-        <v>681</v>
+        <v>80</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
@@ -36975,7 +36984,7 @@
       </c>
       <c r="D287" s="2"/>
       <c r="E287" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F287" t="s" s="2">
         <v>88</v>
@@ -36987,21 +36996,23 @@
         <v>80</v>
       </c>
       <c r="I287" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J287" t="s" s="2">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="K287" t="s" s="2">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="M287" t="s" s="2">
-        <v>1154</v>
-      </c>
-      <c r="N287" s="2"/>
+        <v>984</v>
+      </c>
+      <c r="N287" t="s" s="2">
+        <v>660</v>
+      </c>
       <c r="O287" t="s" s="2">
         <v>80</v>
       </c>
@@ -37049,7 +37060,7 @@
         <v>80</v>
       </c>
       <c r="AE287" t="s" s="2">
-        <v>1151</v>
+        <v>661</v>
       </c>
       <c r="AF287" t="s" s="2">
         <v>78</v>
@@ -37067,21 +37078,21 @@
         <v>80</v>
       </c>
       <c r="AK287" t="s" s="2">
-        <v>1155</v>
+        <v>80</v>
       </c>
       <c r="AL287" t="s" s="2">
-        <v>1156</v>
+        <v>662</v>
       </c>
       <c r="AM287" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN287" t="s" s="2">
-        <v>80</v>
+        <v>663</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -37092,32 +37103,38 @@
         <v>78</v>
       </c>
       <c r="F288" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G288" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H288" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I288" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J288" t="s" s="2">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="K288" t="s" s="2">
-        <v>580</v>
+        <v>986</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="M288" s="2"/>
-      <c r="N288" s="2"/>
+        <v>987</v>
+      </c>
+      <c r="M288" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="N288" t="s" s="2">
+        <v>988</v>
+      </c>
       <c r="O288" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P288" s="2"/>
+      <c r="P288" t="s" s="2">
+        <v>668</v>
+      </c>
       <c r="Q288" t="s" s="2">
         <v>80</v>
       </c>
@@ -37137,13 +37154,13 @@
         <v>80</v>
       </c>
       <c r="W288" t="s" s="2">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="X288" t="s" s="2">
-        <v>80</v>
+        <v>669</v>
       </c>
       <c r="Y288" t="s" s="2">
-        <v>80</v>
+        <v>670</v>
       </c>
       <c r="Z288" t="s" s="2">
         <v>80</v>
@@ -37161,7 +37178,7 @@
         <v>80</v>
       </c>
       <c r="AE288" t="s" s="2">
-        <v>170</v>
+        <v>671</v>
       </c>
       <c r="AF288" t="s" s="2">
         <v>78</v>
@@ -37173,7 +37190,7 @@
         <v>80</v>
       </c>
       <c r="AI288" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ288" t="s" s="2">
         <v>80</v>
@@ -37182,29 +37199,29 @@
         <v>80</v>
       </c>
       <c r="AL288" t="s" s="2">
-        <v>171</v>
+        <v>672</v>
       </c>
       <c r="AM288" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN288" t="s" s="2">
-        <v>80</v>
+        <v>673</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F289" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G289" t="s" s="2">
         <v>80</v>
@@ -37213,21 +37230,23 @@
         <v>80</v>
       </c>
       <c r="I289" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J289" t="s" s="2">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>173</v>
+        <v>1158</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>174</v>
+        <v>1158</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N289" s="2"/>
+        <v>566</v>
+      </c>
+      <c r="N289" t="s" s="2">
+        <v>992</v>
+      </c>
       <c r="O289" t="s" s="2">
         <v>80</v>
       </c>
@@ -37263,31 +37282,31 @@
         <v>80</v>
       </c>
       <c r="AA289" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB289" t="s" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="AC289" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD289" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE289" t="s" s="2">
-        <v>176</v>
+        <v>679</v>
       </c>
       <c r="AF289" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG289" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH289" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI289" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ289" t="s" s="2">
         <v>80</v>
@@ -37296,13 +37315,13 @@
         <v>80</v>
       </c>
       <c r="AL289" t="s" s="2">
-        <v>171</v>
+        <v>680</v>
       </c>
       <c r="AM289" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN289" t="s" s="2">
-        <v>80</v>
+        <v>681</v>
       </c>
     </row>
     <row r="290">
@@ -37330,19 +37349,19 @@
         <v>89</v>
       </c>
       <c r="J290" t="s" s="2">
-        <v>657</v>
+        <v>102</v>
       </c>
       <c r="K290" t="s" s="2">
-        <v>1152</v>
+        <v>1160</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>1152</v>
+        <v>1161</v>
       </c>
       <c r="M290" t="s" s="2">
-        <v>982</v>
+        <v>490</v>
       </c>
       <c r="N290" t="s" s="2">
-        <v>660</v>
+        <v>996</v>
       </c>
       <c r="O290" t="s" s="2">
         <v>80</v>
@@ -37352,7 +37371,7 @@
         <v>80</v>
       </c>
       <c r="R290" t="s" s="2">
-        <v>80</v>
+        <v>933</v>
       </c>
       <c r="S290" t="s" s="2">
         <v>80</v>
@@ -37391,7 +37410,7 @@
         <v>80</v>
       </c>
       <c r="AE290" t="s" s="2">
-        <v>661</v>
+        <v>687</v>
       </c>
       <c r="AF290" t="s" s="2">
         <v>78</v>
@@ -37400,7 +37419,7 @@
         <v>88</v>
       </c>
       <c r="AH290" t="s" s="2">
-        <v>80</v>
+        <v>688</v>
       </c>
       <c r="AI290" t="s" s="2">
         <v>100</v>
@@ -37412,18 +37431,18 @@
         <v>80</v>
       </c>
       <c r="AL290" t="s" s="2">
-        <v>662</v>
+        <v>689</v>
       </c>
       <c r="AM290" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN290" t="s" s="2">
-        <v>663</v>
+        <v>681</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -37431,16 +37450,16 @@
       </c>
       <c r="D291" s="2"/>
       <c r="E291" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F291" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G291" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H291" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I291" t="s" s="2">
         <v>89</v>
@@ -37449,23 +37468,21 @@
         <v>108</v>
       </c>
       <c r="K291" t="s" s="2">
-        <v>984</v>
+        <v>1163</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>985</v>
+        <v>1163</v>
       </c>
       <c r="M291" t="s" s="2">
-        <v>566</v>
+        <v>1000</v>
       </c>
       <c r="N291" t="s" s="2">
-        <v>986</v>
+        <v>1001</v>
       </c>
       <c r="O291" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P291" t="s" s="2">
-        <v>668</v>
-      </c>
+      <c r="P291" s="2"/>
       <c r="Q291" t="s" s="2">
         <v>80</v>
       </c>
@@ -37485,13 +37502,13 @@
         <v>80</v>
       </c>
       <c r="W291" t="s" s="2">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="X291" t="s" s="2">
-        <v>669</v>
+        <v>80</v>
       </c>
       <c r="Y291" t="s" s="2">
-        <v>670</v>
+        <v>80</v>
       </c>
       <c r="Z291" t="s" s="2">
         <v>80</v>
@@ -37509,7 +37526,7 @@
         <v>80</v>
       </c>
       <c r="AE291" t="s" s="2">
-        <v>671</v>
+        <v>696</v>
       </c>
       <c r="AF291" t="s" s="2">
         <v>78</v>
@@ -37530,18 +37547,18 @@
         <v>80</v>
       </c>
       <c r="AL291" t="s" s="2">
-        <v>672</v>
+        <v>697</v>
       </c>
       <c r="AM291" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN291" t="s" s="2">
-        <v>673</v>
+        <v>681</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" t="s" s="2">
@@ -37549,7 +37566,7 @@
       </c>
       <c r="D292" s="2"/>
       <c r="E292" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F292" t="s" s="2">
         <v>88</v>
@@ -37561,29 +37578,27 @@
         <v>80</v>
       </c>
       <c r="I292" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J292" t="s" s="2">
-        <v>90</v>
+        <v>651</v>
       </c>
       <c r="K292" t="s" s="2">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="M292" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N292" t="s" s="2">
-        <v>990</v>
-      </c>
+        <v>1167</v>
+      </c>
+      <c r="N292" s="2"/>
       <c r="O292" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P292" s="2"/>
       <c r="Q292" t="s" s="2">
-        <v>678</v>
+        <v>80</v>
       </c>
       <c r="R292" t="s" s="2">
         <v>80</v>
@@ -37625,7 +37640,7 @@
         <v>80</v>
       </c>
       <c r="AE292" t="s" s="2">
-        <v>679</v>
+        <v>1164</v>
       </c>
       <c r="AF292" t="s" s="2">
         <v>78</v>
@@ -37643,21 +37658,21 @@
         <v>80</v>
       </c>
       <c r="AK292" t="s" s="2">
-        <v>80</v>
+        <v>1168</v>
       </c>
       <c r="AL292" t="s" s="2">
-        <v>680</v>
+        <v>1169</v>
       </c>
       <c r="AM292" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN292" t="s" s="2">
-        <v>681</v>
+        <v>80</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>1164</v>
+        <v>1170</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" t="s" s="2">
@@ -37665,7 +37680,7 @@
       </c>
       <c r="D293" s="2"/>
       <c r="E293" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F293" t="s" s="2">
         <v>88</v>
@@ -37677,29 +37692,25 @@
         <v>80</v>
       </c>
       <c r="I293" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J293" t="s" s="2">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="K293" t="s" s="2">
-        <v>1165</v>
+        <v>580</v>
       </c>
       <c r="L293" t="s" s="2">
-        <v>1166</v>
-      </c>
-      <c r="M293" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N293" t="s" s="2">
-        <v>994</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="M293" s="2"/>
+      <c r="N293" s="2"/>
       <c r="O293" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P293" s="2"/>
       <c r="Q293" t="s" s="2">
-        <v>686</v>
+        <v>80</v>
       </c>
       <c r="R293" t="s" s="2">
         <v>80</v>
@@ -37741,7 +37752,7 @@
         <v>80</v>
       </c>
       <c r="AE293" t="s" s="2">
-        <v>687</v>
+        <v>170</v>
       </c>
       <c r="AF293" t="s" s="2">
         <v>78</v>
@@ -37750,10 +37761,10 @@
         <v>88</v>
       </c>
       <c r="AH293" t="s" s="2">
-        <v>688</v>
+        <v>80</v>
       </c>
       <c r="AI293" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ293" t="s" s="2">
         <v>80</v>
@@ -37762,29 +37773,29 @@
         <v>80</v>
       </c>
       <c r="AL293" t="s" s="2">
-        <v>689</v>
+        <v>171</v>
       </c>
       <c r="AM293" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN293" t="s" s="2">
-        <v>681</v>
+        <v>80</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>1167</v>
+        <v>1171</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D294" s="2"/>
       <c r="E294" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F294" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G294" t="s" s="2">
         <v>80</v>
@@ -37793,29 +37804,27 @@
         <v>80</v>
       </c>
       <c r="I294" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J294" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K294" t="s" s="2">
-        <v>1168</v>
+        <v>173</v>
       </c>
       <c r="L294" t="s" s="2">
-        <v>1169</v>
+        <v>174</v>
       </c>
       <c r="M294" t="s" s="2">
-        <v>998</v>
-      </c>
-      <c r="N294" t="s" s="2">
-        <v>999</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="N294" s="2"/>
       <c r="O294" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P294" s="2"/>
       <c r="Q294" t="s" s="2">
-        <v>695</v>
+        <v>80</v>
       </c>
       <c r="R294" t="s" s="2">
         <v>80</v>
@@ -37845,31 +37854,31 @@
         <v>80</v>
       </c>
       <c r="AA294" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB294" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AC294" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD294" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE294" t="s" s="2">
-        <v>696</v>
+        <v>176</v>
       </c>
       <c r="AF294" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG294" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH294" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI294" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ294" t="s" s="2">
         <v>80</v>
@@ -37878,18 +37887,18 @@
         <v>80</v>
       </c>
       <c r="AL294" t="s" s="2">
-        <v>697</v>
+        <v>171</v>
       </c>
       <c r="AM294" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN294" t="s" s="2">
-        <v>681</v>
+        <v>80</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" t="s" s="2">
@@ -37897,7 +37906,7 @@
       </c>
       <c r="D295" s="2"/>
       <c r="E295" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F295" t="s" s="2">
         <v>88</v>
@@ -37909,21 +37918,23 @@
         <v>80</v>
       </c>
       <c r="I295" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J295" t="s" s="2">
-        <v>224</v>
+        <v>657</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="M295" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N295" s="2"/>
+        <v>984</v>
+      </c>
+      <c r="N295" t="s" s="2">
+        <v>660</v>
+      </c>
       <c r="O295" t="s" s="2">
         <v>80</v>
       </c>
@@ -37971,7 +37982,7 @@
         <v>80</v>
       </c>
       <c r="AE295" t="s" s="2">
-        <v>1170</v>
+        <v>661</v>
       </c>
       <c r="AF295" t="s" s="2">
         <v>78</v>
@@ -37992,18 +38003,18 @@
         <v>80</v>
       </c>
       <c r="AL295" t="s" s="2">
-        <v>1173</v>
+        <v>662</v>
       </c>
       <c r="AM295" t="s" s="2">
-        <v>462</v>
+        <v>80</v>
       </c>
       <c r="AN295" t="s" s="2">
-        <v>80</v>
+        <v>663</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" t="s" s="2">
@@ -38014,32 +38025,38 @@
         <v>78</v>
       </c>
       <c r="F296" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G296" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H296" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I296" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J296" t="s" s="2">
-        <v>1035</v>
+        <v>108</v>
       </c>
       <c r="K296" t="s" s="2">
-        <v>1175</v>
+        <v>986</v>
       </c>
       <c r="L296" t="s" s="2">
-        <v>1176</v>
-      </c>
-      <c r="M296" s="2"/>
-      <c r="N296" s="2"/>
+        <v>987</v>
+      </c>
+      <c r="M296" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="N296" t="s" s="2">
+        <v>988</v>
+      </c>
       <c r="O296" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P296" s="2"/>
+      <c r="P296" t="s" s="2">
+        <v>668</v>
+      </c>
       <c r="Q296" t="s" s="2">
         <v>80</v>
       </c>
@@ -38059,13 +38076,13 @@
         <v>80</v>
       </c>
       <c r="W296" t="s" s="2">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="X296" t="s" s="2">
-        <v>80</v>
+        <v>669</v>
       </c>
       <c r="Y296" t="s" s="2">
-        <v>80</v>
+        <v>670</v>
       </c>
       <c r="Z296" t="s" s="2">
         <v>80</v>
@@ -38083,7 +38100,7 @@
         <v>80</v>
       </c>
       <c r="AE296" t="s" s="2">
-        <v>1174</v>
+        <v>671</v>
       </c>
       <c r="AF296" t="s" s="2">
         <v>78</v>
@@ -38101,21 +38118,21 @@
         <v>80</v>
       </c>
       <c r="AK296" t="s" s="2">
-        <v>1177</v>
+        <v>80</v>
       </c>
       <c r="AL296" t="s" s="2">
-        <v>1178</v>
+        <v>672</v>
       </c>
       <c r="AM296" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN296" t="s" s="2">
-        <v>80</v>
+        <v>673</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" t="s" s="2">
@@ -38123,7 +38140,7 @@
       </c>
       <c r="D297" s="2"/>
       <c r="E297" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F297" t="s" s="2">
         <v>88</v>
@@ -38135,25 +38152,29 @@
         <v>80</v>
       </c>
       <c r="I297" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J297" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K297" t="s" s="2">
-        <v>384</v>
+        <v>1175</v>
       </c>
       <c r="L297" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M297" s="2"/>
-      <c r="N297" s="2"/>
+        <v>1176</v>
+      </c>
+      <c r="M297" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="N297" t="s" s="2">
+        <v>992</v>
+      </c>
       <c r="O297" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P297" s="2"/>
       <c r="Q297" t="s" s="2">
-        <v>80</v>
+        <v>678</v>
       </c>
       <c r="R297" t="s" s="2">
         <v>80</v>
@@ -38195,7 +38216,7 @@
         <v>80</v>
       </c>
       <c r="AE297" t="s" s="2">
-        <v>170</v>
+        <v>679</v>
       </c>
       <c r="AF297" t="s" s="2">
         <v>78</v>
@@ -38207,7 +38228,7 @@
         <v>80</v>
       </c>
       <c r="AI297" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ297" t="s" s="2">
         <v>80</v>
@@ -38216,29 +38237,29 @@
         <v>80</v>
       </c>
       <c r="AL297" t="s" s="2">
-        <v>171</v>
+        <v>680</v>
       </c>
       <c r="AM297" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN297" t="s" s="2">
-        <v>80</v>
+        <v>681</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F298" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G298" t="s" s="2">
         <v>80</v>
@@ -38247,27 +38268,29 @@
         <v>80</v>
       </c>
       <c r="I298" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J298" t="s" s="2">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="K298" t="s" s="2">
-        <v>173</v>
+        <v>1178</v>
       </c>
       <c r="L298" t="s" s="2">
-        <v>174</v>
+        <v>1179</v>
       </c>
       <c r="M298" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N298" s="2"/>
+        <v>490</v>
+      </c>
+      <c r="N298" t="s" s="2">
+        <v>996</v>
+      </c>
       <c r="O298" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P298" s="2"/>
       <c r="Q298" t="s" s="2">
-        <v>80</v>
+        <v>686</v>
       </c>
       <c r="R298" t="s" s="2">
         <v>80</v>
@@ -38309,19 +38332,19 @@
         <v>80</v>
       </c>
       <c r="AE298" t="s" s="2">
-        <v>176</v>
+        <v>687</v>
       </c>
       <c r="AF298" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG298" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH298" t="s" s="2">
-        <v>80</v>
+        <v>688</v>
       </c>
       <c r="AI298" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ298" t="s" s="2">
         <v>80</v>
@@ -38330,60 +38353,60 @@
         <v>80</v>
       </c>
       <c r="AL298" t="s" s="2">
-        <v>171</v>
+        <v>689</v>
       </c>
       <c r="AM298" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN298" t="s" s="2">
-        <v>80</v>
+        <v>681</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" t="s" s="2">
-        <v>550</v>
+        <v>80</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F299" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G299" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H299" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I299" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J299" t="s" s="2">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="K299" t="s" s="2">
-        <v>551</v>
+        <v>1181</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>552</v>
+        <v>1182</v>
       </c>
       <c r="M299" t="s" s="2">
-        <v>149</v>
+        <v>1000</v>
       </c>
       <c r="N299" t="s" s="2">
-        <v>150</v>
+        <v>1001</v>
       </c>
       <c r="O299" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P299" s="2"/>
       <c r="Q299" t="s" s="2">
-        <v>80</v>
+        <v>695</v>
       </c>
       <c r="R299" t="s" s="2">
         <v>80</v>
@@ -38425,19 +38448,19 @@
         <v>80</v>
       </c>
       <c r="AE299" t="s" s="2">
-        <v>553</v>
+        <v>696</v>
       </c>
       <c r="AF299" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG299" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH299" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI299" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ299" t="s" s="2">
         <v>80</v>
@@ -38446,18 +38469,18 @@
         <v>80</v>
       </c>
       <c r="AL299" t="s" s="2">
-        <v>131</v>
+        <v>697</v>
       </c>
       <c r="AM299" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN299" t="s" s="2">
-        <v>80</v>
+        <v>681</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" t="s" s="2">
@@ -38465,7 +38488,7 @@
       </c>
       <c r="D300" s="2"/>
       <c r="E300" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F300" t="s" s="2">
         <v>88</v>
@@ -38480,16 +38503,16 @@
         <v>80</v>
       </c>
       <c r="J300" t="s" s="2">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K300" t="s" s="2">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="M300" t="s" s="2">
-        <v>1184</v>
+        <v>424</v>
       </c>
       <c r="N300" s="2"/>
       <c r="O300" t="s" s="2">
@@ -38515,13 +38538,13 @@
         <v>80</v>
       </c>
       <c r="W300" t="s" s="2">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="X300" t="s" s="2">
-        <v>1185</v>
+        <v>80</v>
       </c>
       <c r="Y300" t="s" s="2">
-        <v>1186</v>
+        <v>80</v>
       </c>
       <c r="Z300" t="s" s="2">
         <v>80</v>
@@ -38539,10 +38562,10 @@
         <v>80</v>
       </c>
       <c r="AE300" t="s" s="2">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="AF300" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG300" t="s" s="2">
         <v>88</v>
@@ -38557,21 +38580,21 @@
         <v>80</v>
       </c>
       <c r="AK300" t="s" s="2">
-        <v>1177</v>
+        <v>80</v>
       </c>
       <c r="AL300" t="s" s="2">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="AM300" t="s" s="2">
-        <v>80</v>
+        <v>462</v>
       </c>
       <c r="AN300" t="s" s="2">
-        <v>1188</v>
+        <v>80</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" t="s" s="2">
@@ -38594,13 +38617,13 @@
         <v>80</v>
       </c>
       <c r="J301" t="s" s="2">
-        <v>90</v>
+        <v>1037</v>
       </c>
       <c r="K301" t="s" s="2">
-        <v>168</v>
+        <v>1188</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>169</v>
+        <v>1189</v>
       </c>
       <c r="M301" s="2"/>
       <c r="N301" s="2"/>
@@ -38651,7 +38674,7 @@
         <v>80</v>
       </c>
       <c r="AE301" t="s" s="2">
-        <v>170</v>
+        <v>1187</v>
       </c>
       <c r="AF301" t="s" s="2">
         <v>78</v>
@@ -38663,16 +38686,16 @@
         <v>80</v>
       </c>
       <c r="AI301" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ301" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK301" t="s" s="2">
-        <v>80</v>
+        <v>1190</v>
       </c>
       <c r="AL301" t="s" s="2">
-        <v>171</v>
+        <v>1191</v>
       </c>
       <c r="AM301" t="s" s="2">
         <v>80</v>
@@ -38683,18 +38706,18 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F302" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G302" t="s" s="2">
         <v>80</v>
@@ -38706,17 +38729,15 @@
         <v>80</v>
       </c>
       <c r="J302" t="s" s="2">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="K302" t="s" s="2">
-        <v>173</v>
+        <v>384</v>
       </c>
       <c r="L302" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M302" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="M302" s="2"/>
       <c r="N302" s="2"/>
       <c r="O302" t="s" s="2">
         <v>80</v>
@@ -38753,31 +38774,31 @@
         <v>80</v>
       </c>
       <c r="AA302" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB302" t="s" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="AC302" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD302" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE302" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="AF302" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG302" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH302" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI302" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AJ302" t="s" s="2">
         <v>80</v>
@@ -38797,11 +38818,11 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" t="s" s="2">
@@ -38817,23 +38838,21 @@
         <v>80</v>
       </c>
       <c r="I303" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J303" t="s" s="2">
-        <v>317</v>
+        <v>133</v>
       </c>
       <c r="K303" t="s" s="2">
-        <v>1192</v>
+        <v>173</v>
       </c>
       <c r="L303" t="s" s="2">
-        <v>1193</v>
+        <v>174</v>
       </c>
       <c r="M303" t="s" s="2">
-        <v>866</v>
-      </c>
-      <c r="N303" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="N303" s="2"/>
       <c r="O303" t="s" s="2">
         <v>80</v>
       </c>
@@ -38881,7 +38900,7 @@
         <v>80</v>
       </c>
       <c r="AE303" t="s" s="2">
-        <v>322</v>
+        <v>176</v>
       </c>
       <c r="AF303" t="s" s="2">
         <v>78</v>
@@ -38893,7 +38912,7 @@
         <v>80</v>
       </c>
       <c r="AI303" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ303" t="s" s="2">
         <v>80</v>
@@ -38902,13 +38921,13 @@
         <v>80</v>
       </c>
       <c r="AL303" t="s" s="2">
-        <v>323</v>
+        <v>171</v>
       </c>
       <c r="AM303" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN303" t="s" s="2">
-        <v>324</v>
+        <v>80</v>
       </c>
     </row>
     <row r="304">
@@ -38917,35 +38936,39 @@
       </c>
       <c r="B304" s="2"/>
       <c r="C304" t="s" s="2">
-        <v>80</v>
+        <v>550</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F304" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G304" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H304" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I304" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J304" t="s" s="2">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="K304" t="s" s="2">
-        <v>168</v>
+        <v>551</v>
       </c>
       <c r="L304" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M304" s="2"/>
-      <c r="N304" s="2"/>
+        <v>552</v>
+      </c>
+      <c r="M304" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N304" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O304" t="s" s="2">
         <v>80</v>
       </c>
@@ -38993,19 +39016,19 @@
         <v>80</v>
       </c>
       <c r="AE304" t="s" s="2">
-        <v>170</v>
+        <v>553</v>
       </c>
       <c r="AF304" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG304" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH304" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI304" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AJ304" t="s" s="2">
         <v>80</v>
@@ -39014,7 +39037,7 @@
         <v>80</v>
       </c>
       <c r="AL304" t="s" s="2">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="AM304" t="s" s="2">
         <v>80</v>
@@ -39029,14 +39052,14 @@
       </c>
       <c r="B305" s="2"/>
       <c r="C305" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F305" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G305" t="s" s="2">
         <v>80</v>
@@ -39048,16 +39071,16 @@
         <v>80</v>
       </c>
       <c r="J305" t="s" s="2">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="K305" t="s" s="2">
-        <v>173</v>
+        <v>1196</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>174</v>
+        <v>1196</v>
       </c>
       <c r="M305" t="s" s="2">
-        <v>149</v>
+        <v>1197</v>
       </c>
       <c r="N305" s="2"/>
       <c r="O305" t="s" s="2">
@@ -39083,63 +39106,61 @@
         <v>80</v>
       </c>
       <c r="W305" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X305" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X305" s="2"/>
       <c r="Y305" t="s" s="2">
-        <v>80</v>
+        <v>1198</v>
       </c>
       <c r="Z305" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AA305" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB305" t="s" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="AC305" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD305" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE305" t="s" s="2">
-        <v>176</v>
+        <v>1195</v>
       </c>
       <c r="AF305" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG305" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH305" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI305" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ305" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK305" t="s" s="2">
-        <v>80</v>
+        <v>1190</v>
       </c>
       <c r="AL305" t="s" s="2">
-        <v>171</v>
+        <v>1199</v>
       </c>
       <c r="AM305" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN305" t="s" s="2">
-        <v>80</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>1196</v>
+        <v>1201</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" t="s" s="2">
@@ -39147,7 +39168,7 @@
       </c>
       <c r="D306" s="2"/>
       <c r="E306" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F306" t="s" s="2">
         <v>88</v>
@@ -39159,29 +39180,25 @@
         <v>80</v>
       </c>
       <c r="I306" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J306" t="s" s="2">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="K306" t="s" s="2">
-        <v>1197</v>
+        <v>168</v>
       </c>
       <c r="L306" t="s" s="2">
-        <v>1198</v>
-      </c>
-      <c r="M306" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N306" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="M306" s="2"/>
+      <c r="N306" s="2"/>
       <c r="O306" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P306" s="2"/>
       <c r="Q306" t="s" s="2">
-        <v>1199</v>
+        <v>80</v>
       </c>
       <c r="R306" t="s" s="2">
         <v>80</v>
@@ -39223,7 +39240,7 @@
         <v>80</v>
       </c>
       <c r="AE306" t="s" s="2">
-        <v>332</v>
+        <v>170</v>
       </c>
       <c r="AF306" t="s" s="2">
         <v>78</v>
@@ -39235,7 +39252,7 @@
         <v>80</v>
       </c>
       <c r="AI306" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ306" t="s" s="2">
         <v>80</v>
@@ -39244,29 +39261,29 @@
         <v>80</v>
       </c>
       <c r="AL306" t="s" s="2">
-        <v>333</v>
+        <v>171</v>
       </c>
       <c r="AM306" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN306" t="s" s="2">
-        <v>334</v>
+        <v>80</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F307" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G307" t="s" s="2">
         <v>80</v>
@@ -39275,19 +39292,19 @@
         <v>80</v>
       </c>
       <c r="I307" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J307" t="s" s="2">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="K307" t="s" s="2">
-        <v>336</v>
+        <v>173</v>
       </c>
       <c r="L307" t="s" s="2">
-        <v>337</v>
+        <v>174</v>
       </c>
       <c r="M307" t="s" s="2">
-        <v>338</v>
+        <v>149</v>
       </c>
       <c r="N307" s="2"/>
       <c r="O307" t="s" s="2">
@@ -39325,31 +39342,31 @@
         <v>80</v>
       </c>
       <c r="AA307" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB307" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AC307" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD307" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE307" t="s" s="2">
-        <v>339</v>
+        <v>176</v>
       </c>
       <c r="AF307" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG307" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH307" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI307" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ307" t="s" s="2">
         <v>80</v>
@@ -39358,18 +39375,18 @@
         <v>80</v>
       </c>
       <c r="AL307" t="s" s="2">
-        <v>340</v>
+        <v>171</v>
       </c>
       <c r="AM307" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN307" t="s" s="2">
-        <v>341</v>
+        <v>80</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" t="s" s="2">
@@ -39377,10 +39394,10 @@
       </c>
       <c r="D308" s="2"/>
       <c r="E308" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F308" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G308" t="s" s="2">
         <v>80</v>
@@ -39392,17 +39409,19 @@
         <v>89</v>
       </c>
       <c r="J308" t="s" s="2">
-        <v>108</v>
+        <v>317</v>
       </c>
       <c r="K308" t="s" s="2">
-        <v>1192</v>
+        <v>1204</v>
       </c>
       <c r="L308" t="s" s="2">
-        <v>1193</v>
-      </c>
-      <c r="M308" s="2"/>
+        <v>1205</v>
+      </c>
+      <c r="M308" t="s" s="2">
+        <v>866</v>
+      </c>
       <c r="N308" t="s" s="2">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="O308" t="s" s="2">
         <v>80</v>
@@ -39451,13 +39470,13 @@
         <v>80</v>
       </c>
       <c r="AE308" t="s" s="2">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="AF308" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG308" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH308" t="s" s="2">
         <v>80</v>
@@ -39472,18 +39491,18 @@
         <v>80</v>
       </c>
       <c r="AL308" t="s" s="2">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="AM308" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN308" t="s" s="2">
-        <v>348</v>
+        <v>324</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>1202</v>
+        <v>1206</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" t="s" s="2">
@@ -39503,21 +39522,19 @@
         <v>80</v>
       </c>
       <c r="I309" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J309" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K309" t="s" s="2">
-        <v>1203</v>
+        <v>168</v>
       </c>
       <c r="L309" t="s" s="2">
-        <v>1204</v>
+        <v>169</v>
       </c>
       <c r="M309" s="2"/>
-      <c r="N309" t="s" s="2">
-        <v>352</v>
-      </c>
+      <c r="N309" s="2"/>
       <c r="O309" t="s" s="2">
         <v>80</v>
       </c>
@@ -39565,7 +39582,7 @@
         <v>80</v>
       </c>
       <c r="AE309" t="s" s="2">
-        <v>353</v>
+        <v>170</v>
       </c>
       <c r="AF309" t="s" s="2">
         <v>78</v>
@@ -39577,7 +39594,7 @@
         <v>80</v>
       </c>
       <c r="AI309" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ309" t="s" s="2">
         <v>80</v>
@@ -39586,29 +39603,29 @@
         <v>80</v>
       </c>
       <c r="AL309" t="s" s="2">
-        <v>354</v>
+        <v>171</v>
       </c>
       <c r="AM309" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN309" t="s" s="2">
-        <v>355</v>
+        <v>80</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F310" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G310" t="s" s="2">
         <v>80</v>
@@ -39617,23 +39634,21 @@
         <v>80</v>
       </c>
       <c r="I310" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J310" t="s" s="2">
-        <v>288</v>
+        <v>133</v>
       </c>
       <c r="K310" t="s" s="2">
-        <v>1206</v>
+        <v>173</v>
       </c>
       <c r="L310" t="s" s="2">
-        <v>1207</v>
+        <v>174</v>
       </c>
       <c r="M310" t="s" s="2">
-        <v>1208</v>
-      </c>
-      <c r="N310" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="N310" s="2"/>
       <c r="O310" t="s" s="2">
         <v>80</v>
       </c>
@@ -39669,31 +39684,31 @@
         <v>80</v>
       </c>
       <c r="AA310" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB310" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AC310" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD310" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE310" t="s" s="2">
-        <v>360</v>
+        <v>176</v>
       </c>
       <c r="AF310" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG310" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH310" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI310" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ310" t="s" s="2">
         <v>80</v>
@@ -39702,18 +39717,18 @@
         <v>80</v>
       </c>
       <c r="AL310" t="s" s="2">
-        <v>361</v>
+        <v>171</v>
       </c>
       <c r="AM310" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN310" t="s" s="2">
-        <v>362</v>
+        <v>80</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s" s="2">
@@ -39721,7 +39736,7 @@
       </c>
       <c r="D311" s="2"/>
       <c r="E311" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F311" t="s" s="2">
         <v>88</v>
@@ -39736,26 +39751,26 @@
         <v>89</v>
       </c>
       <c r="J311" t="s" s="2">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="K311" t="s" s="2">
+        <v>1209</v>
+      </c>
+      <c r="L311" t="s" s="2">
         <v>1210</v>
       </c>
-      <c r="L311" t="s" s="2">
-        <v>1211</v>
-      </c>
       <c r="M311" t="s" s="2">
-        <v>1212</v>
+        <v>330</v>
       </c>
       <c r="N311" t="s" s="2">
-        <v>367</v>
+        <v>331</v>
       </c>
       <c r="O311" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P311" s="2"/>
       <c r="Q311" t="s" s="2">
-        <v>80</v>
+        <v>1211</v>
       </c>
       <c r="R311" t="s" s="2">
         <v>80</v>
@@ -39797,7 +39812,7 @@
         <v>80</v>
       </c>
       <c r="AE311" t="s" s="2">
-        <v>368</v>
+        <v>332</v>
       </c>
       <c r="AF311" t="s" s="2">
         <v>78</v>
@@ -39818,18 +39833,18 @@
         <v>80</v>
       </c>
       <c r="AL311" t="s" s="2">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="AM311" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN311" t="s" s="2">
-        <v>370</v>
+        <v>334</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" t="s" s="2">
@@ -39849,19 +39864,19 @@
         <v>80</v>
       </c>
       <c r="I312" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J312" t="s" s="2">
-        <v>188</v>
+        <v>90</v>
       </c>
       <c r="K312" t="s" s="2">
-        <v>1214</v>
+        <v>336</v>
       </c>
       <c r="L312" t="s" s="2">
-        <v>1215</v>
+        <v>337</v>
       </c>
       <c r="M312" t="s" s="2">
-        <v>1216</v>
+        <v>338</v>
       </c>
       <c r="N312" s="2"/>
       <c r="O312" t="s" s="2">
@@ -39887,13 +39902,13 @@
         <v>80</v>
       </c>
       <c r="W312" t="s" s="2">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="X312" t="s" s="2">
-        <v>1217</v>
+        <v>80</v>
       </c>
       <c r="Y312" t="s" s="2">
-        <v>1218</v>
+        <v>80</v>
       </c>
       <c r="Z312" t="s" s="2">
         <v>80</v>
@@ -39911,7 +39926,7 @@
         <v>80</v>
       </c>
       <c r="AE312" t="s" s="2">
-        <v>1213</v>
+        <v>339</v>
       </c>
       <c r="AF312" t="s" s="2">
         <v>78</v>
@@ -39929,21 +39944,21 @@
         <v>80</v>
       </c>
       <c r="AK312" t="s" s="2">
-        <v>1219</v>
+        <v>80</v>
       </c>
       <c r="AL312" t="s" s="2">
-        <v>1220</v>
+        <v>340</v>
       </c>
       <c r="AM312" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN312" t="s" s="2">
-        <v>1221</v>
+        <v>341</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>1222</v>
+        <v>1213</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" t="s" s="2">
@@ -39951,7 +39966,7 @@
       </c>
       <c r="D313" s="2"/>
       <c r="E313" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F313" t="s" s="2">
         <v>88</v>
@@ -39963,21 +39978,21 @@
         <v>80</v>
       </c>
       <c r="I313" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J313" t="s" s="2">
-        <v>1223</v>
+        <v>108</v>
       </c>
       <c r="K313" t="s" s="2">
-        <v>1224</v>
+        <v>1204</v>
       </c>
       <c r="L313" t="s" s="2">
-        <v>1225</v>
-      </c>
-      <c r="M313" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N313" s="2"/>
+        <v>1205</v>
+      </c>
+      <c r="M313" s="2"/>
+      <c r="N313" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="O313" t="s" s="2">
         <v>80</v>
       </c>
@@ -40025,7 +40040,7 @@
         <v>80</v>
       </c>
       <c r="AE313" t="s" s="2">
-        <v>1222</v>
+        <v>346</v>
       </c>
       <c r="AF313" t="s" s="2">
         <v>78</v>
@@ -40040,35 +40055,35 @@
         <v>100</v>
       </c>
       <c r="AJ313" t="s" s="2">
-        <v>1226</v>
+        <v>80</v>
       </c>
       <c r="AK313" t="s" s="2">
-        <v>1219</v>
+        <v>80</v>
       </c>
       <c r="AL313" t="s" s="2">
-        <v>1227</v>
+        <v>347</v>
       </c>
       <c r="AM313" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN313" t="s" s="2">
-        <v>80</v>
+        <v>348</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>1228</v>
+        <v>1214</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" t="s" s="2">
-        <v>1229</v>
+        <v>80</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F314" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G314" t="s" s="2">
         <v>80</v>
@@ -40077,21 +40092,21 @@
         <v>80</v>
       </c>
       <c r="I314" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J314" t="s" s="2">
-        <v>1230</v>
+        <v>90</v>
       </c>
       <c r="K314" t="s" s="2">
-        <v>1231</v>
+        <v>1215</v>
       </c>
       <c r="L314" t="s" s="2">
-        <v>1232</v>
-      </c>
-      <c r="M314" t="s" s="2">
-        <v>1233</v>
-      </c>
-      <c r="N314" s="2"/>
+        <v>1216</v>
+      </c>
+      <c r="M314" s="2"/>
+      <c r="N314" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O314" t="s" s="2">
         <v>80</v>
       </c>
@@ -40139,13 +40154,13 @@
         <v>80</v>
       </c>
       <c r="AE314" t="s" s="2">
-        <v>1228</v>
+        <v>353</v>
       </c>
       <c r="AF314" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG314" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH314" t="s" s="2">
         <v>80</v>
@@ -40160,18 +40175,18 @@
         <v>80</v>
       </c>
       <c r="AL314" t="s" s="2">
-        <v>1234</v>
+        <v>354</v>
       </c>
       <c r="AM314" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN314" t="s" s="2">
-        <v>80</v>
+        <v>355</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>1235</v>
+        <v>1217</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" t="s" s="2">
@@ -40182,7 +40197,7 @@
         <v>78</v>
       </c>
       <c r="F315" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G315" t="s" s="2">
         <v>80</v>
@@ -40191,21 +40206,23 @@
         <v>80</v>
       </c>
       <c r="I315" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J315" t="s" s="2">
-        <v>1236</v>
+        <v>288</v>
       </c>
       <c r="K315" t="s" s="2">
-        <v>1237</v>
+        <v>1218</v>
       </c>
       <c r="L315" t="s" s="2">
-        <v>1238</v>
+        <v>1219</v>
       </c>
       <c r="M315" t="s" s="2">
-        <v>1239</v>
-      </c>
-      <c r="N315" s="2"/>
+        <v>1220</v>
+      </c>
+      <c r="N315" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="O315" t="s" s="2">
         <v>80</v>
       </c>
@@ -40253,13 +40270,13 @@
         <v>80</v>
       </c>
       <c r="AE315" t="s" s="2">
-        <v>1235</v>
+        <v>360</v>
       </c>
       <c r="AF315" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG315" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH315" t="s" s="2">
         <v>80</v>
@@ -40268,18 +40285,590 @@
         <v>100</v>
       </c>
       <c r="AJ315" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK315" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL315" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AM315" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN315" t="s" s="2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s" s="2">
+        <v>1221</v>
+      </c>
+      <c r="B316" s="2"/>
+      <c r="C316" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D316" s="2"/>
+      <c r="E316" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F316" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G316" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H316" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I316" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J316" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K316" t="s" s="2">
+        <v>1067</v>
+      </c>
+      <c r="L316" t="s" s="2">
+        <v>1068</v>
+      </c>
+      <c r="M316" t="s" s="2">
+        <v>1069</v>
+      </c>
+      <c r="N316" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="O316" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P316" s="2"/>
+      <c r="Q316" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R316" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S316" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T316" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U316" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V316" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W316" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X316" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y316" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z316" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA316" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB316" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC316" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD316" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE316" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AF316" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG316" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH316" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI316" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ316" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK316" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL316" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AM316" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN316" t="s" s="2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s" s="2">
+        <v>1222</v>
+      </c>
+      <c r="B317" s="2"/>
+      <c r="C317" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D317" s="2"/>
+      <c r="E317" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F317" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G317" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H317" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I317" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J317" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K317" t="s" s="2">
+        <v>1223</v>
+      </c>
+      <c r="L317" t="s" s="2">
+        <v>1224</v>
+      </c>
+      <c r="M317" t="s" s="2">
+        <v>1225</v>
+      </c>
+      <c r="N317" s="2"/>
+      <c r="O317" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P317" s="2"/>
+      <c r="Q317" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R317" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S317" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T317" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U317" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V317" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W317" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="X317" t="s" s="2">
+        <v>1226</v>
+      </c>
+      <c r="Y317" t="s" s="2">
+        <v>1227</v>
+      </c>
+      <c r="Z317" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA317" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB317" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC317" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD317" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE317" t="s" s="2">
+        <v>1222</v>
+      </c>
+      <c r="AF317" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG317" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH317" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI317" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ317" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK317" t="s" s="2">
+        <v>1228</v>
+      </c>
+      <c r="AL317" t="s" s="2">
+        <v>1229</v>
+      </c>
+      <c r="AM317" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN317" t="s" s="2">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s" s="2">
+        <v>1231</v>
+      </c>
+      <c r="B318" s="2"/>
+      <c r="C318" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D318" s="2"/>
+      <c r="E318" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F318" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G318" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H318" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I318" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J318" t="s" s="2">
+        <v>1232</v>
+      </c>
+      <c r="K318" t="s" s="2">
+        <v>1233</v>
+      </c>
+      <c r="L318" t="s" s="2">
+        <v>1234</v>
+      </c>
+      <c r="M318" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="N318" s="2"/>
+      <c r="O318" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P318" s="2"/>
+      <c r="Q318" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R318" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S318" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T318" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U318" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V318" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W318" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X318" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y318" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z318" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA318" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB318" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC318" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD318" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE318" t="s" s="2">
+        <v>1231</v>
+      </c>
+      <c r="AF318" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG318" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH318" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI318" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ318" t="s" s="2">
+        <v>1235</v>
+      </c>
+      <c r="AK318" t="s" s="2">
+        <v>1228</v>
+      </c>
+      <c r="AL318" t="s" s="2">
+        <v>1236</v>
+      </c>
+      <c r="AM318" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN318" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s" s="2">
+        <v>1237</v>
+      </c>
+      <c r="B319" s="2"/>
+      <c r="C319" t="s" s="2">
+        <v>1238</v>
+      </c>
+      <c r="D319" s="2"/>
+      <c r="E319" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F319" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G319" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H319" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I319" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J319" t="s" s="2">
+        <v>1239</v>
+      </c>
+      <c r="K319" t="s" s="2">
         <v>1240</v>
       </c>
-      <c r="AK315" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL315" t="s" s="2">
+      <c r="L319" t="s" s="2">
         <v>1241</v>
       </c>
-      <c r="AM315" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN315" t="s" s="2">
+      <c r="M319" t="s" s="2">
+        <v>1242</v>
+      </c>
+      <c r="N319" s="2"/>
+      <c r="O319" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P319" s="2"/>
+      <c r="Q319" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R319" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S319" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T319" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U319" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V319" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W319" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X319" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y319" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z319" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA319" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB319" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC319" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD319" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE319" t="s" s="2">
+        <v>1237</v>
+      </c>
+      <c r="AF319" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG319" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH319" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI319" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ319" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK319" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL319" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="AM319" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN319" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s" s="2">
+        <v>1244</v>
+      </c>
+      <c r="B320" s="2"/>
+      <c r="C320" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D320" s="2"/>
+      <c r="E320" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F320" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G320" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H320" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I320" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J320" t="s" s="2">
+        <v>1245</v>
+      </c>
+      <c r="K320" t="s" s="2">
+        <v>1246</v>
+      </c>
+      <c r="L320" t="s" s="2">
+        <v>1247</v>
+      </c>
+      <c r="M320" t="s" s="2">
+        <v>1248</v>
+      </c>
+      <c r="N320" s="2"/>
+      <c r="O320" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P320" s="2"/>
+      <c r="Q320" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R320" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S320" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T320" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U320" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V320" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W320" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X320" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y320" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z320" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA320" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB320" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC320" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD320" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE320" t="s" s="2">
+        <v>1244</v>
+      </c>
+      <c r="AF320" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG320" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH320" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI320" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ320" t="s" s="2">
+        <v>1249</v>
+      </c>
+      <c r="AK320" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL320" t="s" s="2">
+        <v>1250</v>
+      </c>
+      <c r="AM320" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN320" t="s" s="2">
         <v>80</v>
       </c>
     </row>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11634" uniqueCount="1251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11632" uniqueCount="1252">
   <si>
     <t>Property</t>
   </si>
@@ -2918,7 +2918,7 @@
     <t>医薬品単位略号を識別するOID。固定値。</t>
   </si>
   <si>
-    <t>urn:oid:1.2.392.100495.20.2.101</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUnitMERIT9_VS</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].code</t>
@@ -3611,6 +3611,9 @@
   </si>
   <si>
     <t>医薬品単位略号を識別するURL。urn:oid:1.2.392.100495.20.2.101で固定される。</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.100495.20.2.101</t>
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest.quantity.code</t>
@@ -25062,7 +25065,7 @@
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F183" t="s" s="2">
         <v>88</v>
@@ -25294,7 +25297,7 @@
       </c>
       <c r="D185" s="2"/>
       <c r="E185" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F185" t="s" s="2">
         <v>88</v>
@@ -25408,7 +25411,7 @@
       </c>
       <c r="D186" s="2"/>
       <c r="E186" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F186" t="s" s="2">
         <v>88</v>
@@ -25443,28 +25446,26 @@
         <v>80</v>
       </c>
       <c r="R186" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S186" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T186" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U186" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V186" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W186" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X186" s="2"/>
+      <c r="Y186" t="s" s="2">
         <v>933</v>
-      </c>
-      <c r="S186" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T186" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U186" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V186" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W186" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X186" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y186" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="Z186" t="s" s="2">
         <v>80</v>
@@ -25980,7 +25981,7 @@
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F191" t="s" s="2">
         <v>88</v>
@@ -26318,7 +26319,7 @@
       </c>
       <c r="D194" s="2"/>
       <c r="E194" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F194" t="s" s="2">
         <v>88</v>
@@ -26550,7 +26551,7 @@
       </c>
       <c r="D196" s="2"/>
       <c r="E196" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F196" t="s" s="2">
         <v>88</v>
@@ -26664,7 +26665,7 @@
       </c>
       <c r="D197" s="2"/>
       <c r="E197" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F197" t="s" s="2">
         <v>88</v>
@@ -26699,28 +26700,26 @@
         <v>80</v>
       </c>
       <c r="R197" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S197" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T197" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U197" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V197" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W197" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X197" s="2"/>
+      <c r="Y197" t="s" s="2">
         <v>933</v>
-      </c>
-      <c r="S197" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T197" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U197" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V197" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W197" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X197" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y197" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="Z197" t="s" s="2">
         <v>80</v>
@@ -37371,7 +37370,7 @@
         <v>80</v>
       </c>
       <c r="R290" t="s" s="2">
-        <v>933</v>
+        <v>1162</v>
       </c>
       <c r="S290" t="s" s="2">
         <v>80</v>
@@ -37442,7 +37441,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -37468,10 +37467,10 @@
         <v>108</v>
       </c>
       <c r="K291" t="s" s="2">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="M291" t="s" s="2">
         <v>1000</v>
@@ -37558,7 +37557,7 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" t="s" s="2">
@@ -37584,13 +37583,13 @@
         <v>651</v>
       </c>
       <c r="K292" t="s" s="2">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="M292" t="s" s="2">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="N292" s="2"/>
       <c r="O292" t="s" s="2">
@@ -37640,7 +37639,7 @@
         <v>80</v>
       </c>
       <c r="AE292" t="s" s="2">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="AF292" t="s" s="2">
         <v>78</v>
@@ -37658,10 +37657,10 @@
         <v>80</v>
       </c>
       <c r="AK292" t="s" s="2">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="AL292" t="s" s="2">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="AM292" t="s" s="2">
         <v>80</v>
@@ -37672,7 +37671,7 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" t="s" s="2">
@@ -37784,7 +37783,7 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" t="s" s="2">
@@ -37898,7 +37897,7 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" t="s" s="2">
@@ -37924,10 +37923,10 @@
         <v>657</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="M295" t="s" s="2">
         <v>984</v>
@@ -38014,7 +38013,7 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" t="s" s="2">
@@ -38132,7 +38131,7 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" t="s" s="2">
@@ -38158,10 +38157,10 @@
         <v>90</v>
       </c>
       <c r="K297" t="s" s="2">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="L297" t="s" s="2">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="M297" t="s" s="2">
         <v>566</v>
@@ -38248,7 +38247,7 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" t="s" s="2">
@@ -38274,10 +38273,10 @@
         <v>102</v>
       </c>
       <c r="K298" t="s" s="2">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="L298" t="s" s="2">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="M298" t="s" s="2">
         <v>490</v>
@@ -38364,7 +38363,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" t="s" s="2">
@@ -38390,10 +38389,10 @@
         <v>108</v>
       </c>
       <c r="K299" t="s" s="2">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="M299" t="s" s="2">
         <v>1000</v>
@@ -38480,7 +38479,7 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" t="s" s="2">
@@ -38506,10 +38505,10 @@
         <v>224</v>
       </c>
       <c r="K300" t="s" s="2">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="M300" t="s" s="2">
         <v>424</v>
@@ -38562,7 +38561,7 @@
         <v>80</v>
       </c>
       <c r="AE300" t="s" s="2">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="AF300" t="s" s="2">
         <v>78</v>
@@ -38583,7 +38582,7 @@
         <v>80</v>
       </c>
       <c r="AL300" t="s" s="2">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="AM300" t="s" s="2">
         <v>462</v>
@@ -38594,7 +38593,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" t="s" s="2">
@@ -38620,10 +38619,10 @@
         <v>1037</v>
       </c>
       <c r="K301" t="s" s="2">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="M301" s="2"/>
       <c r="N301" s="2"/>
@@ -38674,7 +38673,7 @@
         <v>80</v>
       </c>
       <c r="AE301" t="s" s="2">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="AF301" t="s" s="2">
         <v>78</v>
@@ -38692,10 +38691,10 @@
         <v>80</v>
       </c>
       <c r="AK301" t="s" s="2">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="AL301" t="s" s="2">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="AM301" t="s" s="2">
         <v>80</v>
@@ -38706,7 +38705,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" t="s" s="2">
@@ -38818,7 +38817,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" t="s" s="2">
@@ -38932,7 +38931,7 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" t="s" s="2">
@@ -39048,7 +39047,7 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B305" s="2"/>
       <c r="C305" t="s" s="2">
@@ -39074,13 +39073,13 @@
         <v>188</v>
       </c>
       <c r="K305" t="s" s="2">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="M305" t="s" s="2">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="N305" s="2"/>
       <c r="O305" t="s" s="2">
@@ -39110,7 +39109,7 @@
       </c>
       <c r="X305" s="2"/>
       <c r="Y305" t="s" s="2">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="Z305" t="s" s="2">
         <v>80</v>
@@ -39128,7 +39127,7 @@
         <v>80</v>
       </c>
       <c r="AE305" t="s" s="2">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="AF305" t="s" s="2">
         <v>88</v>
@@ -39146,21 +39145,21 @@
         <v>80</v>
       </c>
       <c r="AK305" t="s" s="2">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="AL305" t="s" s="2">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="AM305" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN305" t="s" s="2">
-        <v>1200</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" t="s" s="2">
@@ -39272,7 +39271,7 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" t="s" s="2">
@@ -39386,7 +39385,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" t="s" s="2">
@@ -39412,10 +39411,10 @@
         <v>317</v>
       </c>
       <c r="K308" t="s" s="2">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="L308" t="s" s="2">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="M308" t="s" s="2">
         <v>866</v>
@@ -39502,7 +39501,7 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" t="s" s="2">
@@ -39614,7 +39613,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" t="s" s="2">
@@ -39728,7 +39727,7 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s" s="2">
@@ -39754,10 +39753,10 @@
         <v>102</v>
       </c>
       <c r="K311" t="s" s="2">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="M311" t="s" s="2">
         <v>330</v>
@@ -39770,7 +39769,7 @@
       </c>
       <c r="P311" s="2"/>
       <c r="Q311" t="s" s="2">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="R311" t="s" s="2">
         <v>80</v>
@@ -39844,7 +39843,7 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" t="s" s="2">
@@ -39958,7 +39957,7 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" t="s" s="2">
@@ -39984,10 +39983,10 @@
         <v>108</v>
       </c>
       <c r="K313" t="s" s="2">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="L313" t="s" s="2">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="M313" s="2"/>
       <c r="N313" t="s" s="2">
@@ -40072,7 +40071,7 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" t="s" s="2">
@@ -40098,10 +40097,10 @@
         <v>90</v>
       </c>
       <c r="K314" t="s" s="2">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="L314" t="s" s="2">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="M314" s="2"/>
       <c r="N314" t="s" s="2">
@@ -40186,7 +40185,7 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" t="s" s="2">
@@ -40212,13 +40211,13 @@
         <v>288</v>
       </c>
       <c r="K315" t="s" s="2">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="L315" t="s" s="2">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="M315" t="s" s="2">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="N315" t="s" s="2">
         <v>359</v>
@@ -40302,7 +40301,7 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" t="s" s="2">
@@ -40418,7 +40417,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" t="s" s="2">
@@ -40444,13 +40443,13 @@
         <v>188</v>
       </c>
       <c r="K317" t="s" s="2">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="L317" t="s" s="2">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="M317" t="s" s="2">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="N317" s="2"/>
       <c r="O317" t="s" s="2">
@@ -40479,10 +40478,10 @@
         <v>255</v>
       </c>
       <c r="X317" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="Y317" t="s" s="2">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="Z317" t="s" s="2">
         <v>80</v>
@@ -40500,7 +40499,7 @@
         <v>80</v>
       </c>
       <c r="AE317" t="s" s="2">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="AF317" t="s" s="2">
         <v>78</v>
@@ -40518,21 +40517,21 @@
         <v>80</v>
       </c>
       <c r="AK317" t="s" s="2">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="AL317" t="s" s="2">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="AM317" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN317" t="s" s="2">
-        <v>1230</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" t="s" s="2">
@@ -40555,13 +40554,13 @@
         <v>80</v>
       </c>
       <c r="J318" t="s" s="2">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="K318" t="s" s="2">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="L318" t="s" s="2">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="M318" t="s" s="2">
         <v>424</v>
@@ -40614,7 +40613,7 @@
         <v>80</v>
       </c>
       <c r="AE318" t="s" s="2">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="AF318" t="s" s="2">
         <v>78</v>
@@ -40629,13 +40628,13 @@
         <v>100</v>
       </c>
       <c r="AJ318" t="s" s="2">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="AK318" t="s" s="2">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="AL318" t="s" s="2">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="AM318" t="s" s="2">
         <v>80</v>
@@ -40646,11 +40645,11 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="B319" s="2"/>
       <c r="C319" t="s" s="2">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" t="s" s="2">
@@ -40669,16 +40668,16 @@
         <v>80</v>
       </c>
       <c r="J319" t="s" s="2">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="K319" t="s" s="2">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="L319" t="s" s="2">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="M319" t="s" s="2">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="N319" s="2"/>
       <c r="O319" t="s" s="2">
@@ -40728,7 +40727,7 @@
         <v>80</v>
       </c>
       <c r="AE319" t="s" s="2">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="AF319" t="s" s="2">
         <v>78</v>
@@ -40749,7 +40748,7 @@
         <v>80</v>
       </c>
       <c r="AL319" t="s" s="2">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="AM319" t="s" s="2">
         <v>80</v>
@@ -40760,7 +40759,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" t="s" s="2">
@@ -40783,16 +40782,16 @@
         <v>80</v>
       </c>
       <c r="J320" t="s" s="2">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="K320" t="s" s="2">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="L320" t="s" s="2">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="M320" t="s" s="2">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="N320" s="2"/>
       <c r="O320" t="s" s="2">
@@ -40842,7 +40841,7 @@
         <v>80</v>
       </c>
       <c r="AE320" t="s" s="2">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="AF320" t="s" s="2">
         <v>78</v>
@@ -40857,13 +40856,13 @@
         <v>100</v>
       </c>
       <c r="AJ320" t="s" s="2">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="AK320" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL320" t="s" s="2">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="AM320" t="s" s="2">
         <v>80</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11632" uniqueCount="1252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11627" uniqueCount="1252">
   <si>
     <t>Property</t>
   </si>
@@ -3114,6 +3114,9 @@
     <t>システムによって定義される単位のコードを把握しておく必要がある。</t>
   </si>
   <si>
+    <t>urn:oid:1.2.392.100495.20.2.101</t>
+  </si>
+  <si>
     <t>MedicationRequest.dosageInstruction.maxDosePerPeriod.numerator.code</t>
   </si>
   <si>
@@ -3611,9 +3614,6 @@
   </si>
   <si>
     <t>医薬品単位略号を識別するURL。urn:oid:1.2.392.100495.20.2.101で固定される。</t>
-  </si>
-  <si>
-    <t>urn:oid:1.2.392.100495.20.2.101</t>
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest.quantity.code</t>
@@ -28089,13 +28089,11 @@
         <v>80</v>
       </c>
       <c r="W209" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X209" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X209" s="2"/>
       <c r="Y209" t="s" s="2">
-        <v>80</v>
+        <v>997</v>
       </c>
       <c r="Z209" t="s" s="2">
         <v>80</v>
@@ -28145,7 +28143,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -28171,16 +28169,16 @@
         <v>108</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>80</v>
@@ -28261,7 +28259,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -28287,10 +28285,10 @@
         <v>948</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="M211" t="s" s="2">
         <v>978</v>
@@ -28375,7 +28373,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -28487,7 +28485,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -28601,7 +28599,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -28717,7 +28715,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -28835,7 +28833,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -28951,7 +28949,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -29011,13 +29009,11 @@
         <v>80</v>
       </c>
       <c r="W217" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X217" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X217" s="2"/>
       <c r="Y217" t="s" s="2">
-        <v>80</v>
+        <v>997</v>
       </c>
       <c r="Z217" t="s" s="2">
         <v>80</v>
@@ -29067,7 +29063,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -29093,16 +29089,16 @@
         <v>108</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="O218" t="s" s="2">
         <v>80</v>
@@ -29183,7 +29179,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -29209,16 +29205,16 @@
         <v>914</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="O219" t="s" s="2">
         <v>80</v>
@@ -29267,7 +29263,7 @@
         <v>80</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>78</v>
@@ -29288,7 +29284,7 @@
         <v>80</v>
       </c>
       <c r="AL219" t="s" s="2">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="AM219" t="s" s="2">
         <v>80</v>
@@ -29299,7 +29295,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -29411,7 +29407,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -29525,7 +29521,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -29641,7 +29637,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -29759,7 +29755,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -29875,7 +29871,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -29935,13 +29931,11 @@
         <v>80</v>
       </c>
       <c r="W225" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X225" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X225" s="2"/>
       <c r="Y225" t="s" s="2">
-        <v>80</v>
+        <v>997</v>
       </c>
       <c r="Z225" t="s" s="2">
         <v>80</v>
@@ -29991,7 +29985,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -30017,16 +30011,16 @@
         <v>108</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="N226" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="O226" t="s" s="2">
         <v>80</v>
@@ -30107,7 +30101,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -30133,16 +30127,16 @@
         <v>914</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="M227" t="s" s="2">
         <v>978</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="O227" t="s" s="2">
         <v>80</v>
@@ -30191,7 +30185,7 @@
         <v>80</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>78</v>
@@ -30212,7 +30206,7 @@
         <v>80</v>
       </c>
       <c r="AL227" t="s" s="2">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="AM227" t="s" s="2">
         <v>80</v>
@@ -30223,7 +30217,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -30335,7 +30329,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -30449,7 +30443,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -30565,7 +30559,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -30683,7 +30677,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -30799,7 +30793,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -30859,13 +30853,11 @@
         <v>80</v>
       </c>
       <c r="W233" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X233" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X233" s="2"/>
       <c r="Y233" t="s" s="2">
-        <v>80</v>
+        <v>997</v>
       </c>
       <c r="Z233" t="s" s="2">
         <v>80</v>
@@ -30915,7 +30907,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -30941,16 +30933,16 @@
         <v>108</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="N234" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="O234" t="s" s="2">
         <v>80</v>
@@ -31031,7 +31023,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -31054,13 +31046,13 @@
         <v>80</v>
       </c>
       <c r="J235" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="M235" s="2"/>
       <c r="N235" s="2"/>
@@ -31111,7 +31103,7 @@
         <v>80</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>78</v>
@@ -31129,10 +31121,10 @@
         <v>80</v>
       </c>
       <c r="AK235" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="AL235" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="AM235" t="s" s="2">
         <v>80</v>
@@ -31143,7 +31135,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -31255,7 +31247,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -31365,10 +31357,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="C238" t="s" s="2">
         <v>80</v>
@@ -31390,13 +31382,13 @@
         <v>80</v>
       </c>
       <c r="J238" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="M238" s="2"/>
       <c r="N238" s="2"/>
@@ -31479,7 +31471,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -31591,7 +31583,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -31703,7 +31695,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -31729,13 +31721,13 @@
         <v>102</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="N241" s="2"/>
       <c r="O241" t="s" s="2">
@@ -31743,7 +31735,7 @@
       </c>
       <c r="P241" s="2"/>
       <c r="Q241" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="R241" t="s" s="2">
         <v>80</v>
@@ -31785,7 +31777,7 @@
         <v>80</v>
       </c>
       <c r="AE241" t="s" s="2">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="AF241" t="s" s="2">
         <v>88</v>
@@ -31817,7 +31809,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -31843,10 +31835,10 @@
         <v>188</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="M242" s="2"/>
       <c r="N242" s="2"/>
@@ -31895,7 +31887,7 @@
         <v>306</v>
       </c>
       <c r="AE242" t="s" s="2">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="AF242" t="s" s="2">
         <v>78</v>
@@ -31927,10 +31919,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C243" t="s" s="2">
         <v>80</v>
@@ -31955,10 +31947,10 @@
         <v>188</v>
       </c>
       <c r="K243" t="s" s="2">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="M243" s="2"/>
       <c r="N243" s="2"/>
@@ -32009,7 +32001,7 @@
         <v>80</v>
       </c>
       <c r="AE243" t="s" s="2">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="AF243" t="s" s="2">
         <v>78</v>
@@ -32041,7 +32033,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -32153,7 +32145,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -32267,7 +32259,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -32331,7 +32323,7 @@
       </c>
       <c r="X246" s="2"/>
       <c r="Y246" t="s" s="2">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="Z246" t="s" s="2">
         <v>80</v>
@@ -32381,7 +32373,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -32407,13 +32399,13 @@
         <v>90</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="N247" t="s" s="2">
         <v>367</v>
@@ -32497,10 +32489,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C248" t="s" s="2">
         <v>80</v>
@@ -32522,13 +32514,13 @@
         <v>80</v>
       </c>
       <c r="J248" t="s" s="2">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="K248" t="s" s="2">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="M248" s="2"/>
       <c r="N248" s="2"/>
@@ -32611,7 +32603,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -32727,7 +32719,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -32750,16 +32742,16 @@
         <v>80</v>
       </c>
       <c r="J250" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="K250" t="s" s="2">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="N250" s="2"/>
       <c r="O250" t="s" s="2">
@@ -32809,7 +32801,7 @@
         <v>80</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>78</v>
@@ -32830,7 +32822,7 @@
         <v>80</v>
       </c>
       <c r="AL250" t="s" s="2">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="AM250" t="s" s="2">
         <v>80</v>
@@ -32841,7 +32833,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -32953,7 +32945,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -33067,7 +33059,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -33183,7 +33175,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -33209,10 +33201,10 @@
         <v>914</v>
       </c>
       <c r="K254" t="s" s="2">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="M254" t="s" s="2">
         <v>978</v>
@@ -33265,7 +33257,7 @@
         <v>80</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>78</v>
@@ -33286,7 +33278,7 @@
         <v>80</v>
       </c>
       <c r="AL254" t="s" s="2">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="AM254" t="s" s="2">
         <v>80</v>
@@ -33297,7 +33289,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -33409,7 +33401,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -33523,7 +33515,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -33639,7 +33631,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -33757,7 +33749,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -33873,7 +33865,7 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -33933,13 +33925,11 @@
         <v>80</v>
       </c>
       <c r="W260" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X260" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X260" s="2"/>
       <c r="Y260" t="s" s="2">
-        <v>80</v>
+        <v>997</v>
       </c>
       <c r="Z260" t="s" s="2">
         <v>80</v>
@@ -33989,7 +33979,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -34015,16 +34005,16 @@
         <v>108</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="N261" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="O261" t="s" s="2">
         <v>80</v>
@@ -34105,7 +34095,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -34131,10 +34121,10 @@
         <v>651</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="M262" t="s" s="2">
         <v>978</v>
@@ -34187,7 +34177,7 @@
         <v>80</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>78</v>
@@ -34208,7 +34198,7 @@
         <v>80</v>
       </c>
       <c r="AL262" t="s" s="2">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="AM262" t="s" s="2">
         <v>80</v>
@@ -34219,7 +34209,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -34331,7 +34321,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -34445,7 +34435,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -34561,7 +34551,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -34679,7 +34669,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -34795,7 +34785,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -34911,7 +34901,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -34937,16 +34927,16 @@
         <v>108</v>
       </c>
       <c r="K269" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="M269" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="N269" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="O269" t="s" s="2">
         <v>80</v>
@@ -35027,7 +35017,7 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -35053,10 +35043,10 @@
         <v>651</v>
       </c>
       <c r="K270" t="s" s="2">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="M270" t="s" s="2">
         <v>978</v>
@@ -35109,7 +35099,7 @@
         <v>80</v>
       </c>
       <c r="AE270" t="s" s="2">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="AF270" t="s" s="2">
         <v>78</v>
@@ -35130,7 +35120,7 @@
         <v>80</v>
       </c>
       <c r="AL270" t="s" s="2">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="AM270" t="s" s="2">
         <v>80</v>
@@ -35141,7 +35131,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -35253,7 +35243,7 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -35367,7 +35357,7 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -35483,7 +35473,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -35601,7 +35591,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -35717,7 +35707,7 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -35833,7 +35823,7 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -35859,16 +35849,16 @@
         <v>108</v>
       </c>
       <c r="K277" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="L277" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="M277" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="N277" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="O277" t="s" s="2">
         <v>80</v>
@@ -35949,7 +35939,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -35975,16 +35965,16 @@
         <v>217</v>
       </c>
       <c r="K278" t="s" s="2">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="M278" t="s" s="2">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N278" t="s" s="2">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="O278" t="s" s="2">
         <v>80</v>
@@ -36033,7 +36023,7 @@
         <v>80</v>
       </c>
       <c r="AE278" t="s" s="2">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="AF278" t="s" s="2">
         <v>78</v>
@@ -36051,10 +36041,10 @@
         <v>80</v>
       </c>
       <c r="AK278" t="s" s="2">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="AL278" t="s" s="2">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="AM278" t="s" s="2">
         <v>80</v>
@@ -36065,7 +36055,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -36177,7 +36167,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -36291,7 +36281,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -36317,13 +36307,13 @@
         <v>428</v>
       </c>
       <c r="K281" t="s" s="2">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="M281" t="s" s="2">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="N281" s="2"/>
       <c r="O281" t="s" s="2">
@@ -36373,7 +36363,7 @@
         <v>80</v>
       </c>
       <c r="AE281" t="s" s="2">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="AF281" t="s" s="2">
         <v>78</v>
@@ -36382,7 +36372,7 @@
         <v>88</v>
       </c>
       <c r="AH281" t="s" s="2">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="AI281" t="s" s="2">
         <v>100</v>
@@ -36394,18 +36384,18 @@
         <v>80</v>
       </c>
       <c r="AL281" t="s" s="2">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="AM281" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN281" t="s" s="2">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -36431,20 +36421,20 @@
         <v>428</v>
       </c>
       <c r="K282" t="s" s="2">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="M282" t="s" s="2">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="N282" s="2"/>
       <c r="O282" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P282" t="s" s="2">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="Q282" t="s" s="2">
         <v>80</v>
@@ -36489,7 +36479,7 @@
         <v>80</v>
       </c>
       <c r="AE282" t="s" s="2">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="AF282" t="s" s="2">
         <v>78</v>
@@ -36498,7 +36488,7 @@
         <v>88</v>
       </c>
       <c r="AH282" t="s" s="2">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="AI282" t="s" s="2">
         <v>100</v>
@@ -36510,18 +36500,18 @@
         <v>80</v>
       </c>
       <c r="AL282" t="s" s="2">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="AM282" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN282" t="s" s="2">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -36547,13 +36537,13 @@
         <v>774</v>
       </c>
       <c r="K283" t="s" s="2">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="M283" t="s" s="2">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="N283" s="2"/>
       <c r="O283" t="s" s="2">
@@ -36603,7 +36593,7 @@
         <v>80</v>
       </c>
       <c r="AE283" t="s" s="2">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="AF283" t="s" s="2">
         <v>78</v>
@@ -36621,21 +36611,21 @@
         <v>80</v>
       </c>
       <c r="AK283" t="s" s="2">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="AL283" t="s" s="2">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="AM283" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN283" t="s" s="2">
-        <v>1145</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -36661,10 +36651,10 @@
         <v>914</v>
       </c>
       <c r="K284" t="s" s="2">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="M284" t="s" s="2">
         <v>978</v>
@@ -36717,7 +36707,7 @@
         <v>80</v>
       </c>
       <c r="AE284" t="s" s="2">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="AF284" t="s" s="2">
         <v>78</v>
@@ -36735,21 +36725,21 @@
         <v>80</v>
       </c>
       <c r="AK284" t="s" s="2">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="AL284" t="s" s="2">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="AM284" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN284" t="s" s="2">
-        <v>1151</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" t="s" s="2">
@@ -36861,7 +36851,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -36975,7 +36965,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
@@ -37001,10 +36991,10 @@
         <v>657</v>
       </c>
       <c r="K287" t="s" s="2">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="M287" t="s" s="2">
         <v>984</v>
@@ -37091,7 +37081,7 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -37209,7 +37199,7 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -37235,10 +37225,10 @@
         <v>90</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="M289" t="s" s="2">
         <v>566</v>
@@ -37325,7 +37315,7 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" t="s" s="2">
@@ -37351,10 +37341,10 @@
         <v>102</v>
       </c>
       <c r="K290" t="s" s="2">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="M290" t="s" s="2">
         <v>490</v>
@@ -37370,7 +37360,7 @@
         <v>80</v>
       </c>
       <c r="R290" t="s" s="2">
-        <v>1162</v>
+        <v>997</v>
       </c>
       <c r="S290" t="s" s="2">
         <v>80</v>
@@ -37473,10 +37463,10 @@
         <v>1164</v>
       </c>
       <c r="M291" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="N291" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="O291" t="s" s="2">
         <v>80</v>
@@ -38395,10 +38385,10 @@
         <v>1183</v>
       </c>
       <c r="M299" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="N299" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="O299" t="s" s="2">
         <v>80</v>
@@ -38616,7 +38606,7 @@
         <v>80</v>
       </c>
       <c r="J301" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="K301" t="s" s="2">
         <v>1189</v>
@@ -40327,13 +40317,13 @@
         <v>90</v>
       </c>
       <c r="K316" t="s" s="2">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="L316" t="s" s="2">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="M316" t="s" s="2">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="N316" t="s" s="2">
         <v>367</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -3114,9 +3114,6 @@
     <t>システムによって定義される単位のコードを把握しておく必要がある。</t>
   </si>
   <si>
-    <t>urn:oid:1.2.392.100495.20.2.101</t>
-  </si>
-  <si>
     <t>MedicationRequest.dosageInstruction.maxDosePerPeriod.numerator.code</t>
   </si>
   <si>
@@ -3614,6 +3611,9 @@
   </si>
   <si>
     <t>医薬品単位略号を識別するURL。urn:oid:1.2.392.100495.20.2.101で固定される。</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.100495.20.2.101</t>
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest.quantity.code</t>
@@ -28093,7 +28093,7 @@
       </c>
       <c r="X209" s="2"/>
       <c r="Y209" t="s" s="2">
-        <v>997</v>
+        <v>933</v>
       </c>
       <c r="Z209" t="s" s="2">
         <v>80</v>
@@ -28143,7 +28143,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -28169,16 +28169,16 @@
         <v>108</v>
       </c>
       <c r="K210" t="s" s="2">
+        <v>998</v>
+      </c>
+      <c r="L210" t="s" s="2">
         <v>999</v>
       </c>
-      <c r="L210" t="s" s="2">
+      <c r="M210" t="s" s="2">
         <v>1000</v>
       </c>
-      <c r="M210" t="s" s="2">
+      <c r="N210" t="s" s="2">
         <v>1001</v>
-      </c>
-      <c r="N210" t="s" s="2">
-        <v>1002</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>80</v>
@@ -28259,7 +28259,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -28285,10 +28285,10 @@
         <v>948</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="M211" t="s" s="2">
         <v>978</v>
@@ -28373,7 +28373,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -28485,7 +28485,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -28599,7 +28599,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -28715,7 +28715,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -28833,7 +28833,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -28949,7 +28949,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -29013,7 +29013,7 @@
       </c>
       <c r="X217" s="2"/>
       <c r="Y217" t="s" s="2">
-        <v>997</v>
+        <v>933</v>
       </c>
       <c r="Z217" t="s" s="2">
         <v>80</v>
@@ -29063,7 +29063,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -29089,16 +29089,16 @@
         <v>108</v>
       </c>
       <c r="K218" t="s" s="2">
+        <v>998</v>
+      </c>
+      <c r="L218" t="s" s="2">
         <v>999</v>
       </c>
-      <c r="L218" t="s" s="2">
+      <c r="M218" t="s" s="2">
         <v>1000</v>
       </c>
-      <c r="M218" t="s" s="2">
+      <c r="N218" t="s" s="2">
         <v>1001</v>
-      </c>
-      <c r="N218" t="s" s="2">
-        <v>1002</v>
       </c>
       <c r="O218" t="s" s="2">
         <v>80</v>
@@ -29179,7 +29179,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -29205,16 +29205,16 @@
         <v>914</v>
       </c>
       <c r="K219" t="s" s="2">
+        <v>1012</v>
+      </c>
+      <c r="L219" t="s" s="2">
+        <v>1012</v>
+      </c>
+      <c r="M219" t="s" s="2">
         <v>1013</v>
       </c>
-      <c r="L219" t="s" s="2">
-        <v>1013</v>
-      </c>
-      <c r="M219" t="s" s="2">
+      <c r="N219" t="s" s="2">
         <v>1014</v>
-      </c>
-      <c r="N219" t="s" s="2">
-        <v>1015</v>
       </c>
       <c r="O219" t="s" s="2">
         <v>80</v>
@@ -29263,7 +29263,7 @@
         <v>80</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>78</v>
@@ -29284,7 +29284,7 @@
         <v>80</v>
       </c>
       <c r="AL219" t="s" s="2">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AM219" t="s" s="2">
         <v>80</v>
@@ -29295,7 +29295,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -29407,7 +29407,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -29521,7 +29521,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -29637,7 +29637,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -29755,7 +29755,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -29871,7 +29871,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -29935,7 +29935,7 @@
       </c>
       <c r="X225" s="2"/>
       <c r="Y225" t="s" s="2">
-        <v>997</v>
+        <v>933</v>
       </c>
       <c r="Z225" t="s" s="2">
         <v>80</v>
@@ -29985,7 +29985,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -30011,16 +30011,16 @@
         <v>108</v>
       </c>
       <c r="K226" t="s" s="2">
+        <v>998</v>
+      </c>
+      <c r="L226" t="s" s="2">
         <v>999</v>
       </c>
-      <c r="L226" t="s" s="2">
+      <c r="M226" t="s" s="2">
         <v>1000</v>
       </c>
-      <c r="M226" t="s" s="2">
+      <c r="N226" t="s" s="2">
         <v>1001</v>
-      </c>
-      <c r="N226" t="s" s="2">
-        <v>1002</v>
       </c>
       <c r="O226" t="s" s="2">
         <v>80</v>
@@ -30101,7 +30101,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -30127,16 +30127,16 @@
         <v>914</v>
       </c>
       <c r="K227" t="s" s="2">
+        <v>1025</v>
+      </c>
+      <c r="L227" t="s" s="2">
         <v>1026</v>
-      </c>
-      <c r="L227" t="s" s="2">
-        <v>1027</v>
       </c>
       <c r="M227" t="s" s="2">
         <v>978</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="O227" t="s" s="2">
         <v>80</v>
@@ -30185,7 +30185,7 @@
         <v>80</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>78</v>
@@ -30206,7 +30206,7 @@
         <v>80</v>
       </c>
       <c r="AL227" t="s" s="2">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AM227" t="s" s="2">
         <v>80</v>
@@ -30217,7 +30217,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -30329,7 +30329,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -30443,7 +30443,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -30559,7 +30559,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -30677,7 +30677,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -30793,7 +30793,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -30857,7 +30857,7 @@
       </c>
       <c r="X233" s="2"/>
       <c r="Y233" t="s" s="2">
-        <v>997</v>
+        <v>933</v>
       </c>
       <c r="Z233" t="s" s="2">
         <v>80</v>
@@ -30907,7 +30907,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -30933,16 +30933,16 @@
         <v>108</v>
       </c>
       <c r="K234" t="s" s="2">
+        <v>998</v>
+      </c>
+      <c r="L234" t="s" s="2">
         <v>999</v>
       </c>
-      <c r="L234" t="s" s="2">
+      <c r="M234" t="s" s="2">
         <v>1000</v>
       </c>
-      <c r="M234" t="s" s="2">
+      <c r="N234" t="s" s="2">
         <v>1001</v>
-      </c>
-      <c r="N234" t="s" s="2">
-        <v>1002</v>
       </c>
       <c r="O234" t="s" s="2">
         <v>80</v>
@@ -31023,7 +31023,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -31046,13 +31046,13 @@
         <v>80</v>
       </c>
       <c r="J235" t="s" s="2">
+        <v>1037</v>
+      </c>
+      <c r="K235" t="s" s="2">
         <v>1038</v>
       </c>
-      <c r="K235" t="s" s="2">
+      <c r="L235" t="s" s="2">
         <v>1039</v>
-      </c>
-      <c r="L235" t="s" s="2">
-        <v>1040</v>
       </c>
       <c r="M235" s="2"/>
       <c r="N235" s="2"/>
@@ -31103,7 +31103,7 @@
         <v>80</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>78</v>
@@ -31121,10 +31121,10 @@
         <v>80</v>
       </c>
       <c r="AK235" t="s" s="2">
+        <v>1040</v>
+      </c>
+      <c r="AL235" t="s" s="2">
         <v>1041</v>
-      </c>
-      <c r="AL235" t="s" s="2">
-        <v>1042</v>
       </c>
       <c r="AM235" t="s" s="2">
         <v>80</v>
@@ -31135,7 +31135,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -31247,7 +31247,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -31357,10 +31357,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
+        <v>1043</v>
+      </c>
+      <c r="B238" t="s" s="2">
         <v>1044</v>
-      </c>
-      <c r="B238" t="s" s="2">
-        <v>1045</v>
       </c>
       <c r="C238" t="s" s="2">
         <v>80</v>
@@ -31382,13 +31382,13 @@
         <v>80</v>
       </c>
       <c r="J238" t="s" s="2">
+        <v>1045</v>
+      </c>
+      <c r="K238" t="s" s="2">
         <v>1046</v>
       </c>
-      <c r="K238" t="s" s="2">
+      <c r="L238" t="s" s="2">
         <v>1047</v>
-      </c>
-      <c r="L238" t="s" s="2">
-        <v>1048</v>
       </c>
       <c r="M238" s="2"/>
       <c r="N238" s="2"/>
@@ -31471,7 +31471,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -31583,7 +31583,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -31695,7 +31695,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -31721,13 +31721,13 @@
         <v>102</v>
       </c>
       <c r="K241" t="s" s="2">
+        <v>1051</v>
+      </c>
+      <c r="L241" t="s" s="2">
         <v>1052</v>
       </c>
-      <c r="L241" t="s" s="2">
+      <c r="M241" t="s" s="2">
         <v>1053</v>
-      </c>
-      <c r="M241" t="s" s="2">
-        <v>1054</v>
       </c>
       <c r="N241" s="2"/>
       <c r="O241" t="s" s="2">
@@ -31735,49 +31735,49 @@
       </c>
       <c r="P241" s="2"/>
       <c r="Q241" t="s" s="2">
+        <v>1054</v>
+      </c>
+      <c r="R241" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S241" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T241" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U241" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V241" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W241" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X241" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y241" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z241" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA241" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB241" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC241" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD241" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE241" t="s" s="2">
         <v>1055</v>
-      </c>
-      <c r="R241" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S241" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T241" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U241" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V241" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W241" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X241" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y241" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z241" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA241" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB241" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC241" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD241" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE241" t="s" s="2">
-        <v>1056</v>
       </c>
       <c r="AF241" t="s" s="2">
         <v>88</v>
@@ -31809,7 +31809,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -31835,10 +31835,10 @@
         <v>188</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="M242" s="2"/>
       <c r="N242" s="2"/>
@@ -31887,7 +31887,7 @@
         <v>306</v>
       </c>
       <c r="AE242" t="s" s="2">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="AF242" t="s" s="2">
         <v>78</v>
@@ -31919,10 +31919,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C243" t="s" s="2">
         <v>80</v>
@@ -31947,10 +31947,10 @@
         <v>188</v>
       </c>
       <c r="K243" t="s" s="2">
+        <v>1060</v>
+      </c>
+      <c r="L243" t="s" s="2">
         <v>1061</v>
-      </c>
-      <c r="L243" t="s" s="2">
-        <v>1062</v>
       </c>
       <c r="M243" s="2"/>
       <c r="N243" s="2"/>
@@ -32001,7 +32001,7 @@
         <v>80</v>
       </c>
       <c r="AE243" t="s" s="2">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="AF243" t="s" s="2">
         <v>78</v>
@@ -32033,7 +32033,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -32145,7 +32145,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -32259,7 +32259,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -32323,7 +32323,7 @@
       </c>
       <c r="X246" s="2"/>
       <c r="Y246" t="s" s="2">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="Z246" t="s" s="2">
         <v>80</v>
@@ -32373,7 +32373,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -32399,13 +32399,13 @@
         <v>90</v>
       </c>
       <c r="K247" t="s" s="2">
+        <v>1067</v>
+      </c>
+      <c r="L247" t="s" s="2">
         <v>1068</v>
       </c>
-      <c r="L247" t="s" s="2">
+      <c r="M247" t="s" s="2">
         <v>1069</v>
-      </c>
-      <c r="M247" t="s" s="2">
-        <v>1070</v>
       </c>
       <c r="N247" t="s" s="2">
         <v>367</v>
@@ -32489,10 +32489,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C248" t="s" s="2">
         <v>80</v>
@@ -32514,13 +32514,13 @@
         <v>80</v>
       </c>
       <c r="J248" t="s" s="2">
+        <v>1071</v>
+      </c>
+      <c r="K248" t="s" s="2">
         <v>1072</v>
       </c>
-      <c r="K248" t="s" s="2">
-        <v>1073</v>
-      </c>
       <c r="L248" t="s" s="2">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="M248" s="2"/>
       <c r="N248" s="2"/>
@@ -32603,7 +32603,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -32719,7 +32719,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -32742,16 +32742,16 @@
         <v>80</v>
       </c>
       <c r="J250" t="s" s="2">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="K250" t="s" s="2">
+        <v>1075</v>
+      </c>
+      <c r="L250" t="s" s="2">
         <v>1076</v>
       </c>
-      <c r="L250" t="s" s="2">
+      <c r="M250" t="s" s="2">
         <v>1077</v>
-      </c>
-      <c r="M250" t="s" s="2">
-        <v>1078</v>
       </c>
       <c r="N250" s="2"/>
       <c r="O250" t="s" s="2">
@@ -32801,7 +32801,7 @@
         <v>80</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>78</v>
@@ -32822,7 +32822,7 @@
         <v>80</v>
       </c>
       <c r="AL250" t="s" s="2">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="AM250" t="s" s="2">
         <v>80</v>
@@ -32833,7 +32833,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -32945,7 +32945,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -33059,7 +33059,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -33175,7 +33175,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -33201,10 +33201,10 @@
         <v>914</v>
       </c>
       <c r="K254" t="s" s="2">
+        <v>1083</v>
+      </c>
+      <c r="L254" t="s" s="2">
         <v>1084</v>
-      </c>
-      <c r="L254" t="s" s="2">
-        <v>1085</v>
       </c>
       <c r="M254" t="s" s="2">
         <v>978</v>
@@ -33257,7 +33257,7 @@
         <v>80</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>78</v>
@@ -33278,7 +33278,7 @@
         <v>80</v>
       </c>
       <c r="AL254" t="s" s="2">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="AM254" t="s" s="2">
         <v>80</v>
@@ -33289,7 +33289,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -33401,7 +33401,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -33515,7 +33515,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -33631,7 +33631,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -33749,7 +33749,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -33865,7 +33865,7 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -33929,7 +33929,7 @@
       </c>
       <c r="X260" s="2"/>
       <c r="Y260" t="s" s="2">
-        <v>997</v>
+        <v>933</v>
       </c>
       <c r="Z260" t="s" s="2">
         <v>80</v>
@@ -33979,7 +33979,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -34005,16 +34005,16 @@
         <v>108</v>
       </c>
       <c r="K261" t="s" s="2">
+        <v>998</v>
+      </c>
+      <c r="L261" t="s" s="2">
         <v>999</v>
       </c>
-      <c r="L261" t="s" s="2">
+      <c r="M261" t="s" s="2">
         <v>1000</v>
       </c>
-      <c r="M261" t="s" s="2">
+      <c r="N261" t="s" s="2">
         <v>1001</v>
-      </c>
-      <c r="N261" t="s" s="2">
-        <v>1002</v>
       </c>
       <c r="O261" t="s" s="2">
         <v>80</v>
@@ -34095,7 +34095,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -34121,10 +34121,10 @@
         <v>651</v>
       </c>
       <c r="K262" t="s" s="2">
+        <v>1094</v>
+      </c>
+      <c r="L262" t="s" s="2">
         <v>1095</v>
-      </c>
-      <c r="L262" t="s" s="2">
-        <v>1096</v>
       </c>
       <c r="M262" t="s" s="2">
         <v>978</v>
@@ -34177,7 +34177,7 @@
         <v>80</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>78</v>
@@ -34198,7 +34198,7 @@
         <v>80</v>
       </c>
       <c r="AL262" t="s" s="2">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="AM262" t="s" s="2">
         <v>80</v>
@@ -34209,7 +34209,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -34321,7 +34321,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -34435,7 +34435,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -34551,7 +34551,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -34669,7 +34669,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -34785,7 +34785,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -34901,7 +34901,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -34927,16 +34927,16 @@
         <v>108</v>
       </c>
       <c r="K269" t="s" s="2">
+        <v>998</v>
+      </c>
+      <c r="L269" t="s" s="2">
         <v>999</v>
       </c>
-      <c r="L269" t="s" s="2">
+      <c r="M269" t="s" s="2">
         <v>1000</v>
       </c>
-      <c r="M269" t="s" s="2">
+      <c r="N269" t="s" s="2">
         <v>1001</v>
-      </c>
-      <c r="N269" t="s" s="2">
-        <v>1002</v>
       </c>
       <c r="O269" t="s" s="2">
         <v>80</v>
@@ -35017,7 +35017,7 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -35043,10 +35043,10 @@
         <v>651</v>
       </c>
       <c r="K270" t="s" s="2">
+        <v>1105</v>
+      </c>
+      <c r="L270" t="s" s="2">
         <v>1106</v>
-      </c>
-      <c r="L270" t="s" s="2">
-        <v>1107</v>
       </c>
       <c r="M270" t="s" s="2">
         <v>978</v>
@@ -35099,7 +35099,7 @@
         <v>80</v>
       </c>
       <c r="AE270" t="s" s="2">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="AF270" t="s" s="2">
         <v>78</v>
@@ -35120,7 +35120,7 @@
         <v>80</v>
       </c>
       <c r="AL270" t="s" s="2">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="AM270" t="s" s="2">
         <v>80</v>
@@ -35131,7 +35131,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -35243,7 +35243,7 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -35357,7 +35357,7 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -35473,7 +35473,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -35591,7 +35591,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -35707,7 +35707,7 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -35823,7 +35823,7 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -35849,16 +35849,16 @@
         <v>108</v>
       </c>
       <c r="K277" t="s" s="2">
+        <v>998</v>
+      </c>
+      <c r="L277" t="s" s="2">
         <v>999</v>
       </c>
-      <c r="L277" t="s" s="2">
+      <c r="M277" t="s" s="2">
         <v>1000</v>
       </c>
-      <c r="M277" t="s" s="2">
+      <c r="N277" t="s" s="2">
         <v>1001</v>
-      </c>
-      <c r="N277" t="s" s="2">
-        <v>1002</v>
       </c>
       <c r="O277" t="s" s="2">
         <v>80</v>
@@ -35939,7 +35939,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -35965,16 +35965,16 @@
         <v>217</v>
       </c>
       <c r="K278" t="s" s="2">
+        <v>1115</v>
+      </c>
+      <c r="L278" t="s" s="2">
         <v>1116</v>
       </c>
-      <c r="L278" t="s" s="2">
+      <c r="M278" t="s" s="2">
         <v>1117</v>
       </c>
-      <c r="M278" t="s" s="2">
+      <c r="N278" t="s" s="2">
         <v>1118</v>
-      </c>
-      <c r="N278" t="s" s="2">
-        <v>1119</v>
       </c>
       <c r="O278" t="s" s="2">
         <v>80</v>
@@ -36023,7 +36023,7 @@
         <v>80</v>
       </c>
       <c r="AE278" t="s" s="2">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AF278" t="s" s="2">
         <v>78</v>
@@ -36041,10 +36041,10 @@
         <v>80</v>
       </c>
       <c r="AK278" t="s" s="2">
+        <v>1119</v>
+      </c>
+      <c r="AL278" t="s" s="2">
         <v>1120</v>
-      </c>
-      <c r="AL278" t="s" s="2">
-        <v>1121</v>
       </c>
       <c r="AM278" t="s" s="2">
         <v>80</v>
@@ -36055,7 +36055,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -36167,7 +36167,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -36281,7 +36281,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -36307,13 +36307,13 @@
         <v>428</v>
       </c>
       <c r="K281" t="s" s="2">
+        <v>1124</v>
+      </c>
+      <c r="L281" t="s" s="2">
         <v>1125</v>
       </c>
-      <c r="L281" t="s" s="2">
+      <c r="M281" t="s" s="2">
         <v>1126</v>
-      </c>
-      <c r="M281" t="s" s="2">
-        <v>1127</v>
       </c>
       <c r="N281" s="2"/>
       <c r="O281" t="s" s="2">
@@ -36363,16 +36363,16 @@
         <v>80</v>
       </c>
       <c r="AE281" t="s" s="2">
+        <v>1127</v>
+      </c>
+      <c r="AF281" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG281" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH281" t="s" s="2">
         <v>1128</v>
-      </c>
-      <c r="AF281" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG281" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH281" t="s" s="2">
-        <v>1129</v>
       </c>
       <c r="AI281" t="s" s="2">
         <v>100</v>
@@ -36384,18 +36384,18 @@
         <v>80</v>
       </c>
       <c r="AL281" t="s" s="2">
+        <v>1129</v>
+      </c>
+      <c r="AM281" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN281" t="s" s="2">
         <v>1130</v>
-      </c>
-      <c r="AM281" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN281" t="s" s="2">
-        <v>1131</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -36421,66 +36421,66 @@
         <v>428</v>
       </c>
       <c r="K282" t="s" s="2">
+        <v>1132</v>
+      </c>
+      <c r="L282" t="s" s="2">
         <v>1133</v>
       </c>
-      <c r="L282" t="s" s="2">
+      <c r="M282" t="s" s="2">
         <v>1134</v>
-      </c>
-      <c r="M282" t="s" s="2">
-        <v>1135</v>
       </c>
       <c r="N282" s="2"/>
       <c r="O282" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P282" t="s" s="2">
+        <v>1135</v>
+      </c>
+      <c r="Q282" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R282" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S282" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T282" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U282" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V282" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W282" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X282" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y282" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z282" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA282" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB282" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC282" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD282" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE282" t="s" s="2">
         <v>1136</v>
       </c>
-      <c r="Q282" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R282" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S282" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T282" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U282" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V282" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W282" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X282" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y282" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z282" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA282" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB282" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC282" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD282" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE282" t="s" s="2">
-        <v>1137</v>
-      </c>
       <c r="AF282" t="s" s="2">
         <v>78</v>
       </c>
@@ -36488,7 +36488,7 @@
         <v>88</v>
       </c>
       <c r="AH282" t="s" s="2">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="AI282" t="s" s="2">
         <v>100</v>
@@ -36500,18 +36500,18 @@
         <v>80</v>
       </c>
       <c r="AL282" t="s" s="2">
+        <v>1137</v>
+      </c>
+      <c r="AM282" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN282" t="s" s="2">
         <v>1138</v>
-      </c>
-      <c r="AM282" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN282" t="s" s="2">
-        <v>1139</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -36537,13 +36537,13 @@
         <v>774</v>
       </c>
       <c r="K283" t="s" s="2">
+        <v>1140</v>
+      </c>
+      <c r="L283" t="s" s="2">
         <v>1141</v>
       </c>
-      <c r="L283" t="s" s="2">
+      <c r="M283" t="s" s="2">
         <v>1142</v>
-      </c>
-      <c r="M283" t="s" s="2">
-        <v>1143</v>
       </c>
       <c r="N283" s="2"/>
       <c r="O283" t="s" s="2">
@@ -36593,7 +36593,7 @@
         <v>80</v>
       </c>
       <c r="AE283" t="s" s="2">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AF283" t="s" s="2">
         <v>78</v>
@@ -36611,21 +36611,21 @@
         <v>80</v>
       </c>
       <c r="AK283" t="s" s="2">
+        <v>1143</v>
+      </c>
+      <c r="AL283" t="s" s="2">
         <v>1144</v>
       </c>
-      <c r="AL283" t="s" s="2">
+      <c r="AM283" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN283" t="s" s="2">
         <v>1145</v>
-      </c>
-      <c r="AM283" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN283" t="s" s="2">
-        <v>1146</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -36651,10 +36651,10 @@
         <v>914</v>
       </c>
       <c r="K284" t="s" s="2">
+        <v>1147</v>
+      </c>
+      <c r="L284" t="s" s="2">
         <v>1148</v>
-      </c>
-      <c r="L284" t="s" s="2">
-        <v>1149</v>
       </c>
       <c r="M284" t="s" s="2">
         <v>978</v>
@@ -36707,7 +36707,7 @@
         <v>80</v>
       </c>
       <c r="AE284" t="s" s="2">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AF284" t="s" s="2">
         <v>78</v>
@@ -36725,21 +36725,21 @@
         <v>80</v>
       </c>
       <c r="AK284" t="s" s="2">
+        <v>1149</v>
+      </c>
+      <c r="AL284" t="s" s="2">
         <v>1150</v>
       </c>
-      <c r="AL284" t="s" s="2">
+      <c r="AM284" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN284" t="s" s="2">
         <v>1151</v>
-      </c>
-      <c r="AM284" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN284" t="s" s="2">
-        <v>1152</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" t="s" s="2">
@@ -36851,7 +36851,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -36965,7 +36965,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
@@ -36991,10 +36991,10 @@
         <v>657</v>
       </c>
       <c r="K287" t="s" s="2">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="M287" t="s" s="2">
         <v>984</v>
@@ -37081,7 +37081,7 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -37199,7 +37199,7 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -37225,10 +37225,10 @@
         <v>90</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="M289" t="s" s="2">
         <v>566</v>
@@ -37315,7 +37315,7 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" t="s" s="2">
@@ -37341,10 +37341,10 @@
         <v>102</v>
       </c>
       <c r="K290" t="s" s="2">
+        <v>1160</v>
+      </c>
+      <c r="L290" t="s" s="2">
         <v>1161</v>
-      </c>
-      <c r="L290" t="s" s="2">
-        <v>1162</v>
       </c>
       <c r="M290" t="s" s="2">
         <v>490</v>
@@ -37360,7 +37360,7 @@
         <v>80</v>
       </c>
       <c r="R290" t="s" s="2">
-        <v>997</v>
+        <v>1162</v>
       </c>
       <c r="S290" t="s" s="2">
         <v>80</v>
@@ -37463,10 +37463,10 @@
         <v>1164</v>
       </c>
       <c r="M291" t="s" s="2">
+        <v>1000</v>
+      </c>
+      <c r="N291" t="s" s="2">
         <v>1001</v>
-      </c>
-      <c r="N291" t="s" s="2">
-        <v>1002</v>
       </c>
       <c r="O291" t="s" s="2">
         <v>80</v>
@@ -38385,10 +38385,10 @@
         <v>1183</v>
       </c>
       <c r="M299" t="s" s="2">
+        <v>1000</v>
+      </c>
+      <c r="N299" t="s" s="2">
         <v>1001</v>
-      </c>
-      <c r="N299" t="s" s="2">
-        <v>1002</v>
       </c>
       <c r="O299" t="s" s="2">
         <v>80</v>
@@ -38606,7 +38606,7 @@
         <v>80</v>
       </c>
       <c r="J301" t="s" s="2">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="K301" t="s" s="2">
         <v>1189</v>
@@ -40317,13 +40317,13 @@
         <v>90</v>
       </c>
       <c r="K316" t="s" s="2">
+        <v>1067</v>
+      </c>
+      <c r="L316" t="s" s="2">
         <v>1068</v>
       </c>
-      <c r="L316" t="s" s="2">
+      <c r="M316" t="s" s="2">
         <v>1069</v>
-      </c>
-      <c r="M316" t="s" s="2">
-        <v>1070</v>
       </c>
       <c r="N316" t="s" s="2">
         <v>367</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -1267,7 +1267,7 @@
   </si>
   <si>
     <t>参照されるPatientが型として示される。
-一般的には参照の対象として予定される型。もし、Reference.typeとReference.referenceがともに指定されていて、Reference.referenceがFHIRのURLであればどちらも一致させるべきである(SHALL)。
+一般的には参照の対象として予定される型。もし、Reference.typeとReference.referenceがともに指定されていて、Reference.referenceがFHIRのURLであればどちらも一致させなければならない(SHALL)。
 型はResource Definitionに対するCanonical URLであってその型も参照の対象となる。Referenceはhttp://hl7.org/fhir/StructureDefinition/に対する相対URLである。たとえば、"Patient"はhttp://hl7.org/fhir/StructureDefinition/Patientへの参照である。絶対URLは論理モデルにおいて、論理モデル内部での参照として飲み使用可能であり、Resourceに対しては指定できない。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11626" uniqueCount="1252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11626" uniqueCount="1247">
   <si>
     <t>Property</t>
   </si>
@@ -1879,21 +1879,12 @@
     <t>MedicationRequest.dosageInstruction.additionalInstruction.coding.system</t>
   </si>
   <si>
-    <t>JAMI 補足用法８桁コードを識別するURI。</t>
-  </si>
-  <si>
-    <t>JAMI 補足用法８桁コードを識別するURI</t>
-  </si>
-  <si>
     <t>URIはOID(urn:oid:....)やUUID(urn:uuid:....)であることもある。OIDやUUIDはHL7のOIDレジストリを参照していなければならない（SHALL)。そうでなければ、URIはHL7のFHIRのリストに挙げられている特別なURIであるか、用語集が明確な定義が参照されるべきである。</t>
   </si>
   <si>
     <t>記号の定義の根拠が明確である必要がある。</t>
   </si>
   <si>
-    <t>urn:oid:1.2.392.200250.2.2.20.22</t>
-  </si>
-  <si>
     <t>MedicationRequest.dosageInstruction.additionalInstruction.coding.version</t>
   </si>
   <si>
@@ -1907,12 +1898,6 @@
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.additionalInstruction.coding.code</t>
-  </si>
-  <si>
-    <t>JAMI 補足用法コード</t>
-  </si>
-  <si>
-    <t>JAMI 補足用法コードを指定する。</t>
   </si>
   <si>
     <t>システム内の特定のコードを参照する必要がある。</t>
@@ -14523,7 +14508,7 @@
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F91" t="s" s="2">
         <v>88</v>
@@ -14541,23 +14526,23 @@
         <v>102</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>594</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
-        <v>595</v>
+        <v>80</v>
       </c>
       <c r="R91" t="s" s="2">
         <v>80</v>
@@ -14631,7 +14616,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -14657,13 +14642,13 @@
         <v>90</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -14745,7 +14730,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -14753,7 +14738,7 @@
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F93" t="s" s="2">
         <v>88</v>
@@ -14771,16 +14756,16 @@
         <v>108</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>601</v>
+        <v>344</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>602</v>
+        <v>345</v>
       </c>
       <c r="M93" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>80</v>
@@ -14861,7 +14846,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -14887,16 +14872,16 @@
         <v>90</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="M94" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>80</v>
@@ -14977,7 +14962,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -15009,10 +14994,10 @@
         <v>359</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>80</v>
@@ -15093,7 +15078,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -15128,7 +15113,7 @@
         <v>367</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>80</v>
@@ -15209,7 +15194,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -15235,10 +15220,10 @@
         <v>90</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="M97" t="s" s="2">
         <v>566</v>
@@ -15291,7 +15276,7 @@
         <v>80</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>78</v>
@@ -15323,7 +15308,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -15346,19 +15331,19 @@
         <v>89</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>80</v>
@@ -15407,7 +15392,7 @@
         <v>80</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>78</v>
@@ -15428,7 +15413,7 @@
         <v>80</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>80</v>
@@ -15439,7 +15424,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -15551,7 +15536,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -15665,7 +15650,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -15781,7 +15766,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -15807,14 +15792,14 @@
         <v>429</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" t="s" s="2">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>80</v>
@@ -15863,7 +15848,7 @@
         <v>80</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>78</v>
@@ -15884,7 +15869,7 @@
         <v>80</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>80</v>
@@ -15895,7 +15880,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -15918,17 +15903,17 @@
         <v>89</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" t="s" s="2">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>80</v>
@@ -15977,7 +15962,7 @@
         <v>80</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>78</v>
@@ -15989,7 +15974,7 @@
         <v>80</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>80</v>
@@ -15998,7 +15983,7 @@
         <v>80</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>80</v>
@@ -16009,7 +15994,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -16121,7 +16106,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -16235,7 +16220,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -16258,13 +16243,13 @@
         <v>89</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -16313,7 +16298,7 @@
         <v>137</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>78</v>
@@ -16334,7 +16319,7 @@
         <v>80</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>80</v>
@@ -16345,10 +16330,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="C107" t="s" s="2">
         <v>80</v>
@@ -16370,13 +16355,13 @@
         <v>89</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -16427,7 +16412,7 @@
         <v>80</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>78</v>
@@ -16448,7 +16433,7 @@
         <v>80</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>80</v>
@@ -16459,7 +16444,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -16571,7 +16556,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -16685,7 +16670,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -16708,19 +16693,19 @@
         <v>89</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>80</v>
@@ -16769,7 +16754,7 @@
         <v>80</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>78</v>
@@ -16790,18 +16775,18 @@
         <v>80</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -16827,20 +16812,20 @@
         <v>108</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" t="s" s="2">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P111" t="s" s="2">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="Q111" t="s" s="2">
         <v>80</v>
@@ -16864,10 +16849,10 @@
         <v>182</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>80</v>
@@ -16885,7 +16870,7 @@
         <v>80</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>78</v>
@@ -16906,18 +16891,18 @@
         <v>80</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -16943,21 +16928,21 @@
         <v>90</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" t="s" s="2">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" t="s" s="2">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="R112" t="s" s="2">
         <v>80</v>
@@ -16999,7 +16984,7 @@
         <v>80</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>78</v>
@@ -17020,18 +17005,18 @@
         <v>80</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -17057,21 +17042,21 @@
         <v>102</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" t="s" s="2">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P113" s="2"/>
       <c r="Q113" t="s" s="2">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="R113" t="s" s="2">
         <v>80</v>
@@ -17113,7 +17098,7 @@
         <v>80</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>78</v>
@@ -17122,7 +17107,7 @@
         <v>88</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>100</v>
@@ -17134,18 +17119,18 @@
         <v>80</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -17171,23 +17156,23 @@
         <v>108</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P114" s="2"/>
       <c r="Q114" t="s" s="2">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="R114" t="s" s="2">
         <v>80</v>
@@ -17229,7 +17214,7 @@
         <v>80</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>78</v>
@@ -17250,18 +17235,18 @@
         <v>80</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -17284,19 +17269,19 @@
         <v>89</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>80</v>
@@ -17345,7 +17330,7 @@
         <v>80</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>78</v>
@@ -17366,7 +17351,7 @@
         <v>80</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>80</v>
@@ -17377,7 +17362,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -17400,16 +17385,16 @@
         <v>89</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
@@ -17459,7 +17444,7 @@
         <v>80</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>78</v>
@@ -17480,7 +17465,7 @@
         <v>80</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>80</v>
@@ -17491,7 +17476,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -17514,19 +17499,19 @@
         <v>89</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>80</v>
@@ -17575,7 +17560,7 @@
         <v>80</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>78</v>
@@ -17596,7 +17581,7 @@
         <v>80</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>80</v>
@@ -17607,7 +17592,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -17630,19 +17615,19 @@
         <v>89</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>80</v>
@@ -17691,7 +17676,7 @@
         <v>80</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>78</v>
@@ -17712,7 +17697,7 @@
         <v>80</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>80</v>
@@ -17723,7 +17708,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -17749,10 +17734,10 @@
         <v>108</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="M119" t="s" s="2">
         <v>566</v>
@@ -17784,10 +17769,10 @@
         <v>182</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="Y119" t="s" s="2">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="Z119" t="s" s="2">
         <v>80</v>
@@ -17805,7 +17790,7 @@
         <v>80</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>78</v>
@@ -17826,7 +17811,7 @@
         <v>80</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>80</v>
@@ -17837,7 +17822,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -17860,23 +17845,23 @@
         <v>89</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P120" t="s" s="2">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="Q120" t="s" s="2">
         <v>80</v>
@@ -17921,7 +17906,7 @@
         <v>80</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>78</v>
@@ -17942,7 +17927,7 @@
         <v>80</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>80</v>
@@ -17953,7 +17938,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -17976,16 +17961,16 @@
         <v>89</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
@@ -18035,7 +18020,7 @@
         <v>80</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>78</v>
@@ -18056,7 +18041,7 @@
         <v>80</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>80</v>
@@ -18067,7 +18052,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -18090,16 +18075,16 @@
         <v>89</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
@@ -18149,7 +18134,7 @@
         <v>80</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>78</v>
@@ -18170,7 +18155,7 @@
         <v>80</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>80</v>
@@ -18181,7 +18166,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -18204,16 +18189,16 @@
         <v>89</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
@@ -18263,7 +18248,7 @@
         <v>80</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>78</v>
@@ -18284,7 +18269,7 @@
         <v>80</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>80</v>
@@ -18295,7 +18280,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -18321,10 +18306,10 @@
         <v>108</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="M124" t="s" s="2">
         <v>566</v>
@@ -18356,10 +18341,10 @@
         <v>182</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>80</v>
@@ -18377,7 +18362,7 @@
         <v>80</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>78</v>
@@ -18398,7 +18383,7 @@
         <v>80</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>80</v>
@@ -18409,7 +18394,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -18435,13 +18420,13 @@
         <v>108</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -18471,7 +18456,7 @@
       </c>
       <c r="X125" s="2"/>
       <c r="Y125" t="s" s="2">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>80</v>
@@ -18489,7 +18474,7 @@
         <v>80</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>78</v>
@@ -18521,7 +18506,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -18544,16 +18529,16 @@
         <v>89</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
@@ -18603,7 +18588,7 @@
         <v>80</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>78</v>
@@ -18635,7 +18620,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -18661,16 +18646,16 @@
         <v>108</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="O127" t="s" s="2">
         <v>80</v>
@@ -18698,10 +18683,10 @@
         <v>182</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>80</v>
@@ -18719,7 +18704,7 @@
         <v>80</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>78</v>
@@ -18740,7 +18725,7 @@
         <v>80</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>80</v>
@@ -18751,7 +18736,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -18774,16 +18759,16 @@
         <v>89</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
@@ -18833,7 +18818,7 @@
         <v>80</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>78</v>
@@ -18854,7 +18839,7 @@
         <v>80</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>80</v>
@@ -18865,7 +18850,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -18891,13 +18876,13 @@
         <v>188</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
@@ -18926,10 +18911,10 @@
         <v>112</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="Z129" t="s" s="2">
         <v>80</v>
@@ -18947,7 +18932,7 @@
         <v>80</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>78</v>
@@ -18968,7 +18953,7 @@
         <v>80</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="AM129" t="s" s="2">
         <v>80</v>
@@ -18979,7 +18964,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -19005,13 +18990,13 @@
         <v>288</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
@@ -19061,7 +19046,7 @@
         <v>80</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>78</v>
@@ -19082,18 +19067,18 @@
         <v>80</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -19119,16 +19104,16 @@
         <v>188</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>80</v>
@@ -19156,10 +19141,10 @@
         <v>255</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="Z131" t="s" s="2">
         <v>80</v>
@@ -19177,7 +19162,7 @@
         <v>80</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>78</v>
@@ -19198,18 +19183,18 @@
         <v>80</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>803</v>
+        <v>798</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -19321,7 +19306,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -19435,7 +19420,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -19461,10 +19446,10 @@
         <v>318</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="M134" t="s" s="2">
         <v>586</v>
@@ -19551,7 +19536,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -19663,7 +19648,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -19777,7 +19762,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -19803,23 +19788,23 @@
         <v>102</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P137" s="2"/>
       <c r="Q137" t="s" s="2">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="R137" t="s" s="2">
         <v>80</v>
@@ -19893,7 +19878,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -19919,13 +19904,13 @@
         <v>90</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
@@ -20007,7 +19992,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -20033,16 +20018,16 @@
         <v>108</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="M139" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>80</v>
@@ -20123,7 +20108,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -20149,16 +20134,16 @@
         <v>90</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="M140" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>80</v>
@@ -20239,7 +20224,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -20271,10 +20256,10 @@
         <v>359</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>80</v>
@@ -20355,7 +20340,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -20390,7 +20375,7 @@
         <v>367</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>80</v>
@@ -20471,7 +20456,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -20497,16 +20482,16 @@
         <v>188</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>80</v>
@@ -20534,10 +20519,10 @@
         <v>255</v>
       </c>
       <c r="X143" t="s" s="2">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="Z143" t="s" s="2">
         <v>80</v>
@@ -20555,7 +20540,7 @@
         <v>80</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>78</v>
@@ -20576,18 +20561,18 @@
         <v>80</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN143" t="s" s="2">
-        <v>831</v>
+        <v>826</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -20699,7 +20684,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -20813,7 +20798,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -20839,10 +20824,10 @@
         <v>318</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="M146" t="s" s="2">
         <v>586</v>
@@ -20929,7 +20914,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -21041,7 +21026,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -21155,7 +21140,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -21181,23 +21166,23 @@
         <v>102</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P149" s="2"/>
       <c r="Q149" t="s" s="2">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="R149" t="s" s="2">
         <v>80</v>
@@ -21271,7 +21256,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -21297,13 +21282,13 @@
         <v>90</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" t="s" s="2">
@@ -21385,7 +21370,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -21411,16 +21396,16 @@
         <v>108</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="M151" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>80</v>
@@ -21501,7 +21486,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -21527,16 +21512,16 @@
         <v>90</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="M152" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="O152" t="s" s="2">
         <v>80</v>
@@ -21617,7 +21602,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -21649,10 +21634,10 @@
         <v>359</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>80</v>
@@ -21733,7 +21718,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -21759,16 +21744,16 @@
         <v>90</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="M154" t="s" s="2">
         <v>367</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>80</v>
@@ -21849,7 +21834,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -21875,16 +21860,16 @@
         <v>188</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>80</v>
@@ -21912,10 +21897,10 @@
         <v>255</v>
       </c>
       <c r="X155" t="s" s="2">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="Z155" t="s" s="2">
         <v>80</v>
@@ -21933,7 +21918,7 @@
         <v>80</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>78</v>
@@ -21954,18 +21939,18 @@
         <v>80</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="AM155" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN155" t="s" s="2">
-        <v>860</v>
+        <v>855</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -22077,7 +22062,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -22191,7 +22176,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -22217,13 +22202,13 @@
         <v>318</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="N158" t="s" s="2">
         <v>322</v>
@@ -22305,10 +22290,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="C159" t="s" s="2">
         <v>80</v>
@@ -22333,10 +22318,10 @@
         <v>318</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="M159" t="s" s="2">
         <v>586</v>
@@ -22371,7 +22356,7 @@
       </c>
       <c r="X159" s="2"/>
       <c r="Y159" t="s" s="2">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="Z159" t="s" s="2">
         <v>80</v>
@@ -22421,7 +22406,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -22533,7 +22518,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -22647,7 +22632,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -22673,23 +22658,23 @@
         <v>102</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P162" s="2"/>
       <c r="Q162" t="s" s="2">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="R162" t="s" s="2">
         <v>80</v>
@@ -22763,7 +22748,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -22789,13 +22774,13 @@
         <v>90</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
@@ -22877,7 +22862,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -22903,16 +22888,16 @@
         <v>108</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="M164" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>80</v>
@@ -22993,7 +22978,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -23019,16 +23004,16 @@
         <v>90</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="M165" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>80</v>
@@ -23109,7 +23094,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -23141,10 +23126,10 @@
         <v>359</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>80</v>
@@ -23225,10 +23210,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="C167" t="s" s="2">
         <v>80</v>
@@ -23253,10 +23238,10 @@
         <v>318</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="M167" t="s" s="2">
         <v>586</v>
@@ -23291,7 +23276,7 @@
       </c>
       <c r="X167" s="2"/>
       <c r="Y167" t="s" s="2">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="Z167" t="s" s="2">
         <v>80</v>
@@ -23341,7 +23326,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -23453,7 +23438,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -23567,7 +23552,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -23593,23 +23578,23 @@
         <v>102</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P170" s="2"/>
       <c r="Q170" t="s" s="2">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="R170" t="s" s="2">
         <v>80</v>
@@ -23683,7 +23668,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -23709,13 +23694,13 @@
         <v>90</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" t="s" s="2">
@@ -23797,7 +23782,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -23823,16 +23808,16 @@
         <v>108</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="M172" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>80</v>
@@ -23913,7 +23898,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -23939,16 +23924,16 @@
         <v>90</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="M173" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>80</v>
@@ -24029,7 +24014,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -24061,10 +24046,10 @@
         <v>359</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>80</v>
@@ -24145,7 +24130,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -24171,16 +24156,16 @@
         <v>90</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="M175" t="s" s="2">
         <v>367</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>80</v>
@@ -24261,7 +24246,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -24284,13 +24269,13 @@
         <v>89</v>
       </c>
       <c r="J176" t="s" s="2">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="M176" s="2"/>
       <c r="N176" s="2"/>
@@ -24341,7 +24326,7 @@
         <v>80</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>78</v>
@@ -24368,12 +24353,12 @@
         <v>80</v>
       </c>
       <c r="AN176" t="s" s="2">
-        <v>902</v>
+        <v>897</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -24485,7 +24470,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -24599,7 +24584,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -24625,14 +24610,14 @@
         <v>188</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" t="s" s="2">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>80</v>
@@ -24660,10 +24645,10 @@
         <v>255</v>
       </c>
       <c r="X179" t="s" s="2">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="Y179" t="s" s="2">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="Z179" t="s" s="2">
         <v>80</v>
@@ -24681,7 +24666,7 @@
         <v>80</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>78</v>
@@ -24708,12 +24693,12 @@
         <v>80</v>
       </c>
       <c r="AN179" t="s" s="2">
-        <v>912</v>
+        <v>907</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -24736,19 +24721,19 @@
         <v>80</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>80</v>
@@ -24797,7 +24782,7 @@
         <v>80</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>78</v>
@@ -24809,7 +24794,7 @@
         <v>144</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="AJ180" t="s" s="2">
         <v>80</v>
@@ -24818,18 +24803,18 @@
         <v>80</v>
       </c>
       <c r="AL180" t="s" s="2">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="AM180" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN180" t="s" s="2">
-        <v>921</v>
+        <v>916</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -24941,7 +24926,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -25055,7 +25040,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -25078,19 +25063,19 @@
         <v>89</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="O183" t="s" s="2">
         <v>80</v>
@@ -25139,7 +25124,7 @@
         <v>80</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>78</v>
@@ -25160,18 +25145,18 @@
         <v>80</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AM183" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN183" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -25197,20 +25182,20 @@
         <v>108</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="M184" s="2"/>
       <c r="N184" t="s" s="2">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P184" t="s" s="2">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="Q184" t="s" s="2">
         <v>80</v>
@@ -25234,10 +25219,10 @@
         <v>182</v>
       </c>
       <c r="X184" t="s" s="2">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="Y184" t="s" s="2">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="Z184" t="s" s="2">
         <v>80</v>
@@ -25255,7 +25240,7 @@
         <v>80</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>78</v>
@@ -25276,18 +25261,18 @@
         <v>80</v>
       </c>
       <c r="AL184" t="s" s="2">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AM184" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN184" t="s" s="2">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -25313,14 +25298,14 @@
         <v>90</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="M185" s="2"/>
       <c r="N185" t="s" s="2">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>80</v>
@@ -25369,7 +25354,7 @@
         <v>80</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>78</v>
@@ -25390,18 +25375,18 @@
         <v>80</v>
       </c>
       <c r="AL185" t="s" s="2">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="AM185" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN185" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -25427,14 +25412,14 @@
         <v>102</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="M186" s="2"/>
       <c r="N186" t="s" s="2">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="O186" t="s" s="2">
         <v>80</v>
@@ -25463,7 +25448,7 @@
       </c>
       <c r="X186" s="2"/>
       <c r="Y186" t="s" s="2">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="Z186" t="s" s="2">
         <v>80</v>
@@ -25481,7 +25466,7 @@
         <v>80</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>78</v>
@@ -25490,7 +25475,7 @@
         <v>88</v>
       </c>
       <c r="AH186" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="AI186" t="s" s="2">
         <v>100</v>
@@ -25502,18 +25487,18 @@
         <v>80</v>
       </c>
       <c r="AL186" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AM186" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN186" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -25539,16 +25524,16 @@
         <v>108</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>80</v>
@@ -25597,7 +25582,7 @@
         <v>80</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>78</v>
@@ -25618,18 +25603,18 @@
         <v>80</v>
       </c>
       <c r="AL187" t="s" s="2">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="AM187" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN187" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -25652,19 +25637,19 @@
         <v>89</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>80</v>
@@ -25713,7 +25698,7 @@
         <v>80</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>78</v>
@@ -25734,18 +25719,18 @@
         <v>80</v>
       </c>
       <c r="AL188" t="s" s="2">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="AM188" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN188" t="s" s="2">
-        <v>944</v>
+        <v>939</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -25857,7 +25842,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -25971,7 +25956,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -25994,13 +25979,13 @@
         <v>89</v>
       </c>
       <c r="J191" t="s" s="2">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="M191" s="2"/>
       <c r="N191" s="2"/>
@@ -26051,7 +26036,7 @@
         <v>80</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>78</v>
@@ -26072,7 +26057,7 @@
         <v>80</v>
       </c>
       <c r="AL191" t="s" s="2">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="AM191" t="s" s="2">
         <v>80</v>
@@ -26083,7 +26068,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -26195,7 +26180,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -26309,7 +26294,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -26332,19 +26317,19 @@
         <v>89</v>
       </c>
       <c r="J194" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="O194" t="s" s="2">
         <v>80</v>
@@ -26393,7 +26378,7 @@
         <v>80</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>78</v>
@@ -26414,18 +26399,18 @@
         <v>80</v>
       </c>
       <c r="AL194" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AM194" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN194" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -26451,20 +26436,20 @@
         <v>108</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="M195" s="2"/>
       <c r="N195" t="s" s="2">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="O195" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P195" t="s" s="2">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="Q195" t="s" s="2">
         <v>80</v>
@@ -26488,10 +26473,10 @@
         <v>182</v>
       </c>
       <c r="X195" t="s" s="2">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="Y195" t="s" s="2">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="Z195" t="s" s="2">
         <v>80</v>
@@ -26509,7 +26494,7 @@
         <v>80</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>78</v>
@@ -26530,18 +26515,18 @@
         <v>80</v>
       </c>
       <c r="AL195" t="s" s="2">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AM195" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN195" t="s" s="2">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -26567,14 +26552,14 @@
         <v>90</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="M196" s="2"/>
       <c r="N196" t="s" s="2">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="O196" t="s" s="2">
         <v>80</v>
@@ -26623,7 +26608,7 @@
         <v>80</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>78</v>
@@ -26644,18 +26629,18 @@
         <v>80</v>
       </c>
       <c r="AL196" t="s" s="2">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="AM196" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN196" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -26681,14 +26666,14 @@
         <v>102</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="M197" s="2"/>
       <c r="N197" t="s" s="2">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="O197" t="s" s="2">
         <v>80</v>
@@ -26717,7 +26702,7 @@
       </c>
       <c r="X197" s="2"/>
       <c r="Y197" t="s" s="2">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="Z197" t="s" s="2">
         <v>80</v>
@@ -26735,7 +26720,7 @@
         <v>80</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AF197" t="s" s="2">
         <v>78</v>
@@ -26744,7 +26729,7 @@
         <v>88</v>
       </c>
       <c r="AH197" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="AI197" t="s" s="2">
         <v>100</v>
@@ -26756,18 +26741,18 @@
         <v>80</v>
       </c>
       <c r="AL197" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AM197" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN197" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -26793,16 +26778,16 @@
         <v>108</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="O198" t="s" s="2">
         <v>80</v>
@@ -26851,7 +26836,7 @@
         <v>80</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="AF198" t="s" s="2">
         <v>78</v>
@@ -26872,18 +26857,18 @@
         <v>80</v>
       </c>
       <c r="AL198" t="s" s="2">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="AM198" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN198" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -26906,13 +26891,13 @@
         <v>89</v>
       </c>
       <c r="J199" t="s" s="2">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="M199" s="2"/>
       <c r="N199" s="2"/>
@@ -26963,7 +26948,7 @@
         <v>80</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>78</v>
@@ -26984,7 +26969,7 @@
         <v>80</v>
       </c>
       <c r="AL199" t="s" s="2">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="AM199" t="s" s="2">
         <v>80</v>
@@ -26995,7 +26980,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -27018,19 +27003,19 @@
         <v>89</v>
       </c>
       <c r="J200" t="s" s="2">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="O200" t="s" s="2">
         <v>80</v>
@@ -27079,7 +27064,7 @@
         <v>80</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>78</v>
@@ -27100,18 +27085,18 @@
         <v>80</v>
       </c>
       <c r="AL200" t="s" s="2">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="AM200" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN200" t="s" s="2">
-        <v>973</v>
+        <v>968</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -27223,7 +27208,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -27337,7 +27322,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -27360,16 +27345,16 @@
         <v>89</v>
       </c>
       <c r="J203" t="s" s="2">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="N203" s="2"/>
       <c r="O203" t="s" s="2">
@@ -27419,7 +27404,7 @@
         <v>80</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>78</v>
@@ -27440,7 +27425,7 @@
         <v>80</v>
       </c>
       <c r="AL203" t="s" s="2">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="AM203" t="s" s="2">
         <v>80</v>
@@ -27451,7 +27436,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -27563,7 +27548,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -27677,7 +27662,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -27700,19 +27685,19 @@
         <v>89</v>
       </c>
       <c r="J206" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="O206" t="s" s="2">
         <v>80</v>
@@ -27761,7 +27746,7 @@
         <v>80</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>78</v>
@@ -27782,18 +27767,18 @@
         <v>80</v>
       </c>
       <c r="AL206" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AM206" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN206" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -27819,22 +27804,22 @@
         <v>108</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="M207" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="O207" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P207" t="s" s="2">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="Q207" t="s" s="2">
         <v>80</v>
@@ -27858,10 +27843,10 @@
         <v>182</v>
       </c>
       <c r="X207" t="s" s="2">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="Y207" t="s" s="2">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="Z207" t="s" s="2">
         <v>80</v>
@@ -27879,7 +27864,7 @@
         <v>80</v>
       </c>
       <c r="AE207" t="s" s="2">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="AF207" t="s" s="2">
         <v>78</v>
@@ -27900,18 +27885,18 @@
         <v>80</v>
       </c>
       <c r="AL207" t="s" s="2">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AM207" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN207" t="s" s="2">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -27937,16 +27922,16 @@
         <v>90</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="M208" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="O208" t="s" s="2">
         <v>80</v>
@@ -27995,7 +27980,7 @@
         <v>80</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>78</v>
@@ -28016,18 +28001,18 @@
         <v>80</v>
       </c>
       <c r="AL208" t="s" s="2">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="AM208" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN208" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -28053,16 +28038,16 @@
         <v>102</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="M209" t="s" s="2">
         <v>490</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="O209" t="s" s="2">
         <v>80</v>
@@ -28091,7 +28076,7 @@
       </c>
       <c r="X209" s="2"/>
       <c r="Y209" t="s" s="2">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="Z209" t="s" s="2">
         <v>80</v>
@@ -28109,7 +28094,7 @@
         <v>80</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AF209" t="s" s="2">
         <v>78</v>
@@ -28118,7 +28103,7 @@
         <v>88</v>
       </c>
       <c r="AH209" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="AI209" t="s" s="2">
         <v>100</v>
@@ -28130,18 +28115,18 @@
         <v>80</v>
       </c>
       <c r="AL209" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AM209" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN209" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -28167,16 +28152,16 @@
         <v>108</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>80</v>
@@ -28225,7 +28210,7 @@
         <v>80</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>78</v>
@@ -28246,18 +28231,18 @@
         <v>80</v>
       </c>
       <c r="AL210" t="s" s="2">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="AM210" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN210" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -28280,16 +28265,16 @@
         <v>89</v>
       </c>
       <c r="J211" t="s" s="2">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="N211" s="2"/>
       <c r="O211" t="s" s="2">
@@ -28339,7 +28324,7 @@
         <v>80</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>78</v>
@@ -28360,7 +28345,7 @@
         <v>80</v>
       </c>
       <c r="AL211" t="s" s="2">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="AM211" t="s" s="2">
         <v>80</v>
@@ -28371,7 +28356,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -28483,7 +28468,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -28597,7 +28582,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -28620,19 +28605,19 @@
         <v>89</v>
       </c>
       <c r="J214" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="N214" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="O214" t="s" s="2">
         <v>80</v>
@@ -28681,7 +28666,7 @@
         <v>80</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AF214" t="s" s="2">
         <v>78</v>
@@ -28702,18 +28687,18 @@
         <v>80</v>
       </c>
       <c r="AL214" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AM214" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN214" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -28739,22 +28724,22 @@
         <v>108</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="M215" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="O215" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P215" t="s" s="2">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="Q215" t="s" s="2">
         <v>80</v>
@@ -28778,10 +28763,10 @@
         <v>182</v>
       </c>
       <c r="X215" t="s" s="2">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="Y215" t="s" s="2">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="Z215" t="s" s="2">
         <v>80</v>
@@ -28799,7 +28784,7 @@
         <v>80</v>
       </c>
       <c r="AE215" t="s" s="2">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="AF215" t="s" s="2">
         <v>78</v>
@@ -28820,18 +28805,18 @@
         <v>80</v>
       </c>
       <c r="AL215" t="s" s="2">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AM215" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN215" t="s" s="2">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -28857,16 +28842,16 @@
         <v>90</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="M216" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="O216" t="s" s="2">
         <v>80</v>
@@ -28915,7 +28900,7 @@
         <v>80</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="AF216" t="s" s="2">
         <v>78</v>
@@ -28936,18 +28921,18 @@
         <v>80</v>
       </c>
       <c r="AL216" t="s" s="2">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="AM216" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN216" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -28973,16 +28958,16 @@
         <v>102</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="M217" t="s" s="2">
         <v>490</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="O217" t="s" s="2">
         <v>80</v>
@@ -29011,7 +28996,7 @@
       </c>
       <c r="X217" s="2"/>
       <c r="Y217" t="s" s="2">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="Z217" t="s" s="2">
         <v>80</v>
@@ -29029,7 +29014,7 @@
         <v>80</v>
       </c>
       <c r="AE217" t="s" s="2">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AF217" t="s" s="2">
         <v>78</v>
@@ -29038,7 +29023,7 @@
         <v>88</v>
       </c>
       <c r="AH217" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="AI217" t="s" s="2">
         <v>100</v>
@@ -29050,18 +29035,18 @@
         <v>80</v>
       </c>
       <c r="AL217" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AM217" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN217" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -29087,16 +29072,16 @@
         <v>108</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="O218" t="s" s="2">
         <v>80</v>
@@ -29145,7 +29130,7 @@
         <v>80</v>
       </c>
       <c r="AE218" t="s" s="2">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="AF218" t="s" s="2">
         <v>78</v>
@@ -29166,18 +29151,18 @@
         <v>80</v>
       </c>
       <c r="AL218" t="s" s="2">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="AM218" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN218" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -29200,19 +29185,19 @@
         <v>89</v>
       </c>
       <c r="J219" t="s" s="2">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="O219" t="s" s="2">
         <v>80</v>
@@ -29261,7 +29246,7 @@
         <v>80</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>78</v>
@@ -29282,7 +29267,7 @@
         <v>80</v>
       </c>
       <c r="AL219" t="s" s="2">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="AM219" t="s" s="2">
         <v>80</v>
@@ -29293,7 +29278,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -29405,7 +29390,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -29519,7 +29504,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -29542,19 +29527,19 @@
         <v>89</v>
       </c>
       <c r="J222" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="N222" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="O222" t="s" s="2">
         <v>80</v>
@@ -29603,7 +29588,7 @@
         <v>80</v>
       </c>
       <c r="AE222" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AF222" t="s" s="2">
         <v>78</v>
@@ -29624,18 +29609,18 @@
         <v>80</v>
       </c>
       <c r="AL222" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AM222" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN222" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -29661,22 +29646,22 @@
         <v>108</v>
       </c>
       <c r="K223" t="s" s="2">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="M223" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N223" t="s" s="2">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="O223" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P223" t="s" s="2">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="Q223" t="s" s="2">
         <v>80</v>
@@ -29700,10 +29685,10 @@
         <v>182</v>
       </c>
       <c r="X223" t="s" s="2">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="Y223" t="s" s="2">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="Z223" t="s" s="2">
         <v>80</v>
@@ -29721,7 +29706,7 @@
         <v>80</v>
       </c>
       <c r="AE223" t="s" s="2">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="AF223" t="s" s="2">
         <v>78</v>
@@ -29742,18 +29727,18 @@
         <v>80</v>
       </c>
       <c r="AL223" t="s" s="2">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AM223" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN223" t="s" s="2">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -29779,16 +29764,16 @@
         <v>90</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="M224" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="O224" t="s" s="2">
         <v>80</v>
@@ -29837,7 +29822,7 @@
         <v>80</v>
       </c>
       <c r="AE224" t="s" s="2">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="AF224" t="s" s="2">
         <v>78</v>
@@ -29858,18 +29843,18 @@
         <v>80</v>
       </c>
       <c r="AL224" t="s" s="2">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="AM224" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN224" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -29895,16 +29880,16 @@
         <v>102</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="M225" t="s" s="2">
         <v>490</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="O225" t="s" s="2">
         <v>80</v>
@@ -29933,7 +29918,7 @@
       </c>
       <c r="X225" s="2"/>
       <c r="Y225" t="s" s="2">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="Z225" t="s" s="2">
         <v>80</v>
@@ -29951,7 +29936,7 @@
         <v>80</v>
       </c>
       <c r="AE225" t="s" s="2">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AF225" t="s" s="2">
         <v>78</v>
@@ -29960,7 +29945,7 @@
         <v>88</v>
       </c>
       <c r="AH225" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="AI225" t="s" s="2">
         <v>100</v>
@@ -29972,18 +29957,18 @@
         <v>80</v>
       </c>
       <c r="AL225" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AM225" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN225" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -30009,16 +29994,16 @@
         <v>108</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="N226" t="s" s="2">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="O226" t="s" s="2">
         <v>80</v>
@@ -30067,7 +30052,7 @@
         <v>80</v>
       </c>
       <c r="AE226" t="s" s="2">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="AF226" t="s" s="2">
         <v>78</v>
@@ -30088,18 +30073,18 @@
         <v>80</v>
       </c>
       <c r="AL226" t="s" s="2">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="AM226" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN226" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -30122,19 +30107,19 @@
         <v>89</v>
       </c>
       <c r="J227" t="s" s="2">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="O227" t="s" s="2">
         <v>80</v>
@@ -30183,7 +30168,7 @@
         <v>80</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>78</v>
@@ -30204,7 +30189,7 @@
         <v>80</v>
       </c>
       <c r="AL227" t="s" s="2">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="AM227" t="s" s="2">
         <v>80</v>
@@ -30215,7 +30200,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -30327,7 +30312,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -30441,7 +30426,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -30464,19 +30449,19 @@
         <v>89</v>
       </c>
       <c r="J230" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="N230" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="O230" t="s" s="2">
         <v>80</v>
@@ -30525,7 +30510,7 @@
         <v>80</v>
       </c>
       <c r="AE230" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AF230" t="s" s="2">
         <v>78</v>
@@ -30546,18 +30531,18 @@
         <v>80</v>
       </c>
       <c r="AL230" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AM230" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN230" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -30583,22 +30568,22 @@
         <v>108</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="M231" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="O231" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P231" t="s" s="2">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="Q231" t="s" s="2">
         <v>80</v>
@@ -30622,10 +30607,10 @@
         <v>182</v>
       </c>
       <c r="X231" t="s" s="2">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="Y231" t="s" s="2">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="Z231" t="s" s="2">
         <v>80</v>
@@ -30643,7 +30628,7 @@
         <v>80</v>
       </c>
       <c r="AE231" t="s" s="2">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="AF231" t="s" s="2">
         <v>78</v>
@@ -30664,18 +30649,18 @@
         <v>80</v>
       </c>
       <c r="AL231" t="s" s="2">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AM231" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN231" t="s" s="2">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -30701,16 +30686,16 @@
         <v>90</v>
       </c>
       <c r="K232" t="s" s="2">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="M232" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N232" t="s" s="2">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="O232" t="s" s="2">
         <v>80</v>
@@ -30759,7 +30744,7 @@
         <v>80</v>
       </c>
       <c r="AE232" t="s" s="2">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="AF232" t="s" s="2">
         <v>78</v>
@@ -30780,18 +30765,18 @@
         <v>80</v>
       </c>
       <c r="AL232" t="s" s="2">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="AM232" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN232" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -30817,16 +30802,16 @@
         <v>102</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="M233" t="s" s="2">
         <v>490</v>
       </c>
       <c r="N233" t="s" s="2">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="O233" t="s" s="2">
         <v>80</v>
@@ -30855,7 +30840,7 @@
       </c>
       <c r="X233" s="2"/>
       <c r="Y233" t="s" s="2">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="Z233" t="s" s="2">
         <v>80</v>
@@ -30873,7 +30858,7 @@
         <v>80</v>
       </c>
       <c r="AE233" t="s" s="2">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AF233" t="s" s="2">
         <v>78</v>
@@ -30882,7 +30867,7 @@
         <v>88</v>
       </c>
       <c r="AH233" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="AI233" t="s" s="2">
         <v>100</v>
@@ -30894,18 +30879,18 @@
         <v>80</v>
       </c>
       <c r="AL233" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AM233" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN233" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -30931,16 +30916,16 @@
         <v>108</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="N234" t="s" s="2">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="O234" t="s" s="2">
         <v>80</v>
@@ -30989,7 +30974,7 @@
         <v>80</v>
       </c>
       <c r="AE234" t="s" s="2">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="AF234" t="s" s="2">
         <v>78</v>
@@ -31010,18 +30995,18 @@
         <v>80</v>
       </c>
       <c r="AL234" t="s" s="2">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="AM234" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN234" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -31044,13 +31029,13 @@
         <v>80</v>
       </c>
       <c r="J235" t="s" s="2">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="M235" s="2"/>
       <c r="N235" s="2"/>
@@ -31101,7 +31086,7 @@
         <v>80</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>78</v>
@@ -31119,10 +31104,10 @@
         <v>80</v>
       </c>
       <c r="AK235" t="s" s="2">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="AL235" t="s" s="2">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="AM235" t="s" s="2">
         <v>80</v>
@@ -31133,7 +31118,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -31245,7 +31230,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -31355,10 +31340,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="C238" t="s" s="2">
         <v>80</v>
@@ -31380,13 +31365,13 @@
         <v>80</v>
       </c>
       <c r="J238" t="s" s="2">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="M238" s="2"/>
       <c r="N238" s="2"/>
@@ -31469,7 +31454,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -31581,7 +31566,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -31693,7 +31678,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -31719,13 +31704,13 @@
         <v>102</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="N241" s="2"/>
       <c r="O241" t="s" s="2">
@@ -31733,7 +31718,7 @@
       </c>
       <c r="P241" s="2"/>
       <c r="Q241" t="s" s="2">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="R241" t="s" s="2">
         <v>80</v>
@@ -31775,7 +31760,7 @@
         <v>80</v>
       </c>
       <c r="AE241" t="s" s="2">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="AF241" t="s" s="2">
         <v>88</v>
@@ -31807,7 +31792,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -31833,10 +31818,10 @@
         <v>188</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="M242" s="2"/>
       <c r="N242" s="2"/>
@@ -31885,7 +31870,7 @@
         <v>306</v>
       </c>
       <c r="AE242" t="s" s="2">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="AF242" t="s" s="2">
         <v>78</v>
@@ -31917,10 +31902,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="C243" t="s" s="2">
         <v>80</v>
@@ -31945,10 +31930,10 @@
         <v>188</v>
       </c>
       <c r="K243" t="s" s="2">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="M243" s="2"/>
       <c r="N243" s="2"/>
@@ -31999,7 +31984,7 @@
         <v>80</v>
       </c>
       <c r="AE243" t="s" s="2">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="AF243" t="s" s="2">
         <v>78</v>
@@ -32031,7 +32016,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -32143,7 +32128,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -32257,7 +32242,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -32283,13 +32268,13 @@
         <v>318</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="N246" t="s" s="2">
         <v>322</v>
@@ -32321,7 +32306,7 @@
       </c>
       <c r="X246" s="2"/>
       <c r="Y246" t="s" s="2">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="Z246" t="s" s="2">
         <v>80</v>
@@ -32371,7 +32356,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -32397,13 +32382,13 @@
         <v>90</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="N247" t="s" s="2">
         <v>368</v>
@@ -32487,10 +32472,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="C248" t="s" s="2">
         <v>80</v>
@@ -32512,13 +32497,13 @@
         <v>80</v>
       </c>
       <c r="J248" t="s" s="2">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="K248" t="s" s="2">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="M248" s="2"/>
       <c r="N248" s="2"/>
@@ -32601,7 +32586,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -32717,7 +32702,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -32740,16 +32725,16 @@
         <v>80</v>
       </c>
       <c r="J250" t="s" s="2">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K250" t="s" s="2">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="N250" s="2"/>
       <c r="O250" t="s" s="2">
@@ -32799,7 +32784,7 @@
         <v>80</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>78</v>
@@ -32820,7 +32805,7 @@
         <v>80</v>
       </c>
       <c r="AL250" t="s" s="2">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="AM250" t="s" s="2">
         <v>80</v>
@@ -32831,7 +32816,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -32943,7 +32928,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -33057,7 +33042,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -33173,7 +33158,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -33196,16 +33181,16 @@
         <v>80</v>
       </c>
       <c r="J254" t="s" s="2">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="K254" t="s" s="2">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="M254" t="s" s="2">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="N254" s="2"/>
       <c r="O254" t="s" s="2">
@@ -33255,7 +33240,7 @@
         <v>80</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>78</v>
@@ -33276,7 +33261,7 @@
         <v>80</v>
       </c>
       <c r="AL254" t="s" s="2">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="AM254" t="s" s="2">
         <v>80</v>
@@ -33287,7 +33272,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -33399,7 +33384,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -33513,7 +33498,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -33536,19 +33521,19 @@
         <v>89</v>
       </c>
       <c r="J257" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K257" t="s" s="2">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="N257" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="O257" t="s" s="2">
         <v>80</v>
@@ -33597,7 +33582,7 @@
         <v>80</v>
       </c>
       <c r="AE257" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AF257" t="s" s="2">
         <v>78</v>
@@ -33618,18 +33603,18 @@
         <v>80</v>
       </c>
       <c r="AL257" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AM257" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN257" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -33655,22 +33640,22 @@
         <v>108</v>
       </c>
       <c r="K258" t="s" s="2">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="M258" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N258" t="s" s="2">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="O258" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P258" t="s" s="2">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="Q258" t="s" s="2">
         <v>80</v>
@@ -33694,10 +33679,10 @@
         <v>182</v>
       </c>
       <c r="X258" t="s" s="2">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="Y258" t="s" s="2">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="Z258" t="s" s="2">
         <v>80</v>
@@ -33715,7 +33700,7 @@
         <v>80</v>
       </c>
       <c r="AE258" t="s" s="2">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="AF258" t="s" s="2">
         <v>78</v>
@@ -33736,18 +33721,18 @@
         <v>80</v>
       </c>
       <c r="AL258" t="s" s="2">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AM258" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN258" t="s" s="2">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -33773,16 +33758,16 @@
         <v>90</v>
       </c>
       <c r="K259" t="s" s="2">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="M259" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N259" t="s" s="2">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="O259" t="s" s="2">
         <v>80</v>
@@ -33831,7 +33816,7 @@
         <v>80</v>
       </c>
       <c r="AE259" t="s" s="2">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="AF259" t="s" s="2">
         <v>78</v>
@@ -33852,18 +33837,18 @@
         <v>80</v>
       </c>
       <c r="AL259" t="s" s="2">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="AM259" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN259" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -33889,16 +33874,16 @@
         <v>102</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="M260" t="s" s="2">
         <v>490</v>
       </c>
       <c r="N260" t="s" s="2">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="O260" t="s" s="2">
         <v>80</v>
@@ -33927,7 +33912,7 @@
       </c>
       <c r="X260" s="2"/>
       <c r="Y260" t="s" s="2">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="Z260" t="s" s="2">
         <v>80</v>
@@ -33945,7 +33930,7 @@
         <v>80</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AF260" t="s" s="2">
         <v>78</v>
@@ -33954,7 +33939,7 @@
         <v>88</v>
       </c>
       <c r="AH260" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="AI260" t="s" s="2">
         <v>100</v>
@@ -33966,18 +33951,18 @@
         <v>80</v>
       </c>
       <c r="AL260" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AM260" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN260" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -34003,16 +33988,16 @@
         <v>108</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="N261" t="s" s="2">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="O261" t="s" s="2">
         <v>80</v>
@@ -34061,7 +34046,7 @@
         <v>80</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="AF261" t="s" s="2">
         <v>78</v>
@@ -34082,18 +34067,18 @@
         <v>80</v>
       </c>
       <c r="AL261" t="s" s="2">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="AM261" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN261" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -34116,16 +34101,16 @@
         <v>80</v>
       </c>
       <c r="J262" t="s" s="2">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="M262" t="s" s="2">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="N262" s="2"/>
       <c r="O262" t="s" s="2">
@@ -34175,7 +34160,7 @@
         <v>80</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>78</v>
@@ -34196,7 +34181,7 @@
         <v>80</v>
       </c>
       <c r="AL262" t="s" s="2">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="AM262" t="s" s="2">
         <v>80</v>
@@ -34207,7 +34192,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -34319,7 +34304,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -34433,7 +34418,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -34456,19 +34441,19 @@
         <v>89</v>
       </c>
       <c r="J265" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K265" t="s" s="2">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="L265" t="s" s="2">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="M265" t="s" s="2">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="N265" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="O265" t="s" s="2">
         <v>80</v>
@@ -34517,7 +34502,7 @@
         <v>80</v>
       </c>
       <c r="AE265" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AF265" t="s" s="2">
         <v>78</v>
@@ -34538,18 +34523,18 @@
         <v>80</v>
       </c>
       <c r="AL265" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AM265" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN265" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -34575,22 +34560,22 @@
         <v>108</v>
       </c>
       <c r="K266" t="s" s="2">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="M266" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N266" t="s" s="2">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="O266" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P266" t="s" s="2">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="Q266" t="s" s="2">
         <v>80</v>
@@ -34614,10 +34599,10 @@
         <v>182</v>
       </c>
       <c r="X266" t="s" s="2">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="Y266" t="s" s="2">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="Z266" t="s" s="2">
         <v>80</v>
@@ -34635,7 +34620,7 @@
         <v>80</v>
       </c>
       <c r="AE266" t="s" s="2">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="AF266" t="s" s="2">
         <v>78</v>
@@ -34656,18 +34641,18 @@
         <v>80</v>
       </c>
       <c r="AL266" t="s" s="2">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AM266" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN266" t="s" s="2">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -34693,16 +34678,16 @@
         <v>90</v>
       </c>
       <c r="K267" t="s" s="2">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="M267" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N267" t="s" s="2">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="O267" t="s" s="2">
         <v>80</v>
@@ -34751,7 +34736,7 @@
         <v>80</v>
       </c>
       <c r="AE267" t="s" s="2">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="AF267" t="s" s="2">
         <v>78</v>
@@ -34772,18 +34757,18 @@
         <v>80</v>
       </c>
       <c r="AL267" t="s" s="2">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="AM267" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN267" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -34809,16 +34794,16 @@
         <v>102</v>
       </c>
       <c r="K268" t="s" s="2">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="M268" t="s" s="2">
         <v>490</v>
       </c>
       <c r="N268" t="s" s="2">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="O268" t="s" s="2">
         <v>80</v>
@@ -34867,7 +34852,7 @@
         <v>80</v>
       </c>
       <c r="AE268" t="s" s="2">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AF268" t="s" s="2">
         <v>78</v>
@@ -34876,7 +34861,7 @@
         <v>88</v>
       </c>
       <c r="AH268" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="AI268" t="s" s="2">
         <v>100</v>
@@ -34888,18 +34873,18 @@
         <v>80</v>
       </c>
       <c r="AL268" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AM268" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN268" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -34925,16 +34910,16 @@
         <v>108</v>
       </c>
       <c r="K269" t="s" s="2">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="M269" t="s" s="2">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="N269" t="s" s="2">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="O269" t="s" s="2">
         <v>80</v>
@@ -34983,7 +34968,7 @@
         <v>80</v>
       </c>
       <c r="AE269" t="s" s="2">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="AF269" t="s" s="2">
         <v>78</v>
@@ -35004,18 +34989,18 @@
         <v>80</v>
       </c>
       <c r="AL269" t="s" s="2">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="AM269" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN269" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -35038,16 +35023,16 @@
         <v>80</v>
       </c>
       <c r="J270" t="s" s="2">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="K270" t="s" s="2">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="M270" t="s" s="2">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="N270" s="2"/>
       <c r="O270" t="s" s="2">
@@ -35097,7 +35082,7 @@
         <v>80</v>
       </c>
       <c r="AE270" t="s" s="2">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="AF270" t="s" s="2">
         <v>78</v>
@@ -35118,7 +35103,7 @@
         <v>80</v>
       </c>
       <c r="AL270" t="s" s="2">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="AM270" t="s" s="2">
         <v>80</v>
@@ -35129,7 +35114,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -35241,7 +35226,7 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -35355,7 +35340,7 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -35378,19 +35363,19 @@
         <v>89</v>
       </c>
       <c r="J273" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K273" t="s" s="2">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="M273" t="s" s="2">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="N273" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="O273" t="s" s="2">
         <v>80</v>
@@ -35439,7 +35424,7 @@
         <v>80</v>
       </c>
       <c r="AE273" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AF273" t="s" s="2">
         <v>78</v>
@@ -35460,18 +35445,18 @@
         <v>80</v>
       </c>
       <c r="AL273" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AM273" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN273" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -35497,22 +35482,22 @@
         <v>108</v>
       </c>
       <c r="K274" t="s" s="2">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="M274" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N274" t="s" s="2">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="O274" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P274" t="s" s="2">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="Q274" t="s" s="2">
         <v>80</v>
@@ -35536,10 +35521,10 @@
         <v>182</v>
       </c>
       <c r="X274" t="s" s="2">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="Y274" t="s" s="2">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="Z274" t="s" s="2">
         <v>80</v>
@@ -35557,7 +35542,7 @@
         <v>80</v>
       </c>
       <c r="AE274" t="s" s="2">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="AF274" t="s" s="2">
         <v>78</v>
@@ -35578,18 +35563,18 @@
         <v>80</v>
       </c>
       <c r="AL274" t="s" s="2">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AM274" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN274" t="s" s="2">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -35615,16 +35600,16 @@
         <v>90</v>
       </c>
       <c r="K275" t="s" s="2">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="M275" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N275" t="s" s="2">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="O275" t="s" s="2">
         <v>80</v>
@@ -35673,7 +35658,7 @@
         <v>80</v>
       </c>
       <c r="AE275" t="s" s="2">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="AF275" t="s" s="2">
         <v>78</v>
@@ -35694,18 +35679,18 @@
         <v>80</v>
       </c>
       <c r="AL275" t="s" s="2">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="AM275" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN275" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -35731,16 +35716,16 @@
         <v>102</v>
       </c>
       <c r="K276" t="s" s="2">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="L276" t="s" s="2">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="M276" t="s" s="2">
         <v>490</v>
       </c>
       <c r="N276" t="s" s="2">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="O276" t="s" s="2">
         <v>80</v>
@@ -35789,7 +35774,7 @@
         <v>80</v>
       </c>
       <c r="AE276" t="s" s="2">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AF276" t="s" s="2">
         <v>78</v>
@@ -35798,7 +35783,7 @@
         <v>88</v>
       </c>
       <c r="AH276" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="AI276" t="s" s="2">
         <v>100</v>
@@ -35810,18 +35795,18 @@
         <v>80</v>
       </c>
       <c r="AL276" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AM276" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN276" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -35847,16 +35832,16 @@
         <v>108</v>
       </c>
       <c r="K277" t="s" s="2">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="L277" t="s" s="2">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="M277" t="s" s="2">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="N277" t="s" s="2">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="O277" t="s" s="2">
         <v>80</v>
@@ -35905,7 +35890,7 @@
         <v>80</v>
       </c>
       <c r="AE277" t="s" s="2">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="AF277" t="s" s="2">
         <v>78</v>
@@ -35926,18 +35911,18 @@
         <v>80</v>
       </c>
       <c r="AL277" t="s" s="2">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="AM277" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN277" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -35963,16 +35948,16 @@
         <v>217</v>
       </c>
       <c r="K278" t="s" s="2">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="M278" t="s" s="2">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="N278" t="s" s="2">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="O278" t="s" s="2">
         <v>80</v>
@@ -36021,7 +36006,7 @@
         <v>80</v>
       </c>
       <c r="AE278" t="s" s="2">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="AF278" t="s" s="2">
         <v>78</v>
@@ -36039,10 +36024,10 @@
         <v>80</v>
       </c>
       <c r="AK278" t="s" s="2">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="AL278" t="s" s="2">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="AM278" t="s" s="2">
         <v>80</v>
@@ -36053,7 +36038,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -36165,7 +36150,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -36279,7 +36264,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -36305,13 +36290,13 @@
         <v>429</v>
       </c>
       <c r="K281" t="s" s="2">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="M281" t="s" s="2">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="N281" s="2"/>
       <c r="O281" t="s" s="2">
@@ -36361,7 +36346,7 @@
         <v>80</v>
       </c>
       <c r="AE281" t="s" s="2">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="AF281" t="s" s="2">
         <v>78</v>
@@ -36370,7 +36355,7 @@
         <v>88</v>
       </c>
       <c r="AH281" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="AI281" t="s" s="2">
         <v>100</v>
@@ -36382,18 +36367,18 @@
         <v>80</v>
       </c>
       <c r="AL281" t="s" s="2">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="AM281" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN281" t="s" s="2">
-        <v>1130</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -36419,20 +36404,20 @@
         <v>429</v>
       </c>
       <c r="K282" t="s" s="2">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="M282" t="s" s="2">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="N282" s="2"/>
       <c r="O282" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P282" t="s" s="2">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="Q282" t="s" s="2">
         <v>80</v>
@@ -36477,7 +36462,7 @@
         <v>80</v>
       </c>
       <c r="AE282" t="s" s="2">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="AF282" t="s" s="2">
         <v>78</v>
@@ -36486,7 +36471,7 @@
         <v>88</v>
       </c>
       <c r="AH282" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="AI282" t="s" s="2">
         <v>100</v>
@@ -36498,18 +36483,18 @@
         <v>80</v>
       </c>
       <c r="AL282" t="s" s="2">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="AM282" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN282" t="s" s="2">
-        <v>1138</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -36532,16 +36517,16 @@
         <v>80</v>
       </c>
       <c r="J283" t="s" s="2">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="K283" t="s" s="2">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="M283" t="s" s="2">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="N283" s="2"/>
       <c r="O283" t="s" s="2">
@@ -36591,7 +36576,7 @@
         <v>80</v>
       </c>
       <c r="AE283" t="s" s="2">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="AF283" t="s" s="2">
         <v>78</v>
@@ -36609,21 +36594,21 @@
         <v>80</v>
       </c>
       <c r="AK283" t="s" s="2">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="AL283" t="s" s="2">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="AM283" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN283" t="s" s="2">
-        <v>1145</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -36646,16 +36631,16 @@
         <v>80</v>
       </c>
       <c r="J284" t="s" s="2">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="K284" t="s" s="2">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="M284" t="s" s="2">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="N284" s="2"/>
       <c r="O284" t="s" s="2">
@@ -36705,7 +36690,7 @@
         <v>80</v>
       </c>
       <c r="AE284" t="s" s="2">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="AF284" t="s" s="2">
         <v>78</v>
@@ -36723,21 +36708,21 @@
         <v>80</v>
       </c>
       <c r="AK284" t="s" s="2">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="AL284" t="s" s="2">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="AM284" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN284" t="s" s="2">
-        <v>1151</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" t="s" s="2">
@@ -36849,7 +36834,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -36963,7 +36948,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
@@ -36986,19 +36971,19 @@
         <v>89</v>
       </c>
       <c r="J287" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K287" t="s" s="2">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="M287" t="s" s="2">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="N287" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="O287" t="s" s="2">
         <v>80</v>
@@ -37047,7 +37032,7 @@
         <v>80</v>
       </c>
       <c r="AE287" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AF287" t="s" s="2">
         <v>78</v>
@@ -37068,18 +37053,18 @@
         <v>80</v>
       </c>
       <c r="AL287" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AM287" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN287" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -37105,22 +37090,22 @@
         <v>108</v>
       </c>
       <c r="K288" t="s" s="2">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="M288" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N288" t="s" s="2">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="O288" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P288" t="s" s="2">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="Q288" t="s" s="2">
         <v>80</v>
@@ -37144,10 +37129,10 @@
         <v>182</v>
       </c>
       <c r="X288" t="s" s="2">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="Y288" t="s" s="2">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="Z288" t="s" s="2">
         <v>80</v>
@@ -37165,7 +37150,7 @@
         <v>80</v>
       </c>
       <c r="AE288" t="s" s="2">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="AF288" t="s" s="2">
         <v>78</v>
@@ -37186,18 +37171,18 @@
         <v>80</v>
       </c>
       <c r="AL288" t="s" s="2">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AM288" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN288" t="s" s="2">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -37223,16 +37208,16 @@
         <v>90</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="M289" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N289" t="s" s="2">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="O289" t="s" s="2">
         <v>80</v>
@@ -37281,7 +37266,7 @@
         <v>80</v>
       </c>
       <c r="AE289" t="s" s="2">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="AF289" t="s" s="2">
         <v>78</v>
@@ -37302,18 +37287,18 @@
         <v>80</v>
       </c>
       <c r="AL289" t="s" s="2">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="AM289" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN289" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" t="s" s="2">
@@ -37339,16 +37324,16 @@
         <v>102</v>
       </c>
       <c r="K290" t="s" s="2">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="M290" t="s" s="2">
         <v>490</v>
       </c>
       <c r="N290" t="s" s="2">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="O290" t="s" s="2">
         <v>80</v>
@@ -37358,7 +37343,7 @@
         <v>80</v>
       </c>
       <c r="R290" t="s" s="2">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="S290" t="s" s="2">
         <v>80</v>
@@ -37397,7 +37382,7 @@
         <v>80</v>
       </c>
       <c r="AE290" t="s" s="2">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AF290" t="s" s="2">
         <v>78</v>
@@ -37406,7 +37391,7 @@
         <v>88</v>
       </c>
       <c r="AH290" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="AI290" t="s" s="2">
         <v>100</v>
@@ -37418,18 +37403,18 @@
         <v>80</v>
       </c>
       <c r="AL290" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AM290" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN290" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -37455,16 +37440,16 @@
         <v>108</v>
       </c>
       <c r="K291" t="s" s="2">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="M291" t="s" s="2">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="N291" t="s" s="2">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="O291" t="s" s="2">
         <v>80</v>
@@ -37513,7 +37498,7 @@
         <v>80</v>
       </c>
       <c r="AE291" t="s" s="2">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="AF291" t="s" s="2">
         <v>78</v>
@@ -37534,18 +37519,18 @@
         <v>80</v>
       </c>
       <c r="AL291" t="s" s="2">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="AM291" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN291" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" t="s" s="2">
@@ -37568,16 +37553,16 @@
         <v>80</v>
       </c>
       <c r="J292" t="s" s="2">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="K292" t="s" s="2">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="M292" t="s" s="2">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="N292" s="2"/>
       <c r="O292" t="s" s="2">
@@ -37627,7 +37612,7 @@
         <v>80</v>
       </c>
       <c r="AE292" t="s" s="2">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="AF292" t="s" s="2">
         <v>78</v>
@@ -37645,10 +37630,10 @@
         <v>80</v>
       </c>
       <c r="AK292" t="s" s="2">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="AL292" t="s" s="2">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="AM292" t="s" s="2">
         <v>80</v>
@@ -37659,7 +37644,7 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" t="s" s="2">
@@ -37771,7 +37756,7 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" t="s" s="2">
@@ -37885,7 +37870,7 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" t="s" s="2">
@@ -37908,19 +37893,19 @@
         <v>89</v>
       </c>
       <c r="J295" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="M295" t="s" s="2">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="N295" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="O295" t="s" s="2">
         <v>80</v>
@@ -37969,7 +37954,7 @@
         <v>80</v>
       </c>
       <c r="AE295" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AF295" t="s" s="2">
         <v>78</v>
@@ -37990,18 +37975,18 @@
         <v>80</v>
       </c>
       <c r="AL295" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AM295" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN295" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" t="s" s="2">
@@ -38027,22 +38012,22 @@
         <v>108</v>
       </c>
       <c r="K296" t="s" s="2">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="L296" t="s" s="2">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="M296" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N296" t="s" s="2">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="O296" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P296" t="s" s="2">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="Q296" t="s" s="2">
         <v>80</v>
@@ -38066,10 +38051,10 @@
         <v>182</v>
       </c>
       <c r="X296" t="s" s="2">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="Y296" t="s" s="2">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="Z296" t="s" s="2">
         <v>80</v>
@@ -38087,7 +38072,7 @@
         <v>80</v>
       </c>
       <c r="AE296" t="s" s="2">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="AF296" t="s" s="2">
         <v>78</v>
@@ -38108,18 +38093,18 @@
         <v>80</v>
       </c>
       <c r="AL296" t="s" s="2">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AM296" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN296" t="s" s="2">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" t="s" s="2">
@@ -38145,23 +38130,23 @@
         <v>90</v>
       </c>
       <c r="K297" t="s" s="2">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="L297" t="s" s="2">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="M297" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N297" t="s" s="2">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="O297" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P297" s="2"/>
       <c r="Q297" t="s" s="2">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="R297" t="s" s="2">
         <v>80</v>
@@ -38203,7 +38188,7 @@
         <v>80</v>
       </c>
       <c r="AE297" t="s" s="2">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="AF297" t="s" s="2">
         <v>78</v>
@@ -38224,18 +38209,18 @@
         <v>80</v>
       </c>
       <c r="AL297" t="s" s="2">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="AM297" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN297" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" t="s" s="2">
@@ -38261,23 +38246,23 @@
         <v>102</v>
       </c>
       <c r="K298" t="s" s="2">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="L298" t="s" s="2">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="M298" t="s" s="2">
         <v>490</v>
       </c>
       <c r="N298" t="s" s="2">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="O298" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P298" s="2"/>
       <c r="Q298" t="s" s="2">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="R298" t="s" s="2">
         <v>80</v>
@@ -38319,7 +38304,7 @@
         <v>80</v>
       </c>
       <c r="AE298" t="s" s="2">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AF298" t="s" s="2">
         <v>78</v>
@@ -38328,7 +38313,7 @@
         <v>88</v>
       </c>
       <c r="AH298" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="AI298" t="s" s="2">
         <v>100</v>
@@ -38340,18 +38325,18 @@
         <v>80</v>
       </c>
       <c r="AL298" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AM298" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN298" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>1181</v>
+        <v>1176</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" t="s" s="2">
@@ -38377,23 +38362,23 @@
         <v>108</v>
       </c>
       <c r="K299" t="s" s="2">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="M299" t="s" s="2">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="N299" t="s" s="2">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="O299" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P299" s="2"/>
       <c r="Q299" t="s" s="2">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="R299" t="s" s="2">
         <v>80</v>
@@ -38435,7 +38420,7 @@
         <v>80</v>
       </c>
       <c r="AE299" t="s" s="2">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="AF299" t="s" s="2">
         <v>78</v>
@@ -38456,18 +38441,18 @@
         <v>80</v>
       </c>
       <c r="AL299" t="s" s="2">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="AM299" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN299" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" t="s" s="2">
@@ -38493,10 +38478,10 @@
         <v>224</v>
       </c>
       <c r="K300" t="s" s="2">
-        <v>1185</v>
+        <v>1180</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="M300" t="s" s="2">
         <v>425</v>
@@ -38549,7 +38534,7 @@
         <v>80</v>
       </c>
       <c r="AE300" t="s" s="2">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="AF300" t="s" s="2">
         <v>78</v>
@@ -38570,7 +38555,7 @@
         <v>80</v>
       </c>
       <c r="AL300" t="s" s="2">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="AM300" t="s" s="2">
         <v>462</v>
@@ -38581,7 +38566,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" t="s" s="2">
@@ -38604,13 +38589,13 @@
         <v>80</v>
       </c>
       <c r="J301" t="s" s="2">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K301" t="s" s="2">
-        <v>1189</v>
+        <v>1184</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>1190</v>
+        <v>1185</v>
       </c>
       <c r="M301" s="2"/>
       <c r="N301" s="2"/>
@@ -38661,7 +38646,7 @@
         <v>80</v>
       </c>
       <c r="AE301" t="s" s="2">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="AF301" t="s" s="2">
         <v>78</v>
@@ -38679,10 +38664,10 @@
         <v>80</v>
       </c>
       <c r="AK301" t="s" s="2">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="AL301" t="s" s="2">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="AM301" t="s" s="2">
         <v>80</v>
@@ -38693,7 +38678,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" t="s" s="2">
@@ -38805,7 +38790,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" t="s" s="2">
@@ -38919,7 +38904,7 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>1195</v>
+        <v>1190</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" t="s" s="2">
@@ -39035,7 +39020,7 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="B305" s="2"/>
       <c r="C305" t="s" s="2">
@@ -39061,13 +39046,13 @@
         <v>188</v>
       </c>
       <c r="K305" t="s" s="2">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="M305" t="s" s="2">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="N305" s="2"/>
       <c r="O305" t="s" s="2">
@@ -39097,7 +39082,7 @@
       </c>
       <c r="X305" s="2"/>
       <c r="Y305" t="s" s="2">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="Z305" t="s" s="2">
         <v>80</v>
@@ -39115,7 +39100,7 @@
         <v>80</v>
       </c>
       <c r="AE305" t="s" s="2">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="AF305" t="s" s="2">
         <v>88</v>
@@ -39133,21 +39118,21 @@
         <v>80</v>
       </c>
       <c r="AK305" t="s" s="2">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="AL305" t="s" s="2">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="AM305" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN305" t="s" s="2">
-        <v>1201</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>1202</v>
+        <v>1197</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" t="s" s="2">
@@ -39259,7 +39244,7 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" t="s" s="2">
@@ -39373,7 +39358,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>1204</v>
+        <v>1199</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" t="s" s="2">
@@ -39399,13 +39384,13 @@
         <v>318</v>
       </c>
       <c r="K308" t="s" s="2">
-        <v>1205</v>
+        <v>1200</v>
       </c>
       <c r="L308" t="s" s="2">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="M308" t="s" s="2">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="N308" t="s" s="2">
         <v>322</v>
@@ -39489,7 +39474,7 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" t="s" s="2">
@@ -39601,7 +39586,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" t="s" s="2">
@@ -39715,7 +39700,7 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s" s="2">
@@ -39741,10 +39726,10 @@
         <v>102</v>
       </c>
       <c r="K311" t="s" s="2">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="M311" t="s" s="2">
         <v>331</v>
@@ -39757,7 +39742,7 @@
       </c>
       <c r="P311" s="2"/>
       <c r="Q311" t="s" s="2">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="R311" t="s" s="2">
         <v>80</v>
@@ -39831,7 +39816,7 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" t="s" s="2">
@@ -39945,7 +39930,7 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" t="s" s="2">
@@ -39971,10 +39956,10 @@
         <v>108</v>
       </c>
       <c r="K313" t="s" s="2">
-        <v>1205</v>
+        <v>1200</v>
       </c>
       <c r="L313" t="s" s="2">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="M313" s="2"/>
       <c r="N313" t="s" s="2">
@@ -40059,7 +40044,7 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" t="s" s="2">
@@ -40085,10 +40070,10 @@
         <v>90</v>
       </c>
       <c r="K314" t="s" s="2">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="L314" t="s" s="2">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="M314" s="2"/>
       <c r="N314" t="s" s="2">
@@ -40173,7 +40158,7 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>1218</v>
+        <v>1213</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" t="s" s="2">
@@ -40199,13 +40184,13 @@
         <v>288</v>
       </c>
       <c r="K315" t="s" s="2">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="L315" t="s" s="2">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="M315" t="s" s="2">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="N315" t="s" s="2">
         <v>360</v>
@@ -40289,7 +40274,7 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" t="s" s="2">
@@ -40315,13 +40300,13 @@
         <v>90</v>
       </c>
       <c r="K316" t="s" s="2">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="L316" t="s" s="2">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="M316" t="s" s="2">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="N316" t="s" s="2">
         <v>368</v>
@@ -40405,7 +40390,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" t="s" s="2">
@@ -40431,13 +40416,13 @@
         <v>188</v>
       </c>
       <c r="K317" t="s" s="2">
-        <v>1224</v>
+        <v>1219</v>
       </c>
       <c r="L317" t="s" s="2">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="M317" t="s" s="2">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="N317" s="2"/>
       <c r="O317" t="s" s="2">
@@ -40466,10 +40451,10 @@
         <v>255</v>
       </c>
       <c r="X317" t="s" s="2">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="Y317" t="s" s="2">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="Z317" t="s" s="2">
         <v>80</v>
@@ -40487,7 +40472,7 @@
         <v>80</v>
       </c>
       <c r="AE317" t="s" s="2">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="AF317" t="s" s="2">
         <v>78</v>
@@ -40505,21 +40490,21 @@
         <v>80</v>
       </c>
       <c r="AK317" t="s" s="2">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="AL317" t="s" s="2">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="AM317" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN317" t="s" s="2">
-        <v>1231</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" t="s" s="2">
@@ -40542,13 +40527,13 @@
         <v>80</v>
       </c>
       <c r="J318" t="s" s="2">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="K318" t="s" s="2">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="L318" t="s" s="2">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="M318" t="s" s="2">
         <v>425</v>
@@ -40601,7 +40586,7 @@
         <v>80</v>
       </c>
       <c r="AE318" t="s" s="2">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="AF318" t="s" s="2">
         <v>78</v>
@@ -40616,13 +40601,13 @@
         <v>100</v>
       </c>
       <c r="AJ318" t="s" s="2">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="AK318" t="s" s="2">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="AL318" t="s" s="2">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="AM318" t="s" s="2">
         <v>80</v>
@@ -40633,11 +40618,11 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="B319" s="2"/>
       <c r="C319" t="s" s="2">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" t="s" s="2">
@@ -40656,16 +40641,16 @@
         <v>80</v>
       </c>
       <c r="J319" t="s" s="2">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="K319" t="s" s="2">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="L319" t="s" s="2">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="M319" t="s" s="2">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="N319" s="2"/>
       <c r="O319" t="s" s="2">
@@ -40715,7 +40700,7 @@
         <v>80</v>
       </c>
       <c r="AE319" t="s" s="2">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="AF319" t="s" s="2">
         <v>78</v>
@@ -40736,7 +40721,7 @@
         <v>80</v>
       </c>
       <c r="AL319" t="s" s="2">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="AM319" t="s" s="2">
         <v>80</v>
@@ -40747,7 +40732,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" t="s" s="2">
@@ -40770,16 +40755,16 @@
         <v>80</v>
       </c>
       <c r="J320" t="s" s="2">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="K320" t="s" s="2">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="L320" t="s" s="2">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="M320" t="s" s="2">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="N320" s="2"/>
       <c r="O320" t="s" s="2">
@@ -40829,7 +40814,7 @@
         <v>80</v>
       </c>
       <c r="AE320" t="s" s="2">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="AF320" t="s" s="2">
         <v>78</v>
@@ -40844,13 +40829,13 @@
         <v>100</v>
       </c>
       <c r="AJ320" t="s" s="2">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="AK320" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL320" t="s" s="2">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="AM320" t="s" s="2">
         <v>80</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11879" uniqueCount="1242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11878" uniqueCount="1241">
   <si>
     <t>Property</t>
   </si>
@@ -2444,13 +2444,11 @@
     <t>スケジュール上のタイミングを表すコード（あるいはcode.text内のテキスト）。BID(1日2回)のようなコードはどこにでもあるが、多くの医療機関は付加的なコードを定義している。もし、コードが示されていれば、構造化されたタイミングで完全に示されたデータであると解釈され、コードまたはTimingを解釈するためのデータであると解釈される。しかし、例外的に.repeat.bounds（コードは含まれない)はコードを上書きして適用される。</t>
   </si>
   <si>
-    <t>BIDなどは「施設特有の時間」として定義される。たとえば、施設がBIDを「つねに朝7時と夕方6時」であると指定することがある。この指定が不適切であれば、BIDというコードは使うべきではない。その代わり、HL7が定義したBIDのコードではなく、その施設特有のコードで明示的に示すべきであり、構造化された表現を使うべきである（この場合、2回のイベントの時刻を指定する必要がある）。</t>
-  </si>
-  <si>
-    <t>Code for a known / defined timing pattern.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/timing-abbreviation</t>
+    <t>BIDなどは「施設特有の時間」として定義される。たとえば、施設がBIDを「つねに朝7時と夕方6時」であると指定することがある。この指定が不適切であれば、BIDというコードは使うべきではない。その代わり、HL7が定義したBIDのコードではなく、その施設特有のコードで明示的に示すべきであり、構造化された表現を使うべきである（この場合、2回のイベントの時刻を指定する必要がある）。  
+【JP Core仕様】頓用指示時にはJAMI処方・注射オーダ標準用法規格の表6 イベント区分、イベント詳細区分(“http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationAsNeededConditionJAMI_CS”)を推奨するが、MERIT-9 処方オーダ 表5 頓用指示(“http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationAsNeededConditionMERIT9_CS”) を使用してもよい。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUsageInjection_VS</t>
   </si>
   <si>
     <t>Timing.code</t>
@@ -18894,29 +18892,27 @@
       <c r="W129" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="X129" t="s" s="2">
+      <c r="X129" s="2"/>
+      <c r="Y129" t="s" s="2">
         <v>777</v>
       </c>
-      <c r="Y129" t="s" s="2">
+      <c r="Z129" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA129" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB129" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC129" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD129" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE129" t="s" s="2">
         <v>778</v>
-      </c>
-      <c r="Z129" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA129" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB129" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC129" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD129" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE129" t="s" s="2">
-        <v>779</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>78</v>
@@ -18937,7 +18933,7 @@
         <v>80</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AM129" t="s" s="2">
         <v>80</v>
@@ -18948,7 +18944,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -18974,13 +18970,13 @@
         <v>287</v>
       </c>
       <c r="K130" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="L130" t="s" s="2">
         <v>782</v>
       </c>
-      <c r="L130" t="s" s="2">
+      <c r="M130" t="s" s="2">
         <v>783</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>784</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
@@ -19030,7 +19026,7 @@
         <v>80</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>78</v>
@@ -19051,18 +19047,18 @@
         <v>80</v>
       </c>
       <c r="AL130" t="s" s="2">
+        <v>785</v>
+      </c>
+      <c r="AM130" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN130" t="s" s="2">
         <v>786</v>
-      </c>
-      <c r="AM130" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN130" t="s" s="2">
-        <v>787</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -19088,16 +19084,16 @@
         <v>188</v>
       </c>
       <c r="K131" t="s" s="2">
+        <v>788</v>
+      </c>
+      <c r="L131" t="s" s="2">
         <v>789</v>
       </c>
-      <c r="L131" t="s" s="2">
+      <c r="M131" t="s" s="2">
         <v>790</v>
       </c>
-      <c r="M131" t="s" s="2">
+      <c r="N131" t="s" s="2">
         <v>791</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>792</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>80</v>
@@ -19126,25 +19122,25 @@
       </c>
       <c r="X131" s="2"/>
       <c r="Y131" t="s" s="2">
+        <v>792</v>
+      </c>
+      <c r="Z131" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA131" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB131" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC131" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD131" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE131" t="s" s="2">
         <v>793</v>
-      </c>
-      <c r="Z131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE131" t="s" s="2">
-        <v>794</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>78</v>
@@ -19165,18 +19161,18 @@
         <v>80</v>
       </c>
       <c r="AL131" t="s" s="2">
+        <v>794</v>
+      </c>
+      <c r="AM131" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN131" t="s" s="2">
         <v>795</v>
-      </c>
-      <c r="AM131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN131" t="s" s="2">
-        <v>796</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -19288,7 +19284,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -19402,7 +19398,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -19428,10 +19424,10 @@
         <v>317</v>
       </c>
       <c r="K134" t="s" s="2">
+        <v>799</v>
+      </c>
+      <c r="L134" t="s" s="2">
         <v>800</v>
-      </c>
-      <c r="L134" t="s" s="2">
-        <v>801</v>
       </c>
       <c r="M134" t="s" s="2">
         <v>585</v>
@@ -19518,7 +19514,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -19630,7 +19626,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -19744,7 +19740,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -19860,7 +19856,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -19974,7 +19970,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -20090,7 +20086,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -20206,7 +20202,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -20322,7 +20318,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -20438,7 +20434,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -20464,16 +20460,16 @@
         <v>188</v>
       </c>
       <c r="K143" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="L143" t="s" s="2">
         <v>811</v>
       </c>
-      <c r="L143" t="s" s="2">
+      <c r="M143" t="s" s="2">
         <v>812</v>
       </c>
-      <c r="M143" t="s" s="2">
+      <c r="N143" t="s" s="2">
         <v>813</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>814</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>80</v>
@@ -20502,25 +20498,25 @@
       </c>
       <c r="X143" s="2"/>
       <c r="Y143" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="Z143" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA143" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB143" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC143" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD143" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE143" t="s" s="2">
         <v>815</v>
-      </c>
-      <c r="Z143" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA143" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB143" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC143" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD143" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE143" t="s" s="2">
-        <v>816</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>78</v>
@@ -20541,18 +20537,18 @@
         <v>80</v>
       </c>
       <c r="AL143" t="s" s="2">
+        <v>816</v>
+      </c>
+      <c r="AM143" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN143" t="s" s="2">
         <v>817</v>
-      </c>
-      <c r="AM143" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN143" t="s" s="2">
-        <v>818</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -20664,7 +20660,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -20778,7 +20774,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -20804,10 +20800,10 @@
         <v>317</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="M146" t="s" s="2">
         <v>585</v>
@@ -20894,7 +20890,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -21006,7 +21002,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -21120,7 +21116,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -21236,7 +21232,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -21350,7 +21346,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -21466,7 +21462,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -21582,7 +21578,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -21698,7 +21694,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -21724,10 +21720,10 @@
         <v>90</v>
       </c>
       <c r="K154" t="s" s="2">
+        <v>830</v>
+      </c>
+      <c r="L154" t="s" s="2">
         <v>831</v>
-      </c>
-      <c r="L154" t="s" s="2">
-        <v>832</v>
       </c>
       <c r="M154" t="s" s="2">
         <v>366</v>
@@ -21814,7 +21810,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -21840,16 +21836,16 @@
         <v>188</v>
       </c>
       <c r="K155" t="s" s="2">
+        <v>833</v>
+      </c>
+      <c r="L155" t="s" s="2">
         <v>834</v>
       </c>
-      <c r="L155" t="s" s="2">
+      <c r="M155" t="s" s="2">
         <v>835</v>
       </c>
-      <c r="M155" t="s" s="2">
+      <c r="N155" t="s" s="2">
         <v>836</v>
-      </c>
-      <c r="N155" t="s" s="2">
-        <v>837</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>80</v>
@@ -21877,28 +21873,28 @@
         <v>255</v>
       </c>
       <c r="X155" t="s" s="2">
+        <v>837</v>
+      </c>
+      <c r="Y155" t="s" s="2">
         <v>838</v>
       </c>
-      <c r="Y155" t="s" s="2">
+      <c r="Z155" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA155" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB155" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC155" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD155" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE155" t="s" s="2">
         <v>839</v>
-      </c>
-      <c r="Z155" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA155" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB155" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC155" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD155" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE155" t="s" s="2">
-        <v>840</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>78</v>
@@ -21919,18 +21915,18 @@
         <v>80</v>
       </c>
       <c r="AL155" t="s" s="2">
+        <v>840</v>
+      </c>
+      <c r="AM155" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN155" t="s" s="2">
         <v>841</v>
-      </c>
-      <c r="AM155" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN155" t="s" s="2">
-        <v>842</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -22042,7 +22038,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -22156,7 +22152,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -22182,13 +22178,13 @@
         <v>317</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="N158" t="s" s="2">
         <v>321</v>
@@ -22270,10 +22266,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C159" t="s" s="2">
         <v>80</v>
@@ -22298,10 +22294,10 @@
         <v>317</v>
       </c>
       <c r="K159" t="s" s="2">
+        <v>847</v>
+      </c>
+      <c r="L159" t="s" s="2">
         <v>848</v>
-      </c>
-      <c r="L159" t="s" s="2">
-        <v>849</v>
       </c>
       <c r="M159" t="s" s="2">
         <v>585</v>
@@ -22336,7 +22332,7 @@
       </c>
       <c r="X159" s="2"/>
       <c r="Y159" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="Z159" t="s" s="2">
         <v>80</v>
@@ -22386,7 +22382,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -22498,7 +22494,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -22612,7 +22608,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -22638,10 +22634,10 @@
         <v>102</v>
       </c>
       <c r="K162" t="s" s="2">
+        <v>853</v>
+      </c>
+      <c r="L162" t="s" s="2">
         <v>854</v>
-      </c>
-      <c r="L162" t="s" s="2">
-        <v>855</v>
       </c>
       <c r="M162" t="s" s="2">
         <v>590</v>
@@ -22654,7 +22650,7 @@
       </c>
       <c r="P162" s="2"/>
       <c r="Q162" t="s" s="2">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="R162" t="s" s="2">
         <v>80</v>
@@ -22728,7 +22724,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -22842,7 +22838,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -22868,10 +22864,10 @@
         <v>108</v>
       </c>
       <c r="K164" t="s" s="2">
+        <v>858</v>
+      </c>
+      <c r="L164" t="s" s="2">
         <v>859</v>
-      </c>
-      <c r="L164" t="s" s="2">
-        <v>860</v>
       </c>
       <c r="M164" t="s" s="2">
         <v>565</v>
@@ -22958,7 +22954,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -22984,10 +22980,10 @@
         <v>90</v>
       </c>
       <c r="K165" t="s" s="2">
+        <v>861</v>
+      </c>
+      <c r="L165" t="s" s="2">
         <v>862</v>
-      </c>
-      <c r="L165" t="s" s="2">
-        <v>863</v>
       </c>
       <c r="M165" t="s" s="2">
         <v>565</v>
@@ -23074,7 +23070,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -23190,10 +23186,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C167" t="s" s="2">
         <v>80</v>
@@ -23218,10 +23214,10 @@
         <v>317</v>
       </c>
       <c r="K167" t="s" s="2">
+        <v>865</v>
+      </c>
+      <c r="L167" t="s" s="2">
         <v>866</v>
-      </c>
-      <c r="L167" t="s" s="2">
-        <v>867</v>
       </c>
       <c r="M167" t="s" s="2">
         <v>585</v>
@@ -23256,7 +23252,7 @@
       </c>
       <c r="X167" s="2"/>
       <c r="Y167" t="s" s="2">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="Z167" t="s" s="2">
         <v>80</v>
@@ -23306,7 +23302,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -23418,7 +23414,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -23532,7 +23528,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -23558,10 +23554,10 @@
         <v>102</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="M170" t="s" s="2">
         <v>590</v>
@@ -23574,7 +23570,7 @@
       </c>
       <c r="P170" s="2"/>
       <c r="Q170" t="s" s="2">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="R170" t="s" s="2">
         <v>80</v>
@@ -23648,7 +23644,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -23762,7 +23758,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -23788,10 +23784,10 @@
         <v>108</v>
       </c>
       <c r="K172" t="s" s="2">
+        <v>870</v>
+      </c>
+      <c r="L172" t="s" s="2">
         <v>871</v>
-      </c>
-      <c r="L172" t="s" s="2">
-        <v>872</v>
       </c>
       <c r="M172" t="s" s="2">
         <v>565</v>
@@ -23878,7 +23874,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -23904,10 +23900,10 @@
         <v>90</v>
       </c>
       <c r="K173" t="s" s="2">
+        <v>872</v>
+      </c>
+      <c r="L173" t="s" s="2">
         <v>873</v>
-      </c>
-      <c r="L173" t="s" s="2">
-        <v>874</v>
       </c>
       <c r="M173" t="s" s="2">
         <v>565</v>
@@ -23994,7 +23990,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -24110,7 +24106,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -24136,10 +24132,10 @@
         <v>90</v>
       </c>
       <c r="K175" t="s" s="2">
+        <v>875</v>
+      </c>
+      <c r="L175" t="s" s="2">
         <v>876</v>
-      </c>
-      <c r="L175" t="s" s="2">
-        <v>877</v>
       </c>
       <c r="M175" t="s" s="2">
         <v>366</v>
@@ -24226,7 +24222,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -24252,10 +24248,10 @@
         <v>629</v>
       </c>
       <c r="K176" t="s" s="2">
+        <v>878</v>
+      </c>
+      <c r="L176" t="s" s="2">
         <v>879</v>
-      </c>
-      <c r="L176" t="s" s="2">
-        <v>880</v>
       </c>
       <c r="M176" s="2"/>
       <c r="N176" s="2"/>
@@ -24306,7 +24302,7 @@
         <v>80</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>78</v>
@@ -24333,12 +24329,12 @@
         <v>80</v>
       </c>
       <c r="AN176" t="s" s="2">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -24450,7 +24446,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -24564,7 +24560,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -24590,14 +24586,14 @@
         <v>188</v>
       </c>
       <c r="K179" t="s" s="2">
+        <v>885</v>
+      </c>
+      <c r="L179" t="s" s="2">
         <v>886</v>
-      </c>
-      <c r="L179" t="s" s="2">
-        <v>887</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" t="s" s="2">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>80</v>
@@ -24625,28 +24621,28 @@
         <v>255</v>
       </c>
       <c r="X179" t="s" s="2">
+        <v>888</v>
+      </c>
+      <c r="Y179" t="s" s="2">
         <v>889</v>
       </c>
-      <c r="Y179" t="s" s="2">
+      <c r="Z179" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA179" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB179" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC179" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD179" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE179" t="s" s="2">
         <v>890</v>
-      </c>
-      <c r="Z179" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA179" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB179" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC179" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD179" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE179" t="s" s="2">
-        <v>891</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>78</v>
@@ -24673,12 +24669,12 @@
         <v>80</v>
       </c>
       <c r="AN179" t="s" s="2">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -24701,19 +24697,19 @@
         <v>80</v>
       </c>
       <c r="J180" t="s" s="2">
+        <v>893</v>
+      </c>
+      <c r="K180" t="s" s="2">
         <v>894</v>
       </c>
-      <c r="K180" t="s" s="2">
+      <c r="L180" t="s" s="2">
+        <v>894</v>
+      </c>
+      <c r="M180" t="s" s="2">
         <v>895</v>
       </c>
-      <c r="L180" t="s" s="2">
-        <v>895</v>
-      </c>
-      <c r="M180" t="s" s="2">
+      <c r="N180" t="s" s="2">
         <v>896</v>
-      </c>
-      <c r="N180" t="s" s="2">
-        <v>897</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>80</v>
@@ -24762,7 +24758,7 @@
         <v>80</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>78</v>
@@ -24774,27 +24770,27 @@
         <v>144</v>
       </c>
       <c r="AI180" t="s" s="2">
+        <v>898</v>
+      </c>
+      <c r="AJ180" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK180" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL180" t="s" s="2">
         <v>899</v>
       </c>
-      <c r="AJ180" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK180" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL180" t="s" s="2">
+      <c r="AM180" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN180" t="s" s="2">
         <v>900</v>
-      </c>
-      <c r="AM180" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN180" t="s" s="2">
-        <v>901</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -24906,7 +24902,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -25020,7 +25016,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -25046,10 +25042,10 @@
         <v>651</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="M183" t="s" s="2">
         <v>653</v>
@@ -25136,7 +25132,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -25165,7 +25161,7 @@
         <v>659</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="M184" s="2"/>
       <c r="N184" t="s" s="2">
@@ -25252,7 +25248,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -25278,10 +25274,10 @@
         <v>90</v>
       </c>
       <c r="K185" t="s" s="2">
+        <v>907</v>
+      </c>
+      <c r="L185" t="s" s="2">
         <v>908</v>
-      </c>
-      <c r="L185" t="s" s="2">
-        <v>909</v>
       </c>
       <c r="M185" s="2"/>
       <c r="N185" t="s" s="2">
@@ -25366,7 +25362,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -25392,10 +25388,10 @@
         <v>102</v>
       </c>
       <c r="K186" t="s" s="2">
+        <v>910</v>
+      </c>
+      <c r="L186" t="s" s="2">
         <v>911</v>
-      </c>
-      <c r="L186" t="s" s="2">
-        <v>912</v>
       </c>
       <c r="M186" s="2"/>
       <c r="N186" t="s" s="2">
@@ -25480,7 +25476,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -25596,7 +25592,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -25619,19 +25615,19 @@
         <v>89</v>
       </c>
       <c r="J188" t="s" s="2">
+        <v>914</v>
+      </c>
+      <c r="K188" t="s" s="2">
         <v>915</v>
       </c>
-      <c r="K188" t="s" s="2">
+      <c r="L188" t="s" s="2">
         <v>916</v>
       </c>
-      <c r="L188" t="s" s="2">
+      <c r="M188" t="s" s="2">
         <v>917</v>
       </c>
-      <c r="M188" t="s" s="2">
+      <c r="N188" t="s" s="2">
         <v>918</v>
-      </c>
-      <c r="N188" t="s" s="2">
-        <v>919</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>80</v>
@@ -25680,7 +25676,7 @@
         <v>80</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>78</v>
@@ -25701,18 +25697,18 @@
         <v>80</v>
       </c>
       <c r="AL188" t="s" s="2">
+        <v>920</v>
+      </c>
+      <c r="AM188" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN188" t="s" s="2">
         <v>921</v>
-      </c>
-      <c r="AM188" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN188" t="s" s="2">
-        <v>922</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -25824,7 +25820,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -25938,7 +25934,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -25961,13 +25957,13 @@
         <v>89</v>
       </c>
       <c r="J191" t="s" s="2">
+        <v>925</v>
+      </c>
+      <c r="K191" t="s" s="2">
         <v>926</v>
       </c>
-      <c r="K191" t="s" s="2">
-        <v>927</v>
-      </c>
       <c r="L191" t="s" s="2">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="M191" s="2"/>
       <c r="N191" s="2"/>
@@ -26018,7 +26014,7 @@
         <v>80</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>78</v>
@@ -26039,7 +26035,7 @@
         <v>80</v>
       </c>
       <c r="AL191" t="s" s="2">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="AM191" t="s" s="2">
         <v>80</v>
@@ -26050,7 +26046,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -26162,7 +26158,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -26276,7 +26272,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -26302,10 +26298,10 @@
         <v>651</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="M194" t="s" s="2">
         <v>653</v>
@@ -26392,7 +26388,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -26508,7 +26504,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -26534,10 +26530,10 @@
         <v>90</v>
       </c>
       <c r="K196" t="s" s="2">
+        <v>934</v>
+      </c>
+      <c r="L196" t="s" s="2">
         <v>935</v>
-      </c>
-      <c r="L196" t="s" s="2">
-        <v>936</v>
       </c>
       <c r="M196" s="2"/>
       <c r="N196" t="s" s="2">
@@ -26622,7 +26618,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -26648,10 +26644,10 @@
         <v>102</v>
       </c>
       <c r="K197" t="s" s="2">
+        <v>937</v>
+      </c>
+      <c r="L197" t="s" s="2">
         <v>938</v>
-      </c>
-      <c r="L197" t="s" s="2">
-        <v>939</v>
       </c>
       <c r="M197" s="2"/>
       <c r="N197" t="s" s="2">
@@ -26736,7 +26732,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -26762,10 +26758,10 @@
         <v>108</v>
       </c>
       <c r="K198" t="s" s="2">
+        <v>940</v>
+      </c>
+      <c r="L198" t="s" s="2">
         <v>941</v>
-      </c>
-      <c r="L198" t="s" s="2">
-        <v>942</v>
       </c>
       <c r="M198" t="s" s="2">
         <v>687</v>
@@ -26852,7 +26848,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -26875,13 +26871,13 @@
         <v>89</v>
       </c>
       <c r="J199" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="M199" s="2"/>
       <c r="N199" s="2"/>
@@ -26932,7 +26928,7 @@
         <v>80</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>78</v>
@@ -26953,7 +26949,7 @@
         <v>80</v>
       </c>
       <c r="AL199" t="s" s="2">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="AM199" t="s" s="2">
         <v>80</v>
@@ -26964,7 +26960,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -27076,7 +27072,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -27190,7 +27186,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -27216,10 +27212,10 @@
         <v>651</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="M202" t="s" s="2">
         <v>653</v>
@@ -27306,7 +27302,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -27422,7 +27418,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -27448,10 +27444,10 @@
         <v>90</v>
       </c>
       <c r="K204" t="s" s="2">
+        <v>951</v>
+      </c>
+      <c r="L204" t="s" s="2">
         <v>952</v>
-      </c>
-      <c r="L204" t="s" s="2">
-        <v>953</v>
       </c>
       <c r="M204" s="2"/>
       <c r="N204" t="s" s="2">
@@ -27536,7 +27532,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -27562,10 +27558,10 @@
         <v>102</v>
       </c>
       <c r="K205" t="s" s="2">
+        <v>910</v>
+      </c>
+      <c r="L205" t="s" s="2">
         <v>911</v>
-      </c>
-      <c r="L205" t="s" s="2">
-        <v>912</v>
       </c>
       <c r="M205" s="2"/>
       <c r="N205" t="s" s="2">
@@ -27650,7 +27646,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -27676,10 +27672,10 @@
         <v>108</v>
       </c>
       <c r="K206" t="s" s="2">
+        <v>940</v>
+      </c>
+      <c r="L206" t="s" s="2">
         <v>941</v>
-      </c>
-      <c r="L206" t="s" s="2">
-        <v>942</v>
       </c>
       <c r="M206" t="s" s="2">
         <v>687</v>
@@ -27766,7 +27762,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -27789,19 +27785,19 @@
         <v>89</v>
       </c>
       <c r="J207" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="K207" t="s" s="2">
+        <v>956</v>
+      </c>
+      <c r="L207" t="s" s="2">
+        <v>956</v>
+      </c>
+      <c r="M207" t="s" s="2">
         <v>957</v>
       </c>
-      <c r="L207" t="s" s="2">
-        <v>957</v>
-      </c>
-      <c r="M207" t="s" s="2">
+      <c r="N207" t="s" s="2">
         <v>958</v>
-      </c>
-      <c r="N207" t="s" s="2">
-        <v>959</v>
       </c>
       <c r="O207" t="s" s="2">
         <v>80</v>
@@ -27850,7 +27846,7 @@
         <v>80</v>
       </c>
       <c r="AE207" t="s" s="2">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="AF207" t="s" s="2">
         <v>78</v>
@@ -27871,18 +27867,18 @@
         <v>80</v>
       </c>
       <c r="AL207" t="s" s="2">
+        <v>960</v>
+      </c>
+      <c r="AM207" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN207" t="s" s="2">
         <v>961</v>
-      </c>
-      <c r="AM207" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN207" t="s" s="2">
-        <v>962</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -27994,7 +27990,7 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -28108,7 +28104,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -28131,16 +28127,16 @@
         <v>89</v>
       </c>
       <c r="J210" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="K210" t="s" s="2">
+        <v>965</v>
+      </c>
+      <c r="L210" t="s" s="2">
+        <v>965</v>
+      </c>
+      <c r="M210" t="s" s="2">
         <v>966</v>
-      </c>
-      <c r="L210" t="s" s="2">
-        <v>966</v>
-      </c>
-      <c r="M210" t="s" s="2">
-        <v>967</v>
       </c>
       <c r="N210" s="2"/>
       <c r="O210" t="s" s="2">
@@ -28190,7 +28186,7 @@
         <v>80</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>78</v>
@@ -28211,7 +28207,7 @@
         <v>80</v>
       </c>
       <c r="AL210" t="s" s="2">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="AM210" t="s" s="2">
         <v>80</v>
@@ -28222,7 +28218,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -28334,7 +28330,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -28448,7 +28444,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -28474,13 +28470,13 @@
         <v>651</v>
       </c>
       <c r="K213" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="L213" t="s" s="2">
         <v>971</v>
       </c>
-      <c r="L213" t="s" s="2">
+      <c r="M213" t="s" s="2">
         <v>972</v>
-      </c>
-      <c r="M213" t="s" s="2">
-        <v>973</v>
       </c>
       <c r="N213" t="s" s="2">
         <v>654</v>
@@ -28564,7 +28560,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -28590,16 +28586,16 @@
         <v>108</v>
       </c>
       <c r="K214" t="s" s="2">
+        <v>974</v>
+      </c>
+      <c r="L214" t="s" s="2">
         <v>975</v>
-      </c>
-      <c r="L214" t="s" s="2">
-        <v>976</v>
       </c>
       <c r="M214" t="s" s="2">
         <v>565</v>
       </c>
       <c r="N214" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="O214" t="s" s="2">
         <v>80</v>
@@ -28682,7 +28678,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -28708,16 +28704,16 @@
         <v>90</v>
       </c>
       <c r="K215" t="s" s="2">
+        <v>978</v>
+      </c>
+      <c r="L215" t="s" s="2">
         <v>979</v>
-      </c>
-      <c r="L215" t="s" s="2">
-        <v>980</v>
       </c>
       <c r="M215" t="s" s="2">
         <v>565</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="O215" t="s" s="2">
         <v>80</v>
@@ -28798,7 +28794,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -28824,16 +28820,16 @@
         <v>102</v>
       </c>
       <c r="K216" t="s" s="2">
+        <v>982</v>
+      </c>
+      <c r="L216" t="s" s="2">
         <v>983</v>
-      </c>
-      <c r="L216" t="s" s="2">
-        <v>984</v>
       </c>
       <c r="M216" t="s" s="2">
         <v>489</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="O216" t="s" s="2">
         <v>80</v>
@@ -28862,7 +28858,7 @@
       </c>
       <c r="X216" s="2"/>
       <c r="Y216" t="s" s="2">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="Z216" t="s" s="2">
         <v>80</v>
@@ -28912,7 +28908,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -28938,16 +28934,16 @@
         <v>108</v>
       </c>
       <c r="K217" t="s" s="2">
+        <v>987</v>
+      </c>
+      <c r="L217" t="s" s="2">
         <v>988</v>
       </c>
-      <c r="L217" t="s" s="2">
+      <c r="M217" t="s" s="2">
         <v>989</v>
       </c>
-      <c r="M217" t="s" s="2">
+      <c r="N217" t="s" s="2">
         <v>990</v>
-      </c>
-      <c r="N217" t="s" s="2">
-        <v>991</v>
       </c>
       <c r="O217" t="s" s="2">
         <v>80</v>
@@ -29028,7 +29024,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -29051,16 +29047,16 @@
         <v>89</v>
       </c>
       <c r="J218" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="N218" s="2"/>
       <c r="O218" t="s" s="2">
@@ -29110,7 +29106,7 @@
         <v>80</v>
       </c>
       <c r="AE218" t="s" s="2">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="AF218" t="s" s="2">
         <v>78</v>
@@ -29131,7 +29127,7 @@
         <v>80</v>
       </c>
       <c r="AL218" t="s" s="2">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="AM218" t="s" s="2">
         <v>80</v>
@@ -29142,7 +29138,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -29254,7 +29250,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -29368,7 +29364,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -29394,13 +29390,13 @@
         <v>651</v>
       </c>
       <c r="K221" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="L221" t="s" s="2">
         <v>971</v>
       </c>
-      <c r="L221" t="s" s="2">
+      <c r="M221" t="s" s="2">
         <v>972</v>
-      </c>
-      <c r="M221" t="s" s="2">
-        <v>973</v>
       </c>
       <c r="N221" t="s" s="2">
         <v>654</v>
@@ -29484,7 +29480,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -29510,16 +29506,16 @@
         <v>108</v>
       </c>
       <c r="K222" t="s" s="2">
+        <v>974</v>
+      </c>
+      <c r="L222" t="s" s="2">
         <v>975</v>
-      </c>
-      <c r="L222" t="s" s="2">
-        <v>976</v>
       </c>
       <c r="M222" t="s" s="2">
         <v>565</v>
       </c>
       <c r="N222" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="O222" t="s" s="2">
         <v>80</v>
@@ -29602,7 +29598,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -29628,16 +29624,16 @@
         <v>90</v>
       </c>
       <c r="K223" t="s" s="2">
+        <v>978</v>
+      </c>
+      <c r="L223" t="s" s="2">
         <v>979</v>
-      </c>
-      <c r="L223" t="s" s="2">
-        <v>980</v>
       </c>
       <c r="M223" t="s" s="2">
         <v>565</v>
       </c>
       <c r="N223" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="O223" t="s" s="2">
         <v>80</v>
@@ -29718,7 +29714,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -29744,16 +29740,16 @@
         <v>102</v>
       </c>
       <c r="K224" t="s" s="2">
+        <v>982</v>
+      </c>
+      <c r="L224" t="s" s="2">
         <v>983</v>
-      </c>
-      <c r="L224" t="s" s="2">
-        <v>984</v>
       </c>
       <c r="M224" t="s" s="2">
         <v>489</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="O224" t="s" s="2">
         <v>80</v>
@@ -29782,7 +29778,7 @@
       </c>
       <c r="X224" s="2"/>
       <c r="Y224" t="s" s="2">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="Z224" t="s" s="2">
         <v>80</v>
@@ -29832,7 +29828,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -29858,16 +29854,16 @@
         <v>108</v>
       </c>
       <c r="K225" t="s" s="2">
+        <v>987</v>
+      </c>
+      <c r="L225" t="s" s="2">
         <v>988</v>
       </c>
-      <c r="L225" t="s" s="2">
+      <c r="M225" t="s" s="2">
         <v>989</v>
       </c>
-      <c r="M225" t="s" s="2">
+      <c r="N225" t="s" s="2">
         <v>990</v>
-      </c>
-      <c r="N225" t="s" s="2">
-        <v>991</v>
       </c>
       <c r="O225" t="s" s="2">
         <v>80</v>
@@ -29948,7 +29944,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -29971,19 +29967,19 @@
         <v>89</v>
       </c>
       <c r="J226" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="K226" t="s" s="2">
+        <v>1001</v>
+      </c>
+      <c r="L226" t="s" s="2">
+        <v>1001</v>
+      </c>
+      <c r="M226" t="s" s="2">
         <v>1002</v>
       </c>
-      <c r="L226" t="s" s="2">
-        <v>1002</v>
-      </c>
-      <c r="M226" t="s" s="2">
+      <c r="N226" t="s" s="2">
         <v>1003</v>
-      </c>
-      <c r="N226" t="s" s="2">
-        <v>1004</v>
       </c>
       <c r="O226" t="s" s="2">
         <v>80</v>
@@ -30032,7 +30028,7 @@
         <v>80</v>
       </c>
       <c r="AE226" t="s" s="2">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="AF226" t="s" s="2">
         <v>78</v>
@@ -30053,7 +30049,7 @@
         <v>80</v>
       </c>
       <c r="AL226" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AM226" t="s" s="2">
         <v>80</v>
@@ -30064,7 +30060,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -30176,7 +30172,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -30290,7 +30286,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -30316,13 +30312,13 @@
         <v>651</v>
       </c>
       <c r="K229" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="L229" t="s" s="2">
         <v>971</v>
       </c>
-      <c r="L229" t="s" s="2">
+      <c r="M229" t="s" s="2">
         <v>972</v>
-      </c>
-      <c r="M229" t="s" s="2">
-        <v>973</v>
       </c>
       <c r="N229" t="s" s="2">
         <v>654</v>
@@ -30406,7 +30402,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -30432,16 +30428,16 @@
         <v>108</v>
       </c>
       <c r="K230" t="s" s="2">
+        <v>974</v>
+      </c>
+      <c r="L230" t="s" s="2">
         <v>975</v>
-      </c>
-      <c r="L230" t="s" s="2">
-        <v>976</v>
       </c>
       <c r="M230" t="s" s="2">
         <v>565</v>
       </c>
       <c r="N230" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="O230" t="s" s="2">
         <v>80</v>
@@ -30524,7 +30520,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -30550,16 +30546,16 @@
         <v>90</v>
       </c>
       <c r="K231" t="s" s="2">
+        <v>978</v>
+      </c>
+      <c r="L231" t="s" s="2">
         <v>979</v>
-      </c>
-      <c r="L231" t="s" s="2">
-        <v>980</v>
       </c>
       <c r="M231" t="s" s="2">
         <v>565</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="O231" t="s" s="2">
         <v>80</v>
@@ -30640,7 +30636,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -30666,16 +30662,16 @@
         <v>102</v>
       </c>
       <c r="K232" t="s" s="2">
+        <v>982</v>
+      </c>
+      <c r="L232" t="s" s="2">
         <v>983</v>
-      </c>
-      <c r="L232" t="s" s="2">
-        <v>984</v>
       </c>
       <c r="M232" t="s" s="2">
         <v>489</v>
       </c>
       <c r="N232" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="O232" t="s" s="2">
         <v>80</v>
@@ -30704,7 +30700,7 @@
       </c>
       <c r="X232" s="2"/>
       <c r="Y232" t="s" s="2">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="Z232" t="s" s="2">
         <v>80</v>
@@ -30754,7 +30750,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -30780,16 +30776,16 @@
         <v>108</v>
       </c>
       <c r="K233" t="s" s="2">
+        <v>987</v>
+      </c>
+      <c r="L233" t="s" s="2">
         <v>988</v>
       </c>
-      <c r="L233" t="s" s="2">
+      <c r="M233" t="s" s="2">
         <v>989</v>
       </c>
-      <c r="M233" t="s" s="2">
+      <c r="N233" t="s" s="2">
         <v>990</v>
-      </c>
-      <c r="N233" t="s" s="2">
-        <v>991</v>
       </c>
       <c r="O233" t="s" s="2">
         <v>80</v>
@@ -30870,7 +30866,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -30893,19 +30889,19 @@
         <v>89</v>
       </c>
       <c r="J234" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="K234" t="s" s="2">
+        <v>1014</v>
+      </c>
+      <c r="L234" t="s" s="2">
         <v>1015</v>
       </c>
-      <c r="L234" t="s" s="2">
+      <c r="M234" t="s" s="2">
+        <v>966</v>
+      </c>
+      <c r="N234" t="s" s="2">
         <v>1016</v>
-      </c>
-      <c r="M234" t="s" s="2">
-        <v>967</v>
-      </c>
-      <c r="N234" t="s" s="2">
-        <v>1017</v>
       </c>
       <c r="O234" t="s" s="2">
         <v>80</v>
@@ -30954,7 +30950,7 @@
         <v>80</v>
       </c>
       <c r="AE234" t="s" s="2">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="AF234" t="s" s="2">
         <v>78</v>
@@ -30975,7 +30971,7 @@
         <v>80</v>
       </c>
       <c r="AL234" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AM234" t="s" s="2">
         <v>80</v>
@@ -30986,7 +30982,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -31098,7 +31094,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -31212,7 +31208,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -31238,13 +31234,13 @@
         <v>651</v>
       </c>
       <c r="K237" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="L237" t="s" s="2">
         <v>971</v>
       </c>
-      <c r="L237" t="s" s="2">
+      <c r="M237" t="s" s="2">
         <v>972</v>
-      </c>
-      <c r="M237" t="s" s="2">
-        <v>973</v>
       </c>
       <c r="N237" t="s" s="2">
         <v>654</v>
@@ -31328,7 +31324,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s" s="2">
@@ -31354,16 +31350,16 @@
         <v>108</v>
       </c>
       <c r="K238" t="s" s="2">
+        <v>974</v>
+      </c>
+      <c r="L238" t="s" s="2">
         <v>975</v>
-      </c>
-      <c r="L238" t="s" s="2">
-        <v>976</v>
       </c>
       <c r="M238" t="s" s="2">
         <v>565</v>
       </c>
       <c r="N238" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="O238" t="s" s="2">
         <v>80</v>
@@ -31446,7 +31442,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -31472,16 +31468,16 @@
         <v>90</v>
       </c>
       <c r="K239" t="s" s="2">
+        <v>978</v>
+      </c>
+      <c r="L239" t="s" s="2">
         <v>979</v>
-      </c>
-      <c r="L239" t="s" s="2">
-        <v>980</v>
       </c>
       <c r="M239" t="s" s="2">
         <v>565</v>
       </c>
       <c r="N239" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="O239" t="s" s="2">
         <v>80</v>
@@ -31562,7 +31558,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -31588,16 +31584,16 @@
         <v>102</v>
       </c>
       <c r="K240" t="s" s="2">
+        <v>982</v>
+      </c>
+      <c r="L240" t="s" s="2">
         <v>983</v>
-      </c>
-      <c r="L240" t="s" s="2">
-        <v>984</v>
       </c>
       <c r="M240" t="s" s="2">
         <v>489</v>
       </c>
       <c r="N240" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="O240" t="s" s="2">
         <v>80</v>
@@ -31626,7 +31622,7 @@
       </c>
       <c r="X240" s="2"/>
       <c r="Y240" t="s" s="2">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="Z240" t="s" s="2">
         <v>80</v>
@@ -31676,7 +31672,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -31702,16 +31698,16 @@
         <v>108</v>
       </c>
       <c r="K241" t="s" s="2">
+        <v>987</v>
+      </c>
+      <c r="L241" t="s" s="2">
         <v>988</v>
       </c>
-      <c r="L241" t="s" s="2">
+      <c r="M241" t="s" s="2">
         <v>989</v>
       </c>
-      <c r="M241" t="s" s="2">
+      <c r="N241" t="s" s="2">
         <v>990</v>
-      </c>
-      <c r="N241" t="s" s="2">
-        <v>991</v>
       </c>
       <c r="O241" t="s" s="2">
         <v>80</v>
@@ -31792,7 +31788,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -31815,13 +31811,13 @@
         <v>80</v>
       </c>
       <c r="J242" t="s" s="2">
+        <v>1026</v>
+      </c>
+      <c r="K242" t="s" s="2">
         <v>1027</v>
       </c>
-      <c r="K242" t="s" s="2">
+      <c r="L242" t="s" s="2">
         <v>1028</v>
-      </c>
-      <c r="L242" t="s" s="2">
-        <v>1029</v>
       </c>
       <c r="M242" s="2"/>
       <c r="N242" s="2"/>
@@ -31872,7 +31868,7 @@
         <v>80</v>
       </c>
       <c r="AE242" t="s" s="2">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AF242" t="s" s="2">
         <v>78</v>
@@ -31890,10 +31886,10 @@
         <v>80</v>
       </c>
       <c r="AK242" t="s" s="2">
+        <v>1029</v>
+      </c>
+      <c r="AL242" t="s" s="2">
         <v>1030</v>
-      </c>
-      <c r="AL242" t="s" s="2">
-        <v>1031</v>
       </c>
       <c r="AM242" t="s" s="2">
         <v>80</v>
@@ -31904,7 +31900,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" t="s" s="2">
@@ -32016,7 +32012,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -32126,10 +32122,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="B245" t="s" s="2">
         <v>1033</v>
-      </c>
-      <c r="B245" t="s" s="2">
-        <v>1034</v>
       </c>
       <c r="C245" t="s" s="2">
         <v>80</v>
@@ -32151,13 +32147,13 @@
         <v>80</v>
       </c>
       <c r="J245" t="s" s="2">
+        <v>1034</v>
+      </c>
+      <c r="K245" t="s" s="2">
         <v>1035</v>
       </c>
-      <c r="K245" t="s" s="2">
+      <c r="L245" t="s" s="2">
         <v>1036</v>
-      </c>
-      <c r="L245" t="s" s="2">
-        <v>1037</v>
       </c>
       <c r="M245" s="2"/>
       <c r="N245" s="2"/>
@@ -32240,7 +32236,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -32352,7 +32348,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -32464,7 +32460,7 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s" s="2">
@@ -32490,13 +32486,13 @@
         <v>102</v>
       </c>
       <c r="K248" t="s" s="2">
+        <v>1040</v>
+      </c>
+      <c r="L248" t="s" s="2">
         <v>1041</v>
       </c>
-      <c r="L248" t="s" s="2">
+      <c r="M248" t="s" s="2">
         <v>1042</v>
-      </c>
-      <c r="M248" t="s" s="2">
-        <v>1043</v>
       </c>
       <c r="N248" s="2"/>
       <c r="O248" t="s" s="2">
@@ -32504,49 +32500,49 @@
       </c>
       <c r="P248" s="2"/>
       <c r="Q248" t="s" s="2">
+        <v>1043</v>
+      </c>
+      <c r="R248" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S248" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T248" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U248" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V248" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W248" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X248" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y248" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z248" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA248" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB248" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC248" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD248" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE248" t="s" s="2">
         <v>1044</v>
-      </c>
-      <c r="R248" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S248" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T248" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U248" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V248" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W248" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X248" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y248" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z248" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA248" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB248" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC248" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD248" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE248" t="s" s="2">
-        <v>1045</v>
       </c>
       <c r="AF248" t="s" s="2">
         <v>88</v>
@@ -32578,7 +32574,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -32604,10 +32600,10 @@
         <v>188</v>
       </c>
       <c r="K249" t="s" s="2">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="M249" s="2"/>
       <c r="N249" s="2"/>
@@ -32656,7 +32652,7 @@
         <v>305</v>
       </c>
       <c r="AE249" t="s" s="2">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="AF249" t="s" s="2">
         <v>78</v>
@@ -32688,10 +32684,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C250" t="s" s="2">
         <v>80</v>
@@ -32716,10 +32712,10 @@
         <v>188</v>
       </c>
       <c r="K250" t="s" s="2">
+        <v>1049</v>
+      </c>
+      <c r="L250" t="s" s="2">
         <v>1050</v>
-      </c>
-      <c r="L250" t="s" s="2">
-        <v>1051</v>
       </c>
       <c r="M250" s="2"/>
       <c r="N250" s="2"/>
@@ -32770,7 +32766,7 @@
         <v>80</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>78</v>
@@ -32802,7 +32798,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -32914,7 +32910,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -33028,7 +33024,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -33054,13 +33050,13 @@
         <v>317</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="N253" t="s" s="2">
         <v>321</v>
@@ -33092,7 +33088,7 @@
       </c>
       <c r="X253" s="2"/>
       <c r="Y253" t="s" s="2">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="Z253" t="s" s="2">
         <v>80</v>
@@ -33142,7 +33138,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -33168,13 +33164,13 @@
         <v>90</v>
       </c>
       <c r="K254" t="s" s="2">
+        <v>1056</v>
+      </c>
+      <c r="L254" t="s" s="2">
         <v>1057</v>
       </c>
-      <c r="L254" t="s" s="2">
+      <c r="M254" t="s" s="2">
         <v>1058</v>
-      </c>
-      <c r="M254" t="s" s="2">
-        <v>1059</v>
       </c>
       <c r="N254" t="s" s="2">
         <v>367</v>
@@ -33258,10 +33254,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C255" t="s" s="2">
         <v>80</v>
@@ -33283,13 +33279,13 @@
         <v>80</v>
       </c>
       <c r="J255" t="s" s="2">
+        <v>1060</v>
+      </c>
+      <c r="K255" t="s" s="2">
         <v>1061</v>
       </c>
-      <c r="K255" t="s" s="2">
-        <v>1062</v>
-      </c>
       <c r="L255" t="s" s="2">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="M255" s="2"/>
       <c r="N255" s="2"/>
@@ -33372,7 +33368,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -33488,7 +33484,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -33511,16 +33507,16 @@
         <v>80</v>
       </c>
       <c r="J257" t="s" s="2">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="K257" t="s" s="2">
+        <v>1064</v>
+      </c>
+      <c r="L257" t="s" s="2">
         <v>1065</v>
       </c>
-      <c r="L257" t="s" s="2">
+      <c r="M257" t="s" s="2">
         <v>1066</v>
-      </c>
-      <c r="M257" t="s" s="2">
-        <v>1067</v>
       </c>
       <c r="N257" s="2"/>
       <c r="O257" t="s" s="2">
@@ -33570,7 +33566,7 @@
         <v>80</v>
       </c>
       <c r="AE257" t="s" s="2">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="AF257" t="s" s="2">
         <v>78</v>
@@ -33591,7 +33587,7 @@
         <v>80</v>
       </c>
       <c r="AL257" t="s" s="2">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="AM257" t="s" s="2">
         <v>80</v>
@@ -33602,7 +33598,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -33714,7 +33710,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -33828,7 +33824,7 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -33944,7 +33940,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -33967,16 +33963,16 @@
         <v>80</v>
       </c>
       <c r="J261" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="K261" t="s" s="2">
+        <v>1072</v>
+      </c>
+      <c r="L261" t="s" s="2">
         <v>1073</v>
       </c>
-      <c r="L261" t="s" s="2">
-        <v>1074</v>
-      </c>
       <c r="M261" t="s" s="2">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="N261" s="2"/>
       <c r="O261" t="s" s="2">
@@ -34026,7 +34022,7 @@
         <v>80</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="AF261" t="s" s="2">
         <v>78</v>
@@ -34047,7 +34043,7 @@
         <v>80</v>
       </c>
       <c r="AL261" t="s" s="2">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="AM261" t="s" s="2">
         <v>80</v>
@@ -34058,7 +34054,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -34170,7 +34166,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -34284,7 +34280,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -34310,13 +34306,13 @@
         <v>651</v>
       </c>
       <c r="K264" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="L264" t="s" s="2">
         <v>971</v>
       </c>
-      <c r="L264" t="s" s="2">
+      <c r="M264" t="s" s="2">
         <v>972</v>
-      </c>
-      <c r="M264" t="s" s="2">
-        <v>973</v>
       </c>
       <c r="N264" t="s" s="2">
         <v>654</v>
@@ -34400,7 +34396,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -34426,16 +34422,16 @@
         <v>108</v>
       </c>
       <c r="K265" t="s" s="2">
+        <v>974</v>
+      </c>
+      <c r="L265" t="s" s="2">
         <v>975</v>
-      </c>
-      <c r="L265" t="s" s="2">
-        <v>976</v>
       </c>
       <c r="M265" t="s" s="2">
         <v>565</v>
       </c>
       <c r="N265" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="O265" t="s" s="2">
         <v>80</v>
@@ -34518,7 +34514,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -34544,16 +34540,16 @@
         <v>90</v>
       </c>
       <c r="K266" t="s" s="2">
+        <v>978</v>
+      </c>
+      <c r="L266" t="s" s="2">
         <v>979</v>
-      </c>
-      <c r="L266" t="s" s="2">
-        <v>980</v>
       </c>
       <c r="M266" t="s" s="2">
         <v>565</v>
       </c>
       <c r="N266" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="O266" t="s" s="2">
         <v>80</v>
@@ -34634,7 +34630,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -34660,16 +34656,16 @@
         <v>102</v>
       </c>
       <c r="K267" t="s" s="2">
+        <v>982</v>
+      </c>
+      <c r="L267" t="s" s="2">
         <v>983</v>
-      </c>
-      <c r="L267" t="s" s="2">
-        <v>984</v>
       </c>
       <c r="M267" t="s" s="2">
         <v>489</v>
       </c>
       <c r="N267" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="O267" t="s" s="2">
         <v>80</v>
@@ -34698,7 +34694,7 @@
       </c>
       <c r="X267" s="2"/>
       <c r="Y267" t="s" s="2">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="Z267" t="s" s="2">
         <v>80</v>
@@ -34748,7 +34744,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -34774,16 +34770,16 @@
         <v>108</v>
       </c>
       <c r="K268" t="s" s="2">
+        <v>987</v>
+      </c>
+      <c r="L268" t="s" s="2">
         <v>988</v>
       </c>
-      <c r="L268" t="s" s="2">
+      <c r="M268" t="s" s="2">
         <v>989</v>
       </c>
-      <c r="M268" t="s" s="2">
+      <c r="N268" t="s" s="2">
         <v>990</v>
-      </c>
-      <c r="N268" t="s" s="2">
-        <v>991</v>
       </c>
       <c r="O268" t="s" s="2">
         <v>80</v>
@@ -34864,7 +34860,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -34890,13 +34886,13 @@
         <v>645</v>
       </c>
       <c r="K269" t="s" s="2">
+        <v>1083</v>
+      </c>
+      <c r="L269" t="s" s="2">
         <v>1084</v>
       </c>
-      <c r="L269" t="s" s="2">
-        <v>1085</v>
-      </c>
       <c r="M269" t="s" s="2">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="N269" s="2"/>
       <c r="O269" t="s" s="2">
@@ -34946,7 +34942,7 @@
         <v>80</v>
       </c>
       <c r="AE269" t="s" s="2">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="AF269" t="s" s="2">
         <v>78</v>
@@ -34967,7 +34963,7 @@
         <v>80</v>
       </c>
       <c r="AL269" t="s" s="2">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="AM269" t="s" s="2">
         <v>80</v>
@@ -34978,7 +34974,7 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -35090,7 +35086,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -35204,7 +35200,7 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -35230,13 +35226,13 @@
         <v>651</v>
       </c>
       <c r="K272" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="L272" t="s" s="2">
         <v>971</v>
       </c>
-      <c r="L272" t="s" s="2">
+      <c r="M272" t="s" s="2">
         <v>972</v>
-      </c>
-      <c r="M272" t="s" s="2">
-        <v>973</v>
       </c>
       <c r="N272" t="s" s="2">
         <v>654</v>
@@ -35320,7 +35316,7 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -35346,16 +35342,16 @@
         <v>108</v>
       </c>
       <c r="K273" t="s" s="2">
+        <v>974</v>
+      </c>
+      <c r="L273" t="s" s="2">
         <v>975</v>
-      </c>
-      <c r="L273" t="s" s="2">
-        <v>976</v>
       </c>
       <c r="M273" t="s" s="2">
         <v>565</v>
       </c>
       <c r="N273" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="O273" t="s" s="2">
         <v>80</v>
@@ -35438,7 +35434,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -35464,16 +35460,16 @@
         <v>90</v>
       </c>
       <c r="K274" t="s" s="2">
+        <v>978</v>
+      </c>
+      <c r="L274" t="s" s="2">
         <v>979</v>
-      </c>
-      <c r="L274" t="s" s="2">
-        <v>980</v>
       </c>
       <c r="M274" t="s" s="2">
         <v>565</v>
       </c>
       <c r="N274" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="O274" t="s" s="2">
         <v>80</v>
@@ -35554,7 +35550,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -35580,16 +35576,16 @@
         <v>102</v>
       </c>
       <c r="K275" t="s" s="2">
+        <v>982</v>
+      </c>
+      <c r="L275" t="s" s="2">
         <v>983</v>
-      </c>
-      <c r="L275" t="s" s="2">
-        <v>984</v>
       </c>
       <c r="M275" t="s" s="2">
         <v>489</v>
       </c>
       <c r="N275" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="O275" t="s" s="2">
         <v>80</v>
@@ -35670,7 +35666,7 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -35696,16 +35692,16 @@
         <v>108</v>
       </c>
       <c r="K276" t="s" s="2">
+        <v>987</v>
+      </c>
+      <c r="L276" t="s" s="2">
         <v>988</v>
       </c>
-      <c r="L276" t="s" s="2">
+      <c r="M276" t="s" s="2">
         <v>989</v>
       </c>
-      <c r="M276" t="s" s="2">
+      <c r="N276" t="s" s="2">
         <v>990</v>
-      </c>
-      <c r="N276" t="s" s="2">
-        <v>991</v>
       </c>
       <c r="O276" t="s" s="2">
         <v>80</v>
@@ -35786,7 +35782,7 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -35812,13 +35808,13 @@
         <v>645</v>
       </c>
       <c r="K277" t="s" s="2">
+        <v>1094</v>
+      </c>
+      <c r="L277" t="s" s="2">
         <v>1095</v>
       </c>
-      <c r="L277" t="s" s="2">
-        <v>1096</v>
-      </c>
       <c r="M277" t="s" s="2">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="N277" s="2"/>
       <c r="O277" t="s" s="2">
@@ -35868,7 +35864,7 @@
         <v>80</v>
       </c>
       <c r="AE277" t="s" s="2">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="AF277" t="s" s="2">
         <v>78</v>
@@ -35889,7 +35885,7 @@
         <v>80</v>
       </c>
       <c r="AL277" t="s" s="2">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="AM277" t="s" s="2">
         <v>80</v>
@@ -35900,7 +35896,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -36012,7 +36008,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -36126,7 +36122,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -36152,13 +36148,13 @@
         <v>651</v>
       </c>
       <c r="K280" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="L280" t="s" s="2">
         <v>971</v>
       </c>
-      <c r="L280" t="s" s="2">
+      <c r="M280" t="s" s="2">
         <v>972</v>
-      </c>
-      <c r="M280" t="s" s="2">
-        <v>973</v>
       </c>
       <c r="N280" t="s" s="2">
         <v>654</v>
@@ -36242,7 +36238,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -36268,16 +36264,16 @@
         <v>108</v>
       </c>
       <c r="K281" t="s" s="2">
+        <v>974</v>
+      </c>
+      <c r="L281" t="s" s="2">
         <v>975</v>
-      </c>
-      <c r="L281" t="s" s="2">
-        <v>976</v>
       </c>
       <c r="M281" t="s" s="2">
         <v>565</v>
       </c>
       <c r="N281" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="O281" t="s" s="2">
         <v>80</v>
@@ -36360,7 +36356,7 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -36386,16 +36382,16 @@
         <v>90</v>
       </c>
       <c r="K282" t="s" s="2">
+        <v>978</v>
+      </c>
+      <c r="L282" t="s" s="2">
         <v>979</v>
-      </c>
-      <c r="L282" t="s" s="2">
-        <v>980</v>
       </c>
       <c r="M282" t="s" s="2">
         <v>565</v>
       </c>
       <c r="N282" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="O282" t="s" s="2">
         <v>80</v>
@@ -36476,7 +36472,7 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -36502,16 +36498,16 @@
         <v>102</v>
       </c>
       <c r="K283" t="s" s="2">
+        <v>982</v>
+      </c>
+      <c r="L283" t="s" s="2">
         <v>983</v>
-      </c>
-      <c r="L283" t="s" s="2">
-        <v>984</v>
       </c>
       <c r="M283" t="s" s="2">
         <v>489</v>
       </c>
       <c r="N283" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="O283" t="s" s="2">
         <v>80</v>
@@ -36592,7 +36588,7 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -36618,16 +36614,16 @@
         <v>108</v>
       </c>
       <c r="K284" t="s" s="2">
+        <v>987</v>
+      </c>
+      <c r="L284" t="s" s="2">
         <v>988</v>
       </c>
-      <c r="L284" t="s" s="2">
+      <c r="M284" t="s" s="2">
         <v>989</v>
       </c>
-      <c r="M284" t="s" s="2">
+      <c r="N284" t="s" s="2">
         <v>990</v>
-      </c>
-      <c r="N284" t="s" s="2">
-        <v>991</v>
       </c>
       <c r="O284" t="s" s="2">
         <v>80</v>
@@ -36708,7 +36704,7 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" t="s" s="2">
@@ -36734,16 +36730,16 @@
         <v>217</v>
       </c>
       <c r="K285" t="s" s="2">
+        <v>1104</v>
+      </c>
+      <c r="L285" t="s" s="2">
         <v>1105</v>
       </c>
-      <c r="L285" t="s" s="2">
+      <c r="M285" t="s" s="2">
         <v>1106</v>
       </c>
-      <c r="M285" t="s" s="2">
+      <c r="N285" t="s" s="2">
         <v>1107</v>
-      </c>
-      <c r="N285" t="s" s="2">
-        <v>1108</v>
       </c>
       <c r="O285" t="s" s="2">
         <v>80</v>
@@ -36792,7 +36788,7 @@
         <v>80</v>
       </c>
       <c r="AE285" t="s" s="2">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="AF285" t="s" s="2">
         <v>78</v>
@@ -36810,10 +36806,10 @@
         <v>80</v>
       </c>
       <c r="AK285" t="s" s="2">
+        <v>1108</v>
+      </c>
+      <c r="AL285" t="s" s="2">
         <v>1109</v>
-      </c>
-      <c r="AL285" t="s" s="2">
-        <v>1110</v>
       </c>
       <c r="AM285" t="s" s="2">
         <v>80</v>
@@ -36824,7 +36820,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -36936,7 +36932,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
@@ -37050,7 +37046,7 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -37076,13 +37072,13 @@
         <v>428</v>
       </c>
       <c r="K288" t="s" s="2">
+        <v>1113</v>
+      </c>
+      <c r="L288" t="s" s="2">
         <v>1114</v>
       </c>
-      <c r="L288" t="s" s="2">
+      <c r="M288" t="s" s="2">
         <v>1115</v>
-      </c>
-      <c r="M288" t="s" s="2">
-        <v>1116</v>
       </c>
       <c r="N288" s="2"/>
       <c r="O288" t="s" s="2">
@@ -37132,16 +37128,16 @@
         <v>80</v>
       </c>
       <c r="AE288" t="s" s="2">
+        <v>1116</v>
+      </c>
+      <c r="AF288" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG288" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH288" t="s" s="2">
         <v>1117</v>
-      </c>
-      <c r="AF288" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG288" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH288" t="s" s="2">
-        <v>1118</v>
       </c>
       <c r="AI288" t="s" s="2">
         <v>100</v>
@@ -37153,18 +37149,18 @@
         <v>80</v>
       </c>
       <c r="AL288" t="s" s="2">
+        <v>1118</v>
+      </c>
+      <c r="AM288" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN288" t="s" s="2">
         <v>1119</v>
-      </c>
-      <c r="AM288" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN288" t="s" s="2">
-        <v>1120</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -37190,66 +37186,66 @@
         <v>428</v>
       </c>
       <c r="K289" t="s" s="2">
+        <v>1121</v>
+      </c>
+      <c r="L289" t="s" s="2">
         <v>1122</v>
       </c>
-      <c r="L289" t="s" s="2">
+      <c r="M289" t="s" s="2">
         <v>1123</v>
-      </c>
-      <c r="M289" t="s" s="2">
-        <v>1124</v>
       </c>
       <c r="N289" s="2"/>
       <c r="O289" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P289" t="s" s="2">
+        <v>1124</v>
+      </c>
+      <c r="Q289" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R289" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S289" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T289" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U289" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V289" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W289" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X289" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y289" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z289" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA289" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB289" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC289" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD289" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE289" t="s" s="2">
         <v>1125</v>
       </c>
-      <c r="Q289" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R289" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S289" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T289" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U289" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V289" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W289" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X289" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y289" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z289" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA289" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB289" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC289" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD289" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE289" t="s" s="2">
-        <v>1126</v>
-      </c>
       <c r="AF289" t="s" s="2">
         <v>78</v>
       </c>
@@ -37257,7 +37253,7 @@
         <v>88</v>
       </c>
       <c r="AH289" t="s" s="2">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="AI289" t="s" s="2">
         <v>100</v>
@@ -37269,18 +37265,18 @@
         <v>80</v>
       </c>
       <c r="AL289" t="s" s="2">
+        <v>1126</v>
+      </c>
+      <c r="AM289" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN289" t="s" s="2">
         <v>1127</v>
-      </c>
-      <c r="AM289" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN289" t="s" s="2">
-        <v>1128</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" t="s" s="2">
@@ -37306,13 +37302,13 @@
         <v>768</v>
       </c>
       <c r="K290" t="s" s="2">
+        <v>1129</v>
+      </c>
+      <c r="L290" t="s" s="2">
         <v>1130</v>
       </c>
-      <c r="L290" t="s" s="2">
+      <c r="M290" t="s" s="2">
         <v>1131</v>
-      </c>
-      <c r="M290" t="s" s="2">
-        <v>1132</v>
       </c>
       <c r="N290" s="2"/>
       <c r="O290" t="s" s="2">
@@ -37362,7 +37358,7 @@
         <v>80</v>
       </c>
       <c r="AE290" t="s" s="2">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="AF290" t="s" s="2">
         <v>78</v>
@@ -37380,21 +37376,21 @@
         <v>80</v>
       </c>
       <c r="AK290" t="s" s="2">
+        <v>1132</v>
+      </c>
+      <c r="AL290" t="s" s="2">
         <v>1133</v>
       </c>
-      <c r="AL290" t="s" s="2">
+      <c r="AM290" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN290" t="s" s="2">
         <v>1134</v>
-      </c>
-      <c r="AM290" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN290" t="s" s="2">
-        <v>1135</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -37417,16 +37413,16 @@
         <v>80</v>
       </c>
       <c r="J291" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="K291" t="s" s="2">
+        <v>1136</v>
+      </c>
+      <c r="L291" t="s" s="2">
         <v>1137</v>
       </c>
-      <c r="L291" t="s" s="2">
-        <v>1138</v>
-      </c>
       <c r="M291" t="s" s="2">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="N291" s="2"/>
       <c r="O291" t="s" s="2">
@@ -37476,7 +37472,7 @@
         <v>80</v>
       </c>
       <c r="AE291" t="s" s="2">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="AF291" t="s" s="2">
         <v>78</v>
@@ -37494,21 +37490,21 @@
         <v>80</v>
       </c>
       <c r="AK291" t="s" s="2">
+        <v>1138</v>
+      </c>
+      <c r="AL291" t="s" s="2">
         <v>1139</v>
       </c>
-      <c r="AL291" t="s" s="2">
+      <c r="AM291" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN291" t="s" s="2">
         <v>1140</v>
-      </c>
-      <c r="AM291" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN291" t="s" s="2">
-        <v>1141</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" t="s" s="2">
@@ -37620,7 +37616,7 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" t="s" s="2">
@@ -37734,7 +37730,7 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" t="s" s="2">
@@ -37760,13 +37756,13 @@
         <v>651</v>
       </c>
       <c r="K294" t="s" s="2">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="L294" t="s" s="2">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="M294" t="s" s="2">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="N294" t="s" s="2">
         <v>654</v>
@@ -37850,7 +37846,7 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" t="s" s="2">
@@ -37876,16 +37872,16 @@
         <v>108</v>
       </c>
       <c r="K295" t="s" s="2">
+        <v>974</v>
+      </c>
+      <c r="L295" t="s" s="2">
         <v>975</v>
-      </c>
-      <c r="L295" t="s" s="2">
-        <v>976</v>
       </c>
       <c r="M295" t="s" s="2">
         <v>565</v>
       </c>
       <c r="N295" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="O295" t="s" s="2">
         <v>80</v>
@@ -37968,7 +37964,7 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" t="s" s="2">
@@ -37994,16 +37990,16 @@
         <v>90</v>
       </c>
       <c r="K296" t="s" s="2">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="L296" t="s" s="2">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="M296" t="s" s="2">
         <v>565</v>
       </c>
       <c r="N296" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="O296" t="s" s="2">
         <v>80</v>
@@ -38084,7 +38080,7 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" t="s" s="2">
@@ -38110,16 +38106,16 @@
         <v>102</v>
       </c>
       <c r="K297" t="s" s="2">
+        <v>1149</v>
+      </c>
+      <c r="L297" t="s" s="2">
         <v>1150</v>
-      </c>
-      <c r="L297" t="s" s="2">
-        <v>1151</v>
       </c>
       <c r="M297" t="s" s="2">
         <v>489</v>
       </c>
       <c r="N297" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="O297" t="s" s="2">
         <v>80</v>
@@ -38129,7 +38125,7 @@
         <v>80</v>
       </c>
       <c r="R297" t="s" s="2">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="S297" t="s" s="2">
         <v>80</v>
@@ -38200,7 +38196,7 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" t="s" s="2">
@@ -38226,16 +38222,16 @@
         <v>108</v>
       </c>
       <c r="K298" t="s" s="2">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="L298" t="s" s="2">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="M298" t="s" s="2">
+        <v>989</v>
+      </c>
+      <c r="N298" t="s" s="2">
         <v>990</v>
-      </c>
-      <c r="N298" t="s" s="2">
-        <v>991</v>
       </c>
       <c r="O298" t="s" s="2">
         <v>80</v>
@@ -38316,7 +38312,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" t="s" s="2">
@@ -38342,13 +38338,13 @@
         <v>645</v>
       </c>
       <c r="K299" t="s" s="2">
+        <v>1155</v>
+      </c>
+      <c r="L299" t="s" s="2">
         <v>1156</v>
       </c>
-      <c r="L299" t="s" s="2">
+      <c r="M299" t="s" s="2">
         <v>1157</v>
-      </c>
-      <c r="M299" t="s" s="2">
-        <v>1158</v>
       </c>
       <c r="N299" s="2"/>
       <c r="O299" t="s" s="2">
@@ -38398,7 +38394,7 @@
         <v>80</v>
       </c>
       <c r="AE299" t="s" s="2">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="AF299" t="s" s="2">
         <v>78</v>
@@ -38416,10 +38412,10 @@
         <v>80</v>
       </c>
       <c r="AK299" t="s" s="2">
+        <v>1158</v>
+      </c>
+      <c r="AL299" t="s" s="2">
         <v>1159</v>
-      </c>
-      <c r="AL299" t="s" s="2">
-        <v>1160</v>
       </c>
       <c r="AM299" t="s" s="2">
         <v>80</v>
@@ -38430,7 +38426,7 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" t="s" s="2">
@@ -38542,7 +38538,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" t="s" s="2">
@@ -38656,7 +38652,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" t="s" s="2">
@@ -38682,13 +38678,13 @@
         <v>651</v>
       </c>
       <c r="K302" t="s" s="2">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="L302" t="s" s="2">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="M302" t="s" s="2">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="N302" t="s" s="2">
         <v>654</v>
@@ -38772,7 +38768,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" t="s" s="2">
@@ -38798,16 +38794,16 @@
         <v>108</v>
       </c>
       <c r="K303" t="s" s="2">
+        <v>974</v>
+      </c>
+      <c r="L303" t="s" s="2">
         <v>975</v>
-      </c>
-      <c r="L303" t="s" s="2">
-        <v>976</v>
       </c>
       <c r="M303" t="s" s="2">
         <v>565</v>
       </c>
       <c r="N303" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="O303" t="s" s="2">
         <v>80</v>
@@ -38890,7 +38886,7 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" t="s" s="2">
@@ -38916,16 +38912,16 @@
         <v>90</v>
       </c>
       <c r="K304" t="s" s="2">
+        <v>1165</v>
+      </c>
+      <c r="L304" t="s" s="2">
         <v>1166</v>
-      </c>
-      <c r="L304" t="s" s="2">
-        <v>1167</v>
       </c>
       <c r="M304" t="s" s="2">
         <v>565</v>
       </c>
       <c r="N304" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="O304" t="s" s="2">
         <v>80</v>
@@ -39006,7 +39002,7 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B305" s="2"/>
       <c r="C305" t="s" s="2">
@@ -39032,16 +39028,16 @@
         <v>102</v>
       </c>
       <c r="K305" t="s" s="2">
+        <v>1168</v>
+      </c>
+      <c r="L305" t="s" s="2">
         <v>1169</v>
-      </c>
-      <c r="L305" t="s" s="2">
-        <v>1170</v>
       </c>
       <c r="M305" t="s" s="2">
         <v>489</v>
       </c>
       <c r="N305" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="O305" t="s" s="2">
         <v>80</v>
@@ -39122,7 +39118,7 @@
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" t="s" s="2">
@@ -39148,16 +39144,16 @@
         <v>108</v>
       </c>
       <c r="K306" t="s" s="2">
+        <v>1171</v>
+      </c>
+      <c r="L306" t="s" s="2">
         <v>1172</v>
       </c>
-      <c r="L306" t="s" s="2">
-        <v>1173</v>
-      </c>
       <c r="M306" t="s" s="2">
+        <v>989</v>
+      </c>
+      <c r="N306" t="s" s="2">
         <v>990</v>
-      </c>
-      <c r="N306" t="s" s="2">
-        <v>991</v>
       </c>
       <c r="O306" t="s" s="2">
         <v>80</v>
@@ -39238,7 +39234,7 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" t="s" s="2">
@@ -39264,10 +39260,10 @@
         <v>224</v>
       </c>
       <c r="K307" t="s" s="2">
+        <v>1174</v>
+      </c>
+      <c r="L307" t="s" s="2">
         <v>1175</v>
-      </c>
-      <c r="L307" t="s" s="2">
-        <v>1176</v>
       </c>
       <c r="M307" t="s" s="2">
         <v>424</v>
@@ -39320,7 +39316,7 @@
         <v>80</v>
       </c>
       <c r="AE307" t="s" s="2">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="AF307" t="s" s="2">
         <v>78</v>
@@ -39341,7 +39337,7 @@
         <v>80</v>
       </c>
       <c r="AL307" t="s" s="2">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="AM307" t="s" s="2">
         <v>461</v>
@@ -39352,7 +39348,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" t="s" s="2">
@@ -39375,13 +39371,13 @@
         <v>80</v>
       </c>
       <c r="J308" t="s" s="2">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="K308" t="s" s="2">
+        <v>1178</v>
+      </c>
+      <c r="L308" t="s" s="2">
         <v>1179</v>
-      </c>
-      <c r="L308" t="s" s="2">
-        <v>1180</v>
       </c>
       <c r="M308" s="2"/>
       <c r="N308" s="2"/>
@@ -39432,7 +39428,7 @@
         <v>80</v>
       </c>
       <c r="AE308" t="s" s="2">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="AF308" t="s" s="2">
         <v>78</v>
@@ -39450,10 +39446,10 @@
         <v>80</v>
       </c>
       <c r="AK308" t="s" s="2">
+        <v>1180</v>
+      </c>
+      <c r="AL308" t="s" s="2">
         <v>1181</v>
-      </c>
-      <c r="AL308" t="s" s="2">
-        <v>1182</v>
       </c>
       <c r="AM308" t="s" s="2">
         <v>80</v>
@@ -39464,7 +39460,7 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" t="s" s="2">
@@ -39576,7 +39572,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" t="s" s="2">
@@ -39690,7 +39686,7 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s" s="2">
@@ -39806,7 +39802,7 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" t="s" s="2">
@@ -39832,13 +39828,13 @@
         <v>188</v>
       </c>
       <c r="K312" t="s" s="2">
+        <v>1186</v>
+      </c>
+      <c r="L312" t="s" s="2">
+        <v>1186</v>
+      </c>
+      <c r="M312" t="s" s="2">
         <v>1187</v>
-      </c>
-      <c r="L312" t="s" s="2">
-        <v>1187</v>
-      </c>
-      <c r="M312" t="s" s="2">
-        <v>1188</v>
       </c>
       <c r="N312" s="2"/>
       <c r="O312" t="s" s="2">
@@ -39868,7 +39864,7 @@
       </c>
       <c r="X312" s="2"/>
       <c r="Y312" t="s" s="2">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="Z312" t="s" s="2">
         <v>80</v>
@@ -39886,7 +39882,7 @@
         <v>80</v>
       </c>
       <c r="AE312" t="s" s="2">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="AF312" t="s" s="2">
         <v>88</v>
@@ -39904,21 +39900,21 @@
         <v>80</v>
       </c>
       <c r="AK312" t="s" s="2">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="AL312" t="s" s="2">
+        <v>1189</v>
+      </c>
+      <c r="AM312" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN312" t="s" s="2">
         <v>1190</v>
-      </c>
-      <c r="AM312" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN312" t="s" s="2">
-        <v>1191</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" t="s" s="2">
@@ -40030,7 +40026,7 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" t="s" s="2">
@@ -40144,7 +40140,7 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" t="s" s="2">
@@ -40170,13 +40166,13 @@
         <v>317</v>
       </c>
       <c r="K315" t="s" s="2">
+        <v>1194</v>
+      </c>
+      <c r="L315" t="s" s="2">
         <v>1195</v>
       </c>
-      <c r="L315" t="s" s="2">
-        <v>1196</v>
-      </c>
       <c r="M315" t="s" s="2">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="N315" t="s" s="2">
         <v>321</v>
@@ -40260,7 +40256,7 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" t="s" s="2">
@@ -40372,7 +40368,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" t="s" s="2">
@@ -40486,7 +40482,7 @@
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" t="s" s="2">
@@ -40512,10 +40508,10 @@
         <v>102</v>
       </c>
       <c r="K318" t="s" s="2">
+        <v>1199</v>
+      </c>
+      <c r="L318" t="s" s="2">
         <v>1200</v>
-      </c>
-      <c r="L318" t="s" s="2">
-        <v>1201</v>
       </c>
       <c r="M318" t="s" s="2">
         <v>330</v>
@@ -40528,7 +40524,7 @@
       </c>
       <c r="P318" s="2"/>
       <c r="Q318" t="s" s="2">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="R318" t="s" s="2">
         <v>80</v>
@@ -40602,7 +40598,7 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B319" s="2"/>
       <c r="C319" t="s" s="2">
@@ -40716,7 +40712,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" t="s" s="2">
@@ -40742,10 +40738,10 @@
         <v>108</v>
       </c>
       <c r="K320" t="s" s="2">
+        <v>1194</v>
+      </c>
+      <c r="L320" t="s" s="2">
         <v>1195</v>
-      </c>
-      <c r="L320" t="s" s="2">
-        <v>1196</v>
       </c>
       <c r="M320" s="2"/>
       <c r="N320" t="s" s="2">
@@ -40830,7 +40826,7 @@
     </row>
     <row r="321">
       <c r="A321" t="s" s="2">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B321" s="2"/>
       <c r="C321" t="s" s="2">
@@ -40856,10 +40852,10 @@
         <v>90</v>
       </c>
       <c r="K321" t="s" s="2">
+        <v>1205</v>
+      </c>
+      <c r="L321" t="s" s="2">
         <v>1206</v>
-      </c>
-      <c r="L321" t="s" s="2">
-        <v>1207</v>
       </c>
       <c r="M321" s="2"/>
       <c r="N321" t="s" s="2">
@@ -40944,7 +40940,7 @@
     </row>
     <row r="322">
       <c r="A322" t="s" s="2">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B322" s="2"/>
       <c r="C322" t="s" s="2">
@@ -40970,13 +40966,13 @@
         <v>287</v>
       </c>
       <c r="K322" t="s" s="2">
+        <v>1208</v>
+      </c>
+      <c r="L322" t="s" s="2">
         <v>1209</v>
       </c>
-      <c r="L322" t="s" s="2">
+      <c r="M322" t="s" s="2">
         <v>1210</v>
-      </c>
-      <c r="M322" t="s" s="2">
-        <v>1211</v>
       </c>
       <c r="N322" t="s" s="2">
         <v>359</v>
@@ -41060,7 +41056,7 @@
     </row>
     <row r="323">
       <c r="A323" t="s" s="2">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B323" s="2"/>
       <c r="C323" t="s" s="2">
@@ -41086,13 +41082,13 @@
         <v>90</v>
       </c>
       <c r="K323" t="s" s="2">
+        <v>1056</v>
+      </c>
+      <c r="L323" t="s" s="2">
         <v>1057</v>
       </c>
-      <c r="L323" t="s" s="2">
+      <c r="M323" t="s" s="2">
         <v>1058</v>
-      </c>
-      <c r="M323" t="s" s="2">
-        <v>1059</v>
       </c>
       <c r="N323" t="s" s="2">
         <v>367</v>
@@ -41176,7 +41172,7 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B324" s="2"/>
       <c r="C324" t="s" s="2">
@@ -41202,13 +41198,13 @@
         <v>188</v>
       </c>
       <c r="K324" t="s" s="2">
+        <v>1213</v>
+      </c>
+      <c r="L324" t="s" s="2">
         <v>1214</v>
       </c>
-      <c r="L324" t="s" s="2">
+      <c r="M324" t="s" s="2">
         <v>1215</v>
-      </c>
-      <c r="M324" t="s" s="2">
-        <v>1216</v>
       </c>
       <c r="N324" s="2"/>
       <c r="O324" t="s" s="2">
@@ -41237,11 +41233,11 @@
         <v>255</v>
       </c>
       <c r="X324" t="s" s="2">
+        <v>1216</v>
+      </c>
+      <c r="Y324" t="s" s="2">
         <v>1217</v>
       </c>
-      <c r="Y324" t="s" s="2">
-        <v>1218</v>
-      </c>
       <c r="Z324" t="s" s="2">
         <v>80</v>
       </c>
@@ -41258,7 +41254,7 @@
         <v>80</v>
       </c>
       <c r="AE324" t="s" s="2">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="AF324" t="s" s="2">
         <v>78</v>
@@ -41276,21 +41272,21 @@
         <v>80</v>
       </c>
       <c r="AK324" t="s" s="2">
+        <v>1218</v>
+      </c>
+      <c r="AL324" t="s" s="2">
         <v>1219</v>
       </c>
-      <c r="AL324" t="s" s="2">
+      <c r="AM324" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN324" t="s" s="2">
         <v>1220</v>
-      </c>
-      <c r="AM324" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN324" t="s" s="2">
-        <v>1221</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s" s="2">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B325" s="2"/>
       <c r="C325" t="s" s="2">
@@ -41313,13 +41309,13 @@
         <v>80</v>
       </c>
       <c r="J325" t="s" s="2">
+        <v>1222</v>
+      </c>
+      <c r="K325" t="s" s="2">
         <v>1223</v>
       </c>
-      <c r="K325" t="s" s="2">
+      <c r="L325" t="s" s="2">
         <v>1224</v>
-      </c>
-      <c r="L325" t="s" s="2">
-        <v>1225</v>
       </c>
       <c r="M325" t="s" s="2">
         <v>424</v>
@@ -41372,7 +41368,7 @@
         <v>80</v>
       </c>
       <c r="AE325" t="s" s="2">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="AF325" t="s" s="2">
         <v>78</v>
@@ -41387,13 +41383,13 @@
         <v>100</v>
       </c>
       <c r="AJ325" t="s" s="2">
+        <v>1225</v>
+      </c>
+      <c r="AK325" t="s" s="2">
+        <v>1218</v>
+      </c>
+      <c r="AL325" t="s" s="2">
         <v>1226</v>
-      </c>
-      <c r="AK325" t="s" s="2">
-        <v>1219</v>
-      </c>
-      <c r="AL325" t="s" s="2">
-        <v>1227</v>
       </c>
       <c r="AM325" t="s" s="2">
         <v>80</v>
@@ -41404,11 +41400,11 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="2">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B326" s="2"/>
       <c r="C326" t="s" s="2">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" t="s" s="2">
@@ -41427,16 +41423,16 @@
         <v>80</v>
       </c>
       <c r="J326" t="s" s="2">
+        <v>1229</v>
+      </c>
+      <c r="K326" t="s" s="2">
         <v>1230</v>
       </c>
-      <c r="K326" t="s" s="2">
+      <c r="L326" t="s" s="2">
         <v>1231</v>
       </c>
-      <c r="L326" t="s" s="2">
+      <c r="M326" t="s" s="2">
         <v>1232</v>
-      </c>
-      <c r="M326" t="s" s="2">
-        <v>1233</v>
       </c>
       <c r="N326" s="2"/>
       <c r="O326" t="s" s="2">
@@ -41486,7 +41482,7 @@
         <v>80</v>
       </c>
       <c r="AE326" t="s" s="2">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="AF326" t="s" s="2">
         <v>78</v>
@@ -41507,7 +41503,7 @@
         <v>80</v>
       </c>
       <c r="AL326" t="s" s="2">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="AM326" t="s" s="2">
         <v>80</v>
@@ -41518,7 +41514,7 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B327" s="2"/>
       <c r="C327" t="s" s="2">
@@ -41541,16 +41537,16 @@
         <v>80</v>
       </c>
       <c r="J327" t="s" s="2">
+        <v>1235</v>
+      </c>
+      <c r="K327" t="s" s="2">
         <v>1236</v>
       </c>
-      <c r="K327" t="s" s="2">
+      <c r="L327" t="s" s="2">
         <v>1237</v>
       </c>
-      <c r="L327" t="s" s="2">
+      <c r="M327" t="s" s="2">
         <v>1238</v>
-      </c>
-      <c r="M327" t="s" s="2">
-        <v>1239</v>
       </c>
       <c r="N327" s="2"/>
       <c r="O327" t="s" s="2">
@@ -41600,7 +41596,7 @@
         <v>80</v>
       </c>
       <c r="AE327" t="s" s="2">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="AF327" t="s" s="2">
         <v>78</v>
@@ -41615,13 +41611,13 @@
         <v>100</v>
       </c>
       <c r="AJ327" t="s" s="2">
+        <v>1239</v>
+      </c>
+      <c r="AK327" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL327" t="s" s="2">
         <v>1240</v>
-      </c>
-      <c r="AK327" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL327" t="s" s="2">
-        <v>1241</v>
       </c>
       <c r="AM327" t="s" s="2">
         <v>80</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -1718,7 +1718,7 @@
     <t>JP Core MedicationRequest DosageInstruction UsageDuration Extension</t>
   </si>
   <si>
-    <t>隔日投与など、服⽤開始日から終了日までの日数と実投与日数が異なる場合に、実投与日数を明⽰したい場合に使⽤する拡張</t>
+    <t>隔日投与など、服用開始日から終了日までの日数と実投与日数が異なる場合に、実投与日数を明⽰したい場合に使⽤する拡張</t>
   </si>
   <si>
     <t>line</t>
@@ -1979,7 +1979,7 @@
     <t>服用タイミングを示す時刻</t>
   </si>
   <si>
-    <t>服⽤タイミングを具体的な日時で指定する場合に使⽤する</t>
+    <t>服用タイミングを具体的な日時で指定する場合に使⽤する</t>
   </si>
   <si>
     <t>In a Medication Administration Record, for instance, you need to take a general specification, and turn it into a precise specification.</t>
@@ -2030,10 +2030,10 @@
 RangePeriod</t>
   </si>
   <si>
-    <t>服⽤開始日から服⽤終了日までの全日数</t>
-  </si>
-  <si>
-    <t>服⽤開始日から服⽤終了日までの全日数。実投与日数ではないことに注意する。</t>
+    <t>服用開始日から服用終了日までの全日数</t>
+  </si>
+  <si>
+    <t>服用開始日から服用終了日までの全日数。実投与日数ではないことに注意する。</t>
   </si>
   <si>
     <t>Timing.repeat.bounds[x]</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -1718,7 +1718,7 @@
     <t>JP Core MedicationRequest DosageInstruction UsageDuration Extension</t>
   </si>
   <si>
-    <t>隔日投与など、服用開始日から終了日までの日数と実投与日数が異なる場合に、実投与日数を明⽰したい場合に使⽤する拡張</t>
+    <t>隔日投与など、服用開始日から終了日までの日数と実投与日数が異なる場合に、実投与日数を明⽰したい場合に使用する拡張</t>
   </si>
   <si>
     <t>line</t>
@@ -1979,7 +1979,7 @@
     <t>服用タイミングを示す時刻</t>
   </si>
   <si>
-    <t>服用タイミングを具体的な日時で指定する場合に使⽤する</t>
+    <t>服用タイミングを具体的な日時で指定する場合に使用する</t>
   </si>
   <si>
     <t>In a Medication Administration Record, for instance, you need to take a general specification, and turn it into a precise specification.</t>
@@ -2463,7 +2463,7 @@
     <t>「頓用」指示</t>
   </si>
   <si>
-    <t>JP Coreでは頓⽤型の用法を指定する場合に”true”を指定し、そのコードを指定する場合は用法コードとして指定する。
+    <t>JP Coreでは頓用型の用法を指定する場合に”true”を指定し、そのコードを指定する場合は用法コードとして指定する。
 Medication(薬剤)が必要なときに指定された量とスケジュールのみで内服するか（Booleanで選択される）、内服する前提条件(CodeableConcept)を示している。</t>
   </si>
   <si>
@@ -2485,11 +2485,11 @@
     <t>投与される身体部位</t>
   </si>
   <si>
-    <t>投与される身体部位。外⽤薬で部位を指定する場合に使⽤する。</t>
+    <t>投与される身体部位。外用薬で部位を指定する場合に使用する。</t>
   </si>
   <si>
     <t>もし、BodySite resourceの属性が必要な場合(たとえば、部位の指定や別々に投与経路を設定する場合)は、[bodySite](extension-bodysite.html)の標準拡張を使うこと。要約コードや非常に正確な位置の定義へのreferenceを使用することもできる。  
-【JP Core仕様】JAMI外⽤部位３桁コードを使用することが望ましいが、ローカルコードも使用可能。</t>
+【JP Core仕様】JAMI外用部位３桁コードを使用することが望ましいが、ローカルコードも使用可能。</t>
   </si>
   <si>
     <t>A coded specification of the anatomic site where the medication first enters the body.</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -1767,7 +1767,7 @@
     <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
   </si>
   <si>
-    <t>day</t>
+    <t>日</t>
   </si>
   <si>
     <t>Quantity.unit</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3456" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3456" uniqueCount="620">
   <si>
     <t>Property</t>
   </si>
@@ -501,7 +501,7 @@
   <si>
     <t>このインスタンスが外部から参照されるために使われるIDである。処方箋全体としてのIDとしては使用しない。
 処方箋内で同一の用法をまとめて表記されるRp番号はこのIdentifier elementの別スライスで表現する。それ以外に任意のIDを付与してもよい。
-このIDは業務手順によって定められた処方オーダーに対して、直接的なURL参照が適切でない場合も含めて関連付けるために使われる。この業務手順のIDは実施者によって割り当てられたものであり、リソースが更新されたりサーバからサーバに転送されたとしても固定のものとして存続する。</t>
+このIDは業務手順によって定められた処方オーダに対して、直接的なURL参照が適切でない場合も含めて関連付けるために使われる。この業務手順のIDは実施者によって割り当てられたものであり、リソースが更新されたりサーバからサーバに転送されたとしても固定のものとして存続する。</t>
   </si>
   <si>
     <t>これは業務IDであって、リソースに対するIDではない。</t>
@@ -740,10 +740,10 @@
     <t>requestIdentifier</t>
   </si>
   <si>
-    <t>処方オーダーに対するID</t>
-  </si>
-  <si>
-    <t>薬剤をオーダーする単位としての処方箋に対するID。MedicationRequestは単一の薬剤でインスタンスが作成されるが、それの集合としての処方箋のID。</t>
+    <t>処方オーダに対するID</t>
+  </si>
+  <si>
+    <t>薬剤をオーダする単位としての処方箋に対するID。MedicationRequestは単一の薬剤でインスタンスが作成されるが、それの集合としての処方箋のID。</t>
   </si>
   <si>
     <t>This is a business identifier, not a resource identifier.</t>
@@ -770,11 +770,11 @@
     <t>MedicationRequest.status</t>
   </si>
   <si>
-    <t>active | on-hold | cancelled | completed | entered-in-error | stopped | draft | unknown</t>
-  </si>
-  <si>
-    <t>JP Coreでは"active"に固定される。
-オーダーの現在の状態を示すコード。一般的には active か completed の状態であるだろう。</t>
+    <t>オーダの現在の状態を示すコード。【JP Core仕様】"active"に固定される。</t>
+  </si>
+  <si>
+    <t>【JP Core仕様】"active"に固定される。
+オーダの現在の状態を示すコード。一般的には active か completed の状態であるだろう。</t>
   </si>
   <si>
     <t>このエレメントはmodifierとされている。StatusとはこのResourceが現在妥当な状態ではないことも示すからである。</t>
@@ -801,13 +801,10 @@
     <t>MedicationRequest.statusReason</t>
   </si>
   <si>
-    <t>現状の理由</t>
-  </si>
-  <si>
     <t>現在のステータスの理由</t>
   </si>
   <si>
-    <t>一般的には「保留(suspended)」や「中止(cancelled)」といった例外的状態を示すために持ちいられる。MedicationRequestオーダーが発生した理由についてはreasonCodeに記載され、この項目は用いられない。</t>
+    <t>一般的には「保留(suspended)」や「中止(cancelled)」といった例外的状態を示すために持ちいられる。MedicationRequestオーダが発生した理由についてはreasonCodeに記載され、この項目は用いられない。</t>
   </si>
   <si>
     <t>example</t>
@@ -828,15 +825,15 @@
     <t>MedicationRequest.intent</t>
   </si>
   <si>
-    <t>proposal | plan | order | original-order | reflex-order | filler-order | instance-order | option</t>
-  </si>
-  <si>
-    <t>JP Coreでは "order" に固定される。
+    <t>投薬リクエストの意図。【JP Core仕様】#orderで固定とする。</t>
+  </si>
+  <si>
+    <t>【JP Core仕様】 "order" に固定される。
 投薬リクエストの意図 が提案(proposal)、計画(plan)、あるいは他の要求によるものかを示す。</t>
   </si>
   <si>
-    <t>処方をオーダーする場合、MedicationRequestのどの段階でオーダーしたのかについて、この項目を指定することが期待される。たとえば、proposalであれば患者、関係者、医師あるいは機器からの提案として作成される。"plan"であれば、医師、患者、関係者そして機器からの提案として生成される。"original-order"は医師にしか作成できない。
-instance-orderはリクエストあるいはオーダーをインスタンス化する段階であり、MedicationAdministrationレコードにも使われる。+    <t>処方をオーダする場合、MedicationRequestのどの段階でオーダしたのかについて、この項目を指定することが期待される。たとえば、proposalであれば患者、関係者、医師あるいは機器からの提案として作成される。"plan"であれば、医師、患者、関係者そして機器からの提案として生成される。"original-order"は医師にしか作成できない。
+instance-orderはリクエストあるいはオーダをインスタンス化する段階であり、MedicationAdministrationレコードにも使われる。 
 intentはこのresourceが実際に適応される時に変化するため、このエレメントはmodifierとしてラベルされる。</t>
   </si>
@@ -890,10 +887,10 @@
     <t>MedicationRequest.priority</t>
   </si>
   <si>
-    <t>routine | urgent | asap | stat</t>
-  </si>
-  <si>
-    <t>このMedicationRequestオーダーの優先度。他のオーダーと比較して表現される。</t>
+    <t>オーダの優先度</t>
+  </si>
+  <si>
+    <t>このMedicationRequestオーダの優先度。他のオーダと比較して表現される。</t>
   </si>
   <si>
     <t>FHIRでは文字列の大きさが1MBを超えてはならない(SHALL NOT)。</t>
@@ -924,10 +921,10 @@
     <t>要求が禁止された行為であればTrue</t>
   </si>
   <si>
-    <t>このオーダーが実施していけないものであればTrueを表示される</t>
-  </si>
-  <si>
-    <t>もし、doNotPerformに指定がなければ、オーダーは実施してもよいものである。(たとえば、「実施せよ」)</t>
+    <t>このオーダが実施していけないものであればTrueを表示される</t>
+  </si>
+  <si>
+    <t>もし、doNotPerformに指定がなければ、オーダは実施してもよいものである。(たとえば、「実施せよ」)</t>
   </si>
   <si>
     <t>SubstanceAdministration.actionNegationInd</t>
@@ -1023,7 +1020,7 @@
 一般には薬剤が投与される対象となる人（あるいはグループ)を表現するResourceに対するリンク。</t>
   </si>
   <si>
-    <t>処方オーダーの対象は必須項目である。
+    <t>処方オーダの対象は必須項目である。
 二次利用のためにどこに実際の対象がいるのかについての情報は提供されない。特定の対象に対して匿名化することも必要である。</t>
   </si>
   <si>
@@ -1083,7 +1080,7 @@
     <t>薬剤オーダについて補助的情報</t>
   </si>
   <si>
-    <t>薬剤をオーダーするときに補助的となる追加情報（たとえば、患者の身長や体重））を含む。</t>
+    <t>薬剤をオーダするときに補助的となる追加情報（たとえば、患者の身長や体重））を含む。</t>
   </si>
   <si>
     <t>参照先は実存するFHIR Resourceでなければならず(SHALL)、解決可能(アクセスコントロールや、一時的に利用不可であることなどは許容される)でなければならない(SHALL)。解決の方法はURLから取得可能であるか、Resource型が適応できるかどうか、正規のURLとして絶対的参照を扱うことができるか、ローカルのレジストリ／リポジトリから参照することができるかである。</t>
@@ -1102,7 +1099,7 @@
 </t>
   </si>
   <si>
-    <t>この処方オーダーが最初に記述された日</t>
+    <t>この処方オーダが最初に記述された日</t>
   </si>
   <si>
     <t>JP Core profileでは必須。処方指示が最初に作成された日時。秒の精度まで記録する。タイムゾーンも付与しなければならない。</t>
@@ -1130,11 +1127,11 @@
 </t>
   </si>
   <si>
-    <t>このオーダーを発行した人・物</t>
+    <t>このオーダを発行した人・物</t>
   </si>
   <si>
     <t>JP Core profileではこのエレメントに対する規定はない。
-このオーダーを発行した責任のある人、組織、機器。</t>
+このオーダを発行した責任のある人、組織、機器。</t>
   </si>
   <si>
     <t>Request.requester</t>
@@ -1193,11 +1190,11 @@
 </t>
   </si>
   <si>
-    <t>投薬オーダーの入力者</t>
+    <t>投薬オーダの入力者</t>
   </si>
   <si>
     <t>JP Core profileではこのエレメントに対する規定はない。
-たとえば口答指示や電話でのオーダーにより、他の人の代理で処方を入力した人。</t>
+たとえば口答指示や電話でのオーダにより、他の人の代理で処方を入力した人。</t>
   </si>
   <si>
     <t>.participation[typeCode=TRANS].role[classCode=ASSIGNED].code (HealthcareProviderType)</t>
@@ -1213,7 +1210,7 @@
   </si>
   <si>
     <t>このエレメントに対するJP Coreの規定はない。
-薬剤をオーダーするあるいはしないことを示した理由。</t>
+薬剤をオーダするあるいはしないことを示した理由。</t>
   </si>
   <si>
     <t>このエレメントは病名コードであってもよい。もし、すべての条件を示す記録があって他の詳細な記録が必要であれば、reasonReferenceを使用すること。</t>
@@ -1250,10 +1247,10 @@
     <t>処方箋が書かれた理由について補足するCondition ResourceまたはObservation Resource</t>
   </si>
   <si>
-    <t>薬剤がなぜオーダーされたのかを説明する条件や観察。</t>
-  </si>
-  <si>
-    <t>薬剤オーダーの理由を示すこれは条件や観察についての参照である。もし、コードだけであればreasonCodeを使用すること。</t>
+    <t>薬剤がなぜオーダされたのかを説明する条件や観察。</t>
+  </si>
+  <si>
+    <t>薬剤オーダの理由を示すこれは条件や観察についての参照である。もし、コードだけであればreasonCodeを使用すること。</t>
   </si>
   <si>
     <t>Request.reasonReference</t>
@@ -1300,10 +1297,10 @@
 </t>
   </si>
   <si>
-    <t>オーダーが実施される根拠</t>
-  </si>
-  <si>
-    <t>このMedicationRequestの全部あるいは一部を満たす計画やオーダー。</t>
+    <t>オーダが実施される根拠</t>
+  </si>
+  <si>
+    <t>このMedicationRequestの全部あるいは一部を満たす計画やオーダ。</t>
   </si>
   <si>
     <t>Request.basedOn</t>
@@ -1315,7 +1312,7 @@
     <t>MedicationRequest.groupIdentifier</t>
   </si>
   <si>
-    <t>このRequestを一部とする複数のオーダーを構成するID</t>
+    <t>このRequestを一部とする複数のオーダを構成するID</t>
   </si>
   <si>
     <t>一人の処方者が同時期に前後して作成した全てのリクエストに共通するIDで、処方や薬品請求のIDを示す。</t>
@@ -1402,10 +1399,7 @@
 </t>
   </si>
   <si>
-    <t>How the medication is/was taken or should be taken</t>
-  </si>
-  <si>
-    <t>Indicates how the medication is/was taken or should be taken by the patient.</t>
+    <t>薬の服用方法・服用した方法、または服用すべき方法</t>
   </si>
   <si>
     <t>There are examples where a medication request may include the option of an oral dose or an Intravenous or Intramuscular dose.  For example, "Ondansetron 8mg orally or IV twice a day as needed for nausea" or "Compazine® (prochlorperazine) 5-10mg PO or 25mg PR bid prn nausea or vomiting".  In these cases, two medication requests would be created that could be grouped together.  The decision on which dose and route of administration to use is based on the patient's condition at the time the dose is needed.</t>
@@ -1424,7 +1418,7 @@
     <t>調剤・払い出しについての承認事項</t>
   </si>
   <si>
-    <t>薬剤オーダー(MedicationRequest, Medication Prescription, Medication Orderなどとしても表現される）や薬剤オーダーとの一部としての薬剤の払い出しあるいは提供。この情報はオーダーとしてかならず伝えられるというわけではないことに注意。薬剤部門で調剤・払い出しを完了するための施設（たとえば病院）やシステムでのサポートに関する設定をしてもよい。</t>
+    <t>薬剤オーダ(MedicationRequest, Medication Prescription, Medication Orderなどとしても表現される）や薬剤オーダとの一部としての薬剤の払い出しあるいは提供。この情報はオーダとしてかならず伝えられるというわけではないことに注意。薬剤部門で調剤・払い出しを完了するための施設（たとえば病院）やシステムでのサポートに関する設定をしてもよい。</t>
   </si>
   <si>
     <t>Message/Body/NewRx/MedicationPrescribed/ExpirationDate</t>
@@ -1649,7 +1643,7 @@
     <t>許可されたリフィル回数</t>
   </si>
   <si>
-    <t>リフィル回数を示す整数である。患者が処方された薬を最初の払い出しから追加で受け取ることができる回数である。使用上の注意：この整数には最初の払い出しが含まれない。オーダーが「30錠に加えて3回リフィル可」であれば、このオーダーで合計で最大4回、120錠が患者に受け渡される。この数字を0とすることで，処方者がリフィルを許可しないということを明示することができる。</t>
+    <t>リフィル回数を示す整数である。患者が処方された薬を最初の払い出しから追加で受け取ることができる回数である。使用上の注意：この整数には最初の払い出しが含まれない。オーダが「30錠に加えて3回リフィル可」であれば、このオーダで合計で最大4回、120錠が患者に受け渡される。この数字を0とすることで，処方者がリフィルを許可しないということを明示することができる。</t>
   </si>
   <si>
     <t>許可された払い出し回数は，最大でこの数字に1を足したものである。</t>
@@ -1682,7 +1676,7 @@
     <t>供給される製品が使用されるか、あるいは払い出しが想定されている時間を指定する期間。</t>
   </si>
   <si>
-    <t>状況によっては、この属性は物理的に供給される量というよりも、想定されている期間に供給される薬剤の量を指定する数量の代わりに使われることもある。たとえば、薬剤が90日間供給される（オーダーされた量に基づいて）など。可能であれば、量も示した方がより正確になる。expectedSupplyDurationは外部要因に影響をうけることのある予測値である。</t>
+    <t>状況によっては、この属性は物理的に供給される量というよりも、想定されている期間に供給される薬剤の量を指定する数量の代わりに使われることもある。たとえば、薬剤が90日間供給される（オーダされた量に基づいて）など。可能であれば、量も示した方がより正確になる。expectedSupplyDurationは外部要因に影響をうけることのある予測値である。</t>
   </si>
   <si>
     <t>Message/Body/NewRx/MedicationPrescribed/Substitutions</t>
@@ -1921,10 +1915,10 @@
 </t>
   </si>
   <si>
-    <t>前回のオーダー/処方</t>
-  </si>
-  <si>
-    <t>関連する先行オーダーや処方を表現するMedicationRequest Resourceへのリンク。</t>
+    <t>前回のオーダ/処方</t>
+  </si>
+  <si>
+    <t>関連する先行オーダや処方を表現するMedicationRequest Resourceへのリンク。</t>
   </si>
   <si>
     <t>Request.replaces</t>
@@ -2301,7 +2295,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="82.3671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="62.28515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -5906,10 +5900,10 @@
         <v>253</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5935,13 +5929,13 @@
         <v>80</v>
       </c>
       <c r="W32" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="X32" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="X32" t="s" s="2">
+      <c r="Y32" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>80</v>
@@ -5974,13 +5968,13 @@
         <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
@@ -5991,7 +5985,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6017,13 +6011,13 @@
         <v>108</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -6031,7 +6025,7 @@
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>80</v>
@@ -6052,11 +6046,11 @@
         <v>183</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="Y33" t="s" s="2">
-        <v>267</v>
-      </c>
       <c r="Z33" t="s" s="2">
         <v>80</v>
       </c>
@@ -6073,7 +6067,7 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>88</v>
@@ -6088,16 +6082,16 @@
         <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AK33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -6105,7 +6099,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6131,13 +6125,13 @@
         <v>189</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6167,7 +6161,7 @@
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>80</v>
@@ -6185,7 +6179,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -6203,13 +6197,13 @@
         <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AL34" t="s" s="2">
-        <v>277</v>
-      </c>
       <c r="AM34" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -6217,7 +6211,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6243,13 +6237,13 @@
         <v>108</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6278,11 +6272,11 @@
         <v>183</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="Y35" t="s" s="2">
-        <v>283</v>
-      </c>
       <c r="Z35" t="s" s="2">
         <v>80</v>
       </c>
@@ -6299,7 +6293,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6314,16 +6308,16 @@
         <v>100</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AK35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6331,7 +6325,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6354,16 +6348,16 @@
         <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6413,7 +6407,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6434,7 +6428,7 @@
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6445,7 +6439,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6468,13 +6462,13 @@
         <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6525,7 +6519,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6546,7 +6540,7 @@
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6557,7 +6551,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6580,16 +6574,16 @@
         <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6627,17 +6621,17 @@
         <v>80</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AB38" s="2"/>
       <c r="AC38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>88</v>
@@ -6652,27 +6646,27 @@
         <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AL38" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>309</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>80</v>
@@ -6694,16 +6688,16 @@
         <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6753,7 +6747,7 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>88</v>
@@ -6768,24 +6762,24 @@
         <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AL39" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>309</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6808,16 +6802,16 @@
         <v>89</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6867,7 +6861,7 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>88</v>
@@ -6882,24 +6876,24 @@
         <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>321</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6922,16 +6916,16 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6981,7 +6975,7 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6996,24 +6990,24 @@
         <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>249</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>330</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7036,16 +7030,16 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7095,7 +7089,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -7110,16 +7104,16 @@
         <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AK42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>337</v>
-      </c>
       <c r="AM42" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -7127,7 +7121,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7150,13 +7144,13 @@
         <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7207,7 +7201,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7222,24 +7216,24 @@
         <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AK43" t="s" s="2">
+      <c r="AL43" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>346</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7262,16 +7256,16 @@
         <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L44" t="s" s="2">
-        <v>350</v>
-      </c>
       <c r="M44" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7321,7 +7315,7 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7336,16 +7330,16 @@
         <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7353,7 +7347,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7376,16 +7370,16 @@
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L45" t="s" s="2">
-        <v>356</v>
-      </c>
       <c r="M45" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7435,7 +7429,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7450,16 +7444,16 @@
         <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AK45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
@@ -7467,7 +7461,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7493,13 +7487,13 @@
         <v>189</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7525,11 +7519,11 @@
         <v>80</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>80</v>
@@ -7547,7 +7541,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7562,13 +7556,13 @@
         <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
@@ -7579,7 +7573,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7602,16 +7596,16 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="L47" t="s" s="2">
-        <v>370</v>
-      </c>
       <c r="M47" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7661,7 +7655,7 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7682,10 +7676,10 @@
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7693,7 +7687,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7719,13 +7713,13 @@
         <v>189</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7751,14 +7745,14 @@
         <v>80</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="Y48" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="Y48" t="s" s="2">
-        <v>378</v>
-      </c>
       <c r="Z48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7775,7 +7769,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7790,24 +7784,24 @@
         <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AL48" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>383</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7830,16 +7824,16 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7889,7 +7883,7 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7904,16 +7898,16 @@
         <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>249</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>80</v>
@@ -7921,7 +7915,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7944,16 +7938,16 @@
         <v>89</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -8003,7 +7997,7 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -8018,13 +8012,13 @@
         <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
@@ -8035,7 +8029,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8061,13 +8055,13 @@
         <v>102</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -8117,7 +8111,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -8138,7 +8132,7 @@
         <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>80</v>
@@ -8149,7 +8143,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8172,16 +8166,16 @@
         <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>404</v>
-      </c>
       <c r="M52" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8231,7 +8225,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8246,13 +8240,13 @@
         <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
@@ -8263,7 +8257,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8289,14 +8283,14 @@
         <v>153</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>80</v>
@@ -8345,7 +8339,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8360,13 +8354,13 @@
         <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
@@ -8377,7 +8371,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8403,13 +8397,13 @@
         <v>189</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8435,14 +8429,14 @@
         <v>80</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X54" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="Y54" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="Y54" t="s" s="2">
-        <v>418</v>
-      </c>
       <c r="Z54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8459,7 +8453,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8480,7 +8474,7 @@
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
@@ -8491,7 +8485,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8514,16 +8508,16 @@
         <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>423</v>
-      </c>
       <c r="M55" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8573,7 +8567,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8588,13 +8582,13 @@
         <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
@@ -8605,7 +8599,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8628,16 +8622,16 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8687,7 +8681,7 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8702,13 +8696,13 @@
         <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AK56" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="AK56" t="s" s="2">
+      <c r="AL56" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
@@ -8719,7 +8713,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8742,16 +8736,16 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8801,7 +8795,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8822,7 +8816,7 @@
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
@@ -8833,7 +8827,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8856,13 +8850,13 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8913,7 +8907,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8931,10 +8925,10 @@
         <v>80</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
@@ -8945,7 +8939,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8971,10 +8965,10 @@
         <v>168</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -9057,7 +9051,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9167,10 +9161,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>80</v>
@@ -9192,13 +9186,13 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9281,10 +9275,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>80</v>
@@ -9306,13 +9300,13 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9395,11 +9389,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9421,10 +9415,10 @@
         <v>133</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>149</v>
@@ -9479,7 +9473,7 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9511,7 +9505,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9534,16 +9528,16 @@
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9593,7 +9587,7 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9614,7 +9608,7 @@
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
@@ -9625,7 +9619,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9737,7 +9731,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9851,11 +9845,11 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9877,10 +9871,10 @@
         <v>133</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>149</v>
@@ -9935,7 +9929,7 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9967,7 +9961,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9990,16 +9984,16 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -10049,7 +10043,7 @@
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -10061,27 +10055,27 @@
         <v>144</v>
       </c>
       <c r="AI68" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN68" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>478</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10104,16 +10098,16 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="K69" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>482</v>
-      </c>
       <c r="M69" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10163,7 +10157,7 @@
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10184,7 +10178,7 @@
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>80</v>
@@ -10195,7 +10189,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10218,16 +10212,16 @@
         <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -10277,7 +10271,7 @@
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10298,7 +10292,7 @@
         <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>80</v>
@@ -10309,7 +10303,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10335,16 +10329,16 @@
         <v>218</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>80</v>
@@ -10393,7 +10387,7 @@
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10411,10 +10405,10 @@
         <v>80</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
@@ -10425,7 +10419,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10537,7 +10531,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10651,7 +10645,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10674,16 +10668,16 @@
         <v>89</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10733,7 +10727,7 @@
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -10742,7 +10736,7 @@
         <v>88</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>100</v>
@@ -10754,18 +10748,18 @@
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10788,23 +10782,23 @@
         <v>89</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P75" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="Q75" t="s" s="2">
         <v>80</v>
@@ -10849,7 +10843,7 @@
         <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -10858,7 +10852,7 @@
         <v>88</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>100</v>
@@ -10870,18 +10864,18 @@
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10904,16 +10898,16 @@
         <v>80</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="K76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10963,7 +10957,7 @@
         <v>80</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -10981,21 +10975,21 @@
         <v>80</v>
       </c>
       <c r="AK76" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN76" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>519</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11018,16 +11012,16 @@
         <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11077,7 +11071,7 @@
         <v>80</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -11089,27 +11083,27 @@
         <v>144</v>
       </c>
       <c r="AI77" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN77" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>478</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11132,16 +11126,16 @@
         <v>80</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11191,7 +11185,7 @@
         <v>80</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -11209,10 +11203,10 @@
         <v>80</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>80</v>
@@ -11223,7 +11217,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11335,7 +11329,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11449,7 +11443,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11472,19 +11466,19 @@
         <v>89</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="K81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>80</v>
@@ -11533,7 +11527,7 @@
         <v>80</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -11554,18 +11548,18 @@
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11591,20 +11585,20 @@
         <v>108</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P82" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="Q82" t="s" s="2">
         <v>80</v>
@@ -11628,28 +11622,28 @@
         <v>183</v>
       </c>
       <c r="X82" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE82" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -11670,18 +11664,18 @@
         <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11707,21 +11701,21 @@
         <v>168</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R83" t="s" s="2">
         <v>80</v>
@@ -11763,7 +11757,7 @@
         <v>80</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -11784,18 +11778,18 @@
         <v>80</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11821,72 +11815,72 @@
         <v>102</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH84" t="s" s="2">
         <v>562</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>564</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>100</v>
@@ -11898,18 +11892,18 @@
         <v>80</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11935,23 +11929,23 @@
         <v>108</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>570</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="R85" t="s" s="2">
         <v>80</v>
@@ -11993,7 +11987,7 @@
         <v>80</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -12014,18 +12008,18 @@
         <v>80</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12048,16 +12042,16 @@
         <v>80</v>
       </c>
       <c r="J86" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="K86" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>577</v>
-      </c>
       <c r="M86" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -12107,7 +12101,7 @@
         <v>80</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -12128,10 +12122,10 @@
         <v>80</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>80</v>
@@ -12139,7 +12133,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12162,13 +12156,13 @@
         <v>80</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12219,7 +12213,7 @@
         <v>80</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
@@ -12237,10 +12231,10 @@
         <v>80</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>80</v>
@@ -12251,7 +12245,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12363,7 +12357,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12477,11 +12471,11 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -12503,10 +12497,10 @@
         <v>133</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="M90" t="s" s="2">
         <v>149</v>
@@ -12561,7 +12555,7 @@
         <v>80</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -12593,7 +12587,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12619,13 +12613,13 @@
         <v>189</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12655,7 +12649,7 @@
       </c>
       <c r="X91" s="2"/>
       <c r="Y91" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>80</v>
@@ -12673,7 +12667,7 @@
         <v>80</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>88</v>
@@ -12691,21 +12685,21 @@
         <v>80</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12731,13 +12725,13 @@
         <v>189</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12763,13 +12757,13 @@
         <v>80</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>80</v>
@@ -12787,7 +12781,7 @@
         <v>80</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -12805,21 +12799,21 @@
         <v>80</v>
       </c>
       <c r="AK92" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN92" t="s" s="2">
         <v>599</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>601</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12842,16 +12836,16 @@
         <v>80</v>
       </c>
       <c r="J93" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="K93" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>605</v>
-      </c>
       <c r="M93" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -12901,7 +12895,7 @@
         <v>80</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
@@ -12916,13 +12910,13 @@
         <v>100</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>80</v>
@@ -12933,11 +12927,11 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -12956,16 +12950,16 @@
         <v>80</v>
       </c>
       <c r="J94" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="K94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -13015,7 +13009,7 @@
         <v>80</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
@@ -13036,7 +13030,7 @@
         <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>80</v>
@@ -13047,7 +13041,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13070,16 +13064,16 @@
         <v>80</v>
       </c>
       <c r="J95" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="K95" t="s" s="2">
+      <c r="M95" t="s" s="2">
         <v>617</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -13129,7 +13123,7 @@
         <v>80</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>78</v>
@@ -13144,13 +13138,13 @@
         <v>100</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>80</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -1380,7 +1380,7 @@
     <t>他の属性では伝えることができなかったMedicationRequestについての付加的情報。</t>
   </si>
   <si>
-    <t>構造化されたアノテーションが内システムでは、作成者や記録時間のない一つのアノテーションで情報を伝達している。このエレメントに情報の修正を要する可能性があるためにナラティブな情報も必要としている。Annotationsには機械処理が可能で修正される（"modifying")情報を伝達することに使うべきではない(SHOULD NOT)。これがSHOULDである理由はユーザーの行動を強制することはほぼ不可能であるからである。</t>
+    <t>構造化されたアノテーションが内システムでは、作成者や記録時間のない一つのアノテーションで情報を伝達している。このエレメントに情報の修正を要する可能性があるためにナラティブな情報も必要としている。Annotationsには機械処理が可能で修正される（"modifying")情報を伝達することに使うべきではない(SHOULD NOT)。これがSHOULDである理由はユーザの行動を強制することはほぼ不可能であるからである。</t>
   </si>
   <si>
     <t>Request.note</t>
@@ -1890,7 +1890,7 @@
     <t>代替品にしなければならなかった、あるいは代替品が認められなかった理由を示す。</t>
   </si>
   <si>
-    <t>代替品の理由を表す一般的パターンに全てのターミノロジーが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。</t>
+    <t>代替品の理由を表す一般的パターンに全てのターミノロジが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。</t>
   </si>
   <si>
     <t>A coded concept describing the reason that a different medication should (or should not) be substituted from what was prescribed.</t>
@@ -1960,7 +1960,7 @@
     <t>ライフサイクルで関心のあるイベントのリスト</t>
   </si>
   <si>
-    <t>このリソースの現在のバージョンをユーザーから見て関係していそうなキーとなる更新や状態遷移と識別される過去のバージョンのこのリソースあるいは調剤請求あるいはEvent ResourceについてのProvenance resourceへの参照。</t>
+    <t>このリソースの現在のバージョンをユーザから見て関係していそうなキーとなる更新や状態遷移と識別される過去のバージョンのこのリソースあるいは調剤請求あるいはEvent ResourceについてのProvenance resourceへの参照。</t>
   </si>
   <si>
     <t>このエレメントには全てのバージョンのMedicationRequestについてのProvenanceが取り込まれているわけではない。「関連する」あるいは重要と思われたものだけである。現在のバージョンのResourceに関連したProvenance resourceを含めてはならない(SHALL NOT)。（もし、Provenanceとして「関連した」変化と思われれば、後の更新の一部として取り込まれる必要があるだろう。それまでは、このバージョンを_revincludeを使ってprovenanceとして指定して直接クエリーを発行することができる。全てのProvenanceがこのRequestについての履歴を対象として持つべきである。）</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -1051,7 +1051,7 @@
     <t>encounter/admission/stay のいずれかとして記録された診察</t>
   </si>
   <si>
-    <t>JP Core profileでの使用は規定されていない。
+    <t>JP Coreでの使用は規定されていない。
 この対象となるリソース[x]が作成される間やこの記録が作成される対象のencounterは密接に関連している。</t>
   </si>
   <si>
@@ -1102,7 +1102,7 @@
     <t>この処方オーダが最初に記述された日</t>
   </si>
   <si>
-    <t>JP Core profileでは必須。処方指示が最初に作成された日時。秒の精度まで記録する。タイムゾーンも付与しなければならない。</t>
+    <t>JP Coreでは必須。処方指示が最初に作成された日時。秒の精度まで記録する。タイムゾーンも付与しなければならない。</t>
   </si>
   <si>
     <t>Request.authoredOn</t>
@@ -1130,7 +1130,7 @@
     <t>このオーダを発行した人・物</t>
   </si>
   <si>
-    <t>JP Core profileではこのエレメントに対する規定はない。
+    <t>JP Coreではこのエレメントに対する規定はない。
 このオーダを発行した責任のある人、組織、機器。</t>
   </si>
   <si>
@@ -1193,7 +1193,7 @@
     <t>投薬オーダの入力者</t>
   </si>
   <si>
-    <t>JP Core profileではこのエレメントに対する規定はない。
+    <t>JP Coreではこのエレメントに対する規定はない。
 たとえば口答指示や電話でのオーダにより、他の人の代理で処方を入力した人。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -770,7 +770,7 @@
     <t>MedicationRequest.status</t>
   </si>
   <si>
-    <t>オーダの現在の状態を示すコード。【JP Core仕様】"active"に固定される。</t>
+    <t>オーダの現在の状態を示すコード。【JP Core仕様】"active"に固定される</t>
   </si>
   <si>
     <t>【JP Core仕様】"active"に固定される。
@@ -825,7 +825,7 @@
     <t>MedicationRequest.intent</t>
   </si>
   <si>
-    <t>投薬リクエストの意図。【JP Core仕様】#orderで固定とする。</t>
+    <t>投薬リクエストの意図。【JP Core仕様】#orderで固定とする</t>
   </si>
   <si>
     <t>【JP Core仕様】 "order" に固定される。
@@ -12613,7 +12613,7 @@
         <v>189</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="L91" t="s" s="2">
         <v>586</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3456" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3456" uniqueCount="619">
   <si>
     <t>Property</t>
   </si>
@@ -770,11 +770,10 @@
     <t>MedicationRequest.status</t>
   </si>
   <si>
-    <t>オーダの現在の状態を示すコード。【JP Core仕様】"active"に固定される</t>
-  </si>
-  <si>
-    <t>【JP Core仕様】"active"に固定される。
-オーダの現在の状態を示すコード。一般的には active か completed の状態であるだろう。</t>
+    <t>オーダの現在の状態を示すコード。</t>
+  </si>
+  <si>
+    <t>オーダの現在の状態を示すコード。一般的には active か completed の状態であるだろう。</t>
   </si>
   <si>
     <t>このエレメントはmodifierとされている。StatusとはこのResourceが現在妥当な状態ではないことも示すからである。</t>
@@ -825,20 +824,16 @@
     <t>MedicationRequest.intent</t>
   </si>
   <si>
-    <t>投薬リクエストの意図。【JP Core仕様】#orderで固定とする</t>
-  </si>
-  <si>
-    <t>【JP Core仕様】 "order" に固定される。
-投薬リクエストの意図 が提案(proposal)、計画(plan)、あるいは他の要求によるものかを示す。</t>
+    <t>投薬指示の意図</t>
+  </si>
+  <si>
+    <t>投薬指示の意図 が提案(proposal)、計画(plan)、あるいは他の要求によるものかを示す。</t>
   </si>
   <si>
     <t>処方をオーダする場合、MedicationRequestのどの段階でオーダしたのかについて、この項目を指定することが期待される。たとえば、proposalであれば患者、関係者、医師あるいは機器からの提案として作成される。"plan"であれば、医師、患者、関係者そして機器からの提案として生成される。"original-order"は医師にしか作成できない。
 instance-orderはリクエストあるいはオーダをインスタンス化する段階であり、MedicationAdministrationレコードにも使われる。 
 intentはこのresourceが実際に適応される時に変化するため、このエレメントはmodifierとしてラベルされる。</t>
-  </si>
-  <si>
-    <t>order</t>
   </si>
   <si>
     <t>The kind of medication order.</t>
@@ -6025,7 +6020,7 @@
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>264</v>
+        <v>80</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>80</v>
@@ -6046,10 +6041,10 @@
         <v>183</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>80</v>
@@ -6082,16 +6077,16 @@
         <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AK33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -6099,7 +6094,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6125,13 +6120,13 @@
         <v>189</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6161,7 +6156,7 @@
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>80</v>
@@ -6179,7 +6174,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -6197,13 +6192,13 @@
         <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AL34" t="s" s="2">
-        <v>276</v>
-      </c>
       <c r="AM34" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -6211,7 +6206,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6237,13 +6232,13 @@
         <v>108</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6272,11 +6267,11 @@
         <v>183</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="Y35" t="s" s="2">
-        <v>282</v>
-      </c>
       <c r="Z35" t="s" s="2">
         <v>80</v>
       </c>
@@ -6293,7 +6288,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6308,16 +6303,16 @@
         <v>100</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AK35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6325,7 +6320,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6348,16 +6343,16 @@
         <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6407,7 +6402,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6428,7 +6423,7 @@
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6439,7 +6434,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6462,13 +6457,13 @@
         <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6519,7 +6514,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6540,7 +6535,7 @@
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6551,7 +6546,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6574,16 +6569,16 @@
         <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6621,17 +6616,17 @@
         <v>80</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AB38" s="2"/>
       <c r="AC38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>88</v>
@@ -6646,27 +6641,27 @@
         <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AL38" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>308</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>80</v>
@@ -6688,16 +6683,16 @@
         <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6747,7 +6742,7 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>88</v>
@@ -6762,24 +6757,24 @@
         <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AL39" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>308</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6802,16 +6797,16 @@
         <v>89</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6861,7 +6856,7 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>88</v>
@@ -6876,24 +6871,24 @@
         <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>320</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6916,16 +6911,16 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6975,7 +6970,7 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6990,24 +6985,24 @@
         <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>249</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>329</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7030,16 +7025,16 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7089,7 +7084,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -7104,16 +7099,16 @@
         <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="AK42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>336</v>
-      </c>
       <c r="AM42" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -7121,7 +7116,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7144,13 +7139,13 @@
         <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7201,7 +7196,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7216,24 +7211,24 @@
         <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AK43" t="s" s="2">
+      <c r="AL43" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>345</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7256,16 +7251,16 @@
         <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="L44" t="s" s="2">
-        <v>349</v>
-      </c>
       <c r="M44" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7315,7 +7310,7 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7330,16 +7325,16 @@
         <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7347,7 +7342,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7370,16 +7365,16 @@
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L45" t="s" s="2">
-        <v>355</v>
-      </c>
       <c r="M45" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7429,7 +7424,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7444,16 +7439,16 @@
         <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AK45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
@@ -7461,7 +7456,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7487,13 +7482,13 @@
         <v>189</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7523,7 +7518,7 @@
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>80</v>
@@ -7541,7 +7536,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7556,13 +7551,13 @@
         <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
@@ -7573,7 +7568,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7596,16 +7591,16 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L47" t="s" s="2">
-        <v>369</v>
-      </c>
       <c r="M47" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7655,7 +7650,7 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7676,10 +7671,10 @@
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7687,7 +7682,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7713,13 +7708,13 @@
         <v>189</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7748,11 +7743,11 @@
         <v>255</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="Y48" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="Y48" t="s" s="2">
-        <v>377</v>
-      </c>
       <c r="Z48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7769,7 +7764,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7784,24 +7779,24 @@
         <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AL48" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>382</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7824,16 +7819,16 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7883,7 +7878,7 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7898,16 +7893,16 @@
         <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>249</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>80</v>
@@ -7915,7 +7910,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7938,16 +7933,16 @@
         <v>89</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7997,7 +7992,7 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -8012,13 +8007,13 @@
         <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
@@ -8029,7 +8024,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8055,13 +8050,13 @@
         <v>102</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -8111,7 +8106,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -8132,7 +8127,7 @@
         <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>80</v>
@@ -8143,7 +8138,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8166,16 +8161,16 @@
         <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>403</v>
-      </c>
       <c r="M52" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8225,7 +8220,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8240,13 +8235,13 @@
         <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
@@ -8257,7 +8252,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8283,14 +8278,14 @@
         <v>153</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>80</v>
@@ -8339,7 +8334,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8354,13 +8349,13 @@
         <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
@@ -8371,7 +8366,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8397,13 +8392,13 @@
         <v>189</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8432,11 +8427,11 @@
         <v>255</v>
       </c>
       <c r="X54" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="Y54" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="Y54" t="s" s="2">
-        <v>417</v>
-      </c>
       <c r="Z54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8453,7 +8448,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8474,7 +8469,7 @@
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
@@ -8485,7 +8480,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8508,16 +8503,16 @@
         <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>422</v>
-      </c>
       <c r="M55" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8567,7 +8562,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8582,13 +8577,13 @@
         <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
@@ -8599,7 +8594,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8622,16 +8617,16 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8681,7 +8676,7 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8696,13 +8691,13 @@
         <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AK56" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="AK56" t="s" s="2">
+      <c r="AL56" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
@@ -8713,7 +8708,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8736,16 +8731,16 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8795,7 +8790,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8816,7 +8811,7 @@
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
@@ -8827,7 +8822,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8850,13 +8845,13 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8907,7 +8902,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8925,10 +8920,10 @@
         <v>80</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
@@ -8939,7 +8934,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8965,10 +8960,10 @@
         <v>168</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -9051,7 +9046,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9161,10 +9156,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B61" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>80</v>
@@ -9186,13 +9181,13 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9275,10 +9270,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>80</v>
@@ -9300,13 +9295,13 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9389,11 +9384,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9415,10 +9410,10 @@
         <v>133</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>149</v>
@@ -9473,7 +9468,7 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9505,7 +9500,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9528,16 +9523,16 @@
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9587,7 +9582,7 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9608,7 +9603,7 @@
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
@@ -9619,7 +9614,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9731,7 +9726,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9845,11 +9840,11 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9871,10 +9866,10 @@
         <v>133</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>149</v>
@@ -9929,7 +9924,7 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9961,7 +9956,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9984,16 +9979,16 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -10043,7 +10038,7 @@
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -10055,27 +10050,27 @@
         <v>144</v>
       </c>
       <c r="AI68" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL68" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="AJ68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL68" t="s" s="2">
+      <c r="AM68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN68" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>476</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10098,16 +10093,16 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="K69" t="s" s="2">
+      <c r="L69" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="L69" t="s" s="2">
-        <v>480</v>
-      </c>
       <c r="M69" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10157,7 +10152,7 @@
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10178,7 +10173,7 @@
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>80</v>
@@ -10189,7 +10184,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10212,16 +10207,16 @@
         <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="L70" t="s" s="2">
-        <v>484</v>
-      </c>
       <c r="M70" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -10271,7 +10266,7 @@
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10292,7 +10287,7 @@
         <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>80</v>
@@ -10303,7 +10298,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10329,16 +10324,16 @@
         <v>218</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>80</v>
@@ -10387,7 +10382,7 @@
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10405,10 +10400,10 @@
         <v>80</v>
       </c>
       <c r="AK71" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
@@ -10419,7 +10414,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10531,7 +10526,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10645,7 +10640,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10668,16 +10663,16 @@
         <v>89</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10727,16 +10722,16 @@
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH74" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>100</v>
@@ -10748,18 +10743,18 @@
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>501</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10782,69 +10777,69 @@
         <v>89</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P75" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="Q75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE75" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="Q75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>507</v>
-      </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
       </c>
@@ -10852,7 +10847,7 @@
         <v>88</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>100</v>
@@ -10864,18 +10859,18 @@
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>509</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10898,16 +10893,16 @@
         <v>80</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="K76" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="K76" t="s" s="2">
+      <c r="L76" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10957,7 +10952,7 @@
         <v>80</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -10975,21 +10970,21 @@
         <v>80</v>
       </c>
       <c r="AK76" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="AL76" t="s" s="2">
+      <c r="AM76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN76" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>517</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11012,16 +11007,16 @@
         <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="L77" t="s" s="2">
-        <v>520</v>
-      </c>
       <c r="M77" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11071,7 +11066,7 @@
         <v>80</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -11083,27 +11078,27 @@
         <v>144</v>
       </c>
       <c r="AI77" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL77" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="AJ77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL77" t="s" s="2">
+      <c r="AM77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN77" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>476</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11126,16 +11121,16 @@
         <v>80</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11185,7 +11180,7 @@
         <v>80</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -11203,10 +11198,10 @@
         <v>80</v>
       </c>
       <c r="AK78" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AL78" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>80</v>
@@ -11217,7 +11212,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11329,7 +11324,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11443,7 +11438,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11466,19 +11461,19 @@
         <v>89</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="K81" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="K81" t="s" s="2">
+      <c r="L81" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>80</v>
@@ -11527,7 +11522,7 @@
         <v>80</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -11548,18 +11543,18 @@
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN81" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>537</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11585,20 +11580,20 @@
         <v>108</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P82" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P82" t="s" s="2">
-        <v>542</v>
       </c>
       <c r="Q82" t="s" s="2">
         <v>80</v>
@@ -11622,28 +11617,28 @@
         <v>183</v>
       </c>
       <c r="X82" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="Y82" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="Y82" t="s" s="2">
+      <c r="Z82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE82" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -11664,18 +11659,18 @@
         <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN82" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>547</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11701,63 +11696,63 @@
         <v>168</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE83" t="s" s="2">
         <v>552</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>553</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -11778,18 +11773,18 @@
         <v>80</v>
       </c>
       <c r="AL83" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN83" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>555</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11815,72 +11810,72 @@
         <v>102</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE84" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="R84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE84" t="s" s="2">
+      <c r="AF84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH84" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>100</v>
@@ -11892,18 +11887,18 @@
         <v>80</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11929,65 +11924,65 @@
         <v>108</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>567</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>568</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE85" t="s" s="2">
         <v>569</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>570</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -12008,18 +12003,18 @@
         <v>80</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12042,16 +12037,16 @@
         <v>80</v>
       </c>
       <c r="J86" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="K86" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="K86" t="s" s="2">
+      <c r="L86" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="L86" t="s" s="2">
-        <v>575</v>
-      </c>
       <c r="M86" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -12101,7 +12096,7 @@
         <v>80</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -12122,10 +12117,10 @@
         <v>80</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>80</v>
@@ -12133,7 +12128,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12156,13 +12151,13 @@
         <v>80</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12213,7 +12208,7 @@
         <v>80</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
@@ -12231,10 +12226,10 @@
         <v>80</v>
       </c>
       <c r="AK87" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AL87" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>80</v>
@@ -12245,7 +12240,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12357,7 +12352,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12471,11 +12466,11 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -12497,10 +12492,10 @@
         <v>133</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="M90" t="s" s="2">
         <v>149</v>
@@ -12555,7 +12550,7 @@
         <v>80</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -12587,7 +12582,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12613,13 +12608,13 @@
         <v>189</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12649,7 +12644,7 @@
       </c>
       <c r="X91" s="2"/>
       <c r="Y91" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>80</v>
@@ -12667,7 +12662,7 @@
         <v>80</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>88</v>
@@ -12685,21 +12680,21 @@
         <v>80</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AL91" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN91" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>590</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12725,13 +12720,13 @@
         <v>189</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>594</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12760,11 +12755,11 @@
         <v>255</v>
       </c>
       <c r="X92" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="Y92" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="Y92" t="s" s="2">
-        <v>596</v>
-      </c>
       <c r="Z92" t="s" s="2">
         <v>80</v>
       </c>
@@ -12781,7 +12776,7 @@
         <v>80</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -12799,21 +12794,21 @@
         <v>80</v>
       </c>
       <c r="AK92" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="AL92" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="AL92" t="s" s="2">
+      <c r="AM92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN92" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>599</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12836,16 +12831,16 @@
         <v>80</v>
       </c>
       <c r="J93" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="K93" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="K93" t="s" s="2">
+      <c r="L93" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="L93" t="s" s="2">
-        <v>603</v>
-      </c>
       <c r="M93" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -12895,7 +12890,7 @@
         <v>80</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
@@ -12910,13 +12905,13 @@
         <v>100</v>
       </c>
       <c r="AJ93" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="AL93" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>80</v>
@@ -12927,11 +12922,11 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -12950,16 +12945,16 @@
         <v>80</v>
       </c>
       <c r="J94" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="K94" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="K94" t="s" s="2">
+      <c r="L94" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -13009,7 +13004,7 @@
         <v>80</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
@@ -13030,7 +13025,7 @@
         <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>80</v>
@@ -13041,7 +13036,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13064,16 +13059,16 @@
         <v>80</v>
       </c>
       <c r="J95" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="K95" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="K95" t="s" s="2">
+      <c r="L95" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="M95" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -13123,7 +13118,7 @@
         <v>80</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>78</v>
@@ -13138,13 +13133,13 @@
         <v>100</v>
       </c>
       <c r="AJ95" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL95" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>80</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -755,7 +755,7 @@
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/IdSystem/resourceInstance-identifier</t>
+    <t>http://jpfhir.jp/fhir/core/IdSystem/resourceInstance-identifier</t>
   </si>
   <si>
     <t>The value that is unique</t>
@@ -866,7 +866,7 @@
     <t>薬剤が投与あるいはその他の用途で利用されると想定される場面についての区分である。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCategoryInjeciton_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationCategoryInjeciton_VS</t>
   </si>
   <si>
     <t>Message/Body/NewRx/MedicationPrescribed/Directions@@ -1169,7 +1169,7 @@
     <t>Performerを示さずにこのエレメントが指定された場合は、このエレメントは薬剤の投与／管理が指定の職種でなければならないと言うことを示している。Performerと共に指定された場合は、もし指定されたPerformerが実施できない場合に薬剤投与・管理を行うものについての要件が示されたことを意味する。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_PractitionerRole_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_PractitionerRole_VS</t>
   </si>
   <si>
     <t>Request.performerType</t>
@@ -1867,7 +1867,7 @@
     <t>代替品が許可されるかどうかは無視できないので、このエレメントはmodifierとしてラベルされる。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationSubstitutionNotAllowedReason_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationSubstitutionNotAllowedReason_VS</t>
   </si>
   <si>
     <t>code</t>
@@ -2304,7 +2304,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="121.76953125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="79.796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="75.55078125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3456" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3782" uniqueCount="626">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-24</t>
+    <t>2022-10-31</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>このプロファイルはJP_MedicationRequestBaseリソースに対して、注射薬剤処方のデータを送受信するための基礎となる制約と拡張を定めたものである。</t>
+    <t>このプロファイルはMedicationRequestリソースに対して、注射薬剤処方のデータを送受信するための基礎となる制約と拡張を定めたものである。</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRequestBase</t>
+    <t>http://hl7.org/fhir/StructureDefinition/MedicationRequest</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -265,7 +265,7 @@
     <t>患者あるいはグループに対しての注射薬剤処方オーダ</t>
   </si>
   <si>
-    <t>患者への薬の供給と注射や点滴の指示を共に提供するオーダ。ケアプランやワークフローパターンとハーモナイズし、入院や外来でも使えるようにするため、このリソースは"MedicationPrescription"や"MedicationOrder"ではなく、"MedicationRequest"と呼ばれる。JP_MedicationRequestBaseプロファイルからの派生プロファイルである。</t>
+    <t>患者への薬の供給と注射や点滴の指示を共に提供するオーダ。ケアプランやワークフローパターンとハーモナイズし、入院や外来でも使えるようにするため、このリソースは"MedicationPrescription"や"MedicationOrder"ではなく、"MedicationRequest"と呼ばれる。MedicationRequestプロファイルからの派生プロファイルである。</t>
   </si>
   <si>
     <t>Request</t>
@@ -736,34 +736,46 @@
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
+    <t>requestIdentifierCommon</t>
+  </si>
+  <si>
+    <t>処方箋に対するID</t>
+  </si>
+  <si>
+    <t>薬剤をオーダする単位としての処方箋に対するID。MedicationRequestは単一の薬剤でインスタンスが作成されるが、それの集合としての処方箋のID。system 要素には、保険医療機関番号を含む処方箋ID（urn:oid:1.2.392.100495.20.3.11.1[保険医療機関コード(10 桁)]）を指定する。全国で⼀意になる発番ルールにもとづく場合には urn:oid:1.2.392.100495.20.3.11 とする。</t>
+  </si>
+  <si>
+    <t>This is a business identifier, not a resource identifier.</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.100495.20.3.11</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
     <t>requestIdentifier</t>
   </si>
   <si>
     <t>処方オーダに対するID</t>
   </si>
   <si>
-    <t>薬剤をオーダする単位としての処方箋に対するID。MedicationRequestは単一の薬剤でインスタンスが作成されるが、それの集合としての処方箋のID。</t>
-  </si>
-  <si>
-    <t>This is a business identifier, not a resource identifier.</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+    <t>薬剤をオーダする単位としての処方依頼に対するID。MedicationRequestは単一の薬剤でインスタンスが作成される。</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/IdSystem/resourceInstance-identifier</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>MedicationRequest.status</t>
@@ -1000,6 +1012,15 @@
 </t>
   </si>
   <si>
+    <t>Medication to be taken</t>
+  </si>
+  <si>
+    <t>Identifies the medication being requested. This is a link to a resource that represents the medication which may be the details of the medication or simply an attribute carrying a code that identifies the medication from a known list of medications.</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the Medication resource is recommended.  For example, if you require form or lot number or if the medication is compounded or extemporaneously prepared, then you must reference the Medication resource.</t>
+  </si>
+  <si>
     <t>MedicationRequest.subject</t>
   </si>
   <si>
@@ -1905,7 +1926,7 @@
     <t>MedicationRequest.priorPrescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRequestBase)
+    <t xml:space="preserve">Reference(MedicationRequest)
 </t>
   </si>
   <si>
@@ -2270,7 +2291,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN95"/>
+  <dimension ref="A1:AN104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2280,7 +2301,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="69.44921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.16796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.5703125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -4734,7 +4755,7 @@
         <v>79</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>81</v>
@@ -5751,30 +5772,32 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="B31" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>243</v>
@@ -5783,7 +5806,7 @@
         <v>244</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5809,13 +5832,13 @@
         <v>81</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>246</v>
+        <v>81</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>247</v>
+        <v>81</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>81</v>
@@ -5833,13 +5856,13 @@
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>242</v>
+        <v>152</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>81</v>
@@ -5848,24 +5871,24 @@
         <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>248</v>
+        <v>158</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>249</v>
+        <v>159</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>251</v>
+        <v>161</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>81</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>252</v>
+        <v>167</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5888,17 +5911,15 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>253</v>
+        <v>169</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>81</v>
@@ -5923,13 +5944,13 @@
         <v>81</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>255</v>
+        <v>81</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>256</v>
+        <v>81</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>257</v>
+        <v>81</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>81</v>
@@ -5947,7 +5968,7 @@
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>252</v>
+        <v>171</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>79</v>
@@ -5959,16 +5980,16 @@
         <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>258</v>
+        <v>81</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>259</v>
+        <v>172</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>81</v>
@@ -5979,39 +6000,39 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>260</v>
+        <v>173</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>261</v>
+        <v>174</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>262</v>
+        <v>175</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>263</v>
+        <v>149</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -6037,55 +6058,55 @@
         <v>81</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>264</v>
+        <v>81</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>260</v>
+        <v>177</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>266</v>
+        <v>81</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>267</v>
+        <v>172</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>268</v>
+        <v>81</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -6093,7 +6114,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>269</v>
+        <v>178</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6104,30 +6125,32 @@
         <v>79</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>189</v>
+        <v>108</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>270</v>
+        <v>179</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>271</v>
+        <v>180</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>81</v>
       </c>
@@ -6151,11 +6174,13 @@
         <v>81</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="X34" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="Y34" t="s" s="2">
-        <v>273</v>
+        <v>185</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>81</v>
@@ -6173,13 +6198,13 @@
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>269</v>
+        <v>186</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>81</v>
@@ -6191,21 +6216,21 @@
         <v>81</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>274</v>
+        <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>275</v>
+        <v>187</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>268</v>
+        <v>81</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>276</v>
+        <v>188</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6228,18 +6253,20 @@
         <v>89</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>277</v>
+        <v>190</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>278</v>
+        <v>191</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>81</v>
       </c>
@@ -6263,13 +6290,13 @@
         <v>81</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>280</v>
+        <v>195</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>281</v>
+        <v>196</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>81</v>
@@ -6287,7 +6314,7 @@
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>276</v>
+        <v>197</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -6302,24 +6329,24 @@
         <v>100</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>282</v>
+        <v>81</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>283</v>
+        <v>187</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>284</v>
+        <v>81</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>81</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>285</v>
+        <v>199</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6327,7 +6354,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>88</v>
@@ -6336,36 +6363,38 @@
         <v>81</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>286</v>
+        <v>102</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>287</v>
+        <v>236</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>288</v>
+        <v>237</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>81</v>
+        <v>245</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>81</v>
@@ -6401,7 +6430,7 @@
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>285</v>
+        <v>206</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -6422,18 +6451,18 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>290</v>
+        <v>207</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>81</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>291</v>
+        <v>209</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6441,7 +6470,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>88</v>
@@ -6456,15 +6485,17 @@
         <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>292</v>
+        <v>168</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>293</v>
+        <v>239</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>81</v>
@@ -6477,7 +6508,7 @@
         <v>81</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>81</v>
@@ -6513,7 +6544,7 @@
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>291</v>
+        <v>214</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6534,18 +6565,18 @@
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>295</v>
+        <v>215</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>81</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>296</v>
+        <v>217</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6553,7 +6584,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>88</v>
@@ -6568,17 +6599,15 @@
         <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>297</v>
+        <v>218</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>298</v>
+        <v>219</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>81</v>
@@ -6615,20 +6644,22 @@
         <v>81</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AB38" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AC38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>302</v>
+        <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>296</v>
+        <v>221</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>88</v>
@@ -6640,34 +6671,32 @@
         <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>303</v>
+        <v>81</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>304</v>
+        <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>305</v>
+        <v>222</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>306</v>
+        <v>81</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>307</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>88</v>
@@ -6682,16 +6711,16 @@
         <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>309</v>
+        <v>225</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>298</v>
+        <v>226</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>299</v>
+        <v>227</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>300</v>
+        <v>228</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6741,10 +6770,10 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>296</v>
+        <v>229</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>88</v>
@@ -6756,24 +6785,24 @@
         <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>303</v>
+        <v>81</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>304</v>
+        <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>305</v>
+        <v>230</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>306</v>
+        <v>81</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>307</v>
+        <v>231</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>310</v>
+        <v>246</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6790,22 +6819,22 @@
         <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>311</v>
+        <v>108</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>312</v>
+        <v>247</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>313</v>
+        <v>248</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>314</v>
+        <v>249</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6831,13 +6860,13 @@
         <v>81</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>81</v>
@@ -6855,7 +6884,7 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>310</v>
+        <v>246</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>88</v>
@@ -6870,24 +6899,24 @@
         <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>315</v>
+        <v>252</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>316</v>
+        <v>253</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>317</v>
+        <v>254</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>318</v>
+        <v>255</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>319</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>256</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6910,16 +6939,16 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>321</v>
+        <v>189</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>322</v>
+        <v>257</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>323</v>
+        <v>257</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>324</v>
+        <v>258</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6945,13 +6974,13 @@
         <v>81</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>81</v>
+        <v>259</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>81</v>
+        <v>260</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>81</v>
+        <v>261</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>81</v>
@@ -6969,7 +6998,7 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>320</v>
+        <v>256</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
@@ -6984,24 +7013,24 @@
         <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>249</v>
+        <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>326</v>
+        <v>263</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>327</v>
+        <v>81</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>328</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>329</v>
+        <v>264</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7009,31 +7038,31 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>330</v>
+        <v>108</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>331</v>
+        <v>265</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>332</v>
+        <v>266</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7059,13 +7088,13 @@
         <v>81</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>81</v>
+        <v>268</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>81</v>
+        <v>269</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>81</v>
@@ -7083,13 +7112,13 @@
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>329</v>
+        <v>264</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>81</v>
@@ -7098,16 +7127,16 @@
         <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>334</v>
+        <v>270</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>335</v>
+        <v>271</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>327</v>
+        <v>272</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -7115,7 +7144,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>336</v>
+        <v>273</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7123,10 +7152,10 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>81</v>
@@ -7135,18 +7164,20 @@
         <v>81</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>337</v>
+        <v>189</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>338</v>
+        <v>274</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>81</v>
@@ -7171,13 +7202,11 @@
         <v>81</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>81</v>
+        <v>277</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>81</v>
@@ -7195,13 +7224,13 @@
         <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>336</v>
+        <v>273</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>81</v>
@@ -7210,24 +7239,24 @@
         <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>340</v>
+        <v>81</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>341</v>
+        <v>278</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>342</v>
+        <v>279</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>343</v>
+        <v>272</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>344</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>345</v>
+        <v>280</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7250,16 +7279,16 @@
         <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>346</v>
+        <v>108</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>347</v>
+        <v>281</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>348</v>
+        <v>282</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7285,13 +7314,13 @@
         <v>81</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>81</v>
+        <v>284</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>81</v>
+        <v>285</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>81</v>
@@ -7309,7 +7338,7 @@
         <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>345</v>
+        <v>280</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
@@ -7324,16 +7353,16 @@
         <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>349</v>
+        <v>286</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7341,7 +7370,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>351</v>
+        <v>289</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7358,22 +7387,22 @@
         <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>352</v>
+        <v>290</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>353</v>
+        <v>291</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>354</v>
+        <v>292</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7423,7 +7452,7 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>351</v>
+        <v>289</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
@@ -7438,16 +7467,16 @@
         <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>355</v>
+        <v>81</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>356</v>
+        <v>294</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>357</v>
+        <v>81</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7455,7 +7484,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>358</v>
+        <v>295</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7478,17 +7507,15 @@
         <v>89</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>189</v>
+        <v>296</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>359</v>
+        <v>297</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>81</v>
@@ -7513,11 +7540,13 @@
         <v>81</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="X46" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Y46" t="s" s="2">
-        <v>362</v>
+        <v>81</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>81</v>
@@ -7535,7 +7564,7 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>358</v>
+        <v>295</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7550,13 +7579,13 @@
         <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>363</v>
+        <v>81</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>364</v>
+        <v>299</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>81</v>
@@ -7567,7 +7596,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>365</v>
+        <v>300</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7575,7 +7604,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>88</v>
@@ -7587,19 +7616,19 @@
         <v>81</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>366</v>
+        <v>301</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>367</v>
+        <v>302</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>368</v>
+        <v>303</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7637,22 +7666,20 @@
         <v>81</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="AB47" s="2"/>
       <c r="AC47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>81</v>
+        <v>306</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>365</v>
+        <v>300</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>88</v>
@@ -7664,35 +7691,37 @@
         <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>81</v>
+        <v>307</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>81</v>
+        <v>308</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>369</v>
+        <v>309</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>81</v>
+        <v>311</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="B48" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="C48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>81</v>
@@ -7701,19 +7730,19 @@
         <v>81</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>189</v>
+        <v>313</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>372</v>
+        <v>314</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>373</v>
+        <v>315</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>374</v>
+        <v>316</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7739,13 +7768,13 @@
         <v>81</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>255</v>
+        <v>81</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>375</v>
+        <v>81</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>376</v>
+        <v>81</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>81</v>
@@ -7763,13 +7792,13 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>371</v>
+        <v>300</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>81</v>
@@ -7778,24 +7807,24 @@
         <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>377</v>
+        <v>307</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>378</v>
+        <v>308</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>379</v>
+        <v>309</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>380</v>
+        <v>310</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>381</v>
+        <v>311</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>382</v>
+        <v>317</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7803,10 +7832,10 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>81</v>
@@ -7815,19 +7844,19 @@
         <v>81</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>383</v>
+        <v>318</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>384</v>
+        <v>319</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>385</v>
+        <v>320</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>386</v>
+        <v>321</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7877,13 +7906,13 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>382</v>
+        <v>317</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>81</v>
@@ -7892,24 +7921,24 @@
         <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>387</v>
+        <v>322</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>249</v>
+        <v>323</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>388</v>
+        <v>324</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>380</v>
+        <v>325</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>81</v>
+        <v>326</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>389</v>
+        <v>327</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7920,7 +7949,7 @@
         <v>79</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>81</v>
@@ -7929,19 +7958,19 @@
         <v>81</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>390</v>
+        <v>328</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>391</v>
+        <v>329</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>392</v>
+        <v>330</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>393</v>
+        <v>331</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7991,13 +8020,13 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>389</v>
+        <v>327</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>81</v>
@@ -8006,24 +8035,24 @@
         <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>394</v>
+        <v>332</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>81</v>
+        <v>253</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>395</v>
+        <v>333</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>81</v>
+        <v>334</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>81</v>
+        <v>335</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>396</v>
+        <v>336</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8043,19 +8072,19 @@
         <v>81</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>102</v>
+        <v>337</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>397</v>
+        <v>338</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>392</v>
+        <v>339</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>398</v>
+        <v>340</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -8105,7 +8134,7 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>396</v>
+        <v>336</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
@@ -8120,16 +8149,16 @@
         <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>81</v>
+        <v>341</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>395</v>
+        <v>342</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>81</v>
+        <v>334</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
@@ -8137,7 +8166,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>399</v>
+        <v>343</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8145,10 +8174,10 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>81</v>
@@ -8160,17 +8189,15 @@
         <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>401</v>
+        <v>345</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>81</v>
@@ -8219,13 +8246,13 @@
         <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>399</v>
+        <v>343</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>81</v>
@@ -8234,24 +8261,24 @@
         <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>403</v>
+        <v>347</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>81</v>
+        <v>348</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>404</v>
+        <v>349</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>81</v>
+        <v>350</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>81</v>
+        <v>351</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>405</v>
+        <v>352</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8274,18 +8301,18 @@
         <v>89</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>153</v>
+        <v>353</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>406</v>
+        <v>354</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" t="s" s="2">
-        <v>408</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>81</v>
       </c>
@@ -8333,7 +8360,7 @@
         <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>405</v>
+        <v>352</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
@@ -8348,16 +8375,16 @@
         <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>409</v>
+        <v>356</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>410</v>
+        <v>324</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>81</v>
+        <v>357</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
@@ -8365,7 +8392,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>411</v>
+        <v>358</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8388,16 +8415,16 @@
         <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>189</v>
+        <v>359</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>412</v>
+        <v>360</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>413</v>
+        <v>361</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>414</v>
+        <v>340</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8423,13 +8450,13 @@
         <v>81</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>255</v>
+        <v>81</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>415</v>
+        <v>81</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>416</v>
+        <v>81</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>81</v>
@@ -8447,7 +8474,7 @@
         <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>411</v>
+        <v>358</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>79</v>
@@ -8462,16 +8489,16 @@
         <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>81</v>
+        <v>362</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>417</v>
+        <v>363</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>81</v>
+        <v>364</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
@@ -8479,7 +8506,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>418</v>
+        <v>365</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8490,7 +8517,7 @@
         <v>79</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>81</v>
@@ -8499,19 +8526,19 @@
         <v>81</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>419</v>
+        <v>189</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>420</v>
+        <v>366</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>421</v>
+        <v>367</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8537,13 +8564,11 @@
         <v>81</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>81</v>
+        <v>369</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>81</v>
@@ -8561,13 +8586,13 @@
         <v>81</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>418</v>
+        <v>365</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>81</v>
@@ -8576,13 +8601,13 @@
         <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>422</v>
+        <v>370</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>423</v>
+        <v>371</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>81</v>
@@ -8593,7 +8618,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>424</v>
+        <v>372</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8604,7 +8629,7 @@
         <v>79</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>81</v>
@@ -8616,16 +8641,16 @@
         <v>81</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>425</v>
+        <v>373</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>426</v>
+        <v>374</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>427</v>
+        <v>375</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>428</v>
+        <v>340</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8675,13 +8700,13 @@
         <v>81</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>424</v>
+        <v>372</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>81</v>
@@ -8690,16 +8715,16 @@
         <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>429</v>
+        <v>81</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>430</v>
+        <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>431</v>
+        <v>376</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>81</v>
+        <v>377</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>
@@ -8707,7 +8732,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>432</v>
+        <v>378</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8730,16 +8755,16 @@
         <v>81</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>433</v>
+        <v>189</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>434</v>
+        <v>379</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>434</v>
+        <v>380</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>435</v>
+        <v>381</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8765,13 +8790,13 @@
         <v>81</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>81</v>
+        <v>259</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>81</v>
+        <v>382</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>81</v>
+        <v>383</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>81</v>
@@ -8789,7 +8814,7 @@
         <v>81</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>432</v>
+        <v>378</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>79</v>
@@ -8804,24 +8829,24 @@
         <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>81</v>
+        <v>384</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>81</v>
+        <v>385</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>81</v>
+        <v>387</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>81</v>
+        <v>388</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>437</v>
+        <v>389</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8832,7 +8857,7 @@
         <v>79</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>81</v>
@@ -8844,15 +8869,17 @@
         <v>81</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>438</v>
+        <v>390</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>439</v>
+        <v>391</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>81</v>
@@ -8901,13 +8928,13 @@
         <v>81</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>437</v>
+        <v>389</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>81</v>
@@ -8916,16 +8943,16 @@
         <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>81</v>
+        <v>394</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>441</v>
+        <v>253</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>442</v>
+        <v>395</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>81</v>
+        <v>387</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
@@ -8933,7 +8960,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>443</v>
+        <v>396</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8944,7 +8971,7 @@
         <v>79</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>81</v>
@@ -8953,18 +8980,20 @@
         <v>81</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>168</v>
+        <v>397</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>444</v>
+        <v>398</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>81</v>
@@ -9013,28 +9042,28 @@
         <v>81</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>171</v>
+        <v>396</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>81</v>
+        <v>401</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>172</v>
+        <v>402</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>81</v>
@@ -9045,7 +9074,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>446</v>
+        <v>403</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9065,18 +9094,20 @@
         <v>81</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>134</v>
+        <v>404</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>81</v>
@@ -9113,17 +9144,19 @@
         <v>81</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AB60" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AC60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>177</v>
+        <v>403</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>79</v>
@@ -9135,7 +9168,7 @@
         <v>81</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>81</v>
@@ -9144,7 +9177,7 @@
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>81</v>
+        <v>402</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>81</v>
@@ -9155,11 +9188,9 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>447</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
         <v>81</v>
       </c>
@@ -9177,18 +9208,20 @@
         <v>81</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>448</v>
+        <v>407</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>449</v>
+        <v>408</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>81</v>
@@ -9237,7 +9270,7 @@
         <v>81</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>177</v>
+        <v>406</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>79</v>
@@ -9246,19 +9279,19 @@
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>81</v>
+        <v>410</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>81</v>
+        <v>411</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>81</v>
@@ -9269,11 +9302,9 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
         <v>81</v>
       </c>
@@ -9291,19 +9322,21 @@
         <v>81</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>452</v>
+        <v>153</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>453</v>
+        <v>413</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>454</v>
+        <v>414</v>
       </c>
       <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+      <c r="N62" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>81</v>
       </c>
@@ -9351,28 +9384,28 @@
         <v>81</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>177</v>
+        <v>412</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>81</v>
+        <v>416</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>81</v>
+        <v>417</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>81</v>
@@ -9383,43 +9416,41 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>455</v>
+        <v>418</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>456</v>
+        <v>81</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>133</v>
+        <v>189</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>457</v>
+        <v>419</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>458</v>
+        <v>420</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>81</v>
       </c>
@@ -9443,13 +9474,13 @@
         <v>81</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>81</v>
+        <v>259</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>81</v>
+        <v>422</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>81</v>
+        <v>423</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>81</v>
@@ -9467,19 +9498,19 @@
         <v>81</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>459</v>
+        <v>418</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>81</v>
@@ -9488,7 +9519,7 @@
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>131</v>
+        <v>424</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>81</v>
@@ -9499,7 +9530,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>460</v>
+        <v>425</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9510,7 +9541,7 @@
         <v>79</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>81</v>
@@ -9522,16 +9553,16 @@
         <v>81</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>461</v>
+        <v>427</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>462</v>
+        <v>428</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>463</v>
+        <v>340</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9581,13 +9612,13 @@
         <v>81</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>460</v>
+        <v>425</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>81</v>
@@ -9596,13 +9627,13 @@
         <v>100</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>81</v>
+        <v>429</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>464</v>
+        <v>430</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>81</v>
@@ -9613,7 +9644,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>465</v>
+        <v>431</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9624,7 +9655,7 @@
         <v>79</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>81</v>
@@ -9636,15 +9667,17 @@
         <v>81</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>168</v>
+        <v>432</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>169</v>
+        <v>433</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>81</v>
@@ -9693,28 +9726,28 @@
         <v>81</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>171</v>
+        <v>431</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>81</v>
+        <v>436</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>81</v>
+        <v>437</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>172</v>
+        <v>438</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>81</v>
@@ -9725,11 +9758,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>466</v>
+        <v>439</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9748,16 +9781,16 @@
         <v>81</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>133</v>
+        <v>440</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>174</v>
+        <v>441</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>175</v>
+        <v>441</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>149</v>
+        <v>442</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9807,7 +9840,7 @@
         <v>81</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>177</v>
+        <v>439</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>79</v>
@@ -9819,7 +9852,7 @@
         <v>81</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>81</v>
@@ -9828,7 +9861,7 @@
         <v>81</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>172</v>
+        <v>443</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>81</v>
@@ -9839,43 +9872,39 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>456</v>
+        <v>81</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>133</v>
+        <v>445</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>81</v>
       </c>
@@ -9923,28 +9952,28 @@
         <v>81</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>81</v>
+        <v>448</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>131</v>
+        <v>449</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>81</v>
@@ -9955,7 +9984,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9978,17 +10007,15 @@
         <v>81</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>469</v>
+        <v>168</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>81</v>
@@ -10037,7 +10064,7 @@
         <v>81</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>468</v>
+        <v>171</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>79</v>
@@ -10046,10 +10073,10 @@
         <v>88</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>473</v>
+        <v>81</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>81</v>
@@ -10058,18 +10085,18 @@
         <v>81</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>474</v>
+        <v>172</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>475</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10080,7 +10107,7 @@
         <v>79</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>81</v>
@@ -10092,17 +10119,15 @@
         <v>81</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>477</v>
+        <v>133</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>478</v>
+        <v>134</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>81</v>
@@ -10139,31 +10164,29 @@
         <v>81</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AB69" s="2"/>
       <c r="AC69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>476</v>
+        <v>177</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>81</v>
@@ -10172,7 +10195,7 @@
         <v>81</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>480</v>
+        <v>81</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>81</v>
@@ -10183,9 +10206,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="B70" s="2"/>
+        <v>453</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>454</v>
+      </c>
       <c r="C70" t="s" s="2">
         <v>81</v>
       </c>
@@ -10194,7 +10219,7 @@
         <v>79</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>81</v>
@@ -10206,17 +10231,15 @@
         <v>81</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>482</v>
+        <v>456</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>81</v>
@@ -10265,19 +10288,19 @@
         <v>81</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>481</v>
+        <v>177</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>81</v>
@@ -10286,7 +10309,7 @@
         <v>81</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>480</v>
+        <v>81</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>81</v>
@@ -10297,9 +10320,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="B71" s="2"/>
+        <v>453</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>458</v>
+      </c>
       <c r="C71" t="s" s="2">
         <v>81</v>
       </c>
@@ -10320,20 +10345,16 @@
         <v>81</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>218</v>
+        <v>459</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>485</v>
+        <v>460</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>488</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>81</v>
       </c>
@@ -10381,28 +10402,28 @@
         <v>81</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>484</v>
+        <v>177</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>489</v>
+        <v>81</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>490</v>
+        <v>81</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>81</v>
@@ -10413,39 +10434,43 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>491</v>
+        <v>462</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>81</v>
+        <v>463</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>169</v>
+        <v>464</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>81</v>
       </c>
@@ -10493,19 +10518,19 @@
         <v>81</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>171</v>
+        <v>466</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>81</v>
@@ -10514,7 +10539,7 @@
         <v>81</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>81</v>
@@ -10525,18 +10550,18 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>492</v>
+        <v>467</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>81</v>
@@ -10548,16 +10573,16 @@
         <v>81</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>133</v>
+        <v>445</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>174</v>
+        <v>468</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>175</v>
+        <v>469</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>149</v>
+        <v>470</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10595,31 +10620,31 @@
         <v>81</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>177</v>
+        <v>467</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>81</v>
@@ -10628,7 +10653,7 @@
         <v>81</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>172</v>
+        <v>471</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>81</v>
@@ -10639,7 +10664,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>493</v>
+        <v>472</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10659,20 +10684,18 @@
         <v>81</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>337</v>
+        <v>168</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>494</v>
+        <v>169</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>496</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>81</v>
@@ -10721,7 +10744,7 @@
         <v>81</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>497</v>
+        <v>171</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>79</v>
@@ -10730,10 +10753,10 @@
         <v>88</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>498</v>
+        <v>81</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>81</v>
@@ -10742,29 +10765,29 @@
         <v>81</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>499</v>
+        <v>172</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>500</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>501</v>
+        <v>473</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>81</v>
@@ -10773,27 +10796,25 @@
         <v>81</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>337</v>
+        <v>133</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>502</v>
+        <v>174</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>503</v>
+        <v>175</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>504</v>
+        <v>149</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="P75" t="s" s="2">
-        <v>505</v>
-      </c>
+      <c r="P75" s="2"/>
       <c r="Q75" t="s" s="2">
         <v>81</v>
       </c>
@@ -10837,19 +10858,19 @@
         <v>81</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>506</v>
+        <v>177</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>498</v>
+        <v>81</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>81</v>
@@ -10858,52 +10879,54 @@
         <v>81</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>507</v>
+        <v>172</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>508</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>509</v>
+        <v>474</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>81</v>
+        <v>463</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>510</v>
+        <v>133</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>511</v>
+        <v>464</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>512</v>
+        <v>465</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>81</v>
       </c>
@@ -10951,39 +10974,39 @@
         <v>81</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>509</v>
+        <v>466</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>514</v>
+        <v>81</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>515</v>
+        <v>131</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>516</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>517</v>
+        <v>475</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11006,16 +11029,16 @@
         <v>81</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>518</v>
+        <v>477</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>519</v>
+        <v>478</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11065,7 +11088,7 @@
         <v>81</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>517</v>
+        <v>475</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>79</v>
@@ -11077,7 +11100,7 @@
         <v>144</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>81</v>
@@ -11086,18 +11109,18 @@
         <v>81</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>475</v>
+        <v>482</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>520</v>
+        <v>483</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11120,16 +11143,16 @@
         <v>81</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>521</v>
+        <v>485</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>522</v>
+        <v>486</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>523</v>
+        <v>479</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11179,7 +11202,7 @@
         <v>81</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>520</v>
+        <v>483</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>79</v>
@@ -11197,10 +11220,10 @@
         <v>81</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>524</v>
+        <v>81</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>525</v>
+        <v>487</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>81</v>
@@ -11211,7 +11234,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>526</v>
+        <v>488</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11234,15 +11257,17 @@
         <v>81</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>168</v>
+        <v>484</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>169</v>
+        <v>489</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>490</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>81</v>
@@ -11291,7 +11316,7 @@
         <v>81</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>171</v>
+        <v>488</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>79</v>
@@ -11303,7 +11328,7 @@
         <v>81</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>81</v>
@@ -11312,7 +11337,7 @@
         <v>81</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>172</v>
+        <v>487</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>81</v>
@@ -11323,18 +11348,18 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>527</v>
+        <v>491</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>81</v>
@@ -11346,18 +11371,20 @@
         <v>81</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>133</v>
+        <v>218</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>174</v>
+        <v>492</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>175</v>
+        <v>493</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>494</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>81</v>
       </c>
@@ -11393,40 +11420,40 @@
         <v>81</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="AC80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD80" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>177</v>
+        <v>491</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>81</v>
+        <v>496</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>172</v>
+        <v>497</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>81</v>
@@ -11437,7 +11464,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>528</v>
+        <v>498</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11457,23 +11484,19 @@
         <v>81</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>529</v>
+        <v>168</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>530</v>
+        <v>169</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>533</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>81</v>
       </c>
@@ -11521,7 +11544,7 @@
         <v>81</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>534</v>
+        <v>171</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>79</v>
@@ -11533,7 +11556,7 @@
         <v>81</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>81</v>
@@ -11542,58 +11565,56 @@
         <v>81</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>535</v>
+        <v>172</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>536</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>537</v>
+        <v>499</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>538</v>
+        <v>174</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" t="s" s="2">
-        <v>540</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="P82" t="s" s="2">
-        <v>541</v>
-      </c>
+      <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
         <v>81</v>
       </c>
@@ -11613,43 +11634,43 @@
         <v>81</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>542</v>
+        <v>81</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>543</v>
+        <v>81</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="AC82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>544</v>
+        <v>177</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>81</v>
@@ -11658,18 +11679,18 @@
         <v>81</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>545</v>
+        <v>172</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>546</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>547</v>
+        <v>500</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11692,24 +11713,24 @@
         <v>89</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>168</v>
+        <v>344</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>548</v>
+        <v>501</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="M83" s="2"/>
-      <c r="N83" t="s" s="2">
-        <v>550</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" t="s" s="2">
-        <v>551</v>
+        <v>81</v>
       </c>
       <c r="R83" t="s" s="2">
         <v>81</v>
@@ -11751,7 +11772,7 @@
         <v>81</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>552</v>
+        <v>504</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>79</v>
@@ -11760,7 +11781,7 @@
         <v>88</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>81</v>
+        <v>505</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>100</v>
@@ -11772,18 +11793,18 @@
         <v>81</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>553</v>
+        <v>506</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>554</v>
+        <v>507</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>555</v>
+        <v>508</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11806,24 +11827,26 @@
         <v>89</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>102</v>
+        <v>344</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>556</v>
+        <v>509</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" t="s" s="2">
-        <v>558</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="P84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>512</v>
+      </c>
       <c r="Q84" t="s" s="2">
-        <v>559</v>
+        <v>81</v>
       </c>
       <c r="R84" t="s" s="2">
         <v>81</v>
@@ -11865,7 +11888,7 @@
         <v>81</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>560</v>
+        <v>513</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>79</v>
@@ -11874,7 +11897,7 @@
         <v>88</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>561</v>
+        <v>505</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>100</v>
@@ -11886,18 +11909,18 @@
         <v>81</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>562</v>
+        <v>514</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>554</v>
+        <v>515</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>563</v>
+        <v>516</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11917,29 +11940,27 @@
         <v>81</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>108</v>
+        <v>517</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>564</v>
+        <v>518</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>565</v>
+        <v>519</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>567</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" t="s" s="2">
-        <v>568</v>
+        <v>81</v>
       </c>
       <c r="R85" t="s" s="2">
         <v>81</v>
@@ -11981,7 +12002,7 @@
         <v>81</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>569</v>
+        <v>516</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>79</v>
@@ -11999,21 +12020,21 @@
         <v>81</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>81</v>
+        <v>521</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>570</v>
+        <v>522</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>554</v>
+        <v>523</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12036,16 +12057,16 @@
         <v>81</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>572</v>
+        <v>476</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>573</v>
+        <v>525</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>574</v>
+        <v>526</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>333</v>
+        <v>479</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -12095,7 +12116,7 @@
         <v>81</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>79</v>
@@ -12104,10 +12125,10 @@
         <v>88</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>100</v>
+        <v>480</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>81</v>
@@ -12116,18 +12137,18 @@
         <v>81</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>575</v>
+        <v>481</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>370</v>
+        <v>81</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>81</v>
+        <v>482</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>576</v>
+        <v>527</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12150,15 +12171,17 @@
         <v>81</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>438</v>
+        <v>484</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>577</v>
+        <v>528</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="M87" s="2"/>
+        <v>529</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>530</v>
+      </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>81</v>
@@ -12207,7 +12230,7 @@
         <v>81</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>576</v>
+        <v>527</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>79</v>
@@ -12225,10 +12248,10 @@
         <v>81</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>579</v>
+        <v>531</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>580</v>
+        <v>532</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>81</v>
@@ -12239,7 +12262,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>581</v>
+        <v>533</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12351,7 +12374,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>582</v>
+        <v>534</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12421,16 +12444,16 @@
         <v>81</v>
       </c>
       <c r="AA89" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="AC89" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD89" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE89" t="s" s="2">
         <v>177</v>
@@ -12465,42 +12488,42 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>583</v>
+        <v>535</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>456</v>
+        <v>81</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>133</v>
+        <v>536</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>457</v>
+        <v>537</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>458</v>
+        <v>538</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>149</v>
+        <v>539</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>150</v>
+        <v>540</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>81</v>
@@ -12549,19 +12572,19 @@
         <v>81</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>459</v>
+        <v>541</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>81</v>
@@ -12570,18 +12593,18 @@
         <v>81</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>131</v>
+        <v>542</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>81</v>
+        <v>543</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>584</v>
+        <v>544</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12589,7 +12612,7 @@
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F91" t="s" s="2">
         <v>88</v>
@@ -12598,28 +12621,30 @@
         <v>81</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>189</v>
+        <v>108</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>577</v>
+        <v>545</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="N91" s="2"/>
+        <v>546</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" t="s" s="2">
+        <v>547</v>
+      </c>
       <c r="O91" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="P91" s="2"/>
+      <c r="P91" t="s" s="2">
+        <v>548</v>
+      </c>
       <c r="Q91" t="s" s="2">
         <v>81</v>
       </c>
@@ -12639,11 +12664,13 @@
         <v>81</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="X91" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>549</v>
+      </c>
       <c r="Y91" t="s" s="2">
-        <v>587</v>
+        <v>550</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>81</v>
@@ -12661,10 +12688,10 @@
         <v>81</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>584</v>
+        <v>551</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>88</v>
@@ -12679,21 +12706,21 @@
         <v>81</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>579</v>
+        <v>81</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>588</v>
+        <v>552</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>589</v>
+        <v>553</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>590</v>
+        <v>554</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12713,27 +12740,27 @@
         <v>81</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>556</v>
+      </c>
+      <c r="M92" s="2"/>
+      <c r="N92" t="s" s="2">
+        <v>557</v>
+      </c>
       <c r="O92" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
-        <v>81</v>
+        <v>558</v>
       </c>
       <c r="R92" t="s" s="2">
         <v>81</v>
@@ -12751,13 +12778,13 @@
         <v>81</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>255</v>
+        <v>81</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>594</v>
+        <v>81</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>595</v>
+        <v>81</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>81</v>
@@ -12775,7 +12802,7 @@
         <v>81</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>590</v>
+        <v>559</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>79</v>
@@ -12793,21 +12820,21 @@
         <v>81</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>596</v>
+        <v>81</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>597</v>
+        <v>560</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>598</v>
+        <v>561</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>599</v>
+        <v>562</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12827,27 +12854,27 @@
         <v>81</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>600</v>
+        <v>102</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>601</v>
+        <v>563</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>564</v>
+      </c>
+      <c r="M93" s="2"/>
+      <c r="N93" t="s" s="2">
+        <v>565</v>
+      </c>
       <c r="O93" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P93" s="2"/>
       <c r="Q93" t="s" s="2">
-        <v>81</v>
+        <v>566</v>
       </c>
       <c r="R93" t="s" s="2">
         <v>81</v>
@@ -12889,7 +12916,7 @@
         <v>81</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>599</v>
+        <v>567</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>79</v>
@@ -12898,41 +12925,41 @@
         <v>88</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>81</v>
+        <v>568</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>603</v>
+        <v>81</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>596</v>
+        <v>81</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>604</v>
+        <v>569</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>81</v>
+        <v>561</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>605</v>
+        <v>570</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>606</v>
+        <v>81</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>81</v>
@@ -12941,27 +12968,29 @@
         <v>81</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>607</v>
+        <v>108</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>608</v>
+        <v>571</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>609</v>
+        <v>572</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>573</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>574</v>
+      </c>
       <c r="O94" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P94" s="2"/>
       <c r="Q94" t="s" s="2">
-        <v>81</v>
+        <v>575</v>
       </c>
       <c r="R94" t="s" s="2">
         <v>81</v>
@@ -13003,13 +13032,13 @@
         <v>81</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>605</v>
+        <v>576</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>81</v>
@@ -13024,18 +13053,18 @@
         <v>81</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>611</v>
+        <v>577</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>81</v>
+        <v>561</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>612</v>
+        <v>578</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13046,7 +13075,7 @@
         <v>79</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>81</v>
@@ -13058,16 +13087,16 @@
         <v>81</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>613</v>
+        <v>579</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>614</v>
+        <v>580</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>615</v>
+        <v>581</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>616</v>
+        <v>340</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -13117,13 +13146,13 @@
         <v>81</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>612</v>
+        <v>578</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>81</v>
@@ -13132,18 +13161,1040 @@
         <v>100</v>
       </c>
       <c r="AJ95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X100" s="2"/>
+      <c r="Y100" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="AK95" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL95" t="s" s="2">
+      <c r="N103" s="2"/>
+      <c r="O103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL103" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="AM95" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN95" t="s" s="2">
+      <c r="AM103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN104" t="s" s="2">
         <v>81</v>
       </c>
     </row>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3886" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3886" uniqueCount="659">
   <si>
     <t>Property</t>
   </si>
@@ -263,6 +263,10 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>患者あるいはグループに対しての注射薬剤処方オーダ</t>
@@ -2591,13 +2595,13 @@
         <v>82</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2663,13 +2667,13 @@
         <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>82</v>
@@ -2680,10 +2684,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2694,7 +2698,7 @@
         <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>82</v>
@@ -2703,19 +2707,19 @@
         <v>82</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2765,13 +2769,13 @@
         <v>82</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>82</v>
@@ -2797,10 +2801,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2811,7 +2815,7 @@
         <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>82</v>
@@ -2820,16 +2824,16 @@
         <v>82</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2880,19 +2884,19 @@
         <v>82</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>82</v>
@@ -2912,10 +2916,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2926,28 +2930,28 @@
         <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2997,19 +3001,19 @@
         <v>82</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>82</v>
@@ -3029,10 +3033,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -3043,7 +3047,7 @@
         <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>82</v>
@@ -3055,16 +3059,16 @@
         <v>82</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -3090,13 +3094,13 @@
         <v>82</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>82</v>
@@ -3114,19 +3118,19 @@
         <v>82</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>82</v>
@@ -3146,21 +3150,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>82</v>
@@ -3172,16 +3176,16 @@
         <v>82</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3231,19 +3235,19 @@
         <v>82</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>82</v>
@@ -3252,7 +3256,7 @@
         <v>82</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>82</v>
@@ -3263,14 +3267,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -3289,16 +3293,16 @@
         <v>82</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3348,7 +3352,7 @@
         <v>82</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>80</v>
@@ -3369,7 +3373,7 @@
         <v>82</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>82</v>
@@ -3380,10 +3384,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3406,13 +3410,13 @@
         <v>82</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -3451,17 +3455,17 @@
         <v>82</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>80</v>
@@ -3473,7 +3477,7 @@
         <v>82</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>82</v>
@@ -3493,13 +3497,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>82</v>
@@ -3521,13 +3525,13 @@
         <v>82</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3578,7 +3582,7 @@
         <v>82</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3587,10 +3591,10 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>82</v>
@@ -3610,14 +3614,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3630,25 +3634,25 @@
         <v>82</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>82</v>
@@ -3697,7 +3701,7 @@
         <v>82</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3709,7 +3713,7 @@
         <v>82</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>82</v>
@@ -3718,7 +3722,7 @@
         <v>82</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>82</v>
@@ -3729,10 +3733,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3740,7 +3744,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>81</v>
@@ -3755,16 +3759,16 @@
         <v>82</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3802,17 +3806,17 @@
         <v>82</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AC12" s="2"/>
       <c r="AD12" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3824,43 +3828,43 @@
         <v>82</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>82</v>
@@ -3872,16 +3876,16 @@
         <v>82</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3931,7 +3935,7 @@
         <v>82</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3943,30 +3947,30 @@
         <v>82</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3977,7 +3981,7 @@
         <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>82</v>
@@ -3989,13 +3993,13 @@
         <v>82</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -4046,13 +4050,13 @@
         <v>82</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>82</v>
@@ -4067,7 +4071,7 @@
         <v>82</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>82</v>
@@ -4078,14 +4082,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -4104,16 +4108,16 @@
         <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -4151,19 +4155,19 @@
         <v>82</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -4175,7 +4179,7 @@
         <v>82</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>82</v>
@@ -4184,7 +4188,7 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>82</v>
@@ -4195,10 +4199,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4209,31 +4213,31 @@
         <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -4258,13 +4262,13 @@
         <v>82</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>82</v>
@@ -4282,19 +4286,19 @@
         <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>82</v>
@@ -4303,21 +4307,21 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4328,7 +4332,7 @@
         <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>82</v>
@@ -4337,22 +4341,22 @@
         <v>82</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>82</v>
@@ -4377,13 +4381,13 @@
         <v>82</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>82</v>
@@ -4401,19 +4405,19 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>82</v>
@@ -4422,21 +4426,21 @@
         <v>82</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4444,10 +4448,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>82</v>
@@ -4456,35 +4460,35 @@
         <v>82</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>82</v>
@@ -4520,19 +4524,19 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>82</v>
@@ -4541,21 +4545,21 @@
         <v>82</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4563,10 +4567,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>82</v>
@@ -4575,19 +4579,19 @@
         <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4601,7 +4605,7 @@
         <v>82</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>82</v>
@@ -4637,19 +4641,19 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>82</v>
@@ -4658,21 +4662,21 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4683,7 +4687,7 @@
         <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>82</v>
@@ -4692,16 +4696,16 @@
         <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4752,19 +4756,19 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>82</v>
@@ -4773,21 +4777,21 @@
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4798,7 +4802,7 @@
         <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>82</v>
@@ -4807,19 +4811,19 @@
         <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4869,19 +4873,19 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>82</v>
@@ -4890,24 +4894,24 @@
         <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>82</v>
@@ -4917,7 +4921,7 @@
         <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>82</v>
@@ -4929,16 +4933,16 @@
         <v>82</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4988,7 +4992,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -5000,30 +5004,30 @@
         <v>82</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5034,7 +5038,7 @@
         <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>82</v>
@@ -5046,13 +5050,13 @@
         <v>82</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -5103,13 +5107,13 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>82</v>
@@ -5124,7 +5128,7 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>82</v>
@@ -5135,14 +5139,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -5161,16 +5165,16 @@
         <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5208,19 +5212,19 @@
         <v>82</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5232,7 +5236,7 @@
         <v>82</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>82</v>
@@ -5241,7 +5245,7 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>82</v>
@@ -5252,10 +5256,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5266,31 +5270,31 @@
         <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5315,13 +5319,13 @@
         <v>82</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>82</v>
@@ -5339,19 +5343,19 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>82</v>
@@ -5360,21 +5364,21 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5385,7 +5389,7 @@
         <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>82</v>
@@ -5394,22 +5398,22 @@
         <v>82</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5434,13 +5438,13 @@
         <v>82</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>82</v>
@@ -5458,19 +5462,19 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>82</v>
@@ -5479,21 +5483,21 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5501,10 +5505,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>82</v>
@@ -5513,35 +5517,35 @@
         <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>82</v>
@@ -5577,19 +5581,19 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>82</v>
@@ -5598,21 +5602,21 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5620,10 +5624,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>82</v>
@@ -5632,19 +5636,19 @@
         <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5658,7 +5662,7 @@
         <v>82</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>82</v>
@@ -5694,19 +5698,19 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>82</v>
@@ -5715,21 +5719,21 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5740,7 +5744,7 @@
         <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>82</v>
@@ -5749,16 +5753,16 @@
         <v>82</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5809,19 +5813,19 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>82</v>
@@ -5830,21 +5834,21 @@
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5855,7 +5859,7 @@
         <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>82</v>
@@ -5864,19 +5868,19 @@
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5926,19 +5930,19 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>82</v>
@@ -5947,24 +5951,24 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>82</v>
@@ -5986,16 +5990,16 @@
         <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6045,7 +6049,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -6057,30 +6061,30 @@
         <v>82</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6091,7 +6095,7 @@
         <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>82</v>
@@ -6103,13 +6107,13 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -6160,13 +6164,13 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>82</v>
@@ -6181,7 +6185,7 @@
         <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>82</v>
@@ -6192,14 +6196,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -6218,16 +6222,16 @@
         <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6265,19 +6269,19 @@
         <v>82</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6289,7 +6293,7 @@
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>82</v>
@@ -6298,7 +6302,7 @@
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>82</v>
@@ -6309,10 +6313,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6323,31 +6327,31 @@
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6372,13 +6376,13 @@
         <v>82</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>82</v>
@@ -6396,19 +6400,19 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>82</v>
@@ -6417,21 +6421,21 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6442,7 +6446,7 @@
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>82</v>
@@ -6451,22 +6455,22 @@
         <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6491,13 +6495,13 @@
         <v>82</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>82</v>
@@ -6515,19 +6519,19 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>82</v>
@@ -6536,21 +6540,21 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6558,10 +6562,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>82</v>
@@ -6570,35 +6574,35 @@
         <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>82</v>
@@ -6634,19 +6638,19 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>82</v>
@@ -6655,21 +6659,21 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6677,10 +6681,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>82</v>
@@ -6689,19 +6693,19 @@
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6715,7 +6719,7 @@
         <v>82</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>82</v>
@@ -6751,19 +6755,19 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>82</v>
@@ -6772,21 +6776,21 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6797,7 +6801,7 @@
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>82</v>
@@ -6806,16 +6810,16 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6866,19 +6870,19 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>82</v>
@@ -6887,21 +6891,21 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6912,7 +6916,7 @@
         <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>82</v>
@@ -6921,19 +6925,19 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6983,19 +6987,19 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>82</v>
@@ -7004,21 +7008,21 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7026,31 +7030,31 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -7076,13 +7080,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -7100,31 +7104,31 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -7132,10 +7136,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7146,7 +7150,7 @@
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>82</v>
@@ -7158,16 +7162,16 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7193,13 +7197,13 @@
         <v>82</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>82</v>
@@ -7217,28 +7221,28 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>82</v>
@@ -7249,10 +7253,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7260,31 +7264,31 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7310,13 +7314,13 @@
         <v>82</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>82</v>
@@ -7334,31 +7338,31 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7366,10 +7370,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7392,16 +7396,16 @@
         <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7427,11 +7431,11 @@
         <v>82</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>82</v>
@@ -7449,7 +7453,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7461,19 +7465,19 @@
         <v>82</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7481,10 +7485,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7495,7 +7499,7 @@
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>82</v>
@@ -7504,19 +7508,19 @@
         <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7542,13 +7546,13 @@
         <v>82</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>82</v>
@@ -7566,31 +7570,31 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7598,10 +7602,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7612,28 +7616,28 @@
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7683,19 +7687,19 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>82</v>
@@ -7704,7 +7708,7 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>82</v>
@@ -7715,10 +7719,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7729,7 +7733,7 @@
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>82</v>
@@ -7738,16 +7742,16 @@
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7798,19 +7802,19 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>82</v>
@@ -7819,7 +7823,7 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>82</v>
@@ -7830,10 +7834,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7841,10 +7845,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>82</v>
@@ -7853,19 +7857,19 @@
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7903,65 +7907,65 @@
         <v>82</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>82</v>
@@ -7970,19 +7974,19 @@
         <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -8032,42 +8036,42 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8075,10 +8079,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>82</v>
@@ -8087,19 +8091,19 @@
         <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8149,42 +8153,42 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8195,7 +8199,7 @@
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>82</v>
@@ -8207,16 +8211,16 @@
         <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8266,42 +8270,42 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8324,16 +8328,16 @@
         <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8383,7 +8387,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8395,19 +8399,19 @@
         <v>82</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8415,10 +8419,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8426,10 +8430,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>82</v>
@@ -8438,16 +8442,16 @@
         <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8498,42 +8502,42 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8544,7 +8548,7 @@
         <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>82</v>
@@ -8553,19 +8557,19 @@
         <v>82</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8615,31 +8619,31 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8647,10 +8651,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8661,7 +8665,7 @@
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>82</v>
@@ -8673,16 +8677,16 @@
         <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8732,31 +8736,31 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8764,10 +8768,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8778,7 +8782,7 @@
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>82</v>
@@ -8787,19 +8791,19 @@
         <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8825,11 +8829,11 @@
         <v>82</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>82</v>
@@ -8847,28 +8851,28 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>82</v>
@@ -8879,10 +8883,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8893,7 +8897,7 @@
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>82</v>
@@ -8905,16 +8909,16 @@
         <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8964,19 +8968,19 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>82</v>
@@ -8985,10 +8989,10 @@
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8996,10 +9000,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9022,16 +9026,16 @@
         <v>82</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9057,13 +9061,13 @@
         <v>82</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>82</v>
@@ -9081,7 +9085,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9093,30 +9097,30 @@
         <v>82</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9139,16 +9143,16 @@
         <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9198,7 +9202,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9210,19 +9214,19 @@
         <v>82</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9230,10 +9234,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9253,19 +9257,19 @@
         <v>82</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9315,7 +9319,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9327,16 +9331,16 @@
         <v>82</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>82</v>
@@ -9347,10 +9351,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9370,19 +9374,19 @@
         <v>82</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9432,7 +9436,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9444,7 +9448,7 @@
         <v>82</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>82</v>
@@ -9453,7 +9457,7 @@
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>82</v>
@@ -9464,10 +9468,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9487,19 +9491,19 @@
         <v>82</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9549,7 +9553,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9561,16 +9565,16 @@
         <v>82</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>82</v>
@@ -9581,10 +9585,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9595,7 +9599,7 @@
         <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>82</v>
@@ -9604,20 +9608,20 @@
         <v>82</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9666,28 +9670,28 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>82</v>
@@ -9698,10 +9702,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9712,7 +9716,7 @@
         <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>82</v>
@@ -9724,16 +9728,16 @@
         <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9759,13 +9763,13 @@
         <v>82</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>82</v>
@@ -9783,19 +9787,19 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>82</v>
@@ -9804,7 +9808,7 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>82</v>
@@ -9815,10 +9819,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9841,16 +9845,16 @@
         <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9900,7 +9904,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9912,16 +9916,16 @@
         <v>82</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>82</v>
@@ -9932,10 +9936,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9958,16 +9962,16 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -10017,7 +10021,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10029,16 +10033,16 @@
         <v>82</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>82</v>
@@ -10049,10 +10053,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10075,16 +10079,16 @@
         <v>82</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10134,7 +10138,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10146,7 +10150,7 @@
         <v>82</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>82</v>
@@ -10155,7 +10159,7 @@
         <v>82</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>82</v>
@@ -10166,10 +10170,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10180,7 +10184,7 @@
         <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>82</v>
@@ -10192,13 +10196,13 @@
         <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10249,28 +10253,28 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>82</v>
@@ -10281,10 +10285,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10295,7 +10299,7 @@
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>82</v>
@@ -10307,13 +10311,13 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10364,13 +10368,13 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>82</v>
@@ -10385,7 +10389,7 @@
         <v>82</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>82</v>
@@ -10396,10 +10400,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10422,13 +10426,13 @@
         <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10467,17 +10471,17 @@
         <v>82</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AC69" s="2"/>
       <c r="AD69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10489,7 +10493,7 @@
         <v>82</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>82</v>
@@ -10509,13 +10513,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B70" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="B70" t="s" s="2">
-        <v>483</v>
-      </c>
       <c r="C70" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>82</v>
@@ -10537,13 +10541,13 @@
         <v>82</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10594,7 +10598,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10603,10 +10607,10 @@
         <v>81</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>82</v>
@@ -10626,13 +10630,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>82</v>
@@ -10642,7 +10646,7 @@
         <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>82</v>
@@ -10654,13 +10658,13 @@
         <v>82</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10711,7 +10715,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10720,10 +10724,10 @@
         <v>81</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>82</v>
@@ -10743,14 +10747,14 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10763,25 +10767,25 @@
         <v>82</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -10830,7 +10834,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10842,7 +10846,7 @@
         <v>82</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>82</v>
@@ -10851,7 +10855,7 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>82</v>
@@ -10862,10 +10866,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10876,7 +10880,7 @@
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>82</v>
@@ -10888,16 +10892,16 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10947,19 +10951,19 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>82</v>
@@ -10968,7 +10972,7 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>82</v>
@@ -10979,10 +10983,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10993,7 +10997,7 @@
         <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>82</v>
@@ -11005,13 +11009,13 @@
         <v>82</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -11062,13 +11066,13 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>82</v>
@@ -11083,7 +11087,7 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>82</v>
@@ -11094,14 +11098,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -11120,16 +11124,16 @@
         <v>82</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11179,7 +11183,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11191,7 +11195,7 @@
         <v>82</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>82</v>
@@ -11200,7 +11204,7 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>82</v>
@@ -11211,14 +11215,14 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11231,25 +11235,25 @@
         <v>82</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11298,7 +11302,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11310,7 +11314,7 @@
         <v>82</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>82</v>
@@ -11319,7 +11323,7 @@
         <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>82</v>
@@ -11330,10 +11334,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11344,7 +11348,7 @@
         <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>82</v>
@@ -11356,16 +11360,16 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11415,19 +11419,19 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>82</v>
@@ -11436,21 +11440,21 @@
         <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11461,7 +11465,7 @@
         <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>82</v>
@@ -11473,16 +11477,16 @@
         <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11532,19 +11536,19 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>82</v>
@@ -11553,7 +11557,7 @@
         <v>82</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>82</v>
@@ -11564,10 +11568,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11578,7 +11582,7 @@
         <v>80</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>82</v>
@@ -11590,16 +11594,16 @@
         <v>82</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11649,28 +11653,28 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>82</v>
@@ -11681,10 +11685,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11695,7 +11699,7 @@
         <v>80</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>82</v>
@@ -11707,19 +11711,19 @@
         <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>82</v>
@@ -11768,28 +11772,28 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>82</v>
@@ -11800,10 +11804,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11814,7 +11818,7 @@
         <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>82</v>
@@ -11826,13 +11830,13 @@
         <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11883,13 +11887,13 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>82</v>
@@ -11904,7 +11908,7 @@
         <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>82</v>
@@ -11915,14 +11919,14 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11941,16 +11945,16 @@
         <v>82</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11988,19 +11992,19 @@
         <v>82</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AD82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12012,7 +12016,7 @@
         <v>82</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>82</v>
@@ -12021,7 +12025,7 @@
         <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>82</v>
@@ -12032,10 +12036,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12046,7 +12050,7 @@
         <v>80</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>82</v>
@@ -12055,19 +12059,19 @@
         <v>82</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12117,19 +12121,19 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>82</v>
@@ -12138,21 +12142,21 @@
         <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12163,7 +12167,7 @@
         <v>80</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>82</v>
@@ -12172,26 +12176,26 @@
         <v>82</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q84" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="R84" t="s" s="2">
         <v>82</v>
@@ -12236,19 +12240,19 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>82</v>
@@ -12257,21 +12261,21 @@
         <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12282,7 +12286,7 @@
         <v>80</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>82</v>
@@ -12294,16 +12298,16 @@
         <v>82</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12353,42 +12357,42 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12399,7 +12403,7 @@
         <v>80</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>82</v>
@@ -12411,16 +12415,16 @@
         <v>82</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12470,19 +12474,19 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>82</v>
@@ -12491,21 +12495,21 @@
         <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12516,7 +12520,7 @@
         <v>80</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>82</v>
@@ -12528,16 +12532,16 @@
         <v>82</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12587,28 +12591,28 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>82</v>
@@ -12619,10 +12623,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12633,7 +12637,7 @@
         <v>80</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>82</v>
@@ -12645,13 +12649,13 @@
         <v>82</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12702,13 +12706,13 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>82</v>
@@ -12723,7 +12727,7 @@
         <v>82</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>82</v>
@@ -12734,14 +12738,14 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -12760,16 +12764,16 @@
         <v>82</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12807,19 +12811,19 @@
         <v>82</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AD89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -12831,7 +12835,7 @@
         <v>82</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>82</v>
@@ -12840,7 +12844,7 @@
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>82</v>
@@ -12851,10 +12855,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12865,7 +12869,7 @@
         <v>80</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>82</v>
@@ -12874,22 +12878,22 @@
         <v>82</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>82</v>
@@ -12938,19 +12942,19 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>82</v>
@@ -12959,21 +12963,21 @@
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12984,35 +12988,35 @@
         <v>80</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q91" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="R91" t="s" s="2">
         <v>82</v>
@@ -13033,13 +13037,13 @@
         <v>82</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>82</v>
@@ -13057,19 +13061,19 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>82</v>
@@ -13078,21 +13082,21 @@
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13103,7 +13107,7 @@
         <v>80</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>82</v>
@@ -13112,27 +13116,27 @@
         <v>82</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q92" s="2"/>
       <c r="R92" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="S92" t="s" s="2">
         <v>82</v>
@@ -13174,19 +13178,19 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>82</v>
@@ -13195,21 +13199,21 @@
         <v>82</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13220,7 +13224,7 @@
         <v>80</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>82</v>
@@ -13229,27 +13233,27 @@
         <v>82</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>82</v>
@@ -13291,19 +13295,19 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>82</v>
@@ -13312,21 +13316,21 @@
         <v>82</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13337,7 +13341,7 @@
         <v>80</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>82</v>
@@ -13346,29 +13350,29 @@
         <v>82</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q94" s="2"/>
       <c r="R94" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="S94" t="s" s="2">
         <v>82</v>
@@ -13410,19 +13414,19 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>82</v>
@@ -13431,21 +13435,21 @@
         <v>82</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13456,7 +13460,7 @@
         <v>80</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>82</v>
@@ -13468,16 +13472,16 @@
         <v>82</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13527,19 +13531,19 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>82</v>
@@ -13548,10 +13552,10 @@
         <v>82</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
@@ -13559,10 +13563,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13573,7 +13577,7 @@
         <v>80</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>82</v>
@@ -13585,13 +13589,13 @@
         <v>82</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13642,28 +13646,28 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>82</v>
@@ -13674,10 +13678,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13688,7 +13692,7 @@
         <v>80</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>82</v>
@@ -13700,13 +13704,13 @@
         <v>82</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13757,13 +13761,13 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>82</v>
@@ -13778,7 +13782,7 @@
         <v>82</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>82</v>
@@ -13789,14 +13793,14 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -13815,16 +13819,16 @@
         <v>82</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -13874,7 +13878,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -13886,7 +13890,7 @@
         <v>82</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>82</v>
@@ -13895,7 +13899,7 @@
         <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>82</v>
@@ -13906,14 +13910,14 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -13926,25 +13930,25 @@
         <v>82</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
@@ -13993,7 +13997,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14005,7 +14009,7 @@
         <v>82</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>82</v>
@@ -14014,7 +14018,7 @@
         <v>82</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>82</v>
@@ -14025,10 +14029,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14036,10 +14040,10 @@
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>82</v>
@@ -14051,16 +14055,16 @@
         <v>82</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -14086,11 +14090,11 @@
         <v>82</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Y100" s="2"/>
       <c r="Z100" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>82</v>
@@ -14108,42 +14112,42 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14154,7 +14158,7 @@
         <v>80</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>82</v>
@@ -14166,16 +14170,16 @@
         <v>82</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14201,13 +14205,13 @@
         <v>82</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>82</v>
@@ -14225,42 +14229,42 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14271,7 +14275,7 @@
         <v>80</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>82</v>
@@ -14283,16 +14287,16 @@
         <v>82</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14342,28 +14346,28 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>82</v>
@@ -14374,14 +14378,14 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -14400,16 +14404,16 @@
         <v>82</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14459,7 +14463,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14471,7 +14475,7 @@
         <v>82</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>82</v>
@@ -14480,7 +14484,7 @@
         <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>82</v>
@@ -14491,10 +14495,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14517,16 +14521,16 @@
         <v>82</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14576,7 +14580,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -14588,16 +14592,16 @@
         <v>82</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>82</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -297,13 +297,13 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>このアーティファクトの論理ID / Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>リソースのURLで使用されるリソースの論理ID。割り当てられたら、この値は変更されません。 / The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>リソースにIDがないのは、IDが作成操作を使用してサーバーに送信されている場合です。 / The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -316,16 +316,16 @@
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>リソースに関するメタデータ / Metadata about the resource</t>
+  </si>
+  <si>
+    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -336,13 +336,13 @@
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -355,19 +355,19 @@
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>リソースコンテンツの言語 / Language of the resource content</t>
+  </si>
+  <si>
+    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>A human language.</t>
+    <t>人間の言語。 / A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -387,13 +387,13 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>人間の解釈のためのリソースのテキスト概要 / Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>含まれるリソースには叙述(Narative)がありません。含まれていないリソースには叙述(Narative)が必要です。場合によっては、リソースには、追加の個別のデータがほとんどまたはまったくないテキストのみがあります（すべてのMinoccur = 1要素が満たされている限り）。これは、情報がtext blob (バイナリー ラージ オブジェクト)としてキャプチャされるレガシーシステムからのデータ、またはテキストが生またはナレーションされ、エンコードされた情報が後で追加される場合に必要になる場合があります。 / Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -413,13 +413,13 @@
 </t>
   </si>
   <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>インラインリソースが含まれています / Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -451,8 +451,8 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>MedicationRequest.extension:preparation</t>
@@ -482,17 +482,18 @@
 user content</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -560,10 +561,10 @@
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -578,10 +579,10 @@
     <t>MedicationRequest.identifier.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -596,22 +597,22 @@
     <t>MedicationRequest.identifier.use</t>
   </si>
   <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+    <t>通常|公式|温度|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>この識別子の目的。 / The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>アプリケーションは、識別子が一時的なものであると明示的に言っていない限り、永続的であると想定できます。 / Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>特定の使用のコンテキストが一連の識別子の中から選択される適切な識別子を許可します。 / Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
+    <t>既知の場合、この識別子の目的を識別します。 / Identifies the purpose for this identifier, if known .</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
@@ -633,22 +634,22 @@
 </t>
   </si>
   <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+    <t>識別子の説明 / Description of identifier</t>
+  </si>
+  <si>
+    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>この要素は、識別子の一般的なカテゴリのみを扱います。識別子。システムに対応するコードに使用しないでください。一部の識別子は、一般的な使用法により複数のカテゴリに分類される場合があります。システムがわかっている場合、タイプは常にシステム定義の一部であるため、タイプは不要です。ただし、システムが不明な識別子を処理する必要があることがよくあります。多くの異なるシステムが同じタイプを持っているため、タイプとシステムの間に1：1の関係はありません。 / This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>識別子システムが不明な場合、ユーザーは識別子を使用できます。 / Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
@@ -672,10 +673,10 @@
     <t>ここで付番されたIDがRp番号であることを明示するためにOIDとして定義された。urn:oid:1.2.392.100495.20.3.81で固定される。</t>
   </si>
   <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+    <t>識別子。システムは常にケースに敏感です。 / Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>識別子のセットがたくさんあります。2つの識別子を一致させるには、どのセットを扱っているかを知る必要があります。システムは、特定の一意の識別子セットを識別します。 / There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.100495.20.3.81</t>
@@ -730,10 +731,10 @@
 </t>
   </si>
   <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
+    <t>IDが使用に有効だった時間期間 / Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>識別子が使用される/有効な期間。 / Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
     <t>Identifier.period</t>
@@ -755,13 +756,13 @@
 </t>
   </si>
   <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+    <t>IDを発行した組織（単なるテキストである可能性があります） / Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>識別子を発行/管理する組織。 / Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>識別子は、.reference要素を省略し、割り当て組織に関する名前またはその他のテキスト情報を反映した.display要素のみを含む場合があります。 / The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
   </si>
   <si>
     <t>Identifier.assigner</t>
@@ -785,7 +786,7 @@
     <t>薬剤をオーダする単位としての処方箋に対するID。MedicationRequestは単一の薬剤でインスタンスが作成されるが、それの集合としての処方箋のID。system 要素には、保険医療機関番号を含む処方箋ID（urn:oid:1.2.392.100495.20.3.11.1[保険医療機関コード(10 桁)]）を指定する。全国で⼀意になる発番ルールにもとづく場合には urn:oid:1.2.392.100495.20.3.11 とする。</t>
   </si>
   <si>
-    <t>This is a business identifier, not a resource identifier.</t>
+    <t>これはビジネス識別子であり、リソース識別子ではありません。 / This is a business identifier, not a resource identifier.</t>
   </si>
   <si>
     <t>MedicationRequest.identifier:requestIdentifierCommon.id</t>
@@ -803,10 +804,10 @@
     <t>MedicationRequest.identifier:requestIdentifierCommon.system</t>
   </si>
   <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+    <t>識別子値の名前空間 / The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>値の名前空間、つまり一意のセット値を記述するURLを確立します。 / Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.100495.20.3.11</t>
@@ -815,13 +816,13 @@
     <t>MedicationRequest.identifier:requestIdentifierCommon.value</t>
   </si>
   <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>一意の値 / The value that is unique</t>
+  </si>
+  <si>
+    <t>通常、識別子の部分はユーザーに関連し、システムのコンテキスト内で一意のユーザーに関連しています。 / The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>値が完全なURIの場合、システムはurn：ietf：rfc：3986でなければなりません。値の主な目的は、計算マッピングです。その結果、比較目的で正規化される可能性があります（例えば、有意でない白文字、ダッシュなどの削除）ヒューマンディスプレイ用の値は、[レンダリングされた値拡張]（拡張レンダリングValue.html）を使用して伝達できます。識別子。価値は、識別子の知識を使用しない限り、ケースに敏感なものとして扱われます。システムにより、プロセッサーは、非セイズに固有の処理が安全であると確信できます。 / If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>MedicationRequest.identifier:requestIdentifierCommon.period</t>
@@ -881,7 +882,7 @@
     <t>このエレメントはmodifierとされている。StatusとはこのResourceが現在妥当な状態ではないことも示すからである。</t>
   </si>
   <si>
-    <t>A coded concept specifying the state of the prescribing event. Describes the lifecycle of the prescription.</t>
+    <t>処方イベントの状態を指定するコード化された概念。処方箋のライフサイクルについて説明します。 / A coded concept specifying the state of the prescribing event. Describes the lifecycle of the prescription.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationrequest-status|4.0.1</t>
@@ -911,7 +912,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>Identifies the reasons for a given status.</t>
+    <t>特定のステータスの理由を特定します。 / Identifies the reasons for a given status.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationrequest-status-reason</t>
@@ -938,7 +939,7 @@
 intentはこのresourceが実際に適応される時に変化するため、このエレメントはmodifierとしてラベルされる。</t>
   </si>
   <si>
-    <t>The kind of medication order.</t>
+    <t>種類の薬順。 / The kind of medication order.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationrequest-intent|4.0.1</t>
@@ -993,7 +994,7 @@
     <t>FHIRでは文字列の大きさが1MBを超えてはならない(SHALL NOT)。</t>
   </si>
   <si>
-    <t>Identifies the level of importance to be assigned to actioning the request.</t>
+    <t>リクエストの実行に割り当てられる重要性のレベルを特定します。 / Identifies the level of importance to be assigned to actioning the request.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
@@ -1106,13 +1107,13 @@
 </t>
   </si>
   <si>
-    <t>Medication to be taken</t>
-  </si>
-  <si>
-    <t>Identifies the medication being requested. This is a link to a resource that represents the medication which may be the details of the medication or simply an attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the Medication resource is recommended.  For example, if you require form or lot number or if the medication is compounded or extemporaneously prepared, then you must reference the Medication resource.</t>
+    <t>服用する薬 / Medication to be taken</t>
+  </si>
+  <si>
+    <t>要求されている薬を特定します。これは、薬物の詳細である可能性のある薬物療法を表すリソースへのリンク、または単に既知の薬物のリストから薬物を識別するコードを運ぶ属性です。 / Identifies the medication being requested. This is a link to a resource that represents the medication which may be the details of the medication or simply an attribute carrying a code that identifies the medication from a known list of medications.</t>
+  </si>
+  <si>
+    <t>コードのみが指定されている場合、特定の製品のコードである必要があります。より多くの情報が必要な場合は、投薬リソースの使用をお勧めします。たとえば、フォームまたはロット番号が必要な場合、または薬物療法が複合または延長された場合は、薬リソースを参照する必要があります。 / If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the Medication resource is recommended.  For example, if you require form or lot number or if the medication is compounded or extemporaneously prepared, then you must reference the Medication resource.</t>
   </si>
   <si>
     <t>MedicationRequest.subject</t>
@@ -1325,7 +1326,7 @@
     <t>このエレメントは病名コードであってもよい。もし、すべての条件を示す記録があって他の詳細な記録が必要であれば、reasonReferenceを使用すること。</t>
   </si>
   <si>
-    <t>A coded concept indicating why the medication was ordered.</t>
+    <t>薬が注文された理由を示すコード化された概念。 / A coded concept indicating why the medication was ordered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-code</t>
@@ -1448,7 +1449,7 @@
     <t>この属性は薬剤プロトコールと混同してはならない。</t>
   </si>
   <si>
-    <t>Identifies the overall pattern of medication administratio.</t>
+    <t>投薬投与の全体的なパターンを特定します。 / Identifies the overall pattern of medication administratio.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationrequest-course-of-therapy</t>
@@ -1511,7 +1512,7 @@
     <t>薬の服用方法・服用した方法、または服用すべき方法</t>
   </si>
   <si>
-    <t>There are examples where a medication request may include the option of an oral dose or an Intravenous or Intramuscular dose.  For example, "Ondansetron 8mg orally or IV twice a day as needed for nausea" or "Compazine® (prochlorperazine) 5-10mg PO or 25mg PR bid prn nausea or vomiting".  In these cases, two medication requests would be created that could be grouped together.  The decision on which dose and route of administration to use is based on the patient's condition at the time the dose is needed.</t>
+    <t>薬の要求には、経口投与または静脈内または筋肉内の用量のオプションが含まれる場合があります。たとえば、「吐き気に必要に応じて、1日に2回Ondansetron 8mgまたはIV」または「Compazine®（プロクロロペラジン）5-10mg POまたは25mg PR BID PRN吐き気または嘔吐」。これらの場合、グループ化できる2つの投薬要求が作成されます。使用する投与経路の決定は、用量が必要な時点での患者の状態に基づいています。 / There are examples where a medication request may include the option of an oral dose or an Intravenous or Intramuscular dose.  For example, "Ondansetron 8mg orally or IV twice a day as needed for nausea" or "Compazine® (prochlorperazine) 5-10mg PO or 25mg PR bid prn nausea or vomiting".  In these cases, two medication requests would be created that could be grouped together.  The decision on which dose and route of administration to use is based on the patient's condition at the time the dose is needed.</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
@@ -1587,10 +1588,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -1637,8 +1639,8 @@
     <t>このエレメントはどのような量を表現するか定義するためにコンテキストにあわせてよく定義される。したがって、どのような単位でも利用することができる。使用されるコンテキストによってcomparatorエレメントで値が定義されることもある。</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:ユニットのコードが存在する場合、システムも存在するものとします / If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:コンパレータは、単純なQuantityで使用されません / The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
   </si>
   <si>
     <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
@@ -1681,10 +1683,10 @@
     <t>このエレメントは処方の有効期間（処方が失効する日）を示す。</t>
   </si>
   <si>
-    <t>It reflects the prescribers' perspective for the validity of the prescription. Dispenses must not be made against the prescription outside of this period. The lower-bound of the Dispensing Window signifies the earliest date that the prescription can be filled for the first time. If an upper-bound is not specified then the Prescription is open-ended or will default to a stale-date based on regulations.</t>
-  </si>
-  <si>
-    <t>Indicates when the Prescription becomes valid, and when it ceases to be a dispensable Prescription.</t>
+    <t>それは、処方箋の妥当性に対する処方者の視点を反映しています。この期間以外の処方箋に対して分配してはなりません。分配ウィンドウの下限は、処方箋が初めて満たすことができる最も早い日付を意味します。上限が指定されていない場合、処方箋はオープンエンドであるか、規制に基づいて古い日付にデフォルトになります。 / It reflects the prescribers' perspective for the validity of the prescription. Dispenses must not be made against the prescription outside of this period. The lower-bound of the Dispensing Window signifies the earliest date that the prescription can be filled for the first time. If an upper-bound is not specified then the Prescription is open-ended or will default to a stale-date based on regulations.</t>
+  </si>
+  <si>
+    <t>処方箋がいつ有効になるか、そしてそれが不可欠な処方箋であることを停止することを示します。 / Indicates when the Prescription becomes valid, and when it ceases to be a dispensable Prescription.</t>
   </si>
   <si>
     <t>Message/Body/NewRx/MedicationPrescribed/Refills</t>
@@ -1736,7 +1738,7 @@
     <t>終了時刻は全ての日付・時刻に対応する。たとえば、2012-02-03T10:00:00は2012-02-03を終了時刻(end)の値とする期間を示す。</t>
   </si>
   <si>
-    <t>If the end of the period is missing, it means that the period is ongoing</t>
+    <t>期間の終了が欠落している場合、それは期間が進行中であることを意味します / If the end of the period is missing, it means that the period is ongoing</t>
   </si>
   <si>
     <t>Period.end</t>
@@ -1813,16 +1815,16 @@
 </t>
   </si>
   <si>
-    <t>Numerical value (with implicit precision)</t>
-  </si>
-  <si>
-    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
-  </si>
-  <si>
-    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
-  </si>
-  <si>
-    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+    <t>数値（暗黙の精度を持つ） / Numerical value (with implicit precision)</t>
+  </si>
+  <si>
+    <t>測定量の値。値には、値の表示に暗黙の精度が含まれます。 / The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
+  </si>
+  <si>
+    <t>値の暗黙の精度は常に尊重されるべきです。金銭的価値には、精度を処理するための独自のルールがあります（標準的な会計の教科書を参照）。 / The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>精度は、測定のほとんどすべての場合に暗黙的に処理されます。 / Precision is handled implicitly in almost all cases of measurement.</t>
   </si>
   <si>
     <t>Quantity.value</t>
@@ -1837,19 +1839,19 @@
     <t>MedicationRequest.dispenseRequest.expectedSupplyDuration.comparator</t>
   </si>
   <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
-  </si>
-  <si>
-    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
-  </si>
-  <si>
-    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
-  </si>
-  <si>
-    <t>If there is no comparator, then there is no modification of the value</t>
-  </si>
-  <si>
-    <t>How the Quantity should be understood and represented.</t>
+    <t>&lt;|&lt;= |&gt; = |&gt;  - 価値を理解する方法 / &lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>値をどのように理解し、表現する必要があるか - 測定の問題により実際の値が記載されている値よりも大きいか小さいかどうか。例えばコンパレータが「&lt;」の場合、実際の値は&lt;stated値です。 / How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
+  </si>
+  <si>
+    <t>測定方法の制限があるため、値が&lt;5ug/Lまたは&gt; 400mg/Lの測定値を処理するためのフレームワークが必要です。 / Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>コンパレータがない場合、値の変更はありません / If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>量を理解し、表現する方法。 / How the Quantity should be understood and represented.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
@@ -1867,13 +1869,13 @@
     <t>MedicationRequest.dispenseRequest.expectedSupplyDuration.unit</t>
   </si>
   <si>
-    <t>Unit representation</t>
-  </si>
-  <si>
-    <t>A human-readable form of the unit.</t>
-  </si>
-  <si>
-    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+    <t>ユニット表現 / Unit representation</t>
+  </si>
+  <si>
+    <t>ユニットの人間の読み取り可能な形式。 / A human-readable form of the unit.</t>
+  </si>
+  <si>
+    <t>測定単位には多くの表現があり、多くのコンテキストでは、特定の表現が固定され、必要です。すなわちマイクログラム用MCG。 / There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
   </si>
   <si>
     <t>日</t>
@@ -1891,13 +1893,13 @@
     <t>MedicationRequest.dispenseRequest.expectedSupplyDuration.system</t>
   </si>
   <si>
-    <t>System that defines coded unit form</t>
-  </si>
-  <si>
-    <t>The identification of the system that provides the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>Need to know the system that defines the coded form of the unit.</t>
+    <t>コード化されたユニットフォームを定義するシステム / System that defines coded unit form</t>
+  </si>
+  <si>
+    <t>ユニットのコード化された形式を提供するシステムの識別。 / The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>ユニットのコード化された形式を定義するシステムを知る必要があります。 / Need to know the system that defines the coded form of the unit.</t>
   </si>
   <si>
     <t>http://unitsofmeasure.org</t>
@@ -1916,16 +1918,16 @@
     <t>MedicationRequest.dispenseRequest.expectedSupplyDuration.code</t>
   </si>
   <si>
-    <t>Coded form of the unit</t>
-  </si>
-  <si>
-    <t>A computer processable form of the unit in some unit representation system.</t>
-  </si>
-  <si>
-    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
-  </si>
-  <si>
-    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+    <t>ユニットのコード化された形式 / Coded form of the unit</t>
+  </si>
+  <si>
+    <t>一部のユニット表現システムのユニットのコンピューター処理可能な形式。 / A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>優先システムはUCUMですが、スノムCTは（慣習ユニットに）または通貨にISO 4217を使用することもできます。使用のコンテキストには、特定のシステムからのコードがさらに必要になる場合があります。 / The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>すべてのフォームに固定されたユニットの計算可能な形式が必要です。UCUMはこれを数量で提供しますが、Snomed CTは多くの関心のある単位を提供します。 / Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
   </si>
   <si>
     <t>d</t>
@@ -2008,7 +2010,7 @@
     <t>代替品の理由を表す一般的パターンに全てのターミノロジが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。</t>
   </si>
   <si>
-    <t>A coded concept describing the reason that a different medication should (or should not) be substituted from what was prescribed.</t>
+    <t>別の薬物療法が処方されたものから置き換える（またはすべきではない）理由を説明するコード化された概念。 / A coded concept describing the reason that a different medication should (or should not) be substituted from what was prescribed.</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-SubstanceAdminSubstitutionReason</t>
@@ -2424,7 +2426,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="121.76953125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="178.55859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="75.55078125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3886" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3851" uniqueCount="655">
   <si>
     <t>Property</t>
   </si>
@@ -431,21 +431,21 @@
     <t>MedicationRequest.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -455,31 +455,7 @@
 ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>MedicationRequest.extension:preparation</t>
-  </si>
-  <si>
-    <t>preparation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDispense_Preparation}
-</t>
-  </si>
-  <si>
-    <t>調剤結果</t>
-  </si>
-  <si>
-    <t>薬剤単位の調剤結果</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>MedicationRequest.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
   </si>
   <si>
     <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
@@ -490,9 +466,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -521,6 +494,9 @@
 </t>
   </si>
   <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>Request.identifier</t>
   </si>
   <si>
@@ -579,10 +555,11 @@
     <t>MedicationRequest.identifier.extension</t>
   </si>
   <si>
-    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -1549,6 +1526,12 @@
     <t>MedicationRequest.dispenseRequest.extension</t>
   </si>
   <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
     <t>MedicationRequest.dispenseRequest.extension:instructionForDispense</t>
   </si>
   <si>
@@ -1563,6 +1546,10 @@
   </si>
   <si>
     <t>薬剤単位の調剤指示を格納する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest.extension:expectedRepeatCount</t>
@@ -2393,7 +2380,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO104"/>
+  <dimension ref="A1:AO103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3393,7 +3380,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3412,15 +3399,17 @@
         <v>82</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>82</v>
@@ -3457,14 +3446,16 @@
         <v>82</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>140</v>
@@ -3488,7 +3479,7 @@
         <v>82</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>82</v>
@@ -3502,13 +3493,11 @@
         <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3521,22 +3510,26 @@
         <v>82</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>82</v>
       </c>
@@ -3584,7 +3577,7 @@
         <v>82</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3593,7 +3586,7 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>141</v>
@@ -3605,7 +3598,7 @@
         <v>82</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>82</v>
@@ -3616,18 +3609,18 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>81</v>
@@ -3636,26 +3629,24 @@
         <v>82</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="N11" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>153</v>
-      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>82</v>
       </c>
@@ -3691,19 +3682,17 @@
         <v>82</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3715,32 +3704,34 @@
         <v>82</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>82</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>82</v>
       </c>
@@ -3749,7 +3740,7 @@
         <v>90</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>82</v>
@@ -3761,16 +3752,16 @@
         <v>82</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3808,17 +3799,19 @@
         <v>82</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AC12" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD12" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3833,37 +3826,35 @@
         <v>102</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>90</v>
@@ -3878,17 +3869,15 @@
         <v>82</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="M13" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>170</v>
-      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>82</v>
@@ -3937,34 +3926,34 @@
         <v>82</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>161</v>
+        <v>82</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>165</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
@@ -3976,14 +3965,14 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>82</v>
@@ -3995,15 +3984,17 @@
         <v>82</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L14" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N14" s="2"/>
+      <c r="N14" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>82</v>
@@ -4040,16 +4031,16 @@
         <v>82</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>176</v>
@@ -4058,13 +4049,13 @@
         <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>82</v>
@@ -4073,7 +4064,7 @@
         <v>82</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>82</v>
@@ -4084,44 +4075,46 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="N15" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O15" s="2"/>
+      <c r="O15" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>82</v>
       </c>
@@ -4145,43 +4138,43 @@
         <v>82</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>82</v>
+        <v>183</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>82</v>
+        <v>184</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>82</v>
@@ -4190,21 +4183,21 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4221,25 +4214,25 @@
         <v>82</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -4264,13 +4257,13 @@
         <v>82</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>82</v>
@@ -4288,7 +4281,7 @@
         <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4309,21 +4302,21 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>133</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4331,7 +4324,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>90</v>
@@ -4346,32 +4339,32 @@
         <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>197</v>
+        <v>104</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>82</v>
@@ -4383,13 +4376,13 @@
         <v>82</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>202</v>
+        <v>82</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>203</v>
+        <v>82</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>82</v>
@@ -4407,7 +4400,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4428,21 +4421,21 @@
         <v>82</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4465,32 +4458,30 @@
         <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>104</v>
+        <v>166</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>213</v>
+        <v>82</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>82</v>
@@ -4526,7 +4517,7 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4547,21 +4538,21 @@
         <v>82</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4569,7 +4560,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>90</v>
@@ -4584,17 +4575,15 @@
         <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>173</v>
+        <v>222</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4607,7 +4596,7 @@
         <v>82</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>82</v>
@@ -4643,7 +4632,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4664,21 +4653,21 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4701,15 +4690,17 @@
         <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>82</v>
@@ -4758,7 +4749,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4779,23 +4770,25 @@
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="D21" t="s" s="2">
         <v>82</v>
       </c>
@@ -4813,19 +4806,19 @@
         <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>237</v>
+        <v>148</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4875,13 +4868,13 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>241</v>
+        <v>147</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>82</v>
@@ -4890,31 +4883,29 @@
         <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>242</v>
+        <v>156</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>243</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
         <v>82</v>
       </c>
@@ -4935,17 +4926,15 @@
         <v>82</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>246</v>
+        <v>167</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -4994,53 +4983,53 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>161</v>
+        <v>82</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>165</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>172</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>82</v>
@@ -5052,15 +5041,17 @@
         <v>82</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>82</v>
@@ -5097,16 +5088,16 @@
         <v>82</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>176</v>
@@ -5115,13 +5106,13 @@
         <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>82</v>
@@ -5130,7 +5121,7 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>82</v>
@@ -5141,44 +5132,46 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="N24" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
@@ -5202,43 +5195,43 @@
         <v>82</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>82</v>
+        <v>183</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>82</v>
+        <v>184</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>82</v>
@@ -5247,21 +5240,21 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5278,25 +5271,25 @@
         <v>82</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5321,13 +5314,13 @@
         <v>82</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>82</v>
@@ -5345,7 +5338,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5366,21 +5359,21 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>133</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5388,7 +5381,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>90</v>
@@ -5403,32 +5396,32 @@
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>197</v>
+        <v>104</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>198</v>
+        <v>247</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>199</v>
+        <v>248</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>82</v>
+        <v>249</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>82</v>
@@ -5440,13 +5433,13 @@
         <v>82</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>202</v>
+        <v>82</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>203</v>
+        <v>82</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>82</v>
@@ -5464,7 +5457,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5485,21 +5478,21 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5522,32 +5515,30 @@
         <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>104</v>
+        <v>166</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>256</v>
+        <v>82</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>82</v>
@@ -5583,7 +5574,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5604,21 +5595,21 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5626,7 +5617,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>90</v>
@@ -5641,17 +5632,15 @@
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>173</v>
+        <v>222</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5664,7 +5653,7 @@
         <v>82</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>82</v>
@@ -5700,7 +5689,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5721,21 +5710,21 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5758,15 +5747,17 @@
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5815,7 +5806,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5836,23 +5827,25 @@
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="D30" t="s" s="2">
         <v>82</v>
       </c>
@@ -5861,7 +5854,7 @@
         <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>82</v>
@@ -5870,19 +5863,19 @@
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>237</v>
+        <v>148</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5932,13 +5925,13 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>241</v>
+        <v>147</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>82</v>
@@ -5947,31 +5940,29 @@
         <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>242</v>
+        <v>156</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>243</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
         <v>82</v>
       </c>
@@ -5980,7 +5971,7 @@
         <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>82</v>
@@ -5992,17 +5983,15 @@
         <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>265</v>
+        <v>167</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -6051,53 +6040,53 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>161</v>
+        <v>82</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>165</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>172</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>82</v>
@@ -6109,15 +6098,17 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>82</v>
@@ -6154,16 +6145,16 @@
         <v>82</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>176</v>
@@ -6172,13 +6163,13 @@
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>82</v>
@@ -6187,7 +6178,7 @@
         <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>82</v>
@@ -6198,44 +6189,46 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="N33" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
       </c>
@@ -6259,43 +6252,43 @@
         <v>82</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>82</v>
+        <v>183</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>82</v>
+        <v>184</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>82</v>
@@ -6304,21 +6297,21 @@
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6335,25 +6328,25 @@
         <v>82</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6378,13 +6371,13 @@
         <v>82</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>82</v>
@@ -6402,7 +6395,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6423,21 +6416,21 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>133</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6445,7 +6438,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>90</v>
@@ -6460,32 +6453,32 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>197</v>
+        <v>104</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>198</v>
+        <v>247</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>199</v>
+        <v>248</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>82</v>
+        <v>265</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>82</v>
@@ -6497,13 +6490,13 @@
         <v>82</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>202</v>
+        <v>82</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>203</v>
+        <v>82</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>82</v>
@@ -6521,7 +6514,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6542,21 +6535,21 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6579,32 +6572,30 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>104</v>
+        <v>166</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>272</v>
+        <v>82</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>82</v>
@@ -6640,7 +6631,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6661,21 +6652,21 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6683,7 +6674,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>90</v>
@@ -6698,17 +6689,15 @@
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>173</v>
+        <v>222</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6721,7 +6710,7 @@
         <v>82</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>82</v>
@@ -6757,7 +6746,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6778,21 +6767,21 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6815,15 +6804,17 @@
         <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6872,7 +6863,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6893,21 +6884,21 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6915,7 +6906,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>90</v>
@@ -6924,22 +6915,22 @@
         <v>82</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>237</v>
+        <v>110</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6965,13 +6956,13 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>82</v>
+        <v>183</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>82</v>
+        <v>273</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>82</v>
+        <v>274</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -6989,10 +6980,10 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>90</v>
@@ -7004,27 +6995,27 @@
         <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>82</v>
+        <v>275</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>82</v>
+        <v>276</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>82</v>
+        <v>278</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>243</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7032,7 +7023,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>90</v>
@@ -7041,22 +7032,22 @@
         <v>82</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -7082,13 +7073,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>190</v>
+        <v>282</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -7106,10 +7097,10 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>90</v>
@@ -7121,16 +7112,16 @@
         <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>283</v>
+        <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>285</v>
+        <v>82</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -7138,10 +7129,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7149,7 +7140,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>90</v>
@@ -7158,22 +7149,22 @@
         <v>82</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>197</v>
+        <v>110</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7199,13 +7190,13 @@
         <v>82</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>289</v>
+        <v>183</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>82</v>
@@ -7223,10 +7214,10 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>90</v>
@@ -7238,16 +7229,16 @@
         <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>82</v>
+        <v>295</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -7255,10 +7246,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7266,31 +7257,31 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7316,13 +7307,11 @@
         <v>82</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Y42" s="2"/>
       <c r="Z42" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>82</v>
@@ -7340,13 +7329,13 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>82</v>
@@ -7355,16 +7344,16 @@
         <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>300</v>
+        <v>82</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>82</v>
+        <v>301</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7386,7 +7375,7 @@
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>82</v>
@@ -7395,10 +7384,10 @@
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>197</v>
+        <v>110</v>
       </c>
       <c r="L43" t="s" s="2">
         <v>304</v>
@@ -7433,11 +7422,13 @@
         <v>82</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Y43" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="Z43" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>82</v>
@@ -7461,7 +7452,7 @@
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>82</v>
@@ -7470,16 +7461,16 @@
         <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>82</v>
+        <v>309</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>308</v>
+        <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7487,10 +7478,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7507,22 +7498,22 @@
         <v>82</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>110</v>
+        <v>313</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7548,13 +7539,13 @@
         <v>82</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>190</v>
+        <v>82</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>314</v>
+        <v>82</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>315</v>
+        <v>82</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>82</v>
@@ -7572,7 +7563,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7587,7 +7578,7 @@
         <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>316</v>
+        <v>82</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>82</v>
@@ -7596,7 +7587,7 @@
         <v>317</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>318</v>
+        <v>82</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7604,10 +7595,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7624,23 +7615,21 @@
         <v>82</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="M45" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>323</v>
-      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7689,7 +7678,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7710,7 +7699,7 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>82</v>
@@ -7721,10 +7710,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7732,7 +7721,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>90</v>
@@ -7747,15 +7736,17 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7792,22 +7783,20 @@
         <v>82</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="AC46" s="2"/>
       <c r="AD46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>82</v>
+        <v>329</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>90</v>
@@ -7819,29 +7808,31 @@
         <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>82</v>
+        <v>330</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>82</v>
+        <v>331</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>82</v>
+        <v>333</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>82</v>
+        <v>334</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="D47" t="s" s="2">
         <v>82</v>
       </c>
@@ -7862,16 +7853,16 @@
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7909,17 +7900,19 @@
         <v>82</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AC47" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>336</v>
+        <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>90</v>
@@ -7934,31 +7927,29 @@
         <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
         <v>82</v>
       </c>
@@ -7979,16 +7970,16 @@
         <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -8038,7 +8029,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>90</v>
@@ -8053,27 +8044,27 @@
         <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>341</v>
+        <v>350</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8081,7 +8072,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>90</v>
@@ -8093,19 +8084,19 @@
         <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8155,10 +8146,10 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>90</v>
@@ -8170,27 +8161,27 @@
         <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>354</v>
+        <v>276</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8201,7 +8192,7 @@
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>82</v>
@@ -8213,16 +8204,16 @@
         <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8272,13 +8263,13 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>82</v>
@@ -8287,19 +8278,19 @@
         <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>283</v>
+        <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>366</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51">
@@ -8315,10 +8306,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>82</v>
@@ -8327,7 +8318,7 @@
         <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>368</v>
@@ -8338,9 +8329,7 @@
       <c r="M51" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="N51" t="s" s="2">
-        <v>371</v>
-      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8395,7 +8384,7 @@
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>82</v>
@@ -8404,27 +8393,27 @@
         <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>373</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>82</v>
+        <v>375</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8432,7 +8421,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>90</v>
@@ -8447,15 +8436,17 @@
         <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8504,7 +8495,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8519,27 +8510,27 @@
         <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>379</v>
+        <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>381</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>382</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8559,19 +8550,19 @@
         <v>82</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="M53" t="s" s="2">
-        <v>386</v>
-      </c>
       <c r="N53" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8621,7 +8612,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8636,13 +8627,13 @@
         <v>102</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>388</v>
@@ -8676,19 +8667,19 @@
         <v>82</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8714,13 +8705,11 @@
         <v>82</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>82</v>
+        <v>393</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>82</v>
@@ -8753,16 +8742,16 @@
         <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>395</v>
+        <v>82</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8793,19 +8782,19 @@
         <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>197</v>
+        <v>397</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>399</v>
+        <v>364</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8831,11 +8820,13 @@
         <v>82</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="Y55" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z55" t="s" s="2">
-        <v>400</v>
+        <v>82</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>82</v>
@@ -8868,16 +8859,16 @@
         <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8885,10 +8876,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8899,7 +8890,7 @@
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>82</v>
@@ -8911,16 +8902,16 @@
         <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8946,13 +8937,13 @@
         <v>82</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>82</v>
+        <v>282</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>82</v>
+        <v>406</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>82</v>
+        <v>407</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>82</v>
@@ -8970,13 +8961,13 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>82</v>
@@ -8985,27 +8976,27 @@
         <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>82</v>
+        <v>408</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>82</v>
+        <v>409</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>82</v>
+        <v>412</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9028,16 +9019,16 @@
         <v>82</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>197</v>
+        <v>414</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9063,31 +9054,31 @@
         <v>82</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>289</v>
+        <v>82</v>
       </c>
       <c r="Y57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF57" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9102,19 +9093,19 @@
         <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>416</v>
+        <v>276</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>419</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58">
@@ -9142,7 +9133,7 @@
         <v>82</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>421</v>
@@ -9222,13 +9213,13 @@
         <v>425</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>283</v>
+        <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>426</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>418</v>
+        <v>82</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9262,16 +9253,16 @@
         <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9336,13 +9327,13 @@
         <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>432</v>
+        <v>82</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>82</v>
@@ -9353,10 +9344,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9379,16 +9370,16 @@
         <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>104</v>
+        <v>431</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>436</v>
+        <v>364</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9438,7 +9429,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9453,13 +9444,13 @@
         <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>82</v>
+        <v>434</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>82</v>
@@ -9470,10 +9461,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9484,7 +9475,7 @@
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>82</v>
@@ -9496,18 +9487,18 @@
         <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="M61" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>82</v>
       </c>
@@ -9555,13 +9546,13 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>82</v>
@@ -9570,13 +9561,13 @@
         <v>102</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>82</v>
@@ -9587,10 +9578,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9610,21 +9601,21 @@
         <v>82</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>446</v>
-      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>82</v>
       </c>
@@ -9648,13 +9639,13 @@
         <v>82</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>82</v>
+        <v>282</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>82</v>
+        <v>446</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>82</v>
+        <v>447</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>82</v>
@@ -9672,7 +9663,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9687,7 +9678,7 @@
         <v>102</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>447</v>
+        <v>82</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>82</v>
@@ -9718,7 +9709,7 @@
         <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>82</v>
@@ -9730,16 +9721,16 @@
         <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>197</v>
+        <v>450</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>452</v>
+        <v>364</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9765,13 +9756,13 @@
         <v>82</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>289</v>
+        <v>82</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>453</v>
+        <v>82</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>454</v>
+        <v>82</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>82</v>
@@ -9795,7 +9786,7 @@
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>82</v>
@@ -9804,13 +9795,13 @@
         <v>102</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>82</v>
+        <v>453</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>82</v>
@@ -9821,10 +9812,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9847,16 +9838,16 @@
         <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9906,7 +9897,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9924,10 +9915,10 @@
         <v>460</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>82</v>
+        <v>461</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>82</v>
@@ -9938,10 +9929,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9964,10 +9955,10 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>465</v>
@@ -10023,7 +10014,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10038,13 +10029,13 @@
         <v>102</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>82</v>
@@ -10055,10 +10046,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10069,7 +10060,7 @@
         <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>82</v>
@@ -10081,17 +10072,15 @@
         <v>82</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="L66" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>473</v>
-      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -10140,13 +10129,13 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>82</v>
@@ -10158,10 +10147,10 @@
         <v>82</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>82</v>
+        <v>472</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>82</v>
@@ -10172,10 +10161,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10198,13 +10187,13 @@
         <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10255,7 +10244,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>475</v>
+        <v>169</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10267,16 +10256,16 @@
         <v>82</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>479</v>
+        <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>480</v>
+        <v>170</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>82</v>
@@ -10287,10 +10276,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10301,7 +10290,7 @@
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>82</v>
@@ -10313,13 +10302,13 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10358,16 +10347,14 @@
         <v>82</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AC68" s="2"/>
       <c r="AD68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>176</v>
@@ -10376,13 +10363,13 @@
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>82</v>
@@ -10391,7 +10378,7 @@
         <v>82</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>177</v>
+        <v>82</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>82</v>
@@ -10402,12 +10389,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="C69" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>481</v>
+      </c>
       <c r="D69" t="s" s="2">
         <v>82</v>
       </c>
@@ -10428,13 +10417,13 @@
         <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>135</v>
+        <v>482</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>136</v>
+        <v>483</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>137</v>
+        <v>484</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10473,17 +10462,19 @@
         <v>82</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AC69" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10492,7 +10483,7 @@
         <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>82</v>
+        <v>485</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>141</v>
@@ -10515,13 +10506,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>82</v>
@@ -10531,7 +10522,7 @@
         <v>80</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>82</v>
@@ -10543,13 +10534,13 @@
         <v>82</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10600,7 +10591,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10609,7 +10600,7 @@
         <v>81</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>147</v>
+        <v>485</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>141</v>
@@ -10632,35 +10623,33 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="C71" t="s" s="2">
         <v>491</v>
       </c>
+      <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>82</v>
+        <v>492</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>492</v>
+        <v>136</v>
       </c>
       <c r="L71" t="s" s="2">
         <v>493</v>
@@ -10668,8 +10657,12 @@
       <c r="M71" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
+      <c r="N71" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
       </c>
@@ -10717,7 +10710,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>183</v>
+        <v>495</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10726,7 +10719,7 @@
         <v>81</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>141</v>
@@ -10738,7 +10731,7 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>82</v>
@@ -10749,33 +10742,33 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>496</v>
+        <v>82</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>135</v>
+        <v>469</v>
       </c>
       <c r="L72" t="s" s="2">
         <v>497</v>
@@ -10784,11 +10777,9 @@
         <v>498</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>82</v>
       </c>
@@ -10836,19 +10827,19 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>82</v>
@@ -10857,7 +10848,7 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>133</v>
+        <v>500</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>82</v>
@@ -10868,10 +10859,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10894,17 +10885,15 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>476</v>
+        <v>166</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>501</v>
+        <v>167</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -10953,7 +10942,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>500</v>
+        <v>169</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10965,7 +10954,7 @@
         <v>82</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>82</v>
@@ -10974,7 +10963,7 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>504</v>
+        <v>170</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>82</v>
@@ -10985,21 +10974,21 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>82</v>
@@ -11011,15 +11000,17 @@
         <v>82</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L74" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N74" s="2"/>
+      <c r="N74" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11074,13 +11065,13 @@
         <v>80</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>82</v>
@@ -11089,7 +11080,7 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>82</v>
@@ -11100,14 +11091,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>149</v>
+        <v>492</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -11120,24 +11111,26 @@
         <v>82</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>180</v>
+        <v>493</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>181</v>
+        <v>494</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O75" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
       </c>
@@ -11185,7 +11178,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>183</v>
+        <v>495</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11206,7 +11199,7 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>82</v>
@@ -11217,46 +11210,44 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>496</v>
+        <v>82</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>135</v>
+        <v>505</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>82</v>
       </c>
@@ -11304,19 +11295,19 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>82</v>
+        <v>485</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>141</v>
+        <v>509</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>82</v>
@@ -11325,21 +11316,21 @@
         <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>133</v>
+        <v>510</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>82</v>
+        <v>511</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11362,16 +11353,16 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11421,7 +11412,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11430,10 +11421,10 @@
         <v>90</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>513</v>
+        <v>102</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>82</v>
@@ -11442,21 +11433,21 @@
         <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>515</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11479,7 +11470,7 @@
         <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="L78" t="s" s="2">
         <v>518</v>
@@ -11488,7 +11479,7 @@
         <v>519</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11538,7 +11529,7 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11559,7 +11550,7 @@
         <v>82</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>82</v>
@@ -11570,10 +11561,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11596,18 +11587,20 @@
         <v>82</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>517</v>
+        <v>222</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="N79" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="O79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>524</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
       </c>
@@ -11655,7 +11648,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11673,10 +11666,10 @@
         <v>82</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>82</v>
+        <v>525</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>82</v>
@@ -11687,10 +11680,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11713,20 +11706,16 @@
         <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>229</v>
+        <v>166</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>525</v>
+        <v>167</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>528</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>82</v>
       </c>
@@ -11774,7 +11763,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>524</v>
+        <v>169</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11786,16 +11775,16 @@
         <v>82</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>529</v>
+        <v>82</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>530</v>
+        <v>170</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>82</v>
@@ -11806,21 +11795,21 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>82</v>
@@ -11832,15 +11821,17 @@
         <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L81" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N81" s="2"/>
+      <c r="N81" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -11877,16 +11868,16 @@
         <v>82</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="AD81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>176</v>
@@ -11895,13 +11886,13 @@
         <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>82</v>
@@ -11910,7 +11901,7 @@
         <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>82</v>
@@ -11921,21 +11912,21 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>82</v>
@@ -11944,19 +11935,19 @@
         <v>82</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>135</v>
+        <v>368</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>180</v>
+        <v>530</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>181</v>
+        <v>531</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11994,31 +11985,31 @@
         <v>82</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="AD82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>183</v>
+        <v>533</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>82</v>
+        <v>534</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>82</v>
@@ -12027,21 +12018,21 @@
         <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>177</v>
+        <v>535</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>82</v>
+        <v>536</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12064,22 +12055,24 @@
         <v>91</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>541</v>
+      </c>
       <c r="R83" t="s" s="2">
         <v>82</v>
       </c>
@@ -12123,7 +12116,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12132,7 +12125,7 @@
         <v>90</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>102</v>
@@ -12144,21 +12137,21 @@
         <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12178,72 +12171,70 @@
         <v>82</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>375</v>
+        <v>546</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q84" t="s" s="2">
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF84" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="R84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>546</v>
-      </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
       </c>
@@ -12251,7 +12242,7 @@
         <v>90</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>538</v>
+        <v>82</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>102</v>
@@ -12260,24 +12251,24 @@
         <v>82</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>82</v>
+        <v>550</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12300,16 +12291,16 @@
         <v>82</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>550</v>
+        <v>505</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>553</v>
+        <v>508</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12359,7 +12350,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12368,33 +12359,33 @@
         <v>90</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>82</v>
+        <v>485</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>102</v>
+        <v>509</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>554</v>
+        <v>82</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>555</v>
+        <v>510</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>556</v>
+        <v>511</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12417,16 +12408,16 @@
         <v>82</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12476,7 +12467,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12485,33 +12476,33 @@
         <v>90</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>513</v>
+        <v>102</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>82</v>
+        <v>560</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>514</v>
+        <v>561</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>515</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12534,17 +12525,15 @@
         <v>82</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>517</v>
+        <v>166</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>561</v>
+        <v>167</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>563</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>82</v>
@@ -12593,7 +12582,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>560</v>
+        <v>169</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12605,16 +12594,16 @@
         <v>82</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>564</v>
+        <v>82</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>565</v>
+        <v>170</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>82</v>
@@ -12625,21 +12614,21 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>82</v>
@@ -12651,15 +12640,17 @@
         <v>82</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L88" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N88" s="2"/>
+      <c r="N88" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -12696,16 +12687,16 @@
         <v>82</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="AC88" t="s" s="2">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="AD88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>176</v>
@@ -12714,13 +12705,13 @@
         <v>80</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>82</v>
@@ -12729,7 +12720,7 @@
         <v>82</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>82</v>
@@ -12740,21 +12731,21 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>82</v>
@@ -12763,21 +12754,23 @@
         <v>82</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>135</v>
+        <v>565</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>180</v>
+        <v>566</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>181</v>
+        <v>567</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O89" s="2"/>
+        <v>568</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>569</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>82</v>
       </c>
@@ -12813,31 +12806,31 @@
         <v>82</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="AD89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>183</v>
+        <v>570</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>82</v>
@@ -12846,21 +12839,21 @@
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>177</v>
+        <v>571</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>82</v>
+        <v>572</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12877,30 +12870,30 @@
         <v>82</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J90" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>569</v>
+        <v>110</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>572</v>
-      </c>
+        <v>575</v>
+      </c>
+      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>577</v>
+      </c>
       <c r="R90" t="s" s="2">
         <v>82</v>
       </c>
@@ -12920,13 +12913,13 @@
         <v>82</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>82</v>
+        <v>183</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>82</v>
+        <v>578</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>82</v>
+        <v>579</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>82</v>
@@ -12944,7 +12937,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -12965,21 +12958,21 @@
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12996,32 +12989,30 @@
         <v>82</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J91" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q91" t="s" s="2">
-        <v>581</v>
-      </c>
+      <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>82</v>
+        <v>587</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>82</v>
@@ -13039,13 +13030,13 @@
         <v>82</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>190</v>
+        <v>82</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>582</v>
+        <v>82</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>583</v>
+        <v>82</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>82</v>
@@ -13063,7 +13054,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13084,21 +13075,21 @@
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13121,24 +13112,24 @@
         <v>91</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>173</v>
+        <v>104</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q92" s="2"/>
       <c r="R92" t="s" s="2">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="S92" t="s" s="2">
         <v>82</v>
@@ -13180,7 +13171,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13189,7 +13180,7 @@
         <v>90</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>82</v>
+        <v>597</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>102</v>
@@ -13201,21 +13192,21 @@
         <v>82</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13238,24 +13229,26 @@
         <v>91</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>601</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>602</v>
+      </c>
       <c r="O93" t="s" s="2">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>82</v>
@@ -13297,7 +13290,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13306,7 +13299,7 @@
         <v>90</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>601</v>
+        <v>82</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>102</v>
@@ -13318,21 +13311,21 @@
         <v>82</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13352,29 +13345,27 @@
         <v>82</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>110</v>
+        <v>608</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>607</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q94" s="2"/>
       <c r="R94" t="s" s="2">
-        <v>608</v>
+        <v>82</v>
       </c>
       <c r="S94" t="s" s="2">
         <v>82</v>
@@ -13416,7 +13407,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13437,21 +13428,21 @@
         <v>82</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>82</v>
+        <v>401</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>594</v>
+        <v>82</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13474,7 +13465,7 @@
         <v>82</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>612</v>
+        <v>469</v>
       </c>
       <c r="L95" t="s" s="2">
         <v>613</v>
@@ -13482,9 +13473,7 @@
       <c r="M95" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="N95" t="s" s="2">
-        <v>371</v>
-      </c>
+      <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>82</v>
@@ -13533,7 +13522,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13551,13 +13540,13 @@
         <v>82</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>82</v>
+        <v>615</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>408</v>
+        <v>82</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
@@ -13565,10 +13554,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13591,13 +13580,13 @@
         <v>82</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>476</v>
+        <v>166</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>617</v>
+        <v>167</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>618</v>
+        <v>168</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13648,7 +13637,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>616</v>
+        <v>169</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -13660,16 +13649,16 @@
         <v>82</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>619</v>
+        <v>82</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>620</v>
+        <v>170</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>82</v>
@@ -13680,21 +13669,21 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>82</v>
@@ -13706,15 +13695,17 @@
         <v>82</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L97" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N97" s="2"/>
+      <c r="N97" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>82</v>
@@ -13769,13 +13760,13 @@
         <v>80</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>82</v>
@@ -13784,7 +13775,7 @@
         <v>82</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>82</v>
@@ -13795,14 +13786,14 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>149</v>
+        <v>492</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -13815,24 +13806,26 @@
         <v>82</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>180</v>
+        <v>493</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>181</v>
+        <v>494</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O98" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
       </c>
@@ -13880,7 +13873,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>183</v>
+        <v>495</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -13901,7 +13894,7 @@
         <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>82</v>
@@ -13912,46 +13905,44 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>496</v>
+        <v>82</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>497</v>
+        <v>613</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>498</v>
+        <v>621</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>622</v>
+      </c>
+      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>82</v>
       </c>
@@ -13975,13 +13966,11 @@
         <v>82</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Y99" s="2"/>
       <c r="Z99" t="s" s="2">
-        <v>82</v>
+        <v>623</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>82</v>
@@ -13999,42 +13988,42 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>499</v>
+        <v>620</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>82</v>
+        <v>615</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>133</v>
+        <v>624</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>82</v>
+        <v>625</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14042,7 +14031,7 @@
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>90</v>
@@ -14057,16 +14046,16 @@
         <v>82</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -14092,11 +14081,13 @@
         <v>82</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Y100" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>630</v>
+      </c>
       <c r="Z100" t="s" s="2">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>82</v>
@@ -14114,10 +14105,10 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>90</v>
@@ -14132,24 +14123,24 @@
         <v>82</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>629</v>
+        <v>634</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14172,16 +14163,16 @@
         <v>82</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>197</v>
+        <v>636</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>633</v>
+        <v>364</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14207,31 +14198,31 @@
         <v>82</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>289</v>
+        <v>82</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>634</v>
+        <v>82</v>
       </c>
       <c r="Z101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF101" t="s" s="2">
         <v>635</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>630</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14246,38 +14237,38 @@
         <v>102</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>82</v>
+        <v>639</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>638</v>
+        <v>82</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>82</v>
+        <v>642</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>82</v>
@@ -14289,16 +14280,16 @@
         <v>82</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>371</v>
+        <v>646</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14348,13 +14339,13 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>82</v>
@@ -14363,13 +14354,13 @@
         <v>102</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>643</v>
+        <v>82</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>636</v>
+        <v>82</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>82</v>
@@ -14380,14 +14371,14 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>646</v>
+        <v>82</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -14406,16 +14397,16 @@
         <v>82</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14465,7 +14456,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14480,135 +14471,18 @@
         <v>102</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>82</v>
+        <v>653</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E104" s="2"/>
-      <c r="F104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="O104" s="2"/>
-      <c r="P104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q104" s="2"/>
-      <c r="R104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO104" t="s" s="2">
         <v>82</v>
       </c>
     </row>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3851" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3814" uniqueCount="647">
   <si>
     <t>Property</t>
   </si>
@@ -1024,7 +1024,7 @@
     <t>MedicationRequest.medication[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Medication)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Medication)
 </t>
   </si>
   <si>
@@ -1046,13 +1046,6 @@
 また、処方を発行した医療機関内でのデータ利用のために、医療機関固有コード体系によるコード（ハウスコード、ローカルコード）の記述を含めてもよいが、その場合でも上述したいずれかの標準コードを同時に記述することが必要である。</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>Request.code</t>
   </si>
   <si>
@@ -1072,25 +1065,6 @@
   </si>
   <si>
     <t>RXE-2-Give Code / RXO-1-Requested Give Code / RXC-2-Component Code</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x]:medicationReference</t>
-  </si>
-  <si>
-    <t>medicationReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Medication)
-</t>
-  </si>
-  <si>
-    <t>服用する薬 / Medication to be taken</t>
-  </si>
-  <si>
-    <t>要求されている薬を特定します。これは、薬物の詳細である可能性のある薬物療法を表すリソースへのリンク、または単に既知の薬物のリストから薬物を識別するコードを運ぶ属性です。 / Identifies the medication being requested. This is a link to a resource that represents the medication which may be the details of the medication or simply an attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>コードのみが指定されている場合、特定の製品のコードである必要があります。より多くの情報が必要な場合は、投薬リソースの使用をお勧めします。たとえば、フォームまたはロット番号が必要な場合、または薬物療法が複合または延長された場合は、薬リソースを参照する必要があります。 / If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the Medication resource is recommended.  For example, if you require form or lot number or if the medication is compounded or extemporaneously prepared, then you must reference the Medication resource.</t>
   </si>
   <si>
     <t>MedicationRequest.subject</t>
@@ -2380,7 +2354,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO103"/>
+  <dimension ref="A1:AO102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -7783,14 +7757,16 @@
         <v>82</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AC46" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>329</v>
+        <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>323</v>
@@ -7808,31 +7784,29 @@
         <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AO46" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>334</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
         <v>82</v>
       </c>
@@ -7853,16 +7827,16 @@
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7912,7 +7886,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>90</v>
@@ -7927,27 +7901,27 @@
         <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7955,7 +7929,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>90</v>
@@ -7967,19 +7941,19 @@
         <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -8029,10 +8003,10 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>90</v>
@@ -8044,27 +8018,27 @@
         <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>347</v>
+        <v>276</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8075,7 +8049,7 @@
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>82</v>
@@ -8087,16 +8061,16 @@
         <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8146,13 +8120,13 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>82</v>
@@ -8161,27 +8135,27 @@
         <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>276</v>
+        <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>359</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8189,10 +8163,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>82</v>
@@ -8201,20 +8175,18 @@
         <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="M50" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>364</v>
-      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8263,13 +8235,13 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>82</v>
@@ -8278,27 +8250,27 @@
         <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AL50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AN50" t="s" s="2">
-        <v>358</v>
-      </c>
       <c r="AO50" t="s" s="2">
-        <v>82</v>
+        <v>367</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8306,7 +8278,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>90</v>
@@ -8321,15 +8293,17 @@
         <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8378,7 +8352,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8393,27 +8367,27 @@
         <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>372</v>
+        <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="AN51" t="s" s="2">
-        <v>374</v>
-      </c>
       <c r="AO51" t="s" s="2">
-        <v>375</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8433,19 +8407,19 @@
         <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>379</v>
-      </c>
       <c r="N52" t="s" s="2">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8495,7 +8469,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8510,16 +8484,16 @@
         <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8527,10 +8501,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8550,19 +8524,19 @@
         <v>82</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8588,13 +8562,11 @@
         <v>82</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>82</v>
+        <v>385</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>82</v>
@@ -8612,7 +8584,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8636,7 +8608,7 @@
         <v>387</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>388</v>
+        <v>82</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8644,10 +8616,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8667,10 +8639,10 @@
         <v>82</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>190</v>
+        <v>389</v>
       </c>
       <c r="L54" t="s" s="2">
         <v>390</v>
@@ -8679,7 +8651,7 @@
         <v>391</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>392</v>
+        <v>356</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8705,11 +8677,13 @@
         <v>82</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="Y54" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z54" t="s" s="2">
-        <v>393</v>
+        <v>82</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>82</v>
@@ -8727,7 +8701,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8742,16 +8716,16 @@
         <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>394</v>
+        <v>82</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>82</v>
+        <v>393</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8759,10 +8733,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8773,7 +8747,7 @@
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>82</v>
@@ -8785,16 +8759,16 @@
         <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8820,13 +8794,13 @@
         <v>82</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>82</v>
+        <v>282</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>82</v>
+        <v>398</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>82</v>
+        <v>399</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>82</v>
@@ -8844,13 +8818,13 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>82</v>
@@ -8859,27 +8833,27 @@
         <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>82</v>
+        <v>400</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>82</v>
+        <v>401</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>82</v>
+        <v>404</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8902,16 +8876,16 @@
         <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>190</v>
+        <v>406</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8937,13 +8911,13 @@
         <v>82</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>406</v>
+        <v>82</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>407</v>
+        <v>82</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>82</v>
@@ -8961,7 +8935,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8976,27 +8950,27 @@
         <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>409</v>
+        <v>276</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>412</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9016,19 +8990,19 @@
         <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9078,7 +9052,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9093,16 +9067,16 @@
         <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="AL57" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>419</v>
-      </c>
       <c r="AN57" t="s" s="2">
-        <v>411</v>
+        <v>82</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -9110,10 +9084,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9136,16 +9110,16 @@
         <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9195,7 +9169,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9210,13 +9184,13 @@
         <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>425</v>
+        <v>82</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>82</v>
@@ -9227,10 +9201,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9253,16 +9227,16 @@
         <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>104</v>
+        <v>423</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>429</v>
+        <v>356</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9312,7 +9286,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9327,13 +9301,13 @@
         <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>82</v>
+        <v>426</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>82</v>
@@ -9344,10 +9318,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9358,7 +9332,7 @@
         <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>82</v>
@@ -9370,18 +9344,18 @@
         <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L60" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>82</v>
       </c>
@@ -9429,13 +9403,13 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>82</v>
@@ -9444,13 +9418,13 @@
         <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>82</v>
@@ -9461,10 +9435,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9484,21 +9458,21 @@
         <v>82</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N61" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="M61" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>439</v>
-      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>82</v>
       </c>
@@ -9522,13 +9496,13 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>82</v>
+        <v>282</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>82</v>
+        <v>438</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>82</v>
+        <v>439</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
@@ -9546,7 +9520,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9561,13 +9535,13 @@
         <v>102</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>82</v>
@@ -9578,10 +9552,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9592,7 +9566,7 @@
         <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>82</v>
@@ -9604,7 +9578,7 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>190</v>
+        <v>442</v>
       </c>
       <c r="L62" t="s" s="2">
         <v>443</v>
@@ -9613,7 +9587,7 @@
         <v>444</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>445</v>
+        <v>356</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9639,13 +9613,13 @@
         <v>82</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>446</v>
+        <v>82</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>447</v>
+        <v>82</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>82</v>
@@ -9663,13 +9637,13 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>82</v>
@@ -9678,13 +9652,13 @@
         <v>102</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>82</v>
+        <v>445</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>82</v>
@@ -9695,10 +9669,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9721,16 +9695,16 @@
         <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9780,7 +9754,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9795,10 +9769,10 @@
         <v>102</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>454</v>
@@ -9844,10 +9818,10 @@
         <v>457</v>
       </c>
       <c r="M64" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="N64" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9912,13 +9886,13 @@
         <v>102</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>460</v>
+        <v>82</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>461</v>
+        <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>82</v>
@@ -9929,10 +9903,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9943,7 +9917,7 @@
         <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>82</v>
@@ -9955,17 +9929,15 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>466</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -10014,13 +9986,13 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>82</v>
@@ -10032,10 +10004,10 @@
         <v>82</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>82</v>
+        <v>464</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>82</v>
@@ -10046,10 +10018,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10072,13 +10044,13 @@
         <v>82</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>469</v>
+        <v>166</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10129,7 +10101,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>468</v>
+        <v>169</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10141,16 +10113,16 @@
         <v>82</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>472</v>
+        <v>82</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>473</v>
+        <v>170</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>82</v>
@@ -10161,10 +10133,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10175,7 +10147,7 @@
         <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>82</v>
@@ -10187,13 +10159,13 @@
         <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10232,31 +10204,29 @@
         <v>82</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AC67" s="2"/>
       <c r="AD67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>82</v>
@@ -10265,7 +10235,7 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>82</v>
@@ -10276,12 +10246,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="C68" s="2"/>
+        <v>469</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="D68" t="s" s="2">
         <v>82</v>
       </c>
@@ -10302,13 +10274,13 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>136</v>
+        <v>474</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10347,14 +10319,16 @@
         <v>82</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AC68" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>176</v>
@@ -10366,7 +10340,7 @@
         <v>81</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>82</v>
+        <v>477</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>141</v>
@@ -10389,13 +10363,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>82</v>
@@ -10405,7 +10379,7 @@
         <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>82</v>
@@ -10417,13 +10391,13 @@
         <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10483,7 +10457,7 @@
         <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>141</v>
@@ -10506,44 +10480,46 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>82</v>
+        <v>484</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>488</v>
+        <v>136</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+        <v>486</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
       </c>
@@ -10591,7 +10567,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>176</v>
+        <v>487</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10600,7 +10576,7 @@
         <v>81</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>485</v>
+        <v>82</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>141</v>
@@ -10612,7 +10588,7 @@
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>82</v>
@@ -10623,46 +10599,44 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>492</v>
+        <v>82</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>136</v>
+        <v>461</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>82</v>
       </c>
@@ -10710,19 +10684,19 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>82</v>
@@ -10731,7 +10705,7 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>133</v>
+        <v>492</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>82</v>
@@ -10742,10 +10716,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10768,17 +10742,15 @@
         <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>469</v>
+        <v>166</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>497</v>
+        <v>167</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>499</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -10827,7 +10799,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>496</v>
+        <v>169</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10839,7 +10811,7 @@
         <v>82</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>82</v>
@@ -10848,7 +10820,7 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>500</v>
+        <v>170</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>82</v>
@@ -10859,21 +10831,21 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>82</v>
@@ -10885,15 +10857,17 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -10942,19 +10916,19 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>82</v>
@@ -10974,14 +10948,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>135</v>
+        <v>484</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10994,24 +10968,26 @@
         <v>82</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>136</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>137</v>
+        <v>485</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>173</v>
+        <v>486</v>
       </c>
       <c r="N74" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="O74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
       </c>
@@ -11059,7 +11035,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>176</v>
+        <v>487</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11080,7 +11056,7 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>82</v>
@@ -11091,46 +11067,44 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>492</v>
+        <v>82</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>136</v>
+        <v>497</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>82</v>
       </c>
@@ -11178,19 +11152,19 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>82</v>
+        <v>477</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>141</v>
+        <v>501</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>82</v>
@@ -11199,13 +11173,13 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>133</v>
+        <v>502</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>82</v>
+        <v>503</v>
       </c>
     </row>
     <row r="76">
@@ -11245,7 +11219,7 @@
         <v>507</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11304,10 +11278,10 @@
         <v>90</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>485</v>
+        <v>82</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>509</v>
+        <v>102</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>82</v>
@@ -11316,21 +11290,21 @@
         <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>511</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11353,16 +11327,16 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11412,7 +11386,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11433,7 +11407,7 @@
         <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>82</v>
@@ -11444,10 +11418,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11470,18 +11444,20 @@
         <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="L78" t="s" s="2">
-        <v>518</v>
-      </c>
       <c r="M78" t="s" s="2">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="O78" s="2"/>
+        <v>515</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>516</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>82</v>
       </c>
@@ -11529,7 +11505,7 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11547,10 +11523,10 @@
         <v>82</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>82</v>
+        <v>517</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>82</v>
@@ -11561,10 +11537,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11587,20 +11563,16 @@
         <v>82</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>222</v>
+        <v>166</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>521</v>
+        <v>167</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>524</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>82</v>
       </c>
@@ -11648,7 +11620,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>520</v>
+        <v>169</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11660,16 +11632,16 @@
         <v>82</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>525</v>
+        <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>526</v>
+        <v>170</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>82</v>
@@ -11680,21 +11652,21 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>82</v>
@@ -11706,15 +11678,17 @@
         <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>82</v>
@@ -11751,31 +11725,31 @@
         <v>82</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="AC80" t="s" s="2">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="AD80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>82</v>
@@ -11795,21 +11769,21 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>82</v>
@@ -11818,19 +11792,19 @@
         <v>82</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>136</v>
+        <v>360</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>137</v>
+        <v>522</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>173</v>
+        <v>523</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>139</v>
+        <v>524</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11868,31 +11842,31 @@
         <v>82</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="AD81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>176</v>
+        <v>525</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>82</v>
+        <v>526</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>82</v>
@@ -11901,13 +11875,13 @@
         <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>170</v>
+        <v>527</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>82</v>
+        <v>528</v>
       </c>
     </row>
     <row r="82">
@@ -11938,7 +11912,7 @@
         <v>91</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="L82" t="s" s="2">
         <v>530</v>
@@ -11953,7 +11927,9 @@
       <c r="P82" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>533</v>
+      </c>
       <c r="R82" t="s" s="2">
         <v>82</v>
       </c>
@@ -11997,7 +11973,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12006,7 +11982,7 @@
         <v>90</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>102</v>
@@ -12052,27 +12028,25 @@
         <v>82</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>368</v>
+        <v>538</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q83" t="s" s="2">
-        <v>541</v>
-      </c>
+      <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
         <v>82</v>
       </c>
@@ -12116,7 +12090,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12125,7 +12099,7 @@
         <v>90</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>534</v>
+        <v>82</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>102</v>
@@ -12134,7 +12108,7 @@
         <v>82</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>82</v>
+        <v>542</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>543</v>
@@ -12174,16 +12148,16 @@
         <v>82</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="M84" t="s" s="2">
-        <v>548</v>
-      </c>
       <c r="N84" t="s" s="2">
-        <v>549</v>
+        <v>500</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12242,33 +12216,33 @@
         <v>90</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>82</v>
+        <v>477</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>102</v>
+        <v>501</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>550</v>
+        <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>551</v>
+        <v>502</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>552</v>
+        <v>503</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12294,13 +12268,13 @@
         <v>505</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>508</v>
+        <v>551</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12350,42 +12324,42 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="AG85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>510</v>
-      </c>
       <c r="AN85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>511</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12408,17 +12382,15 @@
         <v>82</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>513</v>
+        <v>166</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>557</v>
+        <v>167</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>559</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12467,7 +12439,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>556</v>
+        <v>169</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12479,16 +12451,16 @@
         <v>82</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>560</v>
+        <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>561</v>
+        <v>170</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>82</v>
@@ -12499,21 +12471,21 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>82</v>
@@ -12525,15 +12497,17 @@
         <v>82</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N87" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>82</v>
@@ -12570,31 +12544,31 @@
         <v>82</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="AD87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>82</v>
@@ -12614,21 +12588,21 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>82</v>
@@ -12637,21 +12611,23 @@
         <v>82</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>136</v>
+        <v>557</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>137</v>
+        <v>558</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>173</v>
+        <v>559</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O88" s="2"/>
+        <v>560</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>561</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
       </c>
@@ -12687,31 +12663,31 @@
         <v>82</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="AC88" t="s" s="2">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="AD88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>176</v>
+        <v>562</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>82</v>
@@ -12720,21 +12696,21 @@
         <v>82</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>170</v>
+        <v>563</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>82</v>
+        <v>564</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12751,13 +12727,13 @@
         <v>82</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J89" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>565</v>
+        <v>110</v>
       </c>
       <c r="L89" t="s" s="2">
         <v>566</v>
@@ -12765,16 +12741,16 @@
       <c r="M89" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="N89" t="s" s="2">
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="O89" t="s" s="2">
+      <c r="P89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q89" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="P89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q89" s="2"/>
       <c r="R89" t="s" s="2">
         <v>82</v>
       </c>
@@ -12794,13 +12770,13 @@
         <v>82</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>82</v>
+        <v>183</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>82</v>
+        <v>570</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>82</v>
+        <v>571</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>82</v>
@@ -12818,7 +12794,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -12839,21 +12815,21 @@
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12870,32 +12846,30 @@
         <v>82</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J90" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q90" t="s" s="2">
-        <v>577</v>
-      </c>
+      <c r="Q90" s="2"/>
       <c r="R90" t="s" s="2">
-        <v>82</v>
+        <v>579</v>
       </c>
       <c r="S90" t="s" s="2">
         <v>82</v>
@@ -12913,13 +12887,13 @@
         <v>82</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>183</v>
+        <v>82</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>578</v>
+        <v>82</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>579</v>
+        <v>82</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>82</v>
@@ -12995,7 +12969,7 @@
         <v>91</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="L91" t="s" s="2">
         <v>584</v>
@@ -13063,7 +13037,7 @@
         <v>90</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>82</v>
+        <v>589</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>102</v>
@@ -13075,13 +13049,13 @@
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>590</v>
+        <v>582</v>
       </c>
     </row>
     <row r="92">
@@ -13112,7 +13086,7 @@
         <v>91</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="L92" t="s" s="2">
         <v>592</v>
@@ -13120,16 +13094,18 @@
       <c r="M92" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="N92" s="2"/>
+      <c r="N92" t="s" s="2">
+        <v>594</v>
+      </c>
       <c r="O92" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q92" s="2"/>
       <c r="R92" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="S92" t="s" s="2">
         <v>82</v>
@@ -13171,7 +13147,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13180,7 +13156,7 @@
         <v>90</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>597</v>
+        <v>82</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>102</v>
@@ -13198,7 +13174,7 @@
         <v>82</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>590</v>
+        <v>582</v>
       </c>
     </row>
     <row r="93">
@@ -13226,29 +13202,27 @@
         <v>82</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>110</v>
+        <v>600</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>603</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>604</v>
+        <v>82</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>82</v>
@@ -13290,7 +13264,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13311,21 +13285,21 @@
         <v>82</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>82</v>
+        <v>393</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>590</v>
+        <v>82</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13348,17 +13322,15 @@
         <v>82</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>608</v>
+        <v>461</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>606</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>82</v>
@@ -13407,7 +13379,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13425,13 +13397,13 @@
         <v>82</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>82</v>
+        <v>607</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>401</v>
+        <v>82</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>82</v>
@@ -13439,10 +13411,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13465,13 +13437,13 @@
         <v>82</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>469</v>
+        <v>166</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>613</v>
+        <v>167</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>614</v>
+        <v>168</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13522,7 +13494,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>612</v>
+        <v>169</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13534,16 +13506,16 @@
         <v>82</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>615</v>
+        <v>82</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>616</v>
+        <v>170</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>82</v>
@@ -13554,21 +13526,21 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>82</v>
@@ -13580,15 +13552,17 @@
         <v>82</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N96" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>82</v>
@@ -13637,19 +13611,19 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>82</v>
@@ -13669,14 +13643,14 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>135</v>
+        <v>484</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13689,24 +13663,26 @@
         <v>82</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K97" t="s" s="2">
         <v>136</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>137</v>
+        <v>485</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>173</v>
+        <v>486</v>
       </c>
       <c r="N97" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="O97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P97" t="s" s="2">
         <v>82</v>
       </c>
@@ -13754,7 +13730,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>176</v>
+        <v>487</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -13775,7 +13751,7 @@
         <v>82</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>82</v>
@@ -13786,46 +13762,44 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>492</v>
+        <v>82</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>493</v>
+        <v>605</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>494</v>
+        <v>613</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>614</v>
+      </c>
+      <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>82</v>
       </c>
@@ -13849,13 +13823,11 @@
         <v>82</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Y98" s="2"/>
       <c r="Z98" t="s" s="2">
-        <v>82</v>
+        <v>615</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>82</v>
@@ -13873,42 +13845,42 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>495</v>
+        <v>612</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>82</v>
+        <v>607</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>133</v>
+        <v>616</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>82</v>
+        <v>617</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13916,7 +13888,7 @@
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>90</v>
@@ -13934,13 +13906,13 @@
         <v>190</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="M99" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="N99" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>622</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -13966,9 +13938,11 @@
         <v>82</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Y99" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>622</v>
+      </c>
       <c r="Z99" t="s" s="2">
         <v>623</v>
       </c>
@@ -13988,10 +13962,10 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>90</v>
@@ -14006,24 +13980,24 @@
         <v>82</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14046,16 +14020,16 @@
         <v>82</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>190</v>
+        <v>628</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>629</v>
+        <v>356</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -14081,13 +14055,13 @@
         <v>82</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>630</v>
+        <v>82</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>631</v>
+        <v>82</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>82</v>
@@ -14105,7 +14079,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14120,38 +14094,38 @@
         <v>102</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>82</v>
+        <v>631</v>
       </c>
       <c r="AL100" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="AM100" t="s" s="2">
         <v>632</v>
       </c>
-      <c r="AM100" t="s" s="2">
-        <v>633</v>
-      </c>
       <c r="AN100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>634</v>
+        <v>82</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>82</v>
+        <v>634</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>82</v>
@@ -14163,16 +14137,16 @@
         <v>82</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>636</v>
       </c>
-      <c r="L101" t="s" s="2">
+      <c r="M101" t="s" s="2">
         <v>637</v>
       </c>
-      <c r="M101" t="s" s="2">
+      <c r="N101" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14222,13 +14196,13 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>82</v>
@@ -14237,13 +14211,13 @@
         <v>102</v>
       </c>
       <c r="AK101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM101" t="s" s="2">
         <v>639</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>640</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>82</v>
@@ -14254,14 +14228,14 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>642</v>
+        <v>82</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14280,16 +14254,16 @@
         <v>82</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>644</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>646</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14339,7 +14313,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14354,135 +14328,18 @@
         <v>102</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>82</v>
+        <v>645</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="C103" s="2"/>
-      <c r="D103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E103" s="2"/>
-      <c r="F103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="O103" s="2"/>
-      <c r="P103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q103" s="2"/>
-      <c r="R103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO103" t="s" s="2">
         <v>82</v>
       </c>
     </row>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -850,7 +850,7 @@
     <t>MedicationRequest.status</t>
   </si>
   <si>
-    <t>オーダの現在の状態を示すコード。</t>
+    <t>オーダの現在の状態を示すコード</t>
   </si>
   <si>
     <t>オーダの現在の状態を示すコード。一般的には active か completed の状態であるだろう。</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31</t>
+    <t>2023-06-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3773" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3773" uniqueCount="604">
   <si>
     <t>Property</t>
   </si>
@@ -536,9 +536,6 @@
     <t>urn:oid:1.2.392.100495.20.3.81</t>
   </si>
   <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
     <t>Identifier.system</t>
   </si>
   <si>
@@ -561,9 +558,6 @@
   </si>
   <si>
     <t>value は string型であり、数値はゼロサプレス、つまり、'01'でなく'1'と指定すること。</t>
-  </si>
-  <si>
-    <t>123456</t>
   </si>
   <si>
     <t>Identifier.value</t>
@@ -2258,7 +2252,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
@@ -4089,43 +4083,43 @@
         <v>41</v>
       </c>
       <c r="T16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
@@ -4146,21 +4140,21 @@
         <v>41</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AN16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AO16" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>169</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4186,13 +4180,13 @@
         <v>125</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4206,7 +4200,7 @@
         <v>41</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>41</v>
@@ -4242,7 +4236,7 @@
         <v>41</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
@@ -4263,21 +4257,21 @@
         <v>41</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4300,13 +4294,13 @@
         <v>50</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4357,7 +4351,7 @@
         <v>41</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -4378,21 +4372,21 @@
         <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4415,16 +4409,16 @@
         <v>50</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4474,7 +4468,7 @@
         <v>41</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
@@ -4495,24 +4489,24 @@
         <v>41</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>106</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>41</v>
@@ -4537,13 +4531,13 @@
         <v>107</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4625,7 +4619,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>124</v>
@@ -4740,7 +4734,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>131</v>
@@ -4857,7 +4851,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>137</v>
@@ -4976,7 +4970,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>148</v>
@@ -5095,7 +5089,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>160</v>
@@ -5124,10 +5118,10 @@
         <v>63</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="N25" t="s" s="2">
         <v>163</v>
@@ -5140,49 +5134,49 @@
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="T25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
@@ -5203,21 +5197,21 @@
         <v>41</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AO25" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>169</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5243,13 +5237,13 @@
         <v>125</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5263,7 +5257,7 @@
         <v>41</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>41</v>
@@ -5299,7 +5293,7 @@
         <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
@@ -5320,21 +5314,21 @@
         <v>41</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5357,13 +5351,13 @@
         <v>50</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5414,7 +5408,7 @@
         <v>41</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -5435,21 +5429,21 @@
         <v>41</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5472,16 +5466,16 @@
         <v>50</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5531,7 +5525,7 @@
         <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
@@ -5552,24 +5546,24 @@
         <v>41</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>106</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>41</v>
@@ -5594,13 +5588,13 @@
         <v>107</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5682,7 +5676,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>124</v>
@@ -5797,7 +5791,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>131</v>
@@ -5914,7 +5908,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>137</v>
@@ -6033,7 +6027,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>148</v>
@@ -6152,7 +6146,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>160</v>
@@ -6181,10 +6175,10 @@
         <v>63</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>163</v>
@@ -6197,49 +6191,49 @@
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="T34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF34" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
@@ -6260,21 +6254,21 @@
         <v>41</v>
       </c>
       <c r="AM34" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AO34" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>169</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6300,13 +6294,13 @@
         <v>125</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6320,7 +6314,7 @@
         <v>41</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>41</v>
@@ -6356,7 +6350,7 @@
         <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -6377,21 +6371,21 @@
         <v>41</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6414,13 +6408,13 @@
         <v>50</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6471,7 +6465,7 @@
         <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
@@ -6492,21 +6486,21 @@
         <v>41</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6529,16 +6523,16 @@
         <v>50</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6588,7 +6582,7 @@
         <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -6609,21 +6603,21 @@
         <v>41</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6649,13 +6643,13 @@
         <v>69</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6684,10 +6678,10 @@
         <v>142</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>41</v>
@@ -6705,7 +6699,7 @@
         <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>49</v>
@@ -6720,16 +6714,16 @@
         <v>61</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>41</v>
@@ -6737,10 +6731,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6766,13 +6760,13 @@
         <v>149</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6798,14 +6792,14 @@
         <v>41</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="Z39" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="Y39" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>243</v>
-      </c>
       <c r="AA39" t="s" s="2">
         <v>41</v>
       </c>
@@ -6822,7 +6816,7 @@
         <v>41</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
@@ -6837,13 +6831,13 @@
         <v>61</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>41</v>
@@ -6854,10 +6848,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6883,13 +6877,13 @@
         <v>69</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6918,10 +6912,10 @@
         <v>142</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>41</v>
@@ -6939,7 +6933,7 @@
         <v>41</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>49</v>
@@ -6954,16 +6948,16 @@
         <v>61</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>41</v>
@@ -6971,10 +6965,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7000,13 +6994,13 @@
         <v>149</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7036,7 +7030,7 @@
       </c>
       <c r="Y41" s="2"/>
       <c r="Z41" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>41</v>
@@ -7054,7 +7048,7 @@
         <v>41</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -7072,13 +7066,13 @@
         <v>41</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>41</v>
@@ -7086,10 +7080,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7115,13 +7109,13 @@
         <v>69</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7150,10 +7144,10 @@
         <v>142</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>41</v>
@@ -7171,7 +7165,7 @@
         <v>41</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -7186,16 +7180,16 @@
         <v>61</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>41</v>
@@ -7203,10 +7197,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7229,16 +7223,16 @@
         <v>50</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7288,7 +7282,7 @@
         <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -7309,7 +7303,7 @@
         <v>41</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>41</v>
@@ -7320,10 +7314,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7346,13 +7340,13 @@
         <v>50</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7403,7 +7397,7 @@
         <v>41</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -7424,7 +7418,7 @@
         <v>41</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>41</v>
@@ -7435,10 +7429,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7461,16 +7455,16 @@
         <v>50</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7520,7 +7514,7 @@
         <v>41</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>49</v>
@@ -7535,27 +7529,27 @@
         <v>61</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AO45" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>291</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7578,16 +7572,16 @@
         <v>50</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7637,7 +7631,7 @@
         <v>41</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>49</v>
@@ -7652,27 +7646,27 @@
         <v>61</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AO46" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>301</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7695,16 +7689,16 @@
         <v>41</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7754,7 +7748,7 @@
         <v>41</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
@@ -7769,27 +7763,27 @@
         <v>61</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AL47" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AO47" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>310</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7812,16 +7806,16 @@
         <v>41</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7871,7 +7865,7 @@
         <v>41</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
@@ -7886,16 +7880,16 @@
         <v>61</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>41</v>
@@ -7903,10 +7897,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7929,13 +7923,13 @@
         <v>50</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7986,7 +7980,7 @@
         <v>41</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
@@ -8001,27 +7995,27 @@
         <v>61</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AO49" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>326</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8044,16 +8038,16 @@
         <v>50</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="L50" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>330</v>
-      </c>
       <c r="N50" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8103,7 +8097,7 @@
         <v>41</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -8118,16 +8112,16 @@
         <v>61</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>41</v>
@@ -8135,10 +8129,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8161,16 +8155,16 @@
         <v>41</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="L51" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>336</v>
-      </c>
       <c r="N51" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8220,7 +8214,7 @@
         <v>41</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -8235,16 +8229,16 @@
         <v>61</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>41</v>
@@ -8252,10 +8246,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8281,13 +8275,13 @@
         <v>149</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8313,11 +8307,11 @@
         <v>41</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>41</v>
@@ -8335,7 +8329,7 @@
         <v>41</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
@@ -8350,13 +8344,13 @@
         <v>61</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>41</v>
@@ -8367,10 +8361,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8393,16 +8387,16 @@
         <v>41</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="L53" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>350</v>
-      </c>
       <c r="N53" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8452,7 +8446,7 @@
         <v>41</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -8473,10 +8467,10 @@
         <v>41</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>41</v>
@@ -8484,10 +8478,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8513,13 +8507,13 @@
         <v>149</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8545,13 +8539,13 @@
         <v>41</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>41</v>
@@ -8569,7 +8563,7 @@
         <v>41</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -8584,27 +8578,27 @@
         <v>61</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>363</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8627,16 +8621,16 @@
         <v>41</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8686,7 +8680,7 @@
         <v>41</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -8701,16 +8695,16 @@
         <v>61</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>41</v>
@@ -8718,10 +8712,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8744,16 +8738,16 @@
         <v>50</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8803,7 +8797,7 @@
         <v>41</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
@@ -8818,13 +8812,13 @@
         <v>61</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>41</v>
@@ -8835,10 +8829,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8864,13 +8858,13 @@
         <v>63</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8920,7 +8914,7 @@
         <v>41</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
@@ -8941,7 +8935,7 @@
         <v>41</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>41</v>
@@ -8952,10 +8946,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8978,16 +8972,16 @@
         <v>50</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="N58" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9037,7 +9031,7 @@
         <v>41</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
@@ -9052,13 +9046,13 @@
         <v>61</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>41</v>
@@ -9069,10 +9063,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9098,14 +9092,14 @@
         <v>107</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>41</v>
@@ -9154,7 +9148,7 @@
         <v>41</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
@@ -9169,13 +9163,13 @@
         <v>61</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>41</v>
@@ -9186,10 +9180,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9215,13 +9209,13 @@
         <v>149</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N60" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9247,13 +9241,13 @@
         <v>41</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>41</v>
@@ -9271,7 +9265,7 @@
         <v>41</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
@@ -9292,7 +9286,7 @@
         <v>41</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>41</v>
@@ -9303,10 +9297,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9329,16 +9323,16 @@
         <v>41</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="L61" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>403</v>
-      </c>
       <c r="N61" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9388,7 +9382,7 @@
         <v>41</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
@@ -9403,13 +9397,13 @@
         <v>61</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>41</v>
@@ -9420,10 +9414,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9446,16 +9440,16 @@
         <v>41</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9505,7 +9499,7 @@
         <v>41</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
@@ -9520,13 +9514,13 @@
         <v>61</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>41</v>
@@ -9537,10 +9531,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9563,16 +9557,16 @@
         <v>41</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="N63" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9622,7 +9616,7 @@
         <v>41</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
@@ -9643,7 +9637,7 @@
         <v>41</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>41</v>
@@ -9654,10 +9648,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9680,13 +9674,13 @@
         <v>41</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9737,7 +9731,7 @@
         <v>41</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
@@ -9755,10 +9749,10 @@
         <v>41</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>41</v>
@@ -9769,10 +9763,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9798,10 +9792,10 @@
         <v>125</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9884,10 +9878,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9913,10 +9907,10 @@
         <v>95</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9997,13 +9991,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D67" t="s" s="2">
         <v>41</v>
@@ -10025,13 +10019,13 @@
         <v>41</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10091,7 +10085,7 @@
         <v>40</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>100</v>
@@ -10114,13 +10108,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>41</v>
@@ -10142,13 +10136,13 @@
         <v>41</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10208,7 +10202,7 @@
         <v>40</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>100</v>
@@ -10231,14 +10225,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10260,10 +10254,10 @@
         <v>95</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>98</v>
@@ -10318,7 +10312,7 @@
         <v>41</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
@@ -10350,10 +10344,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10376,16 +10370,16 @@
         <v>41</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="N70" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10435,7 +10429,7 @@
         <v>41</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>39</v>
@@ -10456,7 +10450,7 @@
         <v>41</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>41</v>
@@ -10467,10 +10461,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10582,10 +10576,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10699,14 +10693,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10728,10 +10722,10 @@
         <v>95</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="N73" t="s" s="2">
         <v>98</v>
@@ -10786,7 +10780,7 @@
         <v>41</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>39</v>
@@ -10818,10 +10812,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10844,16 +10838,16 @@
         <v>41</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10903,7 +10897,7 @@
         <v>41</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>39</v>
@@ -10912,33 +10906,33 @@
         <v>49</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AJ74" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AO74" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>462</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10961,16 +10955,16 @@
         <v>41</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="L75" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>466</v>
-      </c>
       <c r="N75" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11020,7 +11014,7 @@
         <v>41</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>39</v>
@@ -11041,7 +11035,7 @@
         <v>41</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>41</v>
@@ -11052,10 +11046,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11078,16 +11072,16 @@
         <v>41</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11137,7 +11131,7 @@
         <v>41</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>39</v>
@@ -11158,7 +11152,7 @@
         <v>41</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>41</v>
@@ -11169,10 +11163,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11195,19 +11189,19 @@
         <v>41</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N77" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="O77" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>41</v>
@@ -11256,7 +11250,7 @@
         <v>41</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>39</v>
@@ -11274,10 +11268,10 @@
         <v>41</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>41</v>
@@ -11288,10 +11282,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11403,10 +11397,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11520,10 +11514,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11546,16 +11540,16 @@
         <v>50</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="N80" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11605,7 +11599,7 @@
         <v>41</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>39</v>
@@ -11614,7 +11608,7 @@
         <v>49</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>61</v>
@@ -11626,21 +11620,21 @@
         <v>41</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11663,23 +11657,23 @@
         <v>50</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="N81" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q81" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="R81" t="s" s="2">
         <v>41</v>
@@ -11724,7 +11718,7 @@
         <v>41</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>39</v>
@@ -11733,7 +11727,7 @@
         <v>49</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>61</v>
@@ -11745,21 +11739,21 @@
         <v>41</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11782,16 +11776,16 @@
         <v>41</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11841,7 +11835,7 @@
         <v>41</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>39</v>
@@ -11859,24 +11853,24 @@
         <v>41</v>
       </c>
       <c r="AL82" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AO82" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>503</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11899,16 +11893,16 @@
         <v>41</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11958,7 +11952,7 @@
         <v>41</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>39</v>
@@ -11967,33 +11961,33 @@
         <v>49</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AJ83" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AO83" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>462</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12016,16 +12010,16 @@
         <v>41</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="N84" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12075,7 +12069,7 @@
         <v>41</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>39</v>
@@ -12093,10 +12087,10 @@
         <v>41</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>41</v>
@@ -12107,10 +12101,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12222,10 +12216,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12339,10 +12333,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12365,19 +12359,19 @@
         <v>50</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="O87" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>41</v>
@@ -12426,7 +12420,7 @@
         <v>41</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>39</v>
@@ -12447,21 +12441,21 @@
         <v>41</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12487,20 +12481,20 @@
         <v>69</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q88" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="R88" t="s" s="2">
         <v>41</v>
@@ -12524,28 +12518,28 @@
         <v>142</v>
       </c>
       <c r="Y88" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF88" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>531</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>39</v>
@@ -12566,21 +12560,21 @@
         <v>41</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12606,21 +12600,21 @@
         <v>125</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q89" s="2"/>
       <c r="R89" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="S89" t="s" s="2">
         <v>41</v>
@@ -12662,7 +12656,7 @@
         <v>41</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>39</v>
@@ -12683,21 +12677,21 @@
         <v>41</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12723,72 +12717,72 @@
         <v>63</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q90" s="2"/>
       <c r="R90" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI90" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>61</v>
@@ -12800,21 +12794,21 @@
         <v>41</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12840,23 +12834,23 @@
         <v>69</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="N91" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="O91" t="s" s="2">
         <v>552</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>554</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>41</v>
@@ -12898,7 +12892,7 @@
         <v>41</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>39</v>
@@ -12919,21 +12913,21 @@
         <v>41</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12956,16 +12950,16 @@
         <v>41</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="L92" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>561</v>
-      </c>
       <c r="N92" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13015,7 +13009,7 @@
         <v>41</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>39</v>
@@ -13036,10 +13030,10 @@
         <v>41</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>41</v>
@@ -13047,10 +13041,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13073,13 +13067,13 @@
         <v>41</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13130,7 +13124,7 @@
         <v>41</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>39</v>
@@ -13148,10 +13142,10 @@
         <v>41</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>41</v>
@@ -13162,10 +13156,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13277,10 +13271,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13394,14 +13388,14 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -13423,10 +13417,10 @@
         <v>95</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="N96" t="s" s="2">
         <v>98</v>
@@ -13481,7 +13475,7 @@
         <v>41</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>39</v>
@@ -13513,10 +13507,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13542,13 +13536,13 @@
         <v>149</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -13578,7 +13572,7 @@
       </c>
       <c r="Y97" s="2"/>
       <c r="Z97" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>41</v>
@@ -13596,7 +13590,7 @@
         <v>41</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>49</v>
@@ -13614,24 +13608,24 @@
         <v>41</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13657,13 +13651,13 @@
         <v>149</v>
       </c>
       <c r="L98" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="N98" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>580</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -13689,13 +13683,13 @@
         <v>41</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>41</v>
@@ -13713,7 +13707,7 @@
         <v>41</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>39</v>
@@ -13731,24 +13725,24 @@
         <v>41</v>
       </c>
       <c r="AL98" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AO98" t="s" s="2">
         <v>583</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AO98" t="s" s="2">
-        <v>585</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13771,16 +13765,16 @@
         <v>41</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="L99" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>589</v>
-      </c>
       <c r="N99" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -13830,7 +13824,7 @@
         <v>41</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>39</v>
@@ -13845,13 +13839,13 @@
         <v>61</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>41</v>
@@ -13862,14 +13856,14 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
@@ -13888,16 +13882,16 @@
         <v>41</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="M100" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="L100" t="s" s="2">
+      <c r="N100" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -13947,7 +13941,7 @@
         <v>41</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>39</v>
@@ -13968,7 +13962,7 @@
         <v>41</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>41</v>
@@ -13979,10 +13973,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14005,16 +13999,16 @@
         <v>41</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="L101" t="s" s="2">
+      <c r="N101" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>603</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14064,7 +14058,7 @@
         <v>41</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>39</v>
@@ -14079,13 +14073,13 @@
         <v>61</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>41</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3773" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3773" uniqueCount="605">
   <si>
     <t>Property</t>
   </si>
@@ -150,6 +150,10 @@
   </si>
   <si>
     <t>患者への薬の供給と注射や点滴の指示を共に提供するオーダ。ケアプランやワークフローパターンとハーモナイズし、入院や外来でも使えるようにするため、このリソースは"MedicationPrescription"や"MedicationOrder"ではなく、"MedicationRequest"と呼ばれる。MedicationRequestプロファイルからの派生プロファイルである。</t>
+  </si>
+  <si>
+    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Request</t>
@@ -2372,16 +2376,16 @@
         <v>41</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>41</v>
@@ -2392,10 +2396,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2406,7 +2410,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>41</v>
@@ -2415,19 +2419,19 @@
         <v>41</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2477,13 +2481,13 @@
         <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>41</v>
@@ -2509,10 +2513,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2523,7 +2527,7 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>41</v>
@@ -2532,16 +2536,16 @@
         <v>41</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2592,19 +2596,19 @@
         <v>41</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>41</v>
@@ -2624,10 +2628,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2638,28 +2642,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2709,19 +2713,19 @@
         <v>41</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>41</v>
@@ -2741,10 +2745,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2755,7 +2759,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>41</v>
@@ -2767,16 +2771,16 @@
         <v>41</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2802,13 +2806,13 @@
         <v>41</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>41</v>
@@ -2826,19 +2830,19 @@
         <v>41</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>41</v>
@@ -2858,21 +2862,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>41</v>
@@ -2884,16 +2888,16 @@
         <v>41</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2943,19 +2947,19 @@
         <v>41</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>41</v>
@@ -2964,7 +2968,7 @@
         <v>41</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>41</v>
@@ -2975,14 +2979,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -3001,16 +3005,16 @@
         <v>41</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3060,7 +3064,7 @@
         <v>41</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -3081,7 +3085,7 @@
         <v>41</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>41</v>
@@ -3092,14 +3096,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -3118,16 +3122,16 @@
         <v>41</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3177,7 +3181,7 @@
         <v>41</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -3189,7 +3193,7 @@
         <v>41</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>41</v>
@@ -3198,7 +3202,7 @@
         <v>41</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>41</v>
@@ -3209,14 +3213,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3229,25 +3233,25 @@
         <v>41</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>41</v>
@@ -3296,7 +3300,7 @@
         <v>41</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -3308,7 +3312,7 @@
         <v>41</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>41</v>
@@ -3317,7 +3321,7 @@
         <v>41</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>41</v>
@@ -3328,10 +3332,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3339,7 +3343,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>40</v>
@@ -3354,16 +3358,16 @@
         <v>41</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3401,17 +3405,17 @@
         <v>41</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -3423,43 +3427,43 @@
         <v>41</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>41</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>41</v>
@@ -3471,16 +3475,16 @@
         <v>41</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3530,7 +3534,7 @@
         <v>41</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -3542,30 +3546,30 @@
         <v>41</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3576,7 +3580,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>41</v>
@@ -3588,13 +3592,13 @@
         <v>41</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3645,13 +3649,13 @@
         <v>41</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>41</v>
@@ -3666,7 +3670,7 @@
         <v>41</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>41</v>
@@ -3677,14 +3681,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3703,16 +3707,16 @@
         <v>41</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3750,19 +3754,19 @@
         <v>41</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
@@ -3774,7 +3778,7 @@
         <v>41</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>41</v>
@@ -3783,7 +3787,7 @@
         <v>41</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>41</v>
@@ -3794,10 +3798,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3808,31 +3812,31 @@
         <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>41</v>
@@ -3857,13 +3861,13 @@
         <v>41</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>41</v>
@@ -3881,19 +3885,19 @@
         <v>41</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>41</v>
@@ -3902,21 +3906,21 @@
         <v>41</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3927,7 +3931,7 @@
         <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>41</v>
@@ -3936,22 +3940,22 @@
         <v>41</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>41</v>
@@ -3976,13 +3980,13 @@
         <v>41</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>41</v>
@@ -4000,19 +4004,19 @@
         <v>41</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>41</v>
@@ -4021,21 +4025,21 @@
         <v>41</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4043,10 +4047,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>41</v>
@@ -4055,29 +4059,29 @@
         <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>41</v>
@@ -4119,19 +4123,19 @@
         <v>41</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>41</v>
@@ -4140,21 +4144,21 @@
         <v>41</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4162,10 +4166,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>41</v>
@@ -4174,19 +4178,19 @@
         <v>41</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4236,19 +4240,19 @@
         <v>41</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>41</v>
@@ -4257,21 +4261,21 @@
         <v>41</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4282,7 +4286,7 @@
         <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>41</v>
@@ -4291,16 +4295,16 @@
         <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4351,19 +4355,19 @@
         <v>41</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>41</v>
@@ -4372,21 +4376,21 @@
         <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4397,7 +4401,7 @@
         <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>41</v>
@@ -4406,19 +4410,19 @@
         <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4468,19 +4472,19 @@
         <v>41</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>41</v>
@@ -4489,24 +4493,24 @@
         <v>41</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>41</v>
@@ -4516,7 +4520,7 @@
         <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>41</v>
@@ -4528,16 +4532,16 @@
         <v>41</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4587,7 +4591,7 @@
         <v>41</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -4599,30 +4603,30 @@
         <v>41</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4633,7 +4637,7 @@
         <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>41</v>
@@ -4645,13 +4649,13 @@
         <v>41</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4702,13 +4706,13 @@
         <v>41</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>41</v>
@@ -4723,7 +4727,7 @@
         <v>41</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>41</v>
@@ -4734,14 +4738,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4760,16 +4764,16 @@
         <v>41</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4807,19 +4811,19 @@
         <v>41</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
@@ -4831,7 +4835,7 @@
         <v>41</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>41</v>
@@ -4840,7 +4844,7 @@
         <v>41</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>41</v>
@@ -4851,10 +4855,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4865,31 +4869,31 @@
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>41</v>
@@ -4914,13 +4918,13 @@
         <v>41</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>41</v>
@@ -4938,19 +4942,19 @@
         <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>41</v>
@@ -4959,21 +4963,21 @@
         <v>41</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4984,7 +4988,7 @@
         <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>41</v>
@@ -4993,22 +4997,22 @@
         <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>41</v>
@@ -5033,13 +5037,13 @@
         <v>41</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>41</v>
@@ -5057,19 +5061,19 @@
         <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>41</v>
@@ -5078,21 +5082,21 @@
         <v>41</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5100,10 +5104,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>41</v>
@@ -5112,29 +5116,29 @@
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>41</v>
@@ -5176,19 +5180,19 @@
         <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>41</v>
@@ -5197,21 +5201,21 @@
         <v>41</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5219,10 +5223,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>41</v>
@@ -5231,19 +5235,19 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5293,19 +5297,19 @@
         <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>41</v>
@@ -5314,21 +5318,21 @@
         <v>41</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5339,7 +5343,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>41</v>
@@ -5348,16 +5352,16 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5408,19 +5412,19 @@
         <v>41</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>41</v>
@@ -5429,21 +5433,21 @@
         <v>41</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5454,7 +5458,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>41</v>
@@ -5463,19 +5467,19 @@
         <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5525,19 +5529,19 @@
         <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>41</v>
@@ -5546,24 +5550,24 @@
         <v>41</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>41</v>
@@ -5585,16 +5589,16 @@
         <v>41</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5644,7 +5648,7 @@
         <v>41</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
@@ -5656,30 +5660,30 @@
         <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5690,7 +5694,7 @@
         <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>41</v>
@@ -5702,13 +5706,13 @@
         <v>41</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5759,13 +5763,13 @@
         <v>41</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>41</v>
@@ -5780,7 +5784,7 @@
         <v>41</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>41</v>
@@ -5791,14 +5795,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5817,16 +5821,16 @@
         <v>41</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5864,19 +5868,19 @@
         <v>41</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -5888,7 +5892,7 @@
         <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>41</v>
@@ -5897,7 +5901,7 @@
         <v>41</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>41</v>
@@ -5908,10 +5912,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5922,31 +5926,31 @@
         <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>41</v>
@@ -5971,13 +5975,13 @@
         <v>41</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>41</v>
@@ -5995,19 +5999,19 @@
         <v>41</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>41</v>
@@ -6016,21 +6020,21 @@
         <v>41</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6041,7 +6045,7 @@
         <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>41</v>
@@ -6050,22 +6054,22 @@
         <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>41</v>
@@ -6090,13 +6094,13 @@
         <v>41</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>41</v>
@@ -6114,19 +6118,19 @@
         <v>41</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>41</v>
@@ -6135,21 +6139,21 @@
         <v>41</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6157,10 +6161,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>41</v>
@@ -6169,29 +6173,29 @@
         <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>41</v>
@@ -6233,19 +6237,19 @@
         <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>41</v>
@@ -6254,21 +6258,21 @@
         <v>41</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6276,10 +6280,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>41</v>
@@ -6288,19 +6292,19 @@
         <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6350,19 +6354,19 @@
         <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>41</v>
@@ -6371,21 +6375,21 @@
         <v>41</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6396,7 +6400,7 @@
         <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>41</v>
@@ -6405,16 +6409,16 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6465,19 +6469,19 @@
         <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>41</v>
@@ -6486,21 +6490,21 @@
         <v>41</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6511,7 +6515,7 @@
         <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>41</v>
@@ -6520,19 +6524,19 @@
         <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6582,19 +6586,19 @@
         <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>41</v>
@@ -6603,21 +6607,21 @@
         <v>41</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6625,31 +6629,31 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6675,13 +6679,13 @@
         <v>41</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>41</v>
@@ -6699,31 +6703,31 @@
         <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>41</v>
@@ -6731,10 +6735,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6745,7 +6749,7 @@
         <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>41</v>
@@ -6757,16 +6761,16 @@
         <v>41</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6792,13 +6796,13 @@
         <v>41</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>41</v>
@@ -6816,28 +6820,28 @@
         <v>41</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>41</v>
@@ -6848,10 +6852,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6859,31 +6863,31 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6909,13 +6913,13 @@
         <v>41</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>41</v>
@@ -6933,31 +6937,31 @@
         <v>41</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>41</v>
@@ -6965,10 +6969,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6991,16 +6995,16 @@
         <v>41</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7026,11 +7030,11 @@
         <v>41</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y41" s="2"/>
       <c r="Z41" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>41</v>
@@ -7048,7 +7052,7 @@
         <v>41</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -7060,19 +7064,19 @@
         <v>41</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>41</v>
@@ -7080,10 +7084,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7094,7 +7098,7 @@
         <v>39</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>41</v>
@@ -7103,19 +7107,19 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7141,13 +7145,13 @@
         <v>41</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>41</v>
@@ -7165,31 +7169,31 @@
         <v>41</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>41</v>
@@ -7197,10 +7201,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7211,28 +7215,28 @@
         <v>39</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7282,19 +7286,19 @@
         <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>41</v>
@@ -7303,7 +7307,7 @@
         <v>41</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>41</v>
@@ -7314,10 +7318,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7328,7 +7332,7 @@
         <v>39</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>41</v>
@@ -7337,16 +7341,16 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7397,19 +7401,19 @@
         <v>41</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>41</v>
@@ -7418,7 +7422,7 @@
         <v>41</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>41</v>
@@ -7429,10 +7433,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7440,10 +7444,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>41</v>
@@ -7452,19 +7456,19 @@
         <v>41</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7514,42 +7518,42 @@
         <v>41</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7557,10 +7561,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>41</v>
@@ -7569,19 +7573,19 @@
         <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7631,42 +7635,42 @@
         <v>41</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7677,7 +7681,7 @@
         <v>39</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>41</v>
@@ -7689,16 +7693,16 @@
         <v>41</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7748,42 +7752,42 @@
         <v>41</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7806,16 +7810,16 @@
         <v>41</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7865,7 +7869,7 @@
         <v>41</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
@@ -7877,19 +7881,19 @@
         <v>41</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>41</v>
@@ -7897,10 +7901,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7908,10 +7912,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>41</v>
@@ -7920,16 +7924,16 @@
         <v>41</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7980,42 +7984,42 @@
         <v>41</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8026,7 +8030,7 @@
         <v>39</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>41</v>
@@ -8035,19 +8039,19 @@
         <v>41</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8097,31 +8101,31 @@
         <v>41</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>41</v>
@@ -8129,10 +8133,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8143,7 +8147,7 @@
         <v>39</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>41</v>
@@ -8155,16 +8159,16 @@
         <v>41</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8214,31 +8218,31 @@
         <v>41</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>41</v>
@@ -8246,10 +8250,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8260,7 +8264,7 @@
         <v>39</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>41</v>
@@ -8269,19 +8273,19 @@
         <v>41</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8307,11 +8311,11 @@
         <v>41</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>41</v>
@@ -8329,28 +8333,28 @@
         <v>41</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>41</v>
@@ -8361,10 +8365,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8375,7 +8379,7 @@
         <v>39</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>41</v>
@@ -8387,16 +8391,16 @@
         <v>41</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8446,19 +8450,19 @@
         <v>41</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>41</v>
@@ -8467,10 +8471,10 @@
         <v>41</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>41</v>
@@ -8478,10 +8482,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8504,16 +8508,16 @@
         <v>41</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8539,13 +8543,13 @@
         <v>41</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>41</v>
@@ -8563,7 +8567,7 @@
         <v>41</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -8575,30 +8579,30 @@
         <v>41</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8621,16 +8625,16 @@
         <v>41</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8680,7 +8684,7 @@
         <v>41</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -8692,19 +8696,19 @@
         <v>41</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>41</v>
@@ -8712,10 +8716,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8735,19 +8739,19 @@
         <v>41</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8797,7 +8801,7 @@
         <v>41</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
@@ -8809,16 +8813,16 @@
         <v>41</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>41</v>
@@ -8829,10 +8833,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8852,19 +8856,19 @@
         <v>41</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8914,7 +8918,7 @@
         <v>41</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
@@ -8926,7 +8930,7 @@
         <v>41</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>41</v>
@@ -8935,7 +8939,7 @@
         <v>41</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>41</v>
@@ -8946,10 +8950,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8969,19 +8973,19 @@
         <v>41</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9031,7 +9035,7 @@
         <v>41</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
@@ -9043,16 +9047,16 @@
         <v>41</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>41</v>
@@ -9063,10 +9067,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9077,7 +9081,7 @@
         <v>39</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>41</v>
@@ -9086,20 +9090,20 @@
         <v>41</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>41</v>
@@ -9148,28 +9152,28 @@
         <v>41</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>41</v>
@@ -9180,10 +9184,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9194,7 +9198,7 @@
         <v>39</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>41</v>
@@ -9206,16 +9210,16 @@
         <v>41</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9241,13 +9245,13 @@
         <v>41</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>41</v>
@@ -9265,19 +9269,19 @@
         <v>41</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>41</v>
@@ -9286,7 +9290,7 @@
         <v>41</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>41</v>
@@ -9297,10 +9301,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9323,16 +9327,16 @@
         <v>41</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9382,7 +9386,7 @@
         <v>41</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
@@ -9394,16 +9398,16 @@
         <v>41</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>41</v>
@@ -9414,10 +9418,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9440,16 +9444,16 @@
         <v>41</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9499,7 +9503,7 @@
         <v>41</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
@@ -9511,16 +9515,16 @@
         <v>41</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>41</v>
@@ -9531,10 +9535,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9557,16 +9561,16 @@
         <v>41</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9616,7 +9620,7 @@
         <v>41</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
@@ -9628,7 +9632,7 @@
         <v>41</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>41</v>
@@ -9637,7 +9641,7 @@
         <v>41</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>41</v>
@@ -9648,10 +9652,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9662,7 +9666,7 @@
         <v>39</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>41</v>
@@ -9674,13 +9678,13 @@
         <v>41</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9731,28 +9735,28 @@
         <v>41</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>41</v>
@@ -9763,10 +9767,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9777,7 +9781,7 @@
         <v>39</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>41</v>
@@ -9789,13 +9793,13 @@
         <v>41</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9846,13 +9850,13 @@
         <v>41</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>41</v>
@@ -9867,7 +9871,7 @@
         <v>41</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>41</v>
@@ -9878,10 +9882,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9904,13 +9908,13 @@
         <v>41</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9949,17 +9953,17 @@
         <v>41</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AC66" s="2"/>
       <c r="AD66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>39</v>
@@ -9971,7 +9975,7 @@
         <v>41</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>41</v>
@@ -9991,13 +9995,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D67" t="s" s="2">
         <v>41</v>
@@ -10019,13 +10023,13 @@
         <v>41</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10076,7 +10080,7 @@
         <v>41</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>39</v>
@@ -10085,10 +10089,10 @@
         <v>40</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>41</v>
@@ -10108,13 +10112,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>41</v>
@@ -10124,7 +10128,7 @@
         <v>39</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>41</v>
@@ -10136,13 +10140,13 @@
         <v>41</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10193,7 +10197,7 @@
         <v>41</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
@@ -10202,10 +10206,10 @@
         <v>40</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>41</v>
@@ -10225,14 +10229,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10245,25 +10249,25 @@
         <v>41</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>41</v>
@@ -10312,7 +10316,7 @@
         <v>41</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
@@ -10324,7 +10328,7 @@
         <v>41</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>41</v>
@@ -10333,7 +10337,7 @@
         <v>41</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>41</v>
@@ -10344,10 +10348,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10358,7 +10362,7 @@
         <v>39</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>41</v>
@@ -10370,16 +10374,16 @@
         <v>41</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10429,19 +10433,19 @@
         <v>41</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>41</v>
@@ -10450,7 +10454,7 @@
         <v>41</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>41</v>
@@ -10461,10 +10465,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10475,7 +10479,7 @@
         <v>39</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>41</v>
@@ -10487,13 +10491,13 @@
         <v>41</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10544,13 +10548,13 @@
         <v>41</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>41</v>
@@ -10565,7 +10569,7 @@
         <v>41</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>41</v>
@@ -10576,14 +10580,14 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10602,16 +10606,16 @@
         <v>41</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10661,7 +10665,7 @@
         <v>41</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>39</v>
@@ -10673,7 +10677,7 @@
         <v>41</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>41</v>
@@ -10682,7 +10686,7 @@
         <v>41</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>41</v>
@@ -10693,14 +10697,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10713,25 +10717,25 @@
         <v>41</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>41</v>
@@ -10780,7 +10784,7 @@
         <v>41</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>39</v>
@@ -10792,7 +10796,7 @@
         <v>41</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>41</v>
@@ -10801,7 +10805,7 @@
         <v>41</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>41</v>
@@ -10812,10 +10816,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10826,7 +10830,7 @@
         <v>39</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>41</v>
@@ -10838,16 +10842,16 @@
         <v>41</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10897,19 +10901,19 @@
         <v>41</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>41</v>
@@ -10918,21 +10922,21 @@
         <v>41</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10943,7 +10947,7 @@
         <v>39</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>41</v>
@@ -10955,16 +10959,16 @@
         <v>41</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11014,19 +11018,19 @@
         <v>41</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>41</v>
@@ -11035,7 +11039,7 @@
         <v>41</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>41</v>
@@ -11046,10 +11050,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11060,7 +11064,7 @@
         <v>39</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>41</v>
@@ -11072,16 +11076,16 @@
         <v>41</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11131,28 +11135,28 @@
         <v>41</v>
       </c>
       <c r="AF76" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM76" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>41</v>
@@ -11163,10 +11167,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11177,7 +11181,7 @@
         <v>39</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>41</v>
@@ -11189,19 +11193,19 @@
         <v>41</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>41</v>
@@ -11250,28 +11254,28 @@
         <v>41</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>41</v>
@@ -11282,10 +11286,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11296,7 +11300,7 @@
         <v>39</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>41</v>
@@ -11308,13 +11312,13 @@
         <v>41</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11365,13 +11369,13 @@
         <v>41</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>41</v>
@@ -11386,7 +11390,7 @@
         <v>41</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>41</v>
@@ -11397,14 +11401,14 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11423,16 +11427,16 @@
         <v>41</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11470,19 +11474,19 @@
         <v>41</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AC79" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>39</v>
@@ -11494,7 +11498,7 @@
         <v>41</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>41</v>
@@ -11503,7 +11507,7 @@
         <v>41</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>41</v>
@@ -11514,10 +11518,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11528,7 +11532,7 @@
         <v>39</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>41</v>
@@ -11537,19 +11541,19 @@
         <v>41</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11599,19 +11603,19 @@
         <v>41</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>41</v>
@@ -11620,21 +11624,21 @@
         <v>41</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11645,7 +11649,7 @@
         <v>39</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>41</v>
@@ -11654,26 +11658,26 @@
         <v>41</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q81" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="R81" t="s" s="2">
         <v>41</v>
@@ -11718,19 +11722,19 @@
         <v>41</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>41</v>
@@ -11739,21 +11743,21 @@
         <v>41</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11764,7 +11768,7 @@
         <v>39</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>41</v>
@@ -11776,16 +11780,16 @@
         <v>41</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11835,42 +11839,42 @@
         <v>41</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11881,7 +11885,7 @@
         <v>39</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>41</v>
@@ -11893,16 +11897,16 @@
         <v>41</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11952,19 +11956,19 @@
         <v>41</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>41</v>
@@ -11973,21 +11977,21 @@
         <v>41</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11998,7 +12002,7 @@
         <v>39</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>41</v>
@@ -12010,16 +12014,16 @@
         <v>41</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12069,28 +12073,28 @@
         <v>41</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>41</v>
@@ -12101,10 +12105,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12115,7 +12119,7 @@
         <v>39</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>41</v>
@@ -12127,13 +12131,13 @@
         <v>41</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12184,13 +12188,13 @@
         <v>41</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>41</v>
@@ -12205,7 +12209,7 @@
         <v>41</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>41</v>
@@ -12216,14 +12220,14 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12242,16 +12246,16 @@
         <v>41</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12289,19 +12293,19 @@
         <v>41</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>39</v>
@@ -12313,7 +12317,7 @@
         <v>41</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>41</v>
@@ -12322,7 +12326,7 @@
         <v>41</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>41</v>
@@ -12333,10 +12337,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12347,7 +12351,7 @@
         <v>39</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>41</v>
@@ -12356,22 +12360,22 @@
         <v>41</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>41</v>
@@ -12420,19 +12424,19 @@
         <v>41</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>41</v>
@@ -12441,21 +12445,21 @@
         <v>41</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12466,35 +12470,35 @@
         <v>39</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q88" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="R88" t="s" s="2">
         <v>41</v>
@@ -12515,13 +12519,13 @@
         <v>41</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>41</v>
@@ -12539,19 +12543,19 @@
         <v>41</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>41</v>
@@ -12560,21 +12564,21 @@
         <v>41</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12585,7 +12589,7 @@
         <v>39</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>41</v>
@@ -12594,27 +12598,27 @@
         <v>41</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q89" s="2"/>
       <c r="R89" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="S89" t="s" s="2">
         <v>41</v>
@@ -12656,19 +12660,19 @@
         <v>41</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>41</v>
@@ -12677,21 +12681,21 @@
         <v>41</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12702,7 +12706,7 @@
         <v>39</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>41</v>
@@ -12711,27 +12715,27 @@
         <v>41</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q90" s="2"/>
       <c r="R90" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="S90" t="s" s="2">
         <v>41</v>
@@ -12773,19 +12777,19 @@
         <v>41</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>41</v>
@@ -12794,21 +12798,21 @@
         <v>41</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12819,7 +12823,7 @@
         <v>39</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>41</v>
@@ -12828,29 +12832,29 @@
         <v>41</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>41</v>
@@ -12892,19 +12896,19 @@
         <v>41</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>41</v>
@@ -12913,21 +12917,21 @@
         <v>41</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12938,7 +12942,7 @@
         <v>39</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>41</v>
@@ -12950,16 +12954,16 @@
         <v>41</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13009,19 +13013,19 @@
         <v>41</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>41</v>
@@ -13030,10 +13034,10 @@
         <v>41</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>41</v>
@@ -13041,10 +13045,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13055,7 +13059,7 @@
         <v>39</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>41</v>
@@ -13067,13 +13071,13 @@
         <v>41</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13124,28 +13128,28 @@
         <v>41</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>41</v>
@@ -13156,10 +13160,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13170,7 +13174,7 @@
         <v>39</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>41</v>
@@ -13182,13 +13186,13 @@
         <v>41</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -13239,13 +13243,13 @@
         <v>41</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>41</v>
@@ -13260,7 +13264,7 @@
         <v>41</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>41</v>
@@ -13271,14 +13275,14 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -13297,16 +13301,16 @@
         <v>41</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13356,7 +13360,7 @@
         <v>41</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>39</v>
@@ -13368,7 +13372,7 @@
         <v>41</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>41</v>
@@ -13377,7 +13381,7 @@
         <v>41</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>41</v>
@@ -13388,14 +13392,14 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -13408,25 +13412,25 @@
         <v>41</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>41</v>
@@ -13475,7 +13479,7 @@
         <v>41</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>39</v>
@@ -13487,7 +13491,7 @@
         <v>41</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>41</v>
@@ -13496,7 +13500,7 @@
         <v>41</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>41</v>
@@ -13507,10 +13511,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13518,10 +13522,10 @@
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>41</v>
@@ -13533,16 +13537,16 @@
         <v>41</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -13568,11 +13572,11 @@
         <v>41</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y97" s="2"/>
       <c r="Z97" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>41</v>
@@ -13590,42 +13594,42 @@
         <v>41</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13636,7 +13640,7 @@
         <v>39</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>41</v>
@@ -13648,16 +13652,16 @@
         <v>41</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -13683,13 +13687,13 @@
         <v>41</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>41</v>
@@ -13707,42 +13711,42 @@
         <v>41</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13753,7 +13757,7 @@
         <v>39</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>41</v>
@@ -13765,16 +13769,16 @@
         <v>41</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -13824,28 +13828,28 @@
         <v>41</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>41</v>
@@ -13856,14 +13860,14 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
@@ -13882,16 +13886,16 @@
         <v>41</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -13941,7 +13945,7 @@
         <v>41</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>39</v>
@@ -13953,7 +13957,7 @@
         <v>41</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>41</v>
@@ -13962,7 +13966,7 @@
         <v>41</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>41</v>
@@ -13973,10 +13977,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13999,16 +14003,16 @@
         <v>41</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14058,7 +14062,7 @@
         <v>41</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>39</v>
@@ -14070,16 +14074,16 @@
         <v>41</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>41</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2</t>
+    <t>1.1.2-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -455,7 +455,7 @@
     <t>MedicationRequest.identifier.use</t>
   </si>
   <si>
-    <t>通常|公式|温度|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
+    <t>通常|公式|一時的|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
   </si>
   <si>
     <t>この識別子の目的。 / The purpose of this identifier.</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -1760,7 +1760,7 @@
     <t>一部のユニット表現システムのユニットのコンピューター処理可能な形式。 / A computer processable form of the unit in some unit representation system.</t>
   </si>
   <si>
-    <t>優先システムはUCUMですが、スノムCTは（慣習ユニットに）または通貨にISO 4217を使用することもできます。使用のコンテキストには、特定のシステムからのコードがさらに必要になる場合があります。 / The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+    <t>優先システムはUCUMですが、独自の単位にはSNOMED-CT、または通貨にISO 4217を使用することもできます。使用のコンテキストには、特定のシステムからのコードがさらに必要になる場合があります。 / The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
   </si>
   <si>
     <t>すべてのフォームに固定されたユニットの計算可能な形式が必要です。UCUMはこれを数量で提供しますが、Snomed CTは多くの関心のある単位を提供します。 / Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -363,8 +363,8 @@
     <t>外部から参照されるID</t>
   </si>
   <si>
-    <t>このインスタンスが外部から参照されるために使われるIDである。処方箋全体としてのIDとしては使用しない。
-処方箋内で同一の用法をまとめて表記されるRp番号はこのIdentifier elementの別スライスで表現する。それ以外に任意のIDを付与してもよい。
+    <t>このインスタンスが外部から参照されるために使われるIDである。処方箋全体としてのIDとしては使用しない。  
+処方箋内で同一の用法をまとめて表記されるRp番号はこのIdentifier elementの別スライスで表現する。それ以外に任意のIDを付与してもよい。  
 このIDは業務手順によって定められた処方オーダに対して、直接的なURL参照が適切でない場合も含めて関連付けるために使われる。この業務手順のIDは実施者によって割り当てられたものであり、リソースが更新されたりサーバからサーバに転送されたとしても固定のものとして存続する。</t>
   </si>
   <si>
@@ -785,9 +785,8 @@
     <t>投薬指示の意図 が提案(proposal)、計画(plan)、あるいは他の要求によるものかを示す。</t>
   </si>
   <si>
-    <t>処方をオーダする場合、MedicationRequestのどの段階でオーダしたのかについて、この項目を指定することが期待される。たとえば、proposalであれば患者、関係者、医師あるいは機器からの提案として作成される。"plan"であれば、医師、患者、関係者そして機器からの提案として生成される。"original-order"は医師にしか作成できない。
-instance-orderはリクエストあるいはオーダをインスタンス化する段階であり、MedicationAdministrationレコードにも使われる。-
+    <t>処方をオーダする場合、MedicationRequestのどの段階でオーダしたのかについて、この項目を指定することが期待される。たとえば、proposalであれば患者、関係者、医師あるいは機器からの提案として作成される。"plan"であれば、医師、患者、関係者そして機器からの提案として生成される。"original-order"は医師にしか作成できない。  
+instance-orderはリクエストあるいはオーダをインスタンス化する段階であり、MedicationAdministrationレコードにも使われる。  
 intentはこのresourceが実際に適応される時に変化するため、このエレメントはmodifierとしてラベルされる。</t>
   </si>
   <si>
@@ -812,9 +811,9 @@
     <t>薬剤使用区分</t>
   </si>
   <si>
-    <t>このMedicationRequest Resourceが使用される区分を示す。日本では「院外」「院内」「入院」「外来」などの区分を想定する。
-一般的には、外来や入院などどこでこの薬剤が投与、内服されるかを想定した区分である。
-処方病棟や処方した診療科をOrganization resourceで表現することが冗長である場合にはこの区分が用いられることもある。
+    <t>このMedicationRequest Resourceが使用される区分を示す。日本では「院外」「院内」「入院」「外来」などの区分を想定する。  
+一般的には、外来や入院などどこでこの薬剤が投与、内服されるかを想定した区分である。  
+処方病棟や処方した診療科をOrganization resourceで表現することが冗長である場合にはこの区分が用いられることもある。  
 HL7 FHIRではvalue setとして http://terminology.hl7.org/CodeSystem/medicationrequest-category がデフォルトで用いられるが、日本での使用の場合持参薬をカバーする必要があり、JAHIS処方データ規約V3.0Cに記載されているMERIT-9処方オーダ表7とJHSP0007表を組み合わせて持ちいることとする。</t>
   </si>
   <si>
@@ -906,18 +905,16 @@
     <t>What medication was supplied　医薬品</t>
   </si>
   <si>
-    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.
+    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.  
 投与された薬剤を識別する。既知の薬のリストから薬を識別するコード情報を設定する。</t>
   </si>
   <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.
-ひとつのtext要素と、複数のcoding 要素を記述できる。処方オーダ時に選択または入力し、実際に処方箋に印字される文字列を必ずtext要素に格納した上で、それをコード化した情報を1個以上のcoding 要素に記述する。
-厚生労働省標準であるHOT9コード（販社指定が不要な場合にはHOT7コード）または広く流通しているYJコードを用いるか、一般名処方の場合には厚生労働省保険局一般名処方マスタのコードを使用して、Coding要素（コードsystemを識別するURI、医薬品のコード、そのコード表における医薬品の名称の3つからなる）で記述する。
--なお、上記のいずれの標準的コードも付番されていない医薬品や医療材料の場合には、薬機法の下で使用されているGS1標準の識別コードであるGTIN(Global Trade Item Number)の調剤包装単位（最少包装単位、個別包装単位）14桁を使用する。
--ひとつの処方薬、医療材料を複数のコード体系のコードで記述してもよく、その場合にcoding 要素を繰り返して記述する。-ただし、ひとつの処方薬を複数のコードで繰り返し記述する場合には、それらのコードが指し示す処方薬、医療材料は当然同一でなければならない。+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.  
+ひとつのtext要素と、複数のcoding 要素を記述できる。処方オーダ時に選択または入力し、実際に処方箋に印字される文字列を必ずtext要素に格納した上で、それをコード化した情報を1個以上のcoding 要素に記述する。  
+厚生労働省標準であるHOT9コード（販社指定が不要な場合にはHOT7コード）または広く流通しているYJコードを用いるか、一般名処方の場合には厚生労働省保険局一般名処方マスタのコードを使用して、Coding要素（コードsystemを識別するURI、医薬品のコード、そのコード表における医薬品の名称の3つからなる）で記述する。  
+なお、上記のいずれの標準的コードも付番されていない医薬品や医療材料の場合には、薬機法の下で使用されているGS1標準の識別コードであるGTIN(Global Trade Item Number)の調剤包装単位（最少包装単位、個別包装単位）14桁を使用する。  
+ひとつの処方薬、医療材料を複数のコード体系のコードで記述してもよく、その場合にcoding 要素を繰り返して記述する。  
+ただし、ひとつの処方薬を複数のコードで繰り返し記述する場合には、それらのコードが指し示す処方薬、医療材料は当然同一でなければならない。  
 また、処方を発行した医療機関内でのデータ利用のために、医療機関固有コード体系によるコード（ハウスコード、ローカルコード）の記述を含めてもよいが、その場合でも上述したいずれかの標準コードを同時に記述することが必要である。</t>
   </si>
   <si>
@@ -952,11 +949,11 @@
     <t>処方箋が発行された対象(個人あるいはグループ)</t>
   </si>
   <si>
-    <t>JP Coreでは患者を表すPatientリソースへの参照。
+    <t>JP Coreでは患者を表すPatientリソースへの参照。  
 一般には薬剤が投与される対象となる人（あるいはグループ)を表現するResourceに対するリンク。</t>
   </si>
   <si>
-    <t>処方オーダの対象は必須項目である。
+    <t>処方オーダの対象は必須項目である。  
 二次利用のためにどこに実際の対象がいるのかについての情報は提供されない。特定の対象に対して匿名化することも必要である。</t>
   </si>
   <si>
@@ -987,7 +984,7 @@
     <t>encounter/admission/stay のいずれかとして記録された診察</t>
   </si>
   <si>
-    <t>JP Coreでの使用は規定されていない。
+    <t>JP Coreでの使用は規定されていない。  
 この対象となるリソース[x]が作成される間やこの記録が作成される対象のencounterは密接に関連している。</t>
   </si>
   <si>
@@ -1066,7 +1063,7 @@
     <t>このオーダを発行した人・物</t>
   </si>
   <si>
-    <t>JP Coreではこのエレメントに対する規定はない。
+    <t>JP Coreではこのエレメントに対する規定はない。  
 このオーダを発行した責任のある人、組織、機器。</t>
   </si>
   <si>
@@ -1129,7 +1126,7 @@
     <t>投薬オーダの入力者</t>
   </si>
   <si>
-    <t>JP Coreではこのエレメントに対する規定はない。
+    <t>JP Coreではこのエレメントに対する規定はない。  
 たとえば口答指示や電話でのオーダにより、他の人の代理で処方を入力した人。</t>
   </si>
   <si>
@@ -1145,7 +1142,7 @@
     <t>薬を注文するあるいは注文しない理由や適応</t>
   </si>
   <si>
-    <t>このエレメントに対するJP Coreの規定はない。
+    <t>このエレメントに対するJP Coreの規定はない。  
 薬剤をオーダするあるいはしないことを示した理由。</t>
   </si>
   <si>
@@ -1785,7 +1782,7 @@
     <t>想定された払い出し薬局</t>
   </si>
   <si>
-    <t>処方者によって指定される調剤・払い出しを行うと想定されているOrganizationを示す。
+    <t>処方者によって指定される調剤・払い出しを行うと想定されているOrganizationを示す。  
 Indicates the intended dispensing Organization specified by the prescriber.</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -276,7 +276,7 @@
   </si>
   <si>
     <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidもmeta.lastupdatedも持ってはならない。 / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Request</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.2.0-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -276,7 +276,7 @@
   </si>
   <si>
     <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidもmeta.lastupdatedも持ってはならない。 / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Request</t>
@@ -578,7 +578,7 @@
     <t>MedicationRequest.identifier.use</t>
   </si>
   <si>
-    <t>通常|公式|一時的|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
+    <t>通常|公式|温度|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
   </si>
   <si>
     <t>この識別子の目的。 / The purpose of this identifier.</t>
@@ -1880,7 +1880,7 @@
     <t>一部のユニット表現システムのユニットのコンピューター処理可能な形式。 / A computer processable form of the unit in some unit representation system.</t>
   </si>
   <si>
-    <t>優先システムはUCUMですが、独自の単位にはSNOMED-CT、または通貨にISO 4217を使用することもできます。使用のコンテキストには、特定のシステムからのコードがさらに必要になる場合があります。 / The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+    <t>優先システムはUCUMですが、スノムCTは（慣習ユニットに）または通貨にISO 4217を使用することもできます。使用のコンテキストには、特定のシステムからのコードがさらに必要になる場合があります。 / The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
   </si>
   <si>
     <t>すべてのフォームに固定されたユニットの計算可能な形式が必要です。UCUMはこれを数量で提供しますが、Snomed CTは多くの関心のある単位を提供します。 / Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
